--- a/databases/3T_NIST_T1maps_database.xlsx
+++ b/databases/3T_NIST_T1maps_database.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ44"/>
+  <dimension ref="A1:AQ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,20 +757,183 @@
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[2176.4 2201.  2169.  2192.4 2211.2 2250.6 2208.1 2106.6 2222.3 2187.3
+ 2173.7 2255.1 2182.7 2132.7 2323.5 2146.3 2175.9 2157.6 2120.4 2104.6
+ 2106.9 2165.4 2141.4 2139.1 2160.4 2333.6 2074.7 2101.8 2162.8 2147.7
+ 2139.8 2151.1 2181.6 2193.3 2064.  2337.3 2160.5 2205.1 2216.  2157.7
+ 2127.3 2097.6 2195.  2142.  2175.7 2109.9 2211.5 2268.2 2110.2 2186.2
+ 2158.8 2175.9 2177.5 2129.2 2166.1 2119.3 2132.5 2091.  2343.5 2021.5
+ 2083.6 2123.4 2144.5 2136.2 2143.4 2152.  2141.4 2105.5 2307.3 2020.9
+ 2222.2 2193.5 2168.7 2178.2 2163.4 2159.5 2077.  2192.5 2269.9 2100.
+ 2086.7 2163.5 2102.  2214.8 2108.4 2190.8 2079.7 2344.  2091.5 2162.9
+ 2120.4 2180.3 2098.5 2142.4 2187.3 2208.  2107.5 2235.7]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>[1437.  1481.8 1451.  1428.2 1395.4 1411.7 1392.4 1461.3 1440.3 1416.
+ 1436.4 1421.4 1413.6 1495.4 1395.2 1405.4 1473.6 1455.5 1401.4 1412.8
+ 1399.6 1423.8 1357.8 1421.5 1452.5 1393.6 1427.6 1415.3 1430.6 1395.9
+ 1423.7 1441.8 1445.  1439.6 1399.9 1477.9 1375.9 1479.6 1470.9 1429.7
+ 1445.8 1439.6 1433.3 1430.  1409.9 1406.8 1397.1 1450.1 1389.1 1505.7
+ 1407.2 1429.6 1401.7 1443.6 1426.7 1420.3 1441.9 1430.  1440.9 1350.7
+ 1533.  1448.5 1413.9 1415.8 1410.7 1415.4 1422.2 1412.8 1421.  1446.7
+ 1386.2 1420.1 1443.1 1405.7 1428.4 1438.4 1422.4 1406.  1420.  1403.9
+ 1418.1 1411.8 1399.8 1423.2 1391.9 1438.9 1362.1 1447.7 1441.2 1436.
+ 1423.2 1395.5]</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>[ 993.4  978.5  977.9  990.4  993.2  991.9  990.9  981.7 1006.5  966.3
+  986.1  977.2  998.6  978.9  975.7  996.2  950.3  974.   987.6 1000.8
+  984.1  988.9  992.4  986.8 1002.9  980.9  980.7  977.1  993.   971.2
+  974.4  989.6  981.7  970.3  975.2  978.5  983.6 1011.9  972.4  981.3
+  998.2  982.8  989.5  971.1  999.9  971.4  989.5  973.2  980.   978.6
+  989.4  977.8  993.9  976.4  985.4  971.1 1018.2  967.2 1011.7  982.1
+  992.8  987.3  992.   981.4  986.2  998.8  976.8 1001.8 1009.5  991.
+  984.3  973.9  981.4  970.6  996.   999.6  978.2  988.8  990.5  989.1
+ 1001.1 1005.4  976.6  970.2 1007.2  979.6  977.4  978.  1000.2 1015.8]</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>[700.  692.5 697.2 694.8 698.1 692.  702.9 689.4 706.7 684.4 696.9 695.
+ 692.7 695.5 688.9 700.7 693.9 702.5 697.5 695.5 688.  697.5 704.  687.3
+ 698.  686.2 698.2 699.  696.9 694.5 692.3 693.3 694.5 696.3 702.1 677.9
+ 712.  694.4 708.4 696.8 698.4 693.5 698.4 695.3 692.7 697.5 670.9 706.
+ 697.6 699.4 693.2 703.1 688.7 698.6 686.4 696.5 697.2 694.5 675.5 704.4
+ 702.7 701.6 702.  691.6 695.8 689.8 703.4 685.8 693.3 679.6 681.  694.
+ 687.5 687.4 680.7 692.8 691.7 714.1 700.1 690.  693.2 697.4 704.3 702.6
+ 671.9 677.6 689.1 686.1 684.8 676.  675.9 689.3]</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>[486.3 485.5 487.2 489.1 492.1 494.1 488.8 494.9 485.2 490.2 497.4 481.7
+ 486.1 481.  492.7 486.1 492.  487.3 498.1 498.6 488.8 494.9 489.  499.9
+ 487.  494.  490.  492.5 499.9 491.9 485.  489.6 485.9 489.7 485.7 496.1
+ 484.4 489.8 487.  483.6 490.9 495.2 487.4 502.2 484.7 496.9 482.4 493.8
+ 491.9 499.2 484.7 487.7 498.1 483.5 490.3 485.3 490.7 489.  494.8 487.4
+ 486.5 499.1 494.3 496.  494.5 494.5 492.6 490.4 496.8 492.7 495.7 502.5
+ 482.5 487.6 487.  496.6 490.8 494.6 488.9 495.7 492.4 491.6 492.9 493.
+ 492.8 491.4 495.1 493.4 487.1 491.8 492.6]</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>[345.5 346.6 344.9 345.4 343.7 352.4 342.7 345.4 343.6 345.4 345.7 350.
+ 344.4 346.6 351.6 350.2 352.5 349.4 345.9 348.7 345.3 346.7 347.3 347.2
+ 347.9 343.2 343.9 340.6 347.4 345.7 344.7 344.4 346.8 351.2 341.1 348.5
+ 348.9 350.6 348.5 348.2 346.7 346.3 343.6 345.9 343.4 348.6 345.  350.3
+ 347.2 343.8 344.7 343.7 347.9 344.2 347.  345.9 354.4 336.2 353.6 342.5
+ 350.8 348.3 348.7 347.7 346.8 346.8 349.3 345.5 339.3 342.3 351.9 340.5
+ 341.4 346.5 341.4 346.2 346.5 345.  352.5 338.4 341.4 352.7 349.  351.4
+ 347.8 347.7 346.6 350.  353.3 342.3 340.2 345.8 343.7 342.9 347.7 348.1
+ 349.5 346.2 346.8 349.3 349.1 344.8]</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>[245.8 248.4 245.6 243.3 238.6 236.1 240.1 238.5 244.6 244.  242.7 247.8
+ 245.  246.3 243.3 245.7 240.6 247.4 236.4 241.9 238.6 237.  241.3 241.8
+ 240.8 244.7 239.4 247.  244.1 241.4 246.4 246.6 242.9 242.2 245.7 242.1
+ 237.2 239.9 247.5 240.5 243.3 237.1 239.3 238.8 241.1 240.5 243.8 239.2
+ 251.5 241.4 246.6 244.8 243.8 242.5 243.7 244.5 241.6 240.7 240.6 247.
+ 238.3 238.7 237.8 237.9 243.7 238.8 241.4 245.1 236.3 243.  248.6 247.6
+ 247.4 246.4 242.3 241.9 244.3 236.5 237.3 241.1 237.5 237.5 242.  243.7
+ 243.8 242.7 247.2 245.1 240.3 237. ]</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>[175.1 173.4 178.8 180.8 181.3 177.8 176.1 177.3 178.  173.1 172.8 174.3
+ 171.2 172.5 173.7 175.3 177.6 182.5 169.3 183.2 174.5 181.7 175.3 182.6
+ 173.8 172.9 178.4 182.5 170.3 178.5 171.2 176.9 172.  177.9 172.3 175.2
+ 171.9 183.3 168.9 181.9 174.3 180.4 171.8 184.2 172.  182.4 171.3 182.1
+ 168.9 188.1 178.7 170.5 180.7 171.2 176.9 170.6 175.9 171.  180.2 169.8
+ 186.3 179.4 172.2 179.4 176.1 180.8 174.  179.  175.  173.1 176.1 178.5
+ 173.7 174.2 175.8 176.1 171.1 176.3 172.2 173.3 176.7 178.7 179.3 176.2
+ 174.2 175.5 180.7 174.3 173.3 173.2 174.4 178. ]</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>[183.8 181.6 185.3 184.6 118.4 118.1 116.5 116.1 121.5 121.2 127.3 175.2
+ 171.  184.4 158.9 171.3 119.8 124.4 178.  163.6 117.8 117.6 120.4 111.5
+ 119.5 168.1 121.3 180.9 176.7 118.9 187.3 122.2 183.1 166.3 178.1 161.7
+ 156.3 129.5 171.2 119.  171.3 116.6 118.7 117.1 161.8 113.4 121.8 115.9
+ 115.2 121.9 182.8 175.9 121.9 182.8 123.1 180.8 120.2 183.6 118.9 169.
+ 119.8 187.1 114.3 163.8 114.3 120.8 116.8 117.9 116.7 162.8 126.4 177.2
+ 120.6 183.3 172.8 181.9 123.1 172.  118.9 117.6 130.  119.2 118.1 115.6
+ 117.6 163.5 155.3 128.7 179.  170.7 119. ]</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>[108.6  96.3  81.1  72.4  90.5 100.2  94.6  81.  101.5 102.6  95.4  90.1
+  96.1 118.2  77.4  87.4  81.4  83.1  69.4  80.7 100.6  60.6  95.3 102.7
+  80.5  90.1  77.4 105.5  88.3 107.9  84.1 103.4  71.3 128.3   2.4   4.
+ 103.2  80.6  89.1  76.2  98.8  66.3 102.7  54.3 132.5   1.8  61.7  94.4
+  79.4 109.7  80.5 106.8  82.4 114.1   9.5 127.8   1.   70.5 102.8  71.
+ 104.5  75.4 100.5  63.2 107.9   3.2 128.8   2.8  94.7  89.6  99.3  92.1
+ 105.1  83.  116.4   1.2 134.7  75.8 104.5  71.7  97.9   3.  105.6  79.6
+ 125.6  92.9  88.8 101.8 103.1  71.5 109.   70.7]</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>[101.   86.5   2.5   1.1   2.6  56.5  68.2  71.5  71.7  75.8  90.6  78.8
+  72.4   9.5  80.3  79.8   2.4   2.    1.    1.   60.2   2.   74.5   2.
+ 109.3  72.9  87.4  86.   90.2  69.4  70.3  64.3  91.2   2.  106.    9.5
+   2.8   9.5   3.3   1.2   2.1  57.2   7.    3.2   2.8  82.   45.2  64.2
+  99.   86.8  89.4  59.3  63.5  92.8  68.8   2.5  69.4  67.   58.7   2.5
+  10.2   5.6  62.8   2.8  69.4   2.8  91.1   4.7  59.5  88.4  90.   92.
+  73.7  84.1  70.9  87.1   1.8 110.6   2.4   3.1   2.1   9.1  72.5   3.3
+  70.8   1.2 105.8  82.8  91.9  89.9   1.    2.5   1.9  83.    9.5   2.7
+  76.1  75.3]</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>[  4.    2.8   4.2  77.1  69.6   1.2  80.8  63.    2.   69.9  67.4   2.1
+   2.7   4.   81.8   4.    2.   44.    4.5  89.2  86.3   3.6  96.8   3.6
+  83.9  68.1  74.2   9.5   2.    3.1  89.9   1.1   4.    2.1  72.5   9.5
+  76.7   2.7  90.6   4.8 134.3 101.8   4.   98.6   1.8  96.4   4.5 110.3
+   4.9 105.1   9.1 136.5   3.4  85.5   3.6  62.    2.   77.6  48.   74.6
+   3.1  79.7   3.3 111.5  82.8   2.8  72.2   3.4  71.3  78.3  68.2   1.3
+   1.1 102.2   6.1  87.1   3.    9.5  44.   10.    6.6  96.2   3.4 104.7
+   2.4  61.3  75.   14.6  52.3  67.9   2.5  63.4  10.   63.3   2.4   1.2
+  72.2  78.5  95. ]</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>[ 75.6  80.7  79.2  72.4 106.   90.5   3.7   3.   67.3   1.3 102.1   3.6
+ 106.7  56.7  96.7 103.    2.  111.1   4.  111.8  47.6 116.3   4.  106.
+   2.7  69.3   3.5  83.3   6.   70.4   3.3  93.1   3.1 112.6 116.5   5.
+ 102.6   2.5 123.2   3.   93.7  80.6  94.6   7.3  83.7 103.    4.  100.2
+   2.1 103.    2.5  86.3   4.  106.2   9.5 135.6  63.   82.9  89.6   1.1
+ 119.5   3.  108.9   3.  125.9   2.8 149.    3.   54.8  82.5   8.    9.1
+   2.   52.    4.9  68.7  10.  111.4 123.2   3.6  64.2  86.   79.2  73.6
+  62.5  78.7   2.4 101.3  48.2  52.    2.5   3.6   1.2  61.7   1.   71.5
+  85.2  99.9]</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>[ 57.9  71.3   1.2   2.8   1.5  97.1   4.4  84.3   2.5 166.6 108.6   1.1
+  71.9   4.5  52.7   1.8 131.5   2.4 142.7   1.2   9.1  82.8   2.   58.3
+   5.   68.8   4.7  86.6  55.1  90.1  40.9  91.5  91.1   1.3   1.1  86.5
+   8.   66.3   3.7  90.    2.5  89.4  62.9  85.6  48.7 108.4   5.4 101.4
+   9.1  88.5 100.9   5.   75.5  53.5   3.3  53.3   6.3   4.    4.9   5.
+  64.2   4.9  92.4   3.3   2.   81.2   3.    1.  110.2   2.5 146.8   7.
+   1.3  70.4  10.6   2.   60.2   1.2 132.    2.7 163.8   1.   56.3   1.3
+   8.    3.8   2.7  87.6  79.2   4.    2.8   2.    1.2   9.1   1.4  80.5]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -878,20 +1041,183 @@
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>[2176.4 2201.5 2169.  2192.5 2211.2 2250.6 2207.9 2107.5 2222.8 2187.2
+ 2174.3 2255.1 2182.9 2132.6 2324.2 2146.4 2176.  2157.7 2120.6 2105.
+ 2106.9 2165.4 2141.4 2139.1 2160.5 2333.6 2074.9 2101.8 2162.8 2148.4
+ 2140.3 2151.1 2181.9 2193.4 2064.  2337.6 2160.9 2205.3 2216.  2158.
+ 2127.5 2098.1 2195.  2142.3 2175.8 2110.1 2212.  2268.7 2110.6 2186.8
+ 2159.4 2175.9 2177.6 2129.4 2166.1 2120.2 2132.5 2091.2 2343.8 2021.5
+ 2084.  2123.6 2144.8 2136.2 2143.9 2152.2 2141.4 2105.5 2307.2 2020.9
+ 2222.7 2193.5 2168.8 2178.2 2163.5 2159.6 2077.3 2192.8 2270.1 2100.1
+ 2086.9 2163.6 2102.1 2215.4 2108.5 2191.  2079.7 2344.  2091.5 2163.4
+ 2120.5 2180.2 2098.7 2142.4 2187.3 2208.  2107.8 2235.8]</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>[1437.  1481.8 1451.  1428.2 1395.4 1411.7 1392.5 1461.3 1440.3 1416.
+ 1436.4 1421.5 1413.6 1495.4 1395.2 1405.4 1473.6 1455.6 1401.3 1412.9
+ 1399.7 1423.6 1357.8 1421.4 1452.5 1393.6 1427.6 1415.4 1430.6 1395.9
+ 1423.6 1441.8 1444.9 1439.6 1399.9 1478.  1375.9 1479.7 1470.9 1429.6
+ 1445.8 1439.6 1433.3 1430.  1410.  1406.8 1397.2 1450.2 1389.1 1505.7
+ 1407.3 1429.6 1401.7 1443.8 1426.8 1420.4 1441.9 1430.1 1440.9 1350.7
+ 1533.  1448.5 1413.9 1415.8 1410.7 1415.4 1422.4 1412.8 1421.  1446.7
+ 1386.2 1420.1 1443.3 1406.1 1428.5 1438.4 1422.3 1406.  1420.  1403.8
+ 1418.1 1411.8 1399.9 1423.2 1392.  1438.9 1362.1 1447.7 1441.3 1436.
+ 1423.2 1395.5]</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>[ 993.4  978.5  977.9  990.4  993.2  991.9  990.9  981.6 1006.5  966.3
+  986.1  977.3  998.6  978.9  975.8  996.2  950.4  974.   987.6 1000.8
+  984.1  988.9  992.4  986.8 1003.   980.9  980.7  977.1  993.   971.2
+  974.4  989.6  981.7  970.3  975.2  978.4  983.6 1011.8  972.4  981.2
+  998.2  982.8  989.5  971.1  999.9  971.4  989.5  973.2  980.   978.6
+  989.4  977.8  993.9  976.4  985.4  971.2 1018.2  967.2 1011.7  982.
+  992.8  987.3  992.   981.4  986.2  998.8  976.8 1001.9 1009.5  991.
+  984.3  973.9  981.4  970.6  996.   999.6  978.2  988.8  990.6  989.1
+ 1001.2 1005.4  976.6  970.2 1007.1  979.6  977.4  978.  1000.2 1015.8]</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>[699.9 692.4 697.2 694.8 698.1 692.  702.9 689.4 706.7 684.3 696.8 694.9
+ 692.7 695.5 688.8 700.6 693.9 702.5 697.5 695.5 687.9 697.4 704.  687.3
+ 698.  686.2 698.2 699.  696.9 694.5 692.3 693.3 694.5 696.3 702.1 677.9
+ 712.  694.4 708.2 696.7 698.4 693.4 698.4 695.3 692.7 697.5 670.9 705.9
+ 697.6 699.4 693.2 703.  688.7 698.6 686.4 696.5 697.1 694.3 675.4 704.4
+ 702.7 701.5 701.9 691.6 695.8 689.8 703.3 685.7 693.3 679.5 681.  693.9
+ 687.5 687.4 680.7 692.8 691.7 714.1 700.  690.  693.2 697.4 704.2 702.6
+ 671.8 677.6 689.1 686.1 684.8 676.  675.9 689.3]</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>[486.3 485.5 487.2 489.1 492.3 494.1 488.8 494.9 485.2 490.2 497.4 481.8
+ 486.1 481.  492.8 486.1 492.  487.3 498.1 498.6 488.9 495.1 489.  499.9
+ 487.  494.3 490.  492.5 499.9 491.9 485.  489.6 485.9 489.7 485.7 496.2
+ 484.5 489.8 487.1 483.6 490.9 495.2 487.5 502.3 484.7 496.9 482.5 493.8
+ 491.9 499.2 484.7 487.7 498.1 483.5 490.3 485.4 490.7 489.  494.8 487.4
+ 486.5 499.2 494.4 496.  494.5 494.5 492.6 490.4 496.9 492.8 495.7 502.6
+ 482.5 487.6 487.  496.6 490.8 494.6 488.9 495.8 492.4 491.6 492.9 493.1
+ 492.8 491.4 495.1 493.4 487.1 491.8 492.6]</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>[345.5 346.6 344.9 345.4 343.7 352.4 342.7 345.4 343.6 345.4 345.7 349.9
+ 344.4 346.6 351.6 350.2 352.5 349.4 345.9 348.7 345.3 346.7 347.3 347.2
+ 347.9 343.2 343.9 340.6 347.4 345.7 344.7 344.4 346.8 351.2 341.1 348.6
+ 348.9 350.6 348.5 348.2 346.7 346.3 343.6 345.9 343.4 348.6 345.  350.3
+ 347.2 343.8 344.8 343.7 347.9 344.2 347.  345.9 354.5 336.2 353.6 342.5
+ 350.8 348.3 348.8 347.7 346.8 346.8 349.3 345.5 339.4 342.3 351.9 340.5
+ 341.4 346.5 341.4 346.2 346.5 345.  352.4 338.4 341.4 352.7 349.  351.4
+ 347.8 347.7 346.6 350.  353.3 342.3 340.2 345.8 343.7 342.9 347.7 348.1
+ 349.5 346.2 346.8 349.3 349.2 344.8]</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>[245.8 248.4 245.6 243.3 238.6 236.1 240.1 238.5 244.6 244.  242.7 247.8
+ 245.  246.3 243.3 245.7 240.6 247.4 236.4 241.9 238.6 237.  241.3 241.8
+ 240.9 244.7 239.4 247.  244.1 241.4 246.4 246.6 242.9 242.2 245.7 242.1
+ 237.2 239.9 247.5 240.5 243.3 237.1 239.3 238.8 241.1 240.5 243.8 239.2
+ 251.5 241.4 246.6 244.8 243.8 242.5 243.7 244.5 241.6 240.7 240.6 247.
+ 238.4 238.7 237.8 237.9 243.7 238.8 241.4 245.1 236.3 243.  248.6 247.6
+ 247.4 246.4 242.3 241.9 244.3 236.5 237.3 241.1 237.5 237.5 242.  243.7
+ 243.8 242.7 247.2 245.1 240.3 237. ]</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>[175.1 173.4 178.8 180.8 181.3 177.8 176.1 177.3 178.  173.1 172.9 174.3
+ 171.2 172.5 173.7 175.3 177.6 182.5 169.3 183.2 174.5 181.7 175.3 182.6
+ 173.8 172.9 178.4 182.5 170.3 178.5 171.2 176.9 172.  177.9 172.3 175.2
+ 171.9 183.3 168.9 181.9 174.3 180.4 171.8 184.2 172.  182.4 171.3 182.1
+ 168.9 188.1 178.7 170.5 180.7 171.2 176.9 170.6 175.9 171.  180.2 169.8
+ 186.3 179.4 172.2 179.4 176.1 180.8 174.  179.  175.1 173.1 176.1 178.5
+ 173.7 174.2 175.8 176.1 171.1 176.3 172.2 173.3 176.7 178.7 179.3 176.2
+ 174.2 175.5 180.7 174.3 173.3 173.2 174.4 178. ]</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>[127.7 128.7 129.9 128.7 118.4 118.1 116.5 116.1 121.5 121.2 127.3 125.5
+ 124.  130.7 117.3 123.7 119.8 124.4 126.5 120.3 117.8 117.6 120.4 111.5
+ 119.5 122.2 121.3 129.  126.5 118.9 131.9 122.2 129.9 121.2 126.9 118.9
+ 117.1 129.5 123.1 119.  124.1 116.6 118.7 117.1 120.3 113.3 121.8 115.9
+ 115.2 121.9 129.1 126.6 121.9 129.6 123.1 128.4 120.2 129.8 118.9 122.9
+ 119.8 131.1 114.3 120.3 114.3 120.8 116.8 117.9 116.7 119.3 126.4 126.
+ 120.6 129.4 125.  128.7 123.1 124.6 118.9 117.6 130.  119.2 118.1 115.6
+ 117.6 120.7 114.9 128.7 127.5 123.4 119.1]</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>[ 98.7  96.4  81.1  72.4  90.6  91.6  86.8  81.   92.8  93.3  87.8  90.
+  96.2 106.2  77.4  80.6  81.4  83.1  69.5  80.8  92.2  57.6  95.3  94.5
+  80.5  90.1  77.4  95.3  81.8  97.9  84.1  93.7  71.3 114.    1.6   1.2
+  94.   80.6  89.1  76.3  90.6  66.3  93.8  54.3 117.4   4.   58.7  94.3
+  79.4  98.9  80.5  96.7  76.6 102.8   4.  113.8   2.5  70.5  93.4  71.
+  95.2  75.4  91.7  60.1  98.1   1.8 114.8   9.5  94.7  82.9  90.6  84.9
+  95.2  82.9 104.5   1.3 119.3  75.8  94.8  71.8  89.7  10.   96.1  79.6
+ 112.2  85.5  88.8  92.6  93.6  71.6  99.   70.7]</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>[101.   86.5   6.2  10.    3.3  58.2  70.5  73.3  71.9  75.8  94.   78.9
+  72.3  10.   83.3  81.8   1.3  10.   10.6   9.5  61.8   3.2  74.5   1.
+ 109.4  75.3  89.7  86.   90.2  69.4  70.3  65.6  91.2   6.9 106.    4.3
+   4.6   2.7   3.6   1.2  10.   57.3   2.8   2.7   2.7  84.3  44.9  66.2
+  99.   86.9  89.5  59.2  64.8  92.7  70.4   1.7  71.4  67.   60.2   9.5
+   2.8   4.   64.5   1.   71.3   1.   94.    2.4  61.3  88.4  90.   92.
+  73.7  84.2  70.9  87.1   4.2 110.5  10.    2.5   1.3   1.6  74.8   1.1
+  70.8   1.8 105.8  82.9  92.   89.9  10.    8.7   2.4  86.3   3.3   2.1
+  76.2  78.2]</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>[  3.3   1.1   6.7  76.9  69.8  10.   80.8  71.9   3.2  69.7  77.1  10.
+  10.6   3.4  81.8   2.7   3.9  44.    2.8 106.5  86.4   2.6  96.9  10.3
+  83.8  77.8  74.1   5.    9.5   5.9  89.8   9.5  10.6   2.6  72.4   3.2
+  76.7   2.   90.6   1.3 134.3 102.    9.5  98.8   2.7  96.4   5.7 110.3
+   9.4 105.1   3.4 136.5   1.3  85.6   3.4  61.8   4.8  77.5  48.4  74.7
+   9.5  79.9   8.  111.5  82.8   1.6  72.2   3.   71.3  78.3  68.1   1.8
+   9.5 102.2   8.3  87.1   2.8   1.3  44.4   3.3   3.   96.2   2.  104.7
+   2.   68.8  75.   35.3  57.8  67.9   1.   63.3  10.2  63.2   1.2  35.8
+  83.5  78.5  94.9]</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>[ 75.5  81.   79.2  72.3 106.1  90.3   3.3   1.9  89.3  10.7 101.9   4.
+ 106.6  71.3  97.8 103.    1.  111.3  10.7 111.8  51.9 116.4   9.5 106.1
+   3.5  69.2   3.3  83.5   8.   70.4  10.   93.4  10.  112.6 116.5  10.2
+ 102.5  10.  123.2   8.   93.4  81.3  94.4  10.  116.5 103.    9.5 100.3
+   4.4 103.4   9.5  86.4   9.5 106.    1.  135.6  81.2  82.8  89.5   4.7
+ 119.7   9.5 108.9   9.5 125.8   4.1 148.9  10.   68.7  82.5   4.2   4.
+   3.7  64.1   7.2  68.6   5.  111.5 123.1  11.1  82.4  86.3 109.4  99.2
+  62.5  78.9  10.6 101.2  57.8  63.7   2.6   5.    1.2  78.8  10.6  94.6
+  85.8 100. ]</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>[ 89.1 113.3   5.9   4.    1.5  96.7   3.4  84.5   6.  167.  108.7   4.7
+ 120.9   2.8  79.6   2.3 131.2   7.  142.6  10.   10.6  82.6   2.9  87.3
+  10.3 112.3   2.   88.3  81.6  92.5  54.   90.9  91.9   2.8  10.9  86.5
+   8.  108.1  10.  175.4  10.   89.2  98.4  79.8  66.4 108.6  10.3 101.2
+   3.  167.5 106.3   5.5  75.4  59.1   1.9  51.6  10.6   9.5  10.7   3.8
+ 100.5   8.   92.2  10.    2.6  81.7   9.1  10.  110.5   1.  147.5   2.3
+  10.6  70.1   6.    8.2  94.7  10.  132.    8.  163.7   3.8  84.3   1.5
+  10.6   8.    3.4  91.6  80.7  10.   10.   10.    8.7  10.7   5.  140.8]</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -997,20 +1323,174 @@
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>[1818.4 2060.6 1959.5 1987.9 1934.6 2087.8 2027.9 1881.4 1906.4 1914.5
+ 1981.  1907.9 1920.2 1906.3 1973.  1874.3 1993.3 1922.1 1996.4 1953.
+ 1965.3 1941.2 1999.2 1902.  2021.8 1852.4 1953.4 1881.6 1913.2 1918.
+ 1960.2 1868.1 1990.8 1950.4 1925.9 1993.6 1994.5 1920.7 1975.2 1926.3
+ 1956.6 1935.9 1975.1 1919.3 1917.4 1947.2 2000.4 1973.6 1939.8 1954.2
+ 1908.  1940.3 1936.7 1931.9 1912.7 1989.3 1921.1 1970.7 1959.7 1931.1
+ 1990.5 1940.7 1965.  1929.9 1966.6 1905.6 1934.  1907.3 1964.7 1954.1
+ 1938.9 1898.1 1902.8 1945.  1927.3 1950.3 1919.4 1903.5 1955.4 1982.2
+ 1944.2 1983.5 1904.7 1962.6 1911.9 1897.2 1933.3 1948.3 1950.  1925.4
+ 1922.9 1946.5 1986.8 1944.6 1942.7]</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>[1281.6 1308.8 1287.4 1301.3 1286.8 1318.  1292.9 1271.2 1276.1 1289.3
+ 1280.9 1281.8 1277.1 1279.7 1282.  1311.1 1283.2 1313.8 1271.2 1301.6
+ 1284.1 1297.9 1279.3 1302.5 1278.1 1289.1 1279.  1288.6 1286.  1294.
+ 1295.1 1288.6 1281.1 1285.2 1288.4 1286.9 1285.7 1285.7 1280.8 1278.2
+ 1285.3 1294.3 1284.1 1287.3 1286.3 1274.4 1294.2 1273.3 1295.4 1281.2
+ 1292.1 1278.  1294.  1276.  1300.4 1270.7 1291.9 1281.1 1292.5 1267.7
+ 1298.6 1262.5 1305.9 1263.3 1289.9 1279.6 1300.5 1281.6 1287.4 1270.1
+ 1295.8 1279.5 1292.8 1280.8 1281.4 1280.1 1289.6 1272.1 1281.4 1278.5
+ 1294.8 1292.8 1287.5 1303.6 1284.  1299.9 1280.  1285.7]</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>[842.4 832.9 830.5 831.1 835.4 818.3 823.3 831.  834.  831.  834.  824.1
+ 823.  843.8 830.3 831.2 821.6 825.8 820.9 840.  832.5 817.  831.8 817.4
+ 839.4 824.1 835.6 824.6 829.5 819.6 822.7 834.2 825.3 827.6 823.8 824.8
+ 826.8 822.3 833.  819.1 835.1 818.9 822.1 824.6 825.5 835.6 823.4 834.9
+ 822.  827.1 812.7 820.6 830.  823.9 818.8 823.1 818.6 821.8 818.3 835.6
+ 269.6 814.2 820.8 819.6 829.7 830.  827.4 826.3 817.7 825.7 833.1 810.7
+ 817.6 812.3 811.9 814.5 824.4 820.9 818.5 824.9 830.6 821.7 826.1 820.5
+ 804.7 811.  273.2]</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>[413.1 406.7 406.2 408.7 404.1 407.  408.3 416.3 402.9 406.4 404.  407.
+ 408.1 403.2 405.8 406.1 402.6 410.6 403.2 406.3 403.3 404.7 408.4 408.6
+ 404.  407.6 407.  402.8 410.  404.2 407.5 403.4 404.1 401.8 409.7 412.7
+ 404.2 403.7 408.5 401.9 406.7 402.8 404.9 405.8 405.  401.5 399.7 410.7
+ 407.8 404.6 406.7 404.4 405.1 404.5 404.3 405.9 406.6 403.1 401.6 406.9
+ 403.9 406.1 402.3 408.1 404.4 404.  399.9 408.4 403.9 407.9 402.2 402.5
+ 403.5 404.4 403.5 407.2 401.8 405.1 404.5 406.6 402.2 403.  407.6 396.8
+ 409.8 397.9 407.2 397. ]</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>[411.8 405.8 404.  403.3 399.1 397.  398.  398.1 398.8 403.2 405.2 401.6
+ 406.4 403.4 403.9 398.6 402.4 401.6 400.5 405.2 395.7 403.5 398.  402.2
+ 393.  405.3 409.4 402.4 406.7 399.5 404.6 401.7 399.1 402.1 400.  402.2
+ 395.5 412.1 390.2 410.  397.5 405.6 398.4 405.9 399.8 401.  398.4 399.6
+ 413.8 396.7 408.2 392.3 405.3 395.7 402.1 396.  402.2 397.4 399.5 389.5
+ 408.6 400.8 408.7 399.3 404.7 399.6 401.9 398.  408.7 391.9 403.  396.6
+ 401.9 395.4 397.9 398.8 405.7 402.  408.5 401.7 405.7 399.6 404.2 400.
+ 392.9 399.3]</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>[243.9 257.4 265.5 260.9 266.9 264.5 268.3 256.4 264.  253.5 257.5 252.1
+ 250.4 249.1 254.2 249.9 275.7 245.4 268.  252.4 265.5 252.1 265.4 250.8
+ 259.7 261.4 255.  259.9 252.5 261.2 250.6 259.8 244.7 263.1 246.8 266.8
+ 258.7 259.8 257.8 257.8 257.1 256.2 257.2 255.6 255.9 247.3 269.  250.
+ 263.5 256.9 260.4 257.  255.2 255.5 253.8 255.5 255.5 269.1 254.2 262.2
+ 254.8 255.2 251.9 257.  252.4 255.4 252.7 250.3 263.4 255.  265.3 255.9
+ 257.5 256.5 255.8 256.3 251.5 263.1 261.7 256.2 252.  255.1 252.4 253.
+ 248.3 257.  249.  269.3 258.3 265.2 255.2 265.  253.  251.3]</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>[194.7  99.2 102.7 103.9  97.1 118.  132.9 146.8 139.8 145.8 142.9 142.4
+ 118.6 152.8 116.  126.2 112.6 123.  106.4 128.4 118.4 152.6 105.1 146.6
+ 131.2 146.8 129.3 148.3 126.6 137.4 132.8 140.3 131.4 123.3 126.5 123.
+ 126.2 123.7 139.6 130.4 152.  129.3 135.2 132.7 147.7 134.3 144.3 137.5
+ 138.9 128.2 127.7 120.5 156.7 119.8 141.  120.2 142.4 118.3 142.7 126.1
+ 150.  129.2 141.2 136.9 152.2 138.3 149.7 135.2 145.1 124.6 153.2 132.4
+ 138.6 132.  137.1 127.8 139.8 139.4 139.9 145.2 151.1 147.3 147.6 147.2
+ 131.7 150.3 128.3]</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>[14.1  9.5 10.   1.4  3.   4.9 14.  14.   1.3  3.   2.4 10.6  3.5  3.6
+ 14.   6.7 10.   1.3  2.5  1.2  3.8  2.7  2.   9.5 10.  14.   2.2  4.
+  1.2  1.3  7.   9.5 14.   3.  10.  13.7 14.7  5.1  2.8  2.7  1.   1.2
+ 13.4  1.3  3.6  7.3  3.7  4.4  3.   2.7 13.4 13.2 14.  14.   2.  10.
+  3.  10.   2.9  7.2  4.  10.   5.1 10.   7.2  1.   3.2 15.   1.3 15.
+ 10.7  3.4 10.   3.3  9.5  2.5 10.   3.  15.   1.3  3.3 10.9  3.6  3.1
+  3.   1.2  2.7 13.7]</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>[ 3.3 10.   3.  10.6  2.7 13.2 13.   2.   6.3  5.  13.2  9.5 10.2 12.2
+  3.  13.2 10.2  1.  13.2 12.9  2.  15.2  2.  15.2  1.   2.5 13.2  5.
+  3.  12.9 13.   2.  13.  12.9 13.2 16.   1.3 13.   4.  10.   2.7  3.2
+ 10.   5.  12.9 13.2  2.3  1.   4.   1.2  3.6  3.3 10.   2.   4.4 10.6
+  4.   5.   6.7 12.9 13.  10.   4.4  2.   3.   2.8 13.  13.2 10.   1.
+  1.3  4.8 13.   2.5 16.   6.7 13.  12.2 13.2  3.  13.2 13.  13.2 13.2
+ 13.  12.7]</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>[ 1.2 10.7  1.2  3.3  3.3  3.6  9.5 97.4  2.6  2.4  6.3 15.   1.7 15.6
+  2.  12.2  1.2  2.4 10.9  4.6  2.  51.9  1.2 16.  15.6  1.3  6.7  2.
+  5.3  4.   1.2  4.6  5.   2.   2.8 15.8  9.5 10.   4.6  4.   6.7  1.3
+  1.8 10.7  2.   1.1  3.1  4.6 13.2  2.7  2.   1.1  2.   2.8 10.   2.4
+  1.1 13.   6.4 15.6 15.   2.7  1.   7.6 10.7  1.8 16.   2.6 15.   4.
+ 13.  14.2 13.   4.   6.7  3.3  1.2 13.  13.2 15.6  2.   1.3  9.5  3.3
+ 14.2  3.7  1.8  5. ]</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>[ 72.6  98.    9.5  97.6  66.4  59.3  70.3  83.5  13.1   3.2  11.   47.1
+  60.   15.   41.9   1.2   3.   65.6  73.   10.   82.3   1.2  77.9  61.2
+  76.2  10.   93.    1.3  13.2   9.5  82.2  12.2  93.    5.   76.8  13.
+ 103.1  11.1  85.3   5.6  88.8  10.   54.7   2.5  53.9  68.7  12.2   1.3
+  97.7   9.5  91.4   3.   85.5  13.   78.2  10.   81.5 107.9   2.8  89.8
+   1.   76.5   9.5   2.6   4.   55.2   2.    1.3  71.1   5.   76.   10.
+  84.2   9.5  65.6   6.3  13.   16.    2.9  13.2   9.5  10.   62.    9.5
+  51.9  62.1  64.3  63.8  55.4  63.9  62.1  16. ]</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>[ 83.1   1.3  71.6  77.7   1.   96.8  94.5  84.6  53.    1.2  55.8 103.8
+  68.7  70.7   4.9  57.7   3.2  91.5  64.2  72.5   1.   40.9  83.9  77.8
+  94.1   1.4  54.2   3.3  68.5  68.4  83.2   7.    2.7   3.    4.   70.8
+  78.5  68.3  76.8   2.1  64.9   2.6 102.7  64.5 103.1  78.7  72.7  58.3
+   4.1  66.7  51.   85.8  69.3   1.6   3.4   6.3  81.   76.1  88.3  69.5
+   2.   10.6   4.3   1.  107.3   4.   66.2   2.7   1.2   1.4   3.2  48.7
+  73.9   9.5   4.2   2.7   1.1  80.2  52.3  84.5   2.4  73.8   1.1   5.3
+   1.3   1.1   1.3   2.5  88.2  68.9  97.1  79.4  87.9]</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>[  9.5   2.7 115.4  93.9 101.7 114.1 108.8  88.5  46.2   2.   74.7 105.1
+   6.7   2.1   4.   78.6  76.3  68.8   2.5   1.2   2.8   2.7 116.2 105.4
+  95.8   5.    2.5  79.   62.2 107.    1.8 128.8   2.    1.1   4.2   3.3
+  82.9 113.9  62.3  58.9  73.4   1.    2.7 120.3  90.6  83.6   2.8   1.1
+   2.1   1.3 111.2   1.3 131.9   1.1   2.1   4.3  54.3   2.7 108.1  80.5
+  54.1  10.    9.5   4.5   2.7  94.9  52.6   1.    1.7   2.7   1.3   3.1
+ 117.    7.    5.6   3.4   1.7  78.5   2.  118.2  91.9  91.6 106.4  89.1
+   3.2   2.    1.3   3.3   2.6  90.3  41.1   9.5  95.6  98.8]</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>[ 85.8 104.3   1.2   1.8 127.8   1.3 124.5   5.3 166.5 168.    9.5 128.
+   1.  188.2 101.5 179.7 217.3  94.9   3.    5.   57.8  85.7 128.3   2.7
+   2.8   9.5   3.5 177.1 117.1 127.6   3.  111.9   1.3 172.  104.4 172.6
+   6.6  65.5   1.8 120.7   2.5 121.8   1.    3.2   3.    7.4 213.2 211.6
+ 185.   89.6   4.1   7.2  91.1 113.9 130.  158.7   2.  181.3   4.  121.4
+   1.1  60.  126.4  87.2  38.5   1.    4.1   2.6 160.7   2.7   6.6   4.1
+   1.8  91.2  91.8 157.5   2.    3.1   1.2 151.3  50.6 144.5   3.2   1.3
+   4.    1.1  90.7   8.   83.9   2.4]</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1118,20 +1598,177 @@
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>[1903.  1943.1 1966.  1908.9 1903.9 1907.2 1878.4 1856.5 1841.4 1861.7
+ 1902.3 1935.1 1945.2 1872.5 1842.2 1817.  1862.4 1894.3 1891.8 1853.3
+ 1921.  1897.3 1869.5 1846.8 1845.5 1830.2 1890.6 1864.7 1889.6 1865.
+ 1881.5 1884.2 1857.9 1919.1 1917.7 1938.3 1918.6 1892.1 1871.6 1922.3
+ 1868.9 1842.3 1896.3 1822.8 1892.2 1899.8 1862.7 1857.7 1868.8 1861.1
+ 1884.5 1876.7 1861.9 1889.1 1837.9 1852.3 1883.7 1882.3 1889.  1916.1
+ 1850.6 1862.8 1910.6 1883.4 1866.4 1842.1 1876.2 1860.  1842.7 1833.9
+ 1813.4 1860.2 1794.3 1896.8 1866.7 1902.8 1887.8 1872.6 1852.6 1849.
+ 1872.9 1894.5 1889.2 1828.7 1862.  1871.4 1830.4 1902.6 1916.9 1899.1
+ 1876.5 1893.5 1866.1]</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>[1362.3 1370.5 1336.2 1315.2 1315.3 1306.9 1332.2 1334.2 1317.1 1358.
+ 1353.4 1353.8 1338.5 1289.3 1329.9 1336.6 1333.7 1321.9 1333.5 1332.4
+ 1340.4 1349.2 1338.3 1315.1 1321.9 1342.6 1335.3 1355.4 1332.5 1320.5
+ 1337.9 1362.3 1346.8 1346.  1327.8 1339.2 1313.4 1353.7 1358.4 1327.9
+ 1299.8 1359.6 1345.5 1326.7 1339.5 1326.2 1330.6 1360.  1341.9 1340.3
+ 1361.8 1341.9 1342.1 1323.1 1323.8 1326.8 1326.3 1323.5 1312.7 1334.7
+ 1349.5 1363.8 1312.1 1295.8 1369.4 1341.3 1327.6 1339.8 1353.5 1323.6
+ 1339.6 1331.1 1342.5 1365.7 1325.4 1338.9 1346.2 1352.1 1313.9 1310.4
+ 1377.6 1340.3 1330.3 1327.4 1337.9 1331.5 1342. ]</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>[923.8 940.4 931.6 933.2 896.9 922.9 939.5 949.  946.2 945.  937.8 956.2
+ 914.3 943.9 924.6 962.6 941.3 947.9 957.9 932.7 938.  948.  930.1 943.7
+ 952.9 947.7 955.5 955.2 967.  935.4 937.2 924.2 932.4 943.3 946.4 944.8
+ 948.3 933.2 960.2 942.5 946.3 931.2 920.9 937.4 944.4 954.6 932.4 960.2
+ 964.7 951.8 929.7 952.5 934.2 943.1 913.1 966.1 937.1 935.7 936.8 944.1
+ 946.1 940.4 896.8 912.9 914.4 966.2 953.5 939.1 972.1 950.9 888.5 943.2
+ 944.5 927.2 914.2 920.7 913.3 911.1 896.4 943.1 945.3 950.6 933.  934.1
+ 940.3 924.7]</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>[654.  641.9 645.8 669.9 656.6 670.9 641.2 643.3 662.3 650.4 624.1 655.1
+ 624.6 679.8 642.2 672.5 649.8 658.  655.4 639.4 659.1 624.2 673.5 649.4
+ 668.3 630.8 654.2 661.1 643.7 645.6 618.1 629.3 659.3 634.1 657.5 675.4
+ 669.5 632.2 651.7 628.7 639.7 691.1 644.5 641.1 668.3 632.9 641.3 637.4
+ 649.3 674.6 598.1 691.1 697.2 614.7 635.3 652.5 668.7 664.1 644.3 603.6
+ 651.4 676.6 663.6 689.3 641.9 617.1 612.8 614.5 618.1 676.8 680.5 475.3
+ 635.4 684.  684.8 689.  689.8 688.1 649.4 600.1 624.5 608.3 609.  603.6
+ 602.5 627.7 633.9]</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>[441.5 444.1 447.8 439.5 461.8 466.1 468.8 470.2 465.  486.4 438.3 468.3
+ 454.6 449.3 458.6 454.3 451.1 458.2 449.3 458.5 455.3 470.1 463.4 467.
+ 459.3 454.6 483.  447.7 460.4 452.4 459.2 455.6 456.2 456.  463.1 453.1
+ 461.6 478.4 448.  462.8 457.5 459.5 455.5 458.1 461.8 462.  455.  463.3
+ 466.5 467.  443.7 457.7 447.6 459.8 461.3 460.9 447.3 457.7 449.7 487.8
+ 446.6 456.5 457.1 449.9 452.2 453.4 463.2 467.6 465.4 484.9 446.5 448.7
+ 459.2 463.1 464.5 452.  443.3 466.8 481.7 462.6 444.5 437.2 441.6 455.4
+ 473.7 479.9 480.3]</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>[343.7 331.3 326.6 350.  334.6 328.2 346.3 349.  344.1 339.6 334.3 346.1
+ 341.9 331.8 344.8 336.3 334.4 330.6 341.4 347.7 333.  348.  326.4 344.3
+ 332.  338.9 346.6 345.6 333.1 348.4 335.6 346.8 330.  347.5 335.2 349.1
+ 331.2 347.7 343.7 343.7 344.  338.5 346.4 332.3 346.7 335.8 347.8 332.
+ 346.9 341.  346.9 345.2 325.9 343.5 330.4 340.1 329.3 339.1 342.1 342.4
+ 335.3 343.8 331.4 342.2 335.2 340.4 341.5 337.1 334.5 337.4 349.7 339.2
+ 335.3 336.8 346.8 331.9 332.3 343.7 345.3 345.  332.6 331.4 348.  334.5
+ 340.4 340.7 329.  326.9 329.7 342.5 347.5 338.5 337.9 337.2]</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>[233.2 239.1 241.6 237.5 237.  243.1 240.2 245.4 246.7 246.7 246.8 240.7
+ 238.4 242.4 237.  239.7 240.9 240.  238.3 239.9 247.6 241.  238.  247.5
+ 241.2 242.3 248.9 246.9 243.6 240.7 247.6 239.  234.3 248.1 238.6 244.8
+ 240.3 238.3 246.2 239.5 244.5 238.5 245.3 238.9 242.4 241.5 242.9 247.
+ 247.  243.8 242.2 245.4 239.6 246.6 242.  245.9 240.8 238.1 241.2 242.9
+ 242.7 240.6 238.3 239.5 243.3 246.5 243.4 244.6 248.3 242.4 243.1 242.9
+ 243.4 241.2 238.9 241.8 242.9 241.7 238.6 241.  240.9 241.7 241.4 240.8
+ 241.6 231.9]</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>[172.9 177.2 183.  180.9 177.  175.1 177.1 173.1 182.1 171.  170.1 176.5
+ 180.1 177.5 171.6 169.1 183.1 170.3 174.9 178.7 178.4 175.3 176.9 179.5
+ 170.9 175.7 178.8 172.4 182.4 172.3 177.8 179.4 172.8 174.2 179.5 177.3
+ 175.8 181.3 177.8 178.5 179.2 172.3 180.6 173.4 181.2 174.5 179.1 177.8
+ 181.2 174.4 180.7 181.  171.6 182.2 174.5 181.9 176.9 179.6 175.  179.
+ 172.5 178.4 179.4 176.  174.  182.6 181.1 170.5 178.  176.1 176.7 173.7
+ 174.  179.9 172.4 179.9 172.5 173.3 181.4 179.8 178.9 173.9 180.  182.
+ 176.  173.  173.7]</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>[182.6 181.7 180.5 127.3 119.7 112.3 117.3 118.5 119.5 164.4 131.2 114.9
+ 116.3 183.3 182.2 184.2 175.4 186.5 119.  115.5 183.  119.5 118.  111.7
+ 122.2 179.7 121.3 182.1 115.2 180.6 119.2 124.5 178.1 178.6 120.2 124.3
+ 119.1 123.8 177.7 120.5 121.7 118.  178.2 109.5 122.6 174.  119.2 119.6
+ 123.  183.9 119.9 166.8 117.3 181.4 123.1 183.6 119.5 123.9 119.6 188.5
+ 118.3 176.8 122.  116.  121.9 117.5 115.1 124.8 183.8 124.8 113.4 183.7
+ 124.9 118.  160.9 172.9 114.9 193.7 120.7 113.2 116.8 119.9 121.1 113.1
+ 186.9 124.8 121.8]</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>[111.7  99.3  92.3  86.1 113.5 116.2  99.2  72.6  72.4  85.4  84.5   3.1
+ 108.3 101.8  67.9  96.2 105.7  78.3  89.4 112.9  66.6 115.1  88.   89.3
+  93.5  78.3  90.9  75.9  66.8  94.4  49.4  97.2  81.9  94.7  68.5 103.7
+ 102.8 103.1  78.7  70.2  85.7 116.   96.7  80.   90.9  79.7  99.9   1.
+  77.5  85.2  80.5  88.8 116.1  68.4 102.9  77.3 103.9 107.  108.4  70.5
+ 104.5  91.8 124.2  77.5  84.6 109.1  83.7  75.1  57.   70.  110.6  49.3
+  96.1  75.7  79.6 103.7  95.7 101.6 107.2  44.1  94.5  76.4  49.3  75.4
+  76.8 108.7  92.7]</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>[ 47.2   9.5  84.5  95.7  70.7   1.   75.3  86.   93.7   3.  100.3  67.7
+   1.3  61.6  58.9  75.7   9.5  61.3 110.5  70.5   1.   86.3  73.1   2.5
+   1.   97.4   4.9  68.6  92.9   4.6  83.1   1.2   2.   73.7   3.    9.5
+  84.9   3.1  98.3  77.8   1.2  79.2   1.   91.7   9.   89.7   1.2  72.
+   2.   76.1   1.2  69.9   9.5  89.3   2.1  69.9  64.3  59.1   6.1  66.7
+  90.3   2.   72.5   1.2  79.6  87.2  77.7   2.   89.2   1.2  87.8  10.
+   1.2  87.3   1.2   1.8   1.1  49.1  62.7   2.7  92.7   1.2   3.   86.9
+  80.1  81.1  58.1   1.4  42.7   3.   50.3   3.2]</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>[  3.    1.8   1.2   5.6  74.3   9.5  46.4  96.2   2.6   4.8 104.6   1.8
+ 103.   46.2   3.1   2.   72.8   1.6   8.   85.6   3.  101.6   2.   70.3
+   3.3  69.6  80.2 108.7  57.7   2.6   1.2   1.8  73.5   9.5  64.7   2.
+  97.    2.5  59.1   1.8  77.4 107.   91.3   2.   91.1   6.9  81.9   9.5
+   5.   62.3  52.8   4.3  81.8   2.5 129.4   2.8   3.4   3.3   5.   55.6
+   1.2  74.    2.7   1.2  58.3   3.4  97.6   3.4   2.4  48.7  66.5  60.5
+ 176.1 104.1   1.9   1.2  88.3  73.7   5.    2.7   1.2  69.1  88.5  86.2
+   1.3 143.7 104.7  89.2  84.5 123.4 161.2  76.2  71.5   5.   91.2]</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>[  9.6   2.    2.   90.5  97.2 107.1   3.3   2.7  10.2   2.8   1.3   5.
+  97.9   1.2   9.5   1.6   7.    3.  105.6 110.9   3.1   4.1   4.2   4.
+   1.   64.5   2.   73.4   2.1   2.4  79.3   3.   77.4   1.3 138.5   5.
+   5.    2.    3.    1.2   1.   99.6   1.9  73.6   1.2  76.2  76.5   7.
+  89.6   1.3   2.1  84.2   2.5   2.7 100.9   4.    3.6  90.9   1.1   6.3
+  99.7   4.5   7.7   1.2   4.    1.8  69.7   2.5  82.1   3.4   1.    1.2
+   3.4   1.2   3.3  59.3   3.3 122.8   2.1   1.6   1.2   2.  103.5  98.9
+   4.6   3.    3.2  57.9  62.6 104.3  90.2   3.   67.8   1.8]</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>[ 97.6   1.3  10.  107.2 132.8   9.6  72.2 153.8  77.7  59.4   6.1   3.
+ 116.5  71.3   1.3   1.2  10.   85.    1.3   1.6   2.4  78.8  83.    2.6
+ 107.6  57.7   3.3   8.   75.1   3.4   3.4   1.2 167.8   1.    3.1  10.
+   1.   72.3 137.3   5.9 120.6  10.  144.8   4.1 176.6   2.7 156.7   2.8
+ 154.4   9.5 129.5   5.    3.7 166.1   1.2 154.2   4.2 170.6   4.  123.7
+   3.2 136.8   1.9   1.5 192.    1.   67.5   6.    2.    5.1 157.6   4.1
+  78.6   1.2 162.    2.    1.9 118.6   1.    2.5   5.   76.1  81.3   9.5
+   4.    9.5 142.3 104.9   2.    2.7   1.    1.1]</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1239,20 +1876,173 @@
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>[1887.3 1882.5 1834.1 1897.5 1888.  1857.8 1871.3 1896.  1867.8 1891.7
+ 1852.9 1869.5 1916.7 1813.8 1844.  1910.  1896.9 1870.3 1846.7 1881.3
+ 1864.5 1834.3 1942.6 1900.3 1888.2 1859.3 1872.8 1871.6 1834.2 1851.5
+ 1915.1 1867.3 1824.9 1902.7 1898.4 1899.7 1833.7 1860.6 1878.9 1876.2
+ 1885.4 1915.1 1891.5 1837.  1867.  1832.7 1875.4 1829.3 1878.2 1893.3
+ 1920.6 1888.2 1857.  1888.2 1855.2 1858.  1831.3 1879.7 1876.1 1897.6
+ 1848.6 1872.3 1871.3 1852.2 1862.9 1857.2 1815.9 1800.2 1803.5 1844.1
+ 1861.6 1814.2 1840.6 1874.1 1859.2 1899.5 1813.8 1838.5 1834.8 1857.8
+ 1878.3 1861.3 1863.5 1828.8 1862.1 1832.4 1806.9 1840.8 1829.3 1852.4
+ 1927.5 1906.5 1865.2 1851.4 1832.2]</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>[1331.5 1334.5 1338.7 1344.  1330.8 1340.5 1338.5 1342.1 1330.7 1337.6
+ 1353.8 1343.6 1302.7 1322.6 1342.2 1304.5 1326.  1342.2 1338.1 1339.6
+ 1330.9 1301.1 1337.4 1309.  1330.7 1315.3 1327.3 1323.7 1335.  1349.2
+ 1354.6 1315.  1329.3 1288.2 1315.5 1316.8 1337.1 1323.6 1331.5 1339.4
+ 1369.5 1357.5 1351.7 1295.8 1326.5 1318.8 1331.  1337.6 1347.2 1322.6
+ 1361.6 1362.5 1308.2 1326.7 1325.4 1328.8 1332.3 1351.7 1328.4 1300.
+ 1345.9 1315.8 1261.8 1384.  1321.5 1314.3 1333.8 1341.1 1313.5 1305.9
+ 1354.  1335.  1345.9 1329.2 1316.  1299.2 1310.9 1320.2 1349.6 1337.2
+ 1373.8 1361.9 1331.1 1327.6 1335.2 1361.4]</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>[1141.9  943.4  954.3  931.4  925.   934.2 1328.6  932.8  927.8  938.7
+  939.3  945.7  942.4  941.1 5000.   803.7  933.7  939.7  929.8  933.4
+  944.7  933.3  939.1  948.8 1319.2  954.7  949.5  950.9  939.1  936.9
+  946.8  942.6  935.5  949.  1108.7  942.3  947.9  938.4  931.1  937.6
+  943.1  945.4  939.   946.9 1312.   957.7  945.8  931.6  926.   938.1
+  949.4  943.6  927.7  939.3 2532.2  985.3  943.1  936.9  926.5  923.4
+  935.5  945.5  944.1  939.  5000.   856.6  936.4  945.   934.   925.2
+  924.4  923.8  925.1  921.9  999.2  949.8  948.8  938.5  927.3  930.1
+  944.7  817.7  941.9  940.3  935.2  958.7]</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>[653.4 668.8 706.9 654.3 650.8 665.1 696.  677.8 682.5 679.3 671.2 665.4
+ 726.7 695.5 668.6 668.4 676.4 673.5 674.8 689.  668.6 883.1 657.5 678.3
+ 668.4 672.2 672.4 672.9 671.9 676.9 661.  866.2 647.4 682.4 673.8 679.5
+ 674.3 670.2 670.2 670.1 671.  661.  691.8 674.  676.2 669.5 666.8 671.
+ 675.4 668.3 648.6 687.1 675.  676.8 677.3 676.8 678.2 679.2 664.8 664.
+ 672.  660.2 668.4 672.2 669.7 671.8 677.6 684.4 652.9 678.9 660.2 665.6
+ 672.5 673.8 661.6 671.7 653.3 680.5 673.9 677.5 678.  678.9]</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>[475.4 483.3 483.7 481.8 485.6 482.1 479.3 482.  482.2 475.4 478.5 479.7
+ 479.6 480.4 470.6 481.5 479.9 482.  476.6 477.9 483.9 482.4 481.3 475.
+ 481.8 476.9 476.1 476.4 476.2 482.1 485.  479.6 477.5 478.1 477.8 476.5
+ 480.4 482.  480.3 485.9 483.6 479.3 479.  482.4 479.3 476.1 478.  483.2
+ 480.4 483.6 484.3 477.2 475.5 488.9 480.5 480.5 481.3 482.5 481.1 483.
+ 483.9 479.3 477.9 484.8 479.1 479.8 482.9 481.1 478.9 485.3 486.4 471.4
+ 480.4 483.  481.4 481.3 477.4 477.4 475.  471.9 473.2]</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>[351.5 344.  341.9 338.  338.5 343.8 343.4 342.8 342.7 343.2 347.7 338.2
+ 340.7 340.7 345.8 347.2 343.  344.  346.2 338.8 338.1 342.7 347.5 338.8
+ 343.3 343.1 343.7 343.5 344.8 340.8 340.1 344.5 336.7 348.8 340.2 347.4
+ 341.6 344.5 341.  342.  342.4 345.7 343.4 340.  344.6 342.3 347.3 343.7
+ 343.8 338.3 339.6 339.8 350.2 348.7 341.8 341.3 339.3 341.8 343.8 342.4
+ 338.3 344.3 341.7 344.4 344.2 339.7 341.5 344.9 342.6 340.6 341.4 338.8
+ 343.8 341.7 344.5 343.6 348.1 344.8 347.  344.9 346.  341.3 349.4 338.9
+ 343.9 340.5 343.6 338.5 342.6 338.8 344.5 337.  340.6 342.3 345.4 346.9]</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>[241.4 237.1 239.9 243.  241.4 241.9 239.3 239.5 244.7 245.2 245.  247.
+ 241.5 237.  243.8 243.3 240.5 240.7 240.1 238.5 243.7 244.  238.6 238.5
+ 235.8 240.7 239.9 242.1 240.6 239.6 241.7 240.1 240.8 238.9 237.9 239.
+ 238.2 239.4 238.6 239.1 240.5 240.6 239.  240.4 241.1 239.1 240.  241.
+ 242.4 242.4 241.1 241.  239.5 242.7 237.2 236.8 239.5 241.  240.9 241.
+ 240.3 243.1 243.9 246.1 239.8 242.4 241.5 242.3 241.2 242.1 239.3 241.1
+ 240.8 244.3 239.  240.7 241.6 241.2 241.3 241.8 238.4 237.1 241.  239.9
+ 240.7 241.7]</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>[167.  169.7 172.5 171.  166.8 168.  173.8 172.5 173.6 172.8 173.1 171.4
+ 154.5 161.1 178.5 173.7 175.3 276.8 176.4 177.  174.5 172.7 154.3 179.1
+ 171.1 267.4 173.2 172.2 172.3 275.5 174.1 175.4 167.2 182.8 172.  175.1
+ 172.3 273.2 172.4 175.6 173.3 173.3 170.5 179.3 170.4 173.4 172.7 174.5
+ 172.  171.7 170.7 171.5 167.6 177.2 171.  178.8 176.4 176.3 173.2 171.9
+ 174.4 173.3 165.8 329.2 170.3 176.8 173.2 174.  171.8 173.3 175.2 174.9
+ 174.6 171.9 174.8 174.3 173.6 174.6 173.3 175.3 174.1 171.4 170.3 175.1
+ 173.6 171.3]</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>[ 61.5 112.4 117.  114.3 117.3 110.7 126.  123.7 120.7 120.2 121.8 120.1
+ 116.5  93.6 156.3 112.1 124.  120.7 120.9 119.6 119.3 121.9 110.3 114.9
+ 118.  149.8 123.8 121.2 119.7 117.8 121.7 115.5 115.5 126.6 122.9 120.3
+ 118.1 121.1 117.5 119.4 114.9  90.9 110.4 145.8 118.9 125.3 122.8 122.5
+ 114.7 113.6 109.2  92.7 102.2 112.6 107.9 113.7 115.2 117.3 114.6 116.9
+ 107.1  96.7  96.9 113.8 118.5 126.6 122.6 119.7 118.6 116.3  83.8 118.2
+ 101.7 117.9 116.7 117.6 112.8  99.4 148.7 159.  150.2]</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>[ 69.5  89.5  90.8  88.   91.1  66.   90.3  87.6  89.5  84.9  84.8  74.4
+  86.8  82.1  89.1  81.1  82.4  85.2  87.5  83.7  81.7 103.5  81.6  78.1
+  79.2  81.8  76.7  84.2  88.9  80.3  63.   99.3  80.9  89.   88.3  87.2
+  57.6  64.1  81.2  84.2  88.   76.8  92.4  87.8  75.2  75.5  90.7  88.5
+  86.6  83.2  80.7  84.6  80.8  70.8  85.   89.6  83.6  85.5  83.2  98.
+  79.5  84.3  77.5  87.7  93.2  91.7  78.4  75.8  83.9  88.2  84.1   8.
+  77.   86.7  75.9  80.3  82.   96.6  89.1  90.7  91.8  78.8]</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>[55.  63.8 62.1 66.7 66.5  1.3 41.6 71.   1.8  1.3 66.9 66.5  2.5  1.2
+ 75.  55.4  3.3 66.8 68.2 50.7  2.   5.  51.5 67.5 71.9  1.  53.5 60.4
+ 74.9  2.8  3.3 48.3 49.5 72.6 65.2  2.7 62.4 63.2 77.2 57.6 69.1 76.3
+ 53.  68.9 66.2 53.2 41.6 62.3 64.3 51.6 72.7 63.  51.6 64.8 55.6  4.6
+ 47.9  2.  68.2  1.8  1.2 41.6 72.8 67.6 64.9  7.2 39.6  1.8 67.  69.3
+  9.5  1.8 53.  60.1  3.2 46.8  3.   2.  65.1  2.1  2.  62.6 58.9  1.6
+  2.   2.5  6.4  1.2  3.2  1.8]</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>[ 66.3  10.   63.   74.6  86.5   2.5  64.4  74.9   3.3   1.8   1.8 110.4
+   1.4  52.7   5.3   6.1   1.1   2.    1.2   9.5  82.3   4.   64.3   3.3
+   3.1   3.2   1.8   3.1   2.7  72.3   1.8   4.    4.    2.4   1.9   5.
+   2.8  52.8   2.1  71.3   1.3  61.3  65.1  76.7  87.1  76.5  43.5  54.8
+   3.6  79.9  72.8  68.    3.1  74.2  86.4  57.1   5.   55.9  67.1   5.
+  71.6  44.3   1.4  84.9  75.   54.4  58.6  56.1   1.2   9.   51.5  55.7
+   5.   60.1  65.8  78.8 104.4  10.    2.   64.3   1.1   1.4  65.7  57.7
+  60.7  93.7  64.6  75.9  64.6]</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>[  1.   69.1  50.9   2.5   1.9  94.2   6.1   3.8   2.    1.8   5.   94.2
+ 113.4   2.7  73.3   1.8   2.5   1.3   7.1   7.6  76.    5.   84.9   5.3
+  70.1   3.1  69.9  75.4  79.1   2.5   2.5   2.   10.   90.3   1.2 127.7
+   1.8  68.3   3.3  71.5  91.2   9.    1.8 101.6   3.3 103.    2.8 116.1
+  89.9  97.    2.8   7.    2.4 120.5   2.8  68.7   1.6  84.8   1.2 110.9
+   1.4   1.2 113.3   2.1  56.6  51.6   8.8  49.7  83.9   3.6   3.4   9.6
+  62.5   4.   55.3   1.2  71.9   2.1   5.    3.   91.2 105.   91.5  95.9
+   2.1   3.    8.6]</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>[ 60.7  58.7  47.6 100.5  40.    2.    1.6   3.2  56.5  65.3  75.2   2.
+   4.2  61.4   3.    5.5   1.1   3.6  72.1 121.   65.7  59.7   2.5   3.1
+  58.6   2.    3.    1.2  10.7  54.6  65.3  56.    1.3  54.8  47.9   1.2
+   8.8   1.8   1.6  75.    3.1  53.    2.4   2.    1.6 112.9  72.3  66.9
+  55.8   1.1   1.2  68.1   3.6   1.2  50.6   2.    3.3  66.7  61.1   1.6
+   1.    9.5   8.6 106.9   9.5   2.   68.3  57.5   1.2  68.2 148.7   2.
+   3.3   8.4 129.1 143.   61.6   2.8   4.   43.5 114.4  81.9   6.    1.2
+   1.3   1.2   1.3  56.2   1.4   1.8   1.3]</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1360,20 +2150,174 @@
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>[1851.2 1849.3 1879.3 1822.4 1801.9 1818.3 1814.7 1872.7 1891.6 1849.7
+ 1852.5 1834.9 1842.1 1793.9 1853.9 1906.7 1909.5 1854.  1853.7 1839.4
+ 1858.2 1833.6 1857.1 1841.9 1835.3 1833.  1863.3 1888.8 1882.7 1858.5
+ 1877.4 1795.2 1779.4 1855.6 1845.8 1816.5 1835.2 1886.1 1905.  1844.3
+ 1849.9 1873.6 1831.3 1774.4 1845.  1903.9 1883.6 1879.7 1885.3 1854.2
+ 1842.3 1850.  1811.5 1856.  1826.2 1822.5 1905.9 1864.2 1835.1 1851.7
+ 1821.2 1881.7 1851.9 1872.2 1860.3 1821.2 1832.3 1815.2 1831.3 1844.9
+ 1841.2 1878.1 1893.9 1861.2 1855.5 1839.3 1811.3 1818.3 1856.9 1848.3
+ 1858.3 1876.6 1812.  1817.4 1859.2 1860.7 1832.3 1880.1 1879.1 1838.1
+ 1826.1 1834.3 1909.  1880.6 1899.9]</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>[1314.8 1311.9 1310.3 1316.1 1323.2 1310.9 1307.7 1294.6 1307.9 1305.7
+ 1327.9 1315.8 1299.4 1299.9 1307.6 1306.4 1316.6 1300.4 1303.2 1319.9
+ 1311.  1309.  1315.1 1306.  1295.7 1295.3 1308.7 1320.9 1330.4 1328.3
+ 1316.1 1310.2 1309.5 1327.9 1327.8 1327.9 1320.9 1297.2 1306.9 1302.
+ 1319.4 1304.4 1308.1 1314.  1304.3 1305.1 1318.8 1305.  1330.5 1313.
+ 1317.8 1304.  1306.7 1311.6 1323.7 1320.  1320.8 1309.5 1317.9 1318.3
+ 1313.9 1317.1 1315.1 1310.1 1312.  1319.8 1313.3 1314.7 1328.6 1304.9
+ 1312.5 1306.2 1295.7 1314.2 1319.5 1318.6 1296.  1307.4 1297.2 1307.3
+ 1309.7 1313.8 1299.9 1321.3 1321.3]</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>[935.4 927.4 926.9 936.6 915.9 923.7 929.8 923.6 923.2 932.3 931.9 925.2
+ 927.1 925.5 933.7 934.9 931.3 924.2 931.3 932.9 924.1 934.6 932.3 924.3
+ 919.  927.8 931.8 930.  914.3 920.3 921.  926.4 933.  933.  932.6 929.1
+ 925.2 933.5 929.9 923.7 920.  922.4 925.1 922.7 926.  936.9 934.7 920.9
+ 930.7 938.6 929.  929.3 931.2 924.7 927.6 927.6 927.4 929.4 930.6 927.1
+ 924.3 923.6 919.7 932.2 933.7 931.7 931.7 933.7 933.9 926.9 920.1 918.8
+ 923.9 928.2 925.7 933.4 930.4 929.6 924.7 914.5 919.2 928.4 932.6 922.1
+ 934.4]</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>[680.8 678.  667.9 669.2 666.  665.6 666.2 665.4 667.6 671.3 672.4 674.9
+ 675.4 669.4 672.  676.5 675.  675.9 678.5 675.4 669.8 674.6 674.  670.2
+ 675.7 680.5 672.2 664.8 662.8 665.5 682.  678.4 674.1 668.1 672.6 679.6
+ 671.9 669.4 669.6 673.1 680.9 676.3 670.3 663.9 671.7 675.3 672.3 671.9
+ 667.6 670.3 672.8 662.2 657.3 661.9 670.5 669.  672.  673.9 672.3 671.9
+ 673.5 671.3 669.8 674.8 667.1 668.7 670.8 671.2 672.2 674.3 673.2 675.4
+ 676.5 668.3 668.8 669.9 666.6 668.6 672.6 671.8 675.1 673.6 668.9 671.5
+ 671. ]</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>[484.2 480.1 485.4 485.4 481.7 479.9 480.1 479.3 481.8 480.1 478.5 482.7
+ 484.  480.1 479.9 476.  479.3 482.4 477.1 479.3 477.1 478.9 483.3 485.5
+ 481.9 484.1 481.2 484.7 477.  479.2 480.8 479.4 480.7 478.3 478.  485.5
+ 485.1 484.3 480.6 479.2 483.1 481.3 479.4 475.6 475.5 479.4 482.1 479.1
+ 477.1 472.1 473.8 479.9 480.2 483.1 485.3 484.3 479.5 481.1 482.2 481.8
+ 480.7 482.9 481.7 477.8 481.3 484.1 480.7 485.7 473.8 480.7 483.  482.9
+ 479.2 481.6 481.5 479.1 487.6 483.4 487.5 482.5 480.  483.8 484.6 477.
+ 476.6 478.4]</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>[338.9 335.  341.5 338.6 340.6 341.7 342.4 340.7 334.1 338.8 338.7 340.1
+ 339.7 336.9 339.5 338.4 335.4 338.7 339.  340.1 341.2 343.1 340.4 343.7
+ 336.9 337.7 337.2 338.1 340.3 339.7 336.9 340.3 339.2 340.3 337.2 342.6
+ 333.3 339.4 340.  343.2 343.4 340.1 344.1 340.  342.5 338.4 344.7 334.6
+ 343.4 345.6 341.7 340.1 338.6 343.  335.9 342.1 339.3 346.7 337.9 343.8
+ 340.4 340.4 339.1 342.3 339.8 342.4 338.6 344.4 341.7 338.6 337.4 339.1
+ 340.4 341.1 337.1 341.7 344.3 338.4 339.8 336.9 340.9 341.3 342.4 341.2
+ 343.7 335.2 341.2 341.4 342.8 348.3 340.4]</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>[238.8 237.7 237.4 236.8 236.9 235.7 241.2 239.2 239.8 238.6 239.1 234.9
+ 238.4 238.4 239.  237.  237.3 238.9 237.4 235.6 238.2 239.4 239.3 236.8
+ 236.6 237.5 239.6 237.  238.9 236.  239.3 235.4 237.7 235.4 238.8 237.8
+ 237.9 235.3 239.2 237.9 238.1 241.  238.3 244.3 239.4 243.  238.  241.
+ 239.4 238.9 237.2 242.2 235.9 238.5 236.6 240.7 237.  241.1 239.3 244.
+ 239.  240.5 241.4 238.9 239.7 238.8 240.8 236.7 241.4 239.  238.1 237.1
+ 237.5 235.6 236.1 239.3 242.1 240.  239.4 240.2 240.4 243.1 238.4 236.5
+ 234.2]</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>[173.5 174.4 173.6 178.5 171.9 171.1 170.3 172.7 173.3 170.8 172.3 173.7
+ 172.1 174.5 173.6 172.7 174.4 173.  172.1 177.3 170.4 172.7 170.2 171.2
+ 171.4 171.6 171.1 173.1 173.4 169.1 176.5 172.  176.7 173.6 171.5 171.3
+ 172.  171.5 174.  171.7 177.  172.1 289.6 175.2 173.6 174.1 173.9 172.5
+ 173.8 172.4 175.4 170.5 176.  173.2 172.4 172.9 175.6 175.6 174.6 174.1
+ 172.  177.9 177.8 279.5 173.5 174.  172.5 173.4 173.2 287.3 174.5 175.5
+ 174.  175.9 174.1 172.8 175.3 173.6 170.4 173.1 172.2 173.9 175.3 173.9
+ 175.1]</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>[106.7 109.9 114.2 117.8 123.1 123.7 124.4 124.  123.9 119.  116.3 116.8
+ 112.2 110.2 111.3 113.  118.6 125.7 108.6 118.2 117.6 121.  121.1 119.7
+ 119.5 120.8 118.1 121.8 115.  120.3 115.7 111.8 107.6 110.6 112.7 116.4
+ 118.8 117.1 116.4 115.8 113.8 135.  118.2 119.5 120.2 115.6 114.4 118.2
+ 112.8 119.2 120.7 117.3 115.9 114.5 112.1 114.  114.  116.5 122.2 118.5
+ 117.1 115.4 118.8 121.5 122.7 119.3 118.6 120.1 117.4 121.1 115.6 116.
+ 111.9 112.2 112.3 116.4 119.7 115.1 116.5 119.8 133.8 137.3 123.  117.5
+ 116.4 111.7]</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>[ 3.2 63.4  3.   4.1 48.1 78.1  1.3 85.5 90.9 84.6 84.3 93.  93.9 85.5
+ 85.3 70.8 72.3 73.9 77.  77.5 68.1 80.9 75.9 73.3 78.7 86.8 83.  81.5
+ 83.5 85.7 86.2 84.3 81.2 64.6 78.4 67.2 62.9 64.2 62.8 62.9 75.4 88.
+ 78.7 68.9 75.5 71.8 74.8 66.3 76.1 81.4 80.  78.6 76.7 69.2 67.8 66.3
+ 62.  61.8 80.1 79.8 81.  83.2 63.3 72.  69.3 74.4 69.  65.9 76.4 86.5
+ 80.8 64.6 77.9 73.7 65.3 65.3 57.2  2.  69.  85.9 71.9 64.9 71.8 78.8
+ 63.4]</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>[ 6.   5.  71.8 73.7 85.8 89.1 83.  69.1 77.8 85.3  1.3  1.8  3.   3.3
+  9.1 77.  50.2 76.1 75.3 80.9 88.6 87.4  1.8  2.   1.8 72.   1.3 49.4
+  2.   2.   5.   5.   3.3  7.2  1.1 68.3 62.6 70.6  4.  55.3 63.6 46.7
+ 56.5  5.   4.6 59.2 60.7 66.2 63.8  3.1  9.5  3.   4.9  2.1  2.  67.9
+  1.6  4.1 55.9 69.  78.3 58.   1.3 10.6 71.1 52.8  2.5 55.7  9.5  8.3
+ 69.6 68.6 60.8 56.4 64.3  1.3 72.2 67.8 64.7 61.6 57.8 64.6  3.   1.1
+ 86.8 80.   3.5  2.4]</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>[ 1.2  3.   3.   3.3 49.5  2.7  4.7  7.   6.3  8.8  1.3  2.4 62.   2.
+ 68.6 72.1 62.1 45.9  1.3  3.3  2.  55.9  3.7 59.  65.6 98.   6.4  2.
+  2.   4.2  2.7 54.2 59.4 52.8 64.7 47.2  3.3 38.8  2.   1.   2.8  9.5
+ 96.4  3.6 78.7  5.  55.7 59.9  6.3 61.2 66.9 65.1  3.  89.8  8.9 58.2
+  1.   3.   1.2 70.   9.5  7.   3.3  1.1  1.3 47.2  4.   2.4 10.  58.5
+  1.   2.4 75.4 81.4  2.5  2.1  6.6  1.   4.9  3.3  2.7  1.   9.5  1.5
+ 73.9 43.3  1.   2.3  3.1]</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>[  4.2   1.3  42.7  42.6   1.8   7.9   6.7 104.3  10.    8.3  79.  119.3
+  49.2  63.2  56.9  76.3 120.6  91.8   1.   57.2  65.6   2.4 100.1  67.3
+   2.3  10.  105.    3.6   2.8   3.7   3.4   7.   80.9  95.3   9.1   6.3
+  46.7 121.7   6.2   1.4  58.7  50.3   1.3 104.1  98.   82.2   2.1 137.1
+  57.2   2.8   4.7  10.    4.7  15.2  70.5   1.8  99.7   2.3   3.4   4.
+   8.3   5.6   2.6  92.4  92.8   3.9 109.6   1.  110.8   3.    3.3  61.6
+  78.2  10.    3.2   9.5   7.3   4.6   6.7  72.8   2.1   2.8   9.5  71.8
+   2.1 105.9   3.1  10.    9.5  63.4]</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>[ 10.7   3.6  58.9 121.   96.1 129.9  89.3  83.5   1.1  72.    3.9   1.2
+   9.2   2.4   7.5  44.9   4.2   3.5   1.2  77.6   1.2 143.6  70.3 122.8
+   4.   46.7  59.2 170.8   7.7  90.1   4.2   5.9   3.4  58.8  42.7  16.9
+   8.   55.9 173.5   2.7 100.1   3.1 174.4 100.6 139.2  57.4 139.9   1.1
+ 174.1   3.2  70.9   1.   51.4   7.    2.7   2.7  76.3   1.2  67.1 203.9
+   1.1 189.2  55.7 143.   66.7 162.2   4.   50.5  60.    5.    5.6   3.3
+   2.    1.2   1.8   5.2   1.    3.3  96.1   4.  158.7 164.9 188.8  64.3
+ 181.8  61.5  75.3   1.8   4.    6.2   5.3  53.2]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1481,20 +2425,175 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>[1696.5 1761.  1776.  1747.1 1734.6 1698.1 1736.  1731.6 1694.  1734.7
+ 1781.7 1787.7 1694.1 1744.8 1800.5 1804.7 1781.7 1720.1 1689.5 1743.5
+ 1754.  1705.6 1722.6 1761.5 1776.8 1718.6 1745.4 1735.1 1684.7 1710.5
+ 1745.2 1746.8 1722.4 1737.5 1707.4 1724.3 1713.7 1740.9 1784.2 1738.2
+ 1706.5 1731.2 1737.9 1781.9 1755.4 1702.1 1726.8 1784.5 1768.7 1764.5
+ 1742.  1717.8 1735.1 1749.  1775.6 1778.  1755.7 1708.6 1703.9 1739.1
+ 1752.  1738.8 1734.4 1733.1 1766.4 1734.1 1748.1 1724.2 1738.9 1779.8
+ 1786.7 1748.9 1723.6 1748.9 1741.3 1749.7 1781.8 1770.1 1755.4 1741.7
+ 1705.1 1729.  1726.5 1745.8 1763.  1778.4 1741.3 1708.9 1727.7 1772.8
+ 1734.4 1713.3 1812.9 1734.  1711.3 1771.3 1770. ]</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>[1242.7 1302.9 1302.6 1279.5 1290.1 1279.8 1282.9 1262.8 1261.8 1279.4
+ 1265.3 1267.9 1269.6 1281.4 1264.2 1308.6 1285.4 1255.3 1256.6 1277.2
+ 1279.2 1259.  1265.4 1262.3 1263.8 1274.1 1306.2 1305.6 1268.1 1277.
+ 1279.6 1285.7 1287.5 1253.9 1287.1 1271.9 1277.4 1289.2 1293.8 1296.2
+ 1273.9 1274.8 1288.9 1264.1 1292.2 1286.3 1268.8 1272.5 1287.5 1293.6
+ 1290.7 1243.4 1234.2 1274.7 1275.9 1267.7 1283.4 1286.7 1272.1 1262.1
+ 1273.  1282.8 1285.8 1289.6 1286.  1282.4 1277.  1298.3 1300.2 1276.8
+ 1264.3 1273.4 1299.3 1289.1 1309.1 1264.4 1278.1 1301.4 1271.4 1281.8
+ 1280.8 1261.8 1278.2 1275.2 1280.7 1262.3 1265.3 1287.2]</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>[927.9 930.1 929.8 937.1 930.7 929.4 934.6 930.4 923.  954.9 931.5 899.2
+ 947.2 964.7 934.9 928.9 939.1 919.2 936.5 920.7 918.5 951.7 943.9 941.1
+ 931.1 918.1 926.4 927.6 930.  932.8 936.3 920.7 905.7 913.9 918.  932.1
+ 926.3 930.8 932.3 932.  931.8 924.6 911.3 911.7 914.5 931.6 919.3 930.8
+ 920.4 939.3 953.  942.1 911.7 898.9 919.7 927.8 919.3 954.  933.  944.1
+ 918.8 904.9 924.2 929.4 933.6 939.9 923.1 941.5 927.2 931.4 916.6 928.8
+ 946.1 958.5 929.3 926.3 923.4 930.7 928.6 913.7 921.9 916.7 938.8 925.2
+ 923.5 925.  954.7 947.2]</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>[673.3 669.8 668.1 669.2 675.5 673.3 665.3 674.4 672.7 669.2 671.6 675.3
+ 677.4 678.7 676.9 677.4 669.1 667.8 674.8 672.8 671.3 672.4 675.4 663.
+ 666.9 664.9 666.3 668.9 677.2 675.5 674.  671.7 665.1 658.7 665.1 668.5
+ 673.9 672.2 670.7 669.2 674.4 679.3 669.1 671.3 675.3 677.7 674.9 679.2
+ 669.  669.  666.3 675.6 674.4 668.8 672.6 672.8 669.2 680.  677.8 681.6
+ 674.1 679.9 673.6 666.3 674.4 675.5 673.  678.2 679.4 676.7 671.6 682.2
+ 676.5 677.8 675.6 674.7 678.4 678.7 676.2 665.3 670.6 670.5 680.3 676.3
+ 674.2 672.3 671.6 675. ]</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>[467.4 495.4 486.6 481.5 482.8 480.  466.9 483.5 481.2 480.1 483.5 485.9
+ 484.2 483.2 484.9 483.  479.6 488.2 487.7 481.6 480.4 477.4 480.2 488.1
+ 468.8 477.1 476.9 483.4 482.5 484.9 485.9 484.4 483.4 481.2 479.9 482.3
+ 477.9 480.5 480.5 484.  483.5 482.2 484.1 476.  487.4 479.7 473.9 475.9
+ 477.4 481.9 484.5 483.7 488.5 480.7 487.5 479.4 480.8 482.2 483.5 478.5
+ 480.4 484.4 490.5 484.7 482.7 485.4 483.4 479.7 486.1 482.9 482.3 486.1
+ 486.1 480.2 479.2 480.8 482.2 482.6 478.7 481.8 480.  484.9 478.5 481.5
+ 481.7]</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>[324.7 340.  343.  347.8 339.7 348.7 351.9 344.3 341.5 342.1 342.2 348.3
+ 349.  345.5 343.6 346.4 352.4 350.8 340.7 339.  340.3 327.2 346.7 340.3
+ 345.2 342.1 342.4 345.  348.6 348.8 343.9 346.  359.2 342.2 341.8 339.3
+ 341.5 337.4 337.2 348.6 345.6 342.7 346.3 361.3 345.3 344.6 339.6 345.2
+ 343.4 341.2 345.9 343.7 342.  341.2 345.2 345.5 347.1 342.4 340.1 340.5
+ 342.6 345.7 346.7 344.  338.7 329.2 338.4 337.5 342.4 345.8 345.2 344.8
+ 344.3 344.1 345.3 344.9 347.8 341.1 342.6 349.4 348.8 345.  341.5 344.1
+ 342.3 346.6 341.8 345.  344.8 343.4 343.4 343.1 350.  347.1 341.1 338.7
+ 338.9]</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>[240.6 246.7 246.6 244.3 248.4 248.8 242.7 246.3 249.4 244.2 240.2 245.6
+ 248.  246.8 245.6 243.2 248.6 246.9 243.8 244.6 247.4 246.7 246.  245.4
+ 244.2 244.5 245.6 243.3 241.  244.7 245.1 244.6 243.8 248.6 246.4 245.8
+ 243.6 243.6 242.2 244.3 242.5 244.3 244.9 249.8 245.9 249.3 246.9 244.
+ 243.7 247.2 246.6 249.  245.1 243.6 244.3 244.9 246.2 245.  244.8 247.2
+ 249.3 252.7 247.9 246.4 245.1 237.9 244.6 247.4 245.5 246.2 248.6 247.7
+ 246.7 248.1 241.6 243.7 244.9 241.5 242.2 245.1 246.7 250.8 242.4 245.2
+ 249.6 251.4 249.5 245.7]</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>[174.8 175.9 178.1 180.4 178.3 178.3 179.1 294.1 298.9 176.7 180.6 177.8
+ 182.1 175.9 178.  180.5 179.5 179.1 174.8 296.8 177.6 179.9 175.9 295.8
+ 297.2 294.7 181.  179.5 178.7 178.7 295.4 180.3 179.7 177.5 303.6 290.4
+ 298.3 180.2 306.  176.5 177.3 178.5 181.5 177.  299.  291.  300.3 300.7
+ 304.  292.1 301.2 176.9 294.8 179.4 300.1 182.2 181.4 181.7 179.7 298.2
+ 302.4 298.8 291.1 300.4 182.4 185.5 182.3 297.3 178.3 298.6 178.6 307.1
+ 296.  316.5 296.2 176.6 181.5 179.3 299.6 296.5 180.7 177.1 291.4 183.2
+ 182.1 178.5 180.5 178.1]</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>[141.5 147.4 125.8 129.8 146.7 147.1 124.8 115.1 141.3 119.7 116.3 114.7
+ 138.6 141.2 141.1 146.6 142.1 144.5 148.7 139.9 144.7 123.4 144.7 140.9
+ 145.  118.1 141.1 116.3 122.6 137.  140.6 115.2 141.3 135.9 146.3 139.7
+ 149.8 145.7 150.7 145.2 150.9 145.  145.5 131.2 149.6 121.5 121.8 142.
+ 125.3 121.1 119.3 118.6 151.6 142.4 124.9 149.8 147.6 151.9 150.2 147.4
+ 150.9 149.1 153.2 145.9 146.4 143.  135.2 145.2 143.1 119.8 145.1 145.3
+ 143.7 144.8 122.6 148.5 144.3 146.1 148.1 145.5 145.7 124.4 120.1 142.5
+ 144.3]</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>[ 93.4  95.4  92.3  90.2  81.9  76.   91.6  80.7  87.6  86.1  74.9  72.3
+  86.9 101.5  98.7  79.   86.8  87.7  85.8  84.   87.   86.2  88.9  72.8
+  94.1  75.2  75.1  63.5  86.9  95.7  97.1  80.3  54.6  67.5  89.1  87.6
+  74.7  57.6  84.6  87.   85.5  69.5  59.   75.5  93.   88.3  77.4  68.3
+  62.1  61.9  72.1  74.9  69.8  71.4  91.1  82.5 100.1  90.1  76.9  88.
+  85.7  80.5  76.8  83.6 100.7  72.9 100.9  86.8  73.2  82.6  86.9  77.5
+  63.6  84.4  82.6  75.6  80.6  84.1  70.4  80.6  78.8  77.   86.1  85.2
+  88.3  63.3  75.2  89.3]</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>[ 3.1  2.4  6.1  2.   2.3  3.2 78.3  2.5 52.5  1.9 56.9  1.3  1.1  1.
+ 61.3  6.1 78.3  1.6 10.  63.6  2.4  2.5  1.3  1.2 73.1 81.4 78.8  3.3
+  1.2 84.2  1.2 57.1  6.1  2.5  1.8  9.5  1.2 68.2 60.9  2.  94.5  2.8
+ 57.2  2.5 84.5 79.6  1.3  2.1 73.9 88.9 53.9 77.5  2.  50.8  1.8 79.4
+ 81.9 69.9  8.   6.5 85.1  2.5 78.  77.6  2.6 61.7 66.6 78.3 57.  54.1
+  2.  82.1 98.6  7.6 81.4  3.4 65.   1.1 50.7  2.1 65.2 74.7  1.8 45.1
+  1.8  5.5  2.5 69.8  2.5 60.7  2.8 88.4 86.4 84.8]</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>[109.4   3.4   8.4   8.9   5.3  42.9  91.1   9.5   4.    2.7   1.    3.
+   9.   92.   78.    1.    2.    1.2   3.1   1.3   1.8  57.7   1.8   2.5
+   3.   62.3   7.    7.2   7.2   3.    4.    1.    1.6   1.8  65.6  93.8
+   1.3  44.7   5.1   1.2   2.1  47.8   1.6   6.2   8.5   1.2   1.1   2.
+  43.7   4.7   6.1  60.5  67.9   2.5   1.2  59.1   6.   88.6  75.6  83.8
+  97.   97.1  92.4  59.9 102.1   2.1  56.3   3.2   1.    1.2  62.5   1.3
+  47.8   5.3   4.    2.   10.    1.4  73.5   9.5   3.4   1.3   4.6]</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>[  4.1  70.5   2.8  68.4  52.7   2.5   3.1  70.2   5.3   4.    3.4  54.9
+  65.2   1.2  49.4   2.8   2.    9.5  62.5   2.8  64.3   1.3   2.7  50.5
+   4.1   1.3   1.8   3.    2.   74.2   1.   53.9  68.5  59.5  66.6   9.1
+   2.    1.1   1.3   2.1  58.3   2.   94.8  58.4  58.2  68.3   2.3   1.
+   2.7  66.6   1.    4.    2.7  88.1   3.3  66.    3.    2.4   2.4  64.5
+   1.2   4.    3.6 105.7   9.5  59.8   2.7  39.9   1.   74.5   4.2  53.6
+   4.2  66.8   3.   65.8   3.2  60.1   2.7  81.   73.6   5.8   2.4]</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>[112.9 104.8   6.    2.7   2.3   3.1   2.1   3.   59.5   1.9  80.2   2.6
+   1.3   1.    1.3  57.9  80.6   4.8   4.    2.7  68.8   7.    4.6   3.4
+   1.3   2.    8.    9.   90.1  63.3   4.3  63.2  62.6  48.5   9.    1.
+   2.5   8.    2.    1.    7.    3.2   1.2   2.5   4.6   1.4   3.3  44.2
+   1.8   4.5   4.    4.2   4.    1.    1.2   1.1   1.2   2.8   2.5   1.2
+   2.6   1.8   4.1  40.8   2.7   7.   85.4   3.7   1.4   3.    1.2 120.9
+  70.7  40.8  10.    4.   73.4  48.6   1.8   2.5   1.9  57.7 151.9   1.2
+   9.5  44.2 114.2   8.8   2.5 174.2   4.1   1.1   9.5   4.1]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1602,20 +2701,173 @@
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>[1760.8 1753.9 1755.2 1773.4 1716.6 1750.1 1759.5 1777.3 1768.2 1756.5
+ 1759.1 1737.1 1698.6 1694.3 1744.4 1791.3 1791.2 1757.  1728.6 1729.6
+ 1758.4 1737.2 1763.6 1759.7 1762.  1790.4 1797.7 2151.  1732.8 1747.4
+ 1806.9 1780.1 1733.8 1828.6 1765.  1726.1 1781.2 1775.4 1752.8 1782.5
+ 1774.3 1760.3 1753.  1747.6 1764.1 1742.7 1750.5 1777.4 1771.7 1786.2
+ 1814.4 1779.3 1770.8 1795.4 1744.8 1738.9 1766.8 1800.9 1799.  1789.
+ 1763.8 1723.  1717.4 1771.6 1779.  1758.1 1760.3 1754.9 1757.6 1770.3
+ 1739.4 1702.6 1729.8 1786.3 1750.2 1763.8 1738.8 1742.2 1755.4 1792.9
+ 1767.  1738.9 1759.2 1751.8]</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>[1281.5 1301.4 1288.5 1294.5 1304.  1287.9 1311.1 1328.2 1300.2 1273.5
+ 1276.5 1301.1 1296.5 1293.7 1309.7 1287.6 1321.7 1299.9 1281.  1292.
+ 1298.1 1310.7 1301.6 1295.  1312.6 1290.5 1298.7 1290.4 1284.3 1305.8
+ 1289.9 1284.1 1280.7 1274.3 1296.7 1281.1 1287.5 1296.9 1291.5 1309.8
+ 1287.7 1279.2 1288.3 1294.1 1295.8 1315.3 1295.5 1290.4 1292.5 1312.9
+ 1291.1 1289.9 1303.5 1296.8 1314.3 1331.2 1297.  1298.4 1303.7 1316.4
+ 1312.2 1303.3 1305.9 1305.5 1295.1 1283.9 1295.2 1304.2 1292.4 1281.3
+ 1315.7 1315.3 1290.8 1300.8 1278.2 1288.5 1291.9 1288.3 1271.7 1296.4
+ 1305.6 1289.8 1297.7 1287.9 1295.  1281.1 1284.6 1287.9]</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>[918.3 927.9 928.4 931.1 916.3 875.1 940.1 933.7 938.2 934.6 937.  931.3
+ 916.9 893.7 936.2 944.5 942.7 935.5 935.7 931.8 933.8 935.5 922.  885.3
+ 929.6 938.1 943.4 930.2 935.2 920.5 921.9 925.8 931.  906.3 930.8 928.8
+ 934.3 924.1 927.2 925.8 933.6 925.9 925.1 927.5 922.6 928.4 929.2 921.9
+ 932.2 939.2 924.7 926.  928.9 933.7 934.3 940.1 923.  917.  924.6 945.1
+ 917.2 917.1 922.1 934.7 923.7 941.4 923.9 931.7 922.3 932.9 923.3 935.7
+ 931.  932.6 944.6 935.  944.4 937.6 943.6 930.3 928.  918.1 931.7 935.5
+ 930.5 937.4 943.1 940.1]</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>[666.6 660.9 669.  671.8 655.6 648.6 670.  669.1 671.2 697.8 670.9 674.
+ 674.  647.7 668.1 669.7 671.  669.  674.1 666.7 693.2 707.7 673.4 640.1
+ 671.4 668.1 676.1 668.  672.2 673.7 669.4 670.4 689.4 656.8 676.7 666.3
+ 669.2 670.5 672.8 668.3 663.4 663.2 671.6 676.6 672.3 663.1 663.5 671.3
+ 670.3 663.6 669.3 671.5 667.9 702.9 672.9 669.2 669.5 675.6 674.9 668.7
+ 666.2 672.8 668.  697.2 672.1 666.9 667.6 665.5 668.9 667.7 662.  694.3
+ 673.9 701.3 667.8 672.1 673.1 668.2 672.5 673.5 698.  681.2 671.  673.6
+ 673.1 673.2 673.5 675.1]</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>[489.8 482.  480.5 482.9 483.1 479.1 482.3 475.9 484.3 490.9 491.9 483.1
+ 476.  482.  487.1 481.9 481.4 481.6 482.1 480.7 479.6 481.3 480.3 477.9
+ 486.6 483.1 473.7 476.5 487.4 481.8 479.8 478.4 476.  477.9 478.2 481.9
+ 481.6 483.1 482.1 478.3 479.9 478.7 478.7 478.8 477.  483.8 481.3 482.
+ 484.  482.2 478.9 482.4 478.8 474.8 482.1 490.4 482.3 478.3 478.7 474.1
+ 474.6 483.1 481.6 480.  477.4 481.9 479.3 478.8 480.  478.5 479.9 483.2
+ 484.9 486.7 483.6 484.  484.7 486.5 485.9 484.7 483.7 483.2 481.7 485.5
+ 483.  478.8 478.8 484.5]</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>[325.2 335.3 338.3 337.7 330.3 337.6 342.4 342.5 336.4 333.  334.5 336.7
+ 351.  343.  337.9 340.5 338.  339.7 339.8 336.2 340.  334.  339.6 329.3
+ 334.5 341.  340.6 338.8 337.8 336.4 342.3 342.2 356.2 341.5 337.8 334.3
+ 338.5 343.2 341.5 339.4 340.1 340.  341.7 362.  338.3 339.2 336.7 337.
+ 343.9 345.4 342.5 343.2 336.  335.2 349.3 337.4 339.2 336.9 337.8 339.1
+ 338.9 339.7 340.8 338.1 339.3 339.  339.2 339.  342.7 342.9 343.2 343.2
+ 344.3 344.1 343.6 338.8 340.2 340.8 340.9 337.3 339.9 339.6 340.  337.1
+ 337.5 338.7]</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>[240.2 243.3 242.8 241.3 239.9 239.3 236.9 236.9 234.8 237.9 242.  239.8
+ 238.8 240.3 242.9 238.5 239.4 237.6 238.9 240.7 240.4 239.5 237.1 237.3
+ 240.8 243.  241.6 242.8 239.7 237.1 238.3 238.2 234.  237.7 238.9 242.2
+ 237.7 240.  239.1 237.7 240.3 241.  237.3 240.7 235.4 242.  240.8 238.7
+ 240.7 241.8 240.2 240.4 238.7 239.4 237.2 238.7 241.9 244.7 242.9 239.7
+ 238.5 238.4 237.8 241.6 243.  240.2 240.  240.7 239.8 238.  242.1 240.3
+ 237.5 242.6 238.5 239.8 239.3 239.2 240.2 239.6 239.6 240.6 231.8 236.1
+ 240.1 241.6 240.1 239.8]</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>[172.3 168.9 171.2 171.5 171.8 170.9 173.1 171.2 168.9 172.  172.8 173.2
+ 170.1 173.2 171.3 170.9 170.  172.8 172.7 170.2 174.1 176.3 172.5 172.7
+ 172.4 173.6 172.7 173.1 169.5 174.1 174.7 174.6 166.9 172.2 171.9 174.3
+ 174.2 176.7 171.5 174.3 173.1 173.7 171.6 174.6 277.6 171.1 171.2 176.
+ 175.7 172.9 172.6 276.3 175.3 172.9 175.9 173.1 171.4 171.5 280.9 170.4
+ 174.9 172.  178.4 172.5 170.9 172.8 172.9 172.  284.1 169.3 173.8 168.8
+ 172.6 172.4 169.8 176.1 174.4 176.4 171.5 170.8 171.3 171.5 169.2 170.
+ 174.4 174.9 173.5 173.5]</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>[112.7 108.  124.3 110.4 111.2 108.9 113.8 120.5 138.3 117.9 117.5 118.1
+ 141.2 113.5 133.8 116.1 111.2 115.6 114.5 116.5 110.  114.5 108.9 116.2
+ 120.6 117.3 117.2 145.3 138.5 141.1 114.1 141.2 136.3 121.2 119.5 115.6
+ 118.  118.  112.4 135.  115.2 116.  115.1 144.4 151.7 116.  120.4 119.8
+ 138.7 138.8 138.5 141.7 134.7 139.1 143.6 112.9 119.  114.6 118.9 118.9
+ 115.  134.6 137.8 135.6 107.3 136.9 119.  114.  117.9 118.4 119.1 117.5
+ 142.  139.2 120.  120.3 117.4 132.3 112.8 117.  114.2 113.1 114.5 116.4
+ 136.7 113.  112.2 109.9]</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>[90.  87.4 78.8 72.3  2.8 52.4 80.2 57.3 71.8 71.3  3.3  3.1 54.8 70.9
+ 83.5 53.7 58.5  4.  47.3  1.8 56.4 57.5  4.1 70.8 86.6 66.8 66.6  1.3
+ 66.9 67.9 66.8 60.5 10.9 64.9 79.  73.7 73.4 67.  62.8 66.6 68.7 45.7
+ 62.9 68.6 79.3 75.5 74.9 75.3 63.1 59.6 71.3 66.1 68.  67.9 80.2 76.1
+ 84.8 81.2 82.6 81.  70.8 69.7 76.9 64.1 90.9 76.4 87.2 78.5 79.3 68.8
+ 59.7 77.7 82.4 65.5 67.7 50.1 85.3 89.5 74.6 76.  72.7 70.8 77.3 82.2
+ 70.4  1.1  1.  59.6]</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>[ 3.3  6.2  3.3  3.   1.   6.4  2.   1.9 49.8  1.3  3.1  1.   2.   1.1
+  1.8  1.3  2.8  2.4  7.6 61.9  1.2  9.5  2.3  1.1  1.2  3.7  2.7  4.2
+  1.9 60.1  2.8  1.2  2.   7.3  2.   1.4  4.3  1.   1.6  3.3 79.5  1.6
+  3.4  1.1 55.1  6.7  2.8  1.1  2.4  1.3  3.4 67.9  9.5  2.1  2.1  1.
+ 56.3  3.4  1.2  1.   3.7  1.3  3.3 54.   7.3  1.2  6.7  1.9  1.  61.7
+  1.2 39.5 75.6  3.6  1.3  1.2  6.1  6.6 78.4  3.6  2.  56.9  1.8  9.5
+  3.1 66.1  3.4  9.5  3.4 45.5  9.5  4.  48.6 67.1]</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>[ 1.   1.1  1.2  1.   2.1  8.1 79.8  1.3  1.2  2.8  1.8  6.   2.5  2.7
+  2.5  1.8  8.   5.7  1.3  1.9  2.   1.3 75.6  2.   2.1  1.9  7.3  1.8
+  9.5  2.5 46.6  3.6 48.1  1.4  2.1  2.8  1.2  1.6  1.3  1.2  1.   2.5
+  1.3  1.2  1.   1.2  1.   3.   6.   6.4 60.3  2.1  1.3  1.1  2.   2.7
+  1.3  3.1  2.7  1.9  1.2  9.5  3.   1.3  3.6  5.   2.9  3.4  4.3 67.3
+ 75.3  1.2  1.1 48.   1.5  1.  10.   8.  55.1  2.5  4.   2.1 63.6  1.8
+  1.4  9.5 63.1  1.  67.9  9.5  1.8  2.   4.8  2. ]</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>[ 53.4   8.3   2.1   2.7   3.4   3.7   1.9   2.7  96.3  69.5  75.1   5.2
+   9.5   9.5   1.2   1.8   1.3  48.9   1.2   2.8   4.8  76.4   4.4   8.4
+   3.2   2.   84.1   2.7  10.    4.6   2.    3.8   9.5   2.    9.5  78.8
+  10.    1.2   5.7  65.    1.9   1.2   9.5   1.2   3.    7.   89.    3.
+   3.3   3.3  45.8   1.8   1.2   3.    6.    3.    1.2   6.7   3.6   2.8
+   9.    1.    3.3  83.3   2.   59.    2.    9.5   9.5   9.5   8.8   2.7
+   4.2 107.3   8.1   4.5   9.5   1.2   1.8   3.6  47.5   2.7   2.8   2.
+   1.2   2.4   3.   10.    4.    3.    3.1   4. ]</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>[  1.    2.5   7.2   4.    2.5   2.4   6.5   4.8   4.5   3.1  10.    1.1
+   1.8   3.2  62.6   3.3   3.    1.1   2.    1.    1.2   5.    1.5   1.2
+   5.5   2.4   1.9   2.7   2.1   2.7   7.8   4.2   1.2   2.7   1.4   1.
+   1.2   1.2   1.9   4.8   2.9   9.5   4.9   9.2   7.2   1.3   9.5   4.1
+   9.5   5.    2.4   4.5   1.    6.1   2.5   2.3   1.1   3.    1.3   1.2
+   1.3  66.8   4.    5.  106.9   1.3   1.1  10.    1.1   2.4   1.2  84.
+  58.6  10.    2.8   2.5  52.9  54.    3.4   8.8  71.7   2.    1.2   1.2
+ 108.   53.8  91.3   7.5   2.7   6.6   3.8   3.2   5.   53. ]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1723,20 +2975,176 @@
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>[1780.9 1885.2 1993.6 1985.8 1926.4 1872.9 1906.8 1920.9 1952.8 1961.
+ 1887.7 1810.2 1910.5 1943.9 1929.3 1861.7 1866.8 1906.  1898.1 1888.6
+ 1862.  1878.9 1933.  1953.9 1898.6 1845.4 1881.7 1902.7 1911.6 1907.4
+ 1851.5 1800.6 1868.4 1933.1 1917.5 1864.1 1903.6 1942.6 1904.3 1887.3
+ 1918.2 1936.5 1866.1 1887.3 1950.3 1898.  1843.9 1860.5 1886.8 1920.4
+ 1931.4 1957.5 1964.3 1877.4 1883.4 1954.9 1897.2 1898.  1895.1 1893.3
+ 1946.9 1933.  1903.6 1906.3 1844.3 1788.  1905.7 1886.8 1898.5 1895.8
+ 1893.1 1927.5 1924.4 1858.3 1850.2 1856.9 1910.4 1944.5 1890.9 1872.4
+ 1891.1 1898.7 1910.6 1879.3 1839.  1915.7 1891.1 1882.1 1881.4 1880.3
+ 1918.7 1948.5 1868.4 1857.4 1894.3 1927.1 1895.6]</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>[1366.6 1379.8 1375.9 1369.2 1372.1 1367.  1402.1 1382.6 1372.1 1364.3
+ 1353.5 1346.4 1375.7 1384.  1351.5 1359.4 1363.4 1374.5 1351.4 1361.6
+ 1366.  1374.4 1370.6 1349.1 1357.2 1368.3 1379.8 1385.  1351.3 1362.1
+ 1377.6 1366.9 1352.2 1359.4 1338.2 1355.1 1365.8 1371.4 1348.2 1342.5
+ 1358.5 1372.8 1370.1 1351.8 1358.7 1357.3 1359.9 1362.6 1353.2 1351.6
+ 1362.5 1369.1 1367.4 1349.8 1374.1 1377.2 1362.4 1338.8 1344.4 1367.
+ 1373.3 1368.1 1360.5 1354.4 1344.  1368.4 1386.1 1355.5 1353.1 1356.9
+ 1348.4 1365.4 1378.7 1370.8 1352.2 1382.2 1376.1 1361.2 1363.2 1355.5
+ 1345.5 1358.7 1360.3 1354.8 1342.7 1355.  1365.8 1342.2]</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>[957.1 963.2 962.3 965.3 959.8 952.7 956.  956.1 954.5 950.1 951.8 961.6
+ 952.1 963.8 958.8 961.2 961.7 953.5 967.2 954.2 959.8 954.9 955.6 973.2
+ 952.5 970.2 960.9 949.1 965.  962.2 961.9 961.7 960.3 961.1 941.4 962.5
+ 959.  962.7 958.4 953.5 956.9 954.2 956.9 959.9 941.6 954.1 953.2 967.6
+ 964.3 951.7 944.3 945.3 947.8 954.2 943.9 972.4 954.2 956.6 951.1 954.5
+ 951.8 956.3 959.  948.2 949.3 969.8 952.3 952.  938.6 944.1 954.1 960.5
+ 967.5 962.6 939.9 954.1 970.7 973.  965.6 955.7 956.7 957.6 950.7 954.1
+ 952.3 953.6 960.4 958.5]</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>[685.2 689.7 689.8 685.5 687.9 692.3 682.6 686.  695.5 693.6 690.3 692.5
+ 692.5 691.1 694.8 694.7 678.4 681.1 687.8 693.8 690.8 689.7 689.3 693.8
+ 688.2 689.  682.2 687.6 683.5 689.1 685.5 685.2 689.2 684.4 682.2 688.7
+ 691.9 687.8 680.3 688.9 693.  687.  680.6 677.9 680.  683.  687.1 681.9
+ 687.8 685.3 688.6 694.7 688.  690.7 679.1 681.7 688.  681.5 688.6 684.
+ 677.2 688.2 692.  697.5 688.3 693.  686.6 681.2 687.3 695.8 687.8 690.3
+ 679.1 688.4 688.  682.2 690.3 683.6 686.4 686.4 689.1 680.6 681.7 697.4
+ 688.1 685.3 684.7 696.7]</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>[486.2 486.  480.2 478.1 481.6 485.8 487.  487.2 482.4 486.6 486.8 485.9
+ 489.5 489.6 494.3 491.2 484.2 484.3 487.3 482.7 480.2 483.8 486.3 487.
+ 482.4 489.1 486.6 487.3 486.8 485.4 484.2 482.  482.5 482.2 482.8 486.5
+ 484.2 482.5 479.4 483.6 484.8 481.  482.2 489.1 487.3 486.6 482.2 485.3
+ 486.5 487.7 488.7 488.2 482.7 485.9 484.8 492.1 484.1 483.6 484.8 487.6
+ 485.2 483.9 483.5 488.2 475.1 492.4 487.7 488.2 486.3 486.5 487.4 487.9
+ 488.7 488.2 482.4 482.9 484.7 480.2 484.1 488.5 488.7 485.2 485.3 487.3
+ 491.5]</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>[337.  335.4 337.8 335.6 327.5 341.3 346.4 340.3 342.9 344.5 342.  341.
+ 352.5 346.1 342.  345.2 347.4 350.1 341.6 334.3 339.4 317.8 343.8 336.9
+ 343.4 342.7 340.7 343.4 346.9 343.2 340.7 339.  346.9 342.6 344.9 343.8
+ 342.2 342.1 339.8 342.2 342.6 337.5 341.4 336.7 337.7 342.7 342.7 346.9
+ 343.4 343.3 350.  348.4 345.8 347.2 329.6 338.8 340.  349.  349.6 342.8
+ 346.4 352.6 347.1 343.3 346.3 332.  344.2 343.8 349.9 347.2 341.3 336.7
+ 337.7 341.9 339.3 339.3 337.2 348.7 341.8 340.1 345.1 341.6 340.9 347.1
+ 344.2 342.7 343.4 340.7 344.  342.6 340.5 339.6 341.7 341.7 341.1 342.4
+ 344.3]</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>[246.  241.5 241.3 242.5 241.1 240.2 244.9 241.6 242.8 239.6 241.6 241.3
+ 240.2 244.2 242.9 239.9 239.  240.2 240.3 241.8 242.  242.8 241.8 243.
+ 243.6 239.8 243.9 242.8 242.4 240.7 240.6 241.8 240.9 243.2 245.1 242.1
+ 244.5 242.7 242.4 241.  241.9 240.8 242.8 245.3 241.9 241.7 245.6 242.6
+ 243.6 243.6 242.9 241.7 242.  243.3 243.2 243.  246.9 243.4 245.2 245.8
+ 242.  241.9 241.2 243.3 241.2 245.3 245.3 243.3 246.7 250.  244.9 242.7
+ 242.5 243.5 246.8 243.1 243.8 242.6 242.  242.2 244.9 246.4 244.2 239.1
+ 239.8 240.4 242.9 242.8]</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>[176.4 174.6 290.1 178.2 179.6 292.5 176.1 178.9 177.5 175.  172.5 179.3
+ 174.2 175.  178.8 175.4 176.  174.3 179.4 181.9 183.7 174.8 287.6 176.
+ 175.3 176.3 179.5 176.4 180.2 175.7 173.  177.1 295.8 175.1 177.1 175.8
+ 176.7 175.3 179.6 180.4 180.2 175.9 176.5 177.1 179.6 175.2 176.  173.
+ 174.1 174.1 175.4 170.6 175.3 177.1 178.8 174.1 176.9 174.7 285.8 174.7
+ 179.6 176.5 176.8 169.5 176.4 175.8 175.9 175.4 178.4 174.1 178.2 175.7
+ 179.4 178.9 177.  176.4 177.6 179.3 179.3 180.4 179.4 178.9 174.4 178.9
+ 178.3 292.4 179.5 179. ]</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>[118.  118.5 142.4 140.5 121.1 116.8 140.8 120.6 123.3 137.7 135.  122.6
+ 118.8 122.2 128.3 115.2 136.4 144.  142.9 123.1 124.5 121.3 140.8 122.4
+ 144.9 115.7 121.3 124.2 123.  118.8 137.1 144.6 124.1 122.2 127.1 117.6
+ 141.8 122.6 123.1 141.2 121.8 125.  124.7 143.  150.5 124.6 125.7 119.7
+ 119.9 118.3 120.7 120.9 122.7 123.7 126.3 121.3 117.4 121.3 122.9 119.5
+ 122.9 139.  122.2 123.2 124.1 149.5 117.  122.4 122.3 121.3 123.4 122.8
+ 143.  127.  122.  123.5 123.6 122.3 122.2 122.2 123.3 125.  122.9 120.
+ 121.4]</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>[ 91.4  71.4  84.4  85.7  85.3  81.3  92.6  85.3  82.4  84.7  83.2  85.
+  85.7  84.7 120.6  84.   74.2  89.5  92.3  84.6  89.4  90.1  93.3  89.1
+  96.6  86.5  82.   92.3  91.8  81.7  86.9  90.1  91.3  93.8  80.   95.8
+  89.2  94.7  87.5  87.6  89.9  86.7  84.4  89.6  81.8  94.2  84.3  93.5
+  87.2  87.1  83.5  89.1  93.2  91.1  87.4 100.1  92.3  92.   92.4  91.1
+  92.   96.5  93.2  86.   83.9  89.   95.8  81.4  83.   89.5  87.6  86.1
+  92.4  92.3  80.7 100.8  97.4  92.6  93.3  92.2  97.5  97.5  81.2  87.6
+  96.2  98.1  97.1  93.4]</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>[ 2.  42.  63.4 69.  77.8 74.8  8.2 81.8 60.8 85.5 10.  86.3  1.3 68.8
+  1.1 83.4 66.4 61.4 75.3 61.   1.2  3.1  1.  66.1  3.4  2.1  1.8  1.4
+ 54.1  3.  68.5  1.1 67.6 44.1 49.5  2.   1.1  2.8  4.8  1.2  9.5 77.
+  9.5  1.1 42.  59.9  5.  73.3 73.6 71.4 10.   2.4 76.5  4.6  9.5  2.5
+ 40.9 63.4 70.6 67.6 58.9 53.8 40.5 52.5  1.8  3.4  1.1  3.  52.   1.1
+  3.3 52.8  1.8 74.8  4.  57.7 45.9  1.2  2.3 54.2 60.5  2.5 67.5  2.5
+ 65.5  2.5 59.7  1.  62.7  3.   1.8  2.1 61.   1.8]</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>[ 1.9  1.   1.3  6.6  3.2  2.8  1.  61.5  3.  73.7  1.8  1.8  3.   3.2
+ 62.3  1.8  2.7  2.7  2.1  3.   2.  81.7  3.4 73.6  7.3  1.3  1.8  1.1
+  3.  55.   1.3 56.6  3.4 82.7  1.3  7.6  1.8  3.   6.6  2.4  6.2  2.7
+  4.   1.3 78.3  2.4 10.   6.9  2.   1.2 70.7  1.4  3.   2.   4.2 75.9
+  3.6 64.8  9.5  9.5  8.8  5.   7.  77.5  1.   1.1  4.   2.  72.   3.7
+  5.6  3.3  3.7  3.  49.9  4.   2.   3.   4.2  9.5  7.6  1.8  1.8  9.5
+  3.1 73.5  2.1  3.   2.7 79.2 69.5  2.7 56.7  1.1]</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>[  2.7   2.    3.3  90.7   1.8   1.8   2.7   1.3   4.2  57.5   1.    7.
+   2.1   2.    4.    1.9   9.1  10.   75.8   9.5  47.5   1.3   1.9   2.
+   1.3   2.5   9.5   1.9   2.7   2.1   5.    3.3   1.    6.2   7.2   1.8
+   1.3   4.    9.5   5.    1.3   3.8   3.3   8.4   9.1   1.2   3.    3.4
+   7.    2.1   1.3   3.4   9.5   6.9   5.2   2.3  54.4   1.2   1.    3.3
+   1.4   2.    9.5   3.1   2.4   2.9  80.6   1.    3.4   5.    5.    4.
+  10.    5.    2.    5.3   2.8   3.1   1.    2.    1.2   1.2   1.    5.5
+   6.   10.    1.1   1.   79.2   1.3 111.7   7.6   1.    4.5]</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>[118.2   3.3  56.4  65.1   1.3   2.    1.2   8.3   5.   39.9  58.1  66.3
+   2.3   4.1  69.4  49.   60.8  65.1   3.   54.6   3.   53.4   9.1  58.6
+   2.7  56.5  63.    1.3  78.1  47.6  69.7   1.8  73.3  57.5  55.2   3.2
+   1.4   2.7  71.2   1.    5.   56.    1.1  59.2   7.2   2.5   2.    8.9
+   1.3  76.    1.3   6.3  43.5   2.8   2.    5.    7.    1.    6.9   2.7
+   7.2  82.9  40.1   4.1   1.8  52.7   2.4   1.8   3.6   7.2   9.2  83.6
+   5.    2.3   3.3   1.8   6.8   1.3   9.5  64.    3.3  10.    2.7   3.3
+   4.4   5.3  67.    3.2   1.1 169.8  50.    3.5   2.1  79.9]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1844,20 +3252,176 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>[1965.2 2138.4 1883.7 1886.8 3190.9 1997.1 2008.4 2004.2 2004.6 1960.6
+ 2260.6 2712.9 1942.3 1986.  1958.7 1928.9 1946.8 1974.8 1988.2 2309.7
+ 3583.9 1989.5 1970.  1980.1 1956.9 1973.4 1994.4 1932.5 1905.5 1948.
+ 1814.  1738.8 1913.5 1981.7 1965.8 1914.9 1966.7 1941.6 1909.5 1897.5
+ 1934.5 2111.3 3792.6 1908.3 1945.2 1957.9 1927.7 1948.6 1915.6 1950.2
+ 1990.4 1996.6 2106.8 3217.2 3106.3 1973.5 1981.9 1986.5 1967.8 1940.3
+ 1938.  1962.  1957.6 1956.4 2111.7 1910.9 1969.  1947.7 1959.2 1983.8
+ 1955.1 1943.5 1930.7 1965.2 1957.  2348.6 2143.3 2020.8 1971.9 1962.2
+ 1945.6 1945.4 1945.9 2017.5 1965.1 2089.7 1985.4 1920.4 1932.  1943.8
+ 1980.6 1973.9 2082.6 2041.2 2040.1 2080.6 2044. ]</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>[1382.8 1368.2 1360.4 1369.5 1373.5 1370.6 1375.  1347.3 1357.1 1379.8
+ 1373.4 1375.5 1379.7 1395.1 1377.4 1363.8 1376.4 1384.4 1403.7 1370.5
+ 1350.6 1361.9 1372.2 1382.8 1363.8 1375.8 1356.7 1378.2 1375.6 1371.5
+ 1366.  1368.4 1372.  1375.1 1373.1 1387.9 1364.1 1377.1 1366.9 1395.8
+ 1400.1 1376.5 1367.3 1379.2 1370.  1395.5 1375.5 1379.6 1361.6 1379.8
+ 1396.6 1385.8 1354.8 1362.2 1396.5 1411.  1355.  1366.2 1354.1 1363.
+ 1379.2 1384.5 1377.1 1375.2 1354.4 1391.2 1363.5 1373.6 1369.5 1360.2
+ 1365.4 1373.4 1377.1 1377.1 1342.1 1384.8 1373.5 1368.1 1363.9 1371.7
+ 1373.  1353.9 1357.9 1393.  1386.8 1375.8 1384.6 1375.2]</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>[963.4 966.7 960.5 951.2 941.3 952.8 967.2 959.4 945.4 951.8 955.2 924.8
+ 952.1 963.8 974.4 967.1 961.4 963.5 952.4 950.5 947.6 968.3 950.8 969.1
+ 971.8 964.9 962.5 965.4 962.1 967.7 989.9 960.6 962.7 959.7 956.4 971.7
+ 962.5 959.7 958.9 962.3 991.5 950.  968.7 968.  951.6 968.3 959.7 948.7
+ 960.8 958.  975.8 958.4 962.5 967.3 960.1 960.3 966.1 957.1 964.7 958.1
+ 979.2 954.1 964.5 964.9 971.1 962.4 982.1 964.6 950.1 955.4 958.6 954.1
+ 942.  964.4 962.2 960.1 961.5 952.3 962.3 951.9 965.2 981.1 955.1 961.7]</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>[687.1 674.  705.1 704.2 692.6 701.1 688.3 697.1 690.5 683.4 690.1 694.6
+ 696.2 694.  690.4 694.1 700.3 674.  691.4 693.8 699.  700.4 693.3 687.
+ 689.9 698.5 699.  695.3 698.9 697.9 696.3 698.  691.3 673.  686.2 694.1
+ 707.2 703.8 695.4 697.1 698.3 698.3 695.  680.  690.7 701.3 699.7 692.9
+ 694.5 696.7 694.3 701.8 698.3 700.2 698.  697.3 685.5 693.5 700.2 698.9
+ 693.1 697.9 695.1 694.5 693.8 696.1 693.8 699.6 700.2 700.  691.3 676.6
+ 697.  678.1 697.6 696.6 690.5 692.8 695.2 690.  690.  707.1 696.9 694.1
+ 686.6 673.6 693.6 693.1]</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>[549.1 491.1 487.7 481.8 486.  487.  690.8 489.6 485.4 483.  485.  487.8
+ 486.9 487.  350.4 529.5 488.8 487.6 479.7 479.9 487.6 488.9 489.7 489.9
+ 819.5 488.7 482.1 488.  483.9 481.8 489.7 492.9 488.7 490.7 723.  492.1
+ 484.3 483.  481.4 484.  486.6 488.4 485.  485.7 680.5 496.3 489.7 484.9
+ 484.5 489.8 489.9 490.3 491.5 489.5 780.3 492.7 484.7 486.5 490.2 485.8
+ 485.1 486.4 487.1 490.9 947.4 511.8 491.1 488.5 493.5 486.7 490.3 490.3
+ 485.8 490.8 581.  494.6 487.8 491.1 489.  486.1 488.2 490.3 503.2 494.1
+ 487.7 487.9 486.7 489.5]</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>[ 346.6  335.   332.   328.6  318.   347.1  347.5  342.4  342.   344.7
+  347.   334.2  355.3  346.1  340.1  341.3  341.3  343.5  348.6  348.4
+  341.7  355.7  350.8  340.1  343.3  343.6  345.2  341.7  340.5  343.5
+  348.1  331.6  372.4  348.9  348.1  344.4  341.9  344.5  341.4  340.6
+  342.4  346.8  342.5  355.7  343.9  345.1  342.3  342.4  345.1  344.1
+  342.7  341.   343.9  348.7  355.7  347.3  342.5  343.5  343.6  344.
+  342.2  343.4  343.   343.   349.3 5000.   375.2  349.6  344.5  349.4
+  348.9  346.7  343.   346.   345.2  341.2  517.4  354.5  353.2  346.9
+  344.8  344.   343.2  345.8  346.3  371.   346.7  344.4  341.6  342.4
+  347.6  348.1  360.9  354.9  346.9  342.3  345.6]</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>[244.  240.7 240.  242.1 245.2 240.3 242.1 238.1 239.4 239.8 240.  245.4
+ 239.  241.5 244.5 241.5 240.9 243.1 242.7 239.2 243.1 241.1 245.2 243.7
+ 242.3 241.3 243.4 244.4 243.8 246.1 243.1 244.6 246.5 241.4 240.7 244.2
+ 245.7 243.9 246.3 245.3 243.1 242.5 245.9 242.9 241.1 242.9 244.8 241.8
+ 243.6 244.2 245.9 244.7 247.1 246.8 245.  243.1 244.8 245.  244.9 244.7
+ 246.1 242.5 245.3 247.8 245.7 244.9 244.4 246.5 246.9 245.6 245.  244.6
+ 248.  245.6 248.1 247.1 246.7 248.  247.9 242.9 244.7 251.3 250.  243.5]</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>[279.7 295.7 284.7 288.5 176.8 177.4 175.8 174.7 178.2 173.  174.8 171.6
+ 286.4 279.8 172.6 283.9 173.7 179.1 176.1 179.  177.4 177.9 174.1 283.9
+ 174.5 290.3 176.  177.7 176.  177.4 176.  175.4 177.3 176.6 177.  179.6
+ 287.6 295.1 180.1 302.1 180.3 178.1 177.6 178.1 176.7 179.2 178.6 179.2
+ 177.4 177.4 178.  179.2 178.9 304.2 176.6 180.6 178.7 304.1 180.1 181.7
+ 178.  180.8 177.4 304.2 181.2 183.9 180.4 180.8 176.4 182.  177.8 181.9
+ 181.6 315.9 304.  179.8 180.9 180.5 181.5 179.8 181.  182.9 183.9 186.3
+ 306.1 179.4 180.7 180.8]</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>[135.8 136.6 130.6 138.8 134.7 137.9 139.1 135.5 146.4 122.4 139.2 135.1
+ 138.1 119.8 116.  146.6 121.2 142.1 137.9 137.6 137.9 144.4 126.9 122.4
+ 117.1 147.1 120.6 144.9 145.5 142.5 138.6 140.9 142.9 121.5 117.8 150.1
+ 122.9 145.5 123.9 126.5 146.7 146.4 146.8 143.5 116.  148.4 124.7 149.5
+ 125.  128.8 150.2 146.4 148.4 150.7 144.1 153.6 126.3 125.6 142.8 127.9
+ 130.2 149.3 148.6 152.2 152.9 155.8 127.1 126.4 125.7 126.3 148.5 153.4
+ 150.2 148.7 149.6 152.5 130.8 155.7 156.5 155.1 152.1 127.4 125.8 124.5
+ 143.3 144.  147.  152.7]</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>[ 84.7  82.3  76.1  77.5  74.1  83.4   3.3  79.7  79.   76.4  80.1  84.5
+  84.8  83.   92.3  66.1  81.8  82.5  81.2  83.9  83.7  88.7  85.4  93.1
+  92.5  87.6  91.4  87.8  84.4  86.1  87.5  88.8  86.6  87.6  97.6  83.1
+  90.1  88.7  89.2  87.8  93.8  93.8  89.8  89.5 100.9  81.7  94.5  87.5
+  90.3  88.3  88.3  90.7  93.   95.1  96.9  92.  100.1  91.   92.4  97.5
+  95.7  96.5 100.3  98.1  88.3  99.9  94.   98.3  97.2  91.7  90.2  99.4
+ 102.3  99.2 105.4 103.7  96.9  94.7  91.   96.6 105.5 101.9  93.7  98.9
+ 102.4 101.2  94.9  93.4]</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>[ 3.2  3.3  3.7  5.   1.1  2.   9.5  1.2 70.4  3.  51.5  1.1  1.1  6.7
+  2.3  5.   2.7  4.1 72.7  5.   1.2  4.  10.   9.5  2.4  4.   3.3 60.2
+ 53.7 75.2  2.5 54.3  3.2  4.   2.  40.8  1.7 10.   1.  59.6 89.4  9.5
+ 73.6  5.   9.5  1.  68.   3.6  9.5  9.5 81.6 84.3  3.4 83.3 65.  57.7
+  1.2 71.7 61.7 72.9 82.3 83.  80.2 57.  81.1 69.  67.3 78.5 83.5 59.7
+ 82.2 89.5 99.8 59.9 78.5 75.7 89.  72.1 62.6 74.3 78.1 85.2 91.5 91.7
+ 78.7 82.9 69.4 93.5 78.2 89.  87.8 81.2 75.3 87.3]</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>[  2.    1.1   1.    4.    1.3   4.6   9.5   1.9   3.1   2.7   1.3   1.1
+   3.    8.    3.3   1.    1.2  43.2   5.    3.4   1.5   3.1   1.2  92.9
+   3.2  95.7   3.7   2.1   2.    2.    2.1   2.7   3.   91.8   7.   93.2
+   1.    2.    3.3   5.3   1.2  64.5  10.    4.  107.2  10.   53.9   2.1
+  89.4   4.   80.   49.    1.7   1.3   2.   98.6   7.1  93.5   1.3  92.9
+   5.   86.8  66.3  81.5   2.5   6.3  97.8   1.3  96.5   1.3  87.6  64.7
+  93.2   1.3  90.6  68.6  62.7   2.   77.3  89.6   2.   85.7  60.   94.6
+  75.2  98.5  74.6  76.6  78.5  90.2  91.7  65.1  77.5  46.9]</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>[ 98.9   1.3   4.8   2.    2.    3.    3.    3.    7.7   1.9   1.6   1.2
+   1.1   3.1   6.9   8.6  79.6   7.    3.    1.   90.6   3.3   2.    1.2
+   1.8   8.1   7.    6.5   7.3  61.1   2.4   1.2  10.    1.3   1.3   3.4
+   3.4   2.7   3.3   1.    5.8   6.1   2.8   1.2   1.8   9.5   1.    8.5
+  53.8  63.5  74.8   1.2  10.    2.1   3.    1.2  77.9  84.5   9.5  66.9
+  58.   82.7   1.2  52.1   4.4   1.3 110.6 114.3 108.1  93.8   3.  105.9
+ 109.3  75.7   7.    5.  103.9  55.7  66.6  58.6  90.7  77.7 108.2  56.6
+  71.9  74.7  57.4   9.5  69.3   4.6  64.2 117.9  79.6 105.7]</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>[  1.1   9.5   6.3   7.2   3.4  10.   10.    2.    1.    1.8  54.8   9.5
+   5.4   1.8   8.2   4.3   1.    1.2   2.3 139.9   1.    8.8   5.    1.2
+   2.5   1.1   3.7   3.7 116.4   1.8  96.9   4.    3.3   2.    3.2   2.
+   5.7   3.    1.2   3.    3.6   9.5   5.    7.    7.7  79.6   4.    1.8
+  54.5   1.2   2.4   2.   69.9  79.8 108.9   2.    4.3  69.8 123.3  69.8
+   3.   91.9  96.8   2.    4.2   1.3   6.3   1.   99.  113.7  88.5 146.5
+   1.8 137.3 154.2  88.   69.1   9.5 118.4 149.9 104.5   6.9   3.   10.
+ 165.2 142.1  87.1   4.4  92.  168.7 120.9  91.7  78.5 209.1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1965,20 +3529,178 @@
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>[2139.  2094.5 2136.9 2175.2 2197.1 2126.2 2109.8 2076.7 2069.  2090.7
+ 2080.7 2061.5 2130.7 2130.4 2185.5 2158.1 2136.1 2090.6 2109.4 2113.3
+ 2052.9 2042.2 2152.3 2137.3 2176.2 2107.3 2109.  2086.8 2096.7 2098.3
+ 2083.9 2080.9 2029.3 2124.2 2092.4 2073.7 2096.9 2062.7 2056.  2085.5
+ 2133.  2082.4 2080.6 2082.5 2100.2 2081.8 2070.  2065.5 2025.2 2049.
+ 2030.2 2078.4 2068.9 2054.1 2106.9 2098.  2085.1 2108.7 2079.9 2050.6
+ 2089.7 2076.8 2091.8 2083.6 2050.4 2113.3 2107.3 2094.8 2040.8 2093.8
+ 2042.8 2065.4 2055.2 2024.  2123.9 2097.4 2107.6 2064.9 2123.4 2082.1
+ 2073.5 2086.1 2027.7 2041.8 2122.4 2112.4 2092.2 2077.7 2131.  2086.7
+ 2073.4 2066.4 2141.6 2136.2 2120.2 2081.9 2078.7]</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>[1468.4 1482.4 1468.4 1457.5 1444.9 1456.4 1476.3 1441.6 1445.2 1422.6
+ 1411.9 1413.8 1406.6 1397.6 1459.2 1465.6 1449.8 1433.9 1440.5 1420.8
+ 1424.8 1422.9 1426.1 1423.8 1436.2 1448.6 1461.9 1454.7 1466.6 1439.
+ 1442.3 1453.7 1457.7 1451.9 1450.6 1450.2 1462.9 1451.2 1447.7 1448.8
+ 1441.6 1452.8 1448.1 1433.8 1430.7 1452.6 1443.3 1441.2 1442.1 1443.2
+ 1446.7 1459.7 1426.7 1424.7 1400.6 1449.6 1435.2 1438.7 1457.6 1456.3
+ 1447.1 1433.8 1450.  1433.5 1396.9 1443.9 1423.7 1419.1 1432.9 1451.9
+ 1448.1 1459.3 1435.6 1437.2 1417.5 1419.9 1443.8 1437.7 1417.4 1435.6
+ 1451.9 1430.  1435.7 1455.8 1439.4 1437.3 1454.1 1443.9]</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>[ 988.  1002.8  993.6  989.8  991.6  994.7 1014.9  987.   988.5  981.5
+  981.6  994.1  978.9  983.5 1035.6  993.6 1007.8  988.9  985.7  978.4
+  986.6  981.4  985.1  995.6 1028.9  992.7  999.   994.7  987.9  977.8
+  986.7  984.8  974.1  982.9 1010.6  997.1  999.2  991.5  977.6  979.4
+  979.2  981.3  985.6  994.8 1006.8 1002.4 1004.8  986.6  973.9  981.4
+  974.5  966.5  977.8  994.  1007.2 1004.1 1005.2  990.9  968.7  972.9
+  970.2  987.3  987.8  986.8 1016.5 1002.  1014.4  978.5  973.   976.5
+  976.5  975.7  984.6  974.   978.3  997.  1010.2  998.8  993.6  997.6
+  987.6  979.   970.   994.2 1003.6 1003.1 1005.3  989.7]</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>[715.8 707.1 713.7 707.8 701.8 726.  709.3 715.1 713.7 717.3 711.4 698.
+ 691.1 709.5 700.8 723.6 709.  706.3 706.3 702.7 704.9 719.5 696.  726.3
+ 714.2 703.4 700.2 708.6 711.3 699.6 702.2 703.1 691.7 714.6 698.1 715.8
+ 705.8 713.8 718.2 706.5 698.4 711.9 702.8 693.8 721.2 697.2 708.6 701.8
+ 711.6 712.1 705.8 711.5 712.5 704.9 707.7 716.3 698.9 711.5 710.6 710.1
+ 712.6 714.  710.6 711.6 712.5 712.3 719.8 721.4 712.9 699.4 706.7 714.1
+ 708.  715.  723.8 706.6 704.2 725.3 706.4 707.1 712.3 724.7 714.7 713.3
+ 696.2 710.6 716.1 717.3 718.1 713. ]</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>[504.7 512.  506.8 506.8 510.7 506.  515.8 508.4 515.8 512.1 512.6 507.5
+ 505.5 513.6 504.9 508.6 510.5 508.7 515.5 519.5 514.7 512.7 513.6 511.4
+ 505.6 505.2 514.8 515.2 512.4 511.3 512.2 511.7 509.3 512.7 511.  504.
+ 514.3 513.8 516.5 515.2 517.  516.4 515.2 507.2 518.  506.5 516.2 514.8
+ 513.1 515.7 514.3 512.6 517.  511.3 508.4 499.8 511.3 507.9 511.9 517.7
+ 520.5 513.3 515.4 510.9 508.4 499.9 514.2 522.5 508.7 508.9 508.8 505.5
+ 509.3 520.8 525.4 492.9 517.3 515.6 513.7 510.9 510.6 514.  531.8 512.4
+ 504.7 505.6 509.4 509.7]</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>[355.9 357.3 362.6 360.6 357.3 360.7 356.9 358.2 360.8 362.5 360.3 359.1
+ 359.7 358.1 358.  361.2 360.2 359.3 359.7 359.7 359.  361.  362.9 359.6
+ 358.6 361.1 363.5 359.  361.1 359.1 360.4 357.9 358.6 363.6 363.6 358.8
+ 359.7 364.5 359.5 360.2 358.7 362.1 355.2 357.5 363.7 364.4 364.3 359.2
+ 364.1 360.9 367.8 366.3 366.  357.9 358.8 360.6 361.1 364.5 359.3 360.7
+ 358.2 364.8 361.1 362.2 361.6 365.1 362.4 360.9 367.8 363.1 360.  364.2
+ 365.3 366.  366.7 371.5 368.2 368.  368.5 369.9 368.9 369.7 363.3 364.8
+ 369.  368.9 370.1 370.1 368.9 365.7 369.4 368.5 365.4 367.8 369.2]</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>[254.9 255.6 254.5 256.3 258.9 258.9 251.7 251.  254.2 253.9 256.2 252.8
+ 248.9 250.5 257.2 255.6 257.7 257.4 256.2 258.2 255.  256.5 248.1 261.2
+ 256.9 256.5 262.2 261.5 258.8 257.7 256.2 254.3 255.4 255.4 259.6 258.3
+ 261.2 260.8 260.2 256.  256.2 255.6 260.1 256.8 260.1 259.4 262.1 258.3
+ 259.8 258.8 258.7 255.3 261.5 257.2 263.  261.2 262.7 260.2 257.  257.5
+ 258.6 255.6 262.9 256.7 262.8 260.3 259.7 259.2 260.5 258.4 259.4 256.8
+ 263.7 260.6 262.2 258.3 258.1 260.1 259.3 259.3 259.1 262.5 256.2 260.6
+ 260.6 261.1 261.  263.3]</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>[465.1 456.  449.4 441.7 435.8 194.6 409.  420.1 436.7 453.5 445.5 432.4
+ 412.  184.2 441.2 429.2 505.4 424.1 433.7 440.3 441.2 428.1 482.5 407.3
+ 445.8 438.1 431.2 435.9 419.  436.4 438.8 436.9 427.8 423.9 443.5 445.7
+ 445.9 439.3 437.3 426.9 430.2 441.2 432.7 435.4 439.7 460.9 448.3 447.2
+ 443.  450.5 433.8 441.6 431.6 444.  439.1 456.4 458.9 448.7 436.3 430.3
+ 435.8 433.2 455.2 468.4 457.6 458.3 442.  452.3 439.9 443.  443.6 441.9
+ 450.6 475.7 432.6 506.5 444.1 448.8 442.3 461.  440.2 500.7 431.5 450.9
+ 467.6 469.4 469.6 459.9]</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>[190.8 192.  191.2 189.  181.9 135.5 188.8 215.3 192.6 190.4 185.8 184.8
+ 183.9 186.6 190.7 192.9 188.7 189.9 185.6 184.4 183.7 183.5 178.6 173.4
+ 183.  192.7 187.  186.4 179.9 185.4 189.6 186.7 184.1 179.7 176.5 186.
+ 185.6 196.5 191.9 193.4 185.2 186.8 183.  181.  178.8 187.4 191.6 194.6
+ 188.4 187.  185.8 188.  194.  181.1 186.7 182.8 180.4 192.8 190.2 195.3
+ 193.3 187.5 192.3 190.3 186.6 184.2 181.2 187.3 195.1 190.9 197.7 189.8
+ 201.3 191.7 157.2 182.5 186.6 192.1 191.6 197.2 188.5 183.8 189.8 192.
+ 193.3 188.6 184.7 196.9]</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>[119.7 119.5 117.8 116.9 119.1 124.4 120.6 123.8 123.5 125.3 122.4 117.2
+ 125.5 117.6 115.  129.  123.8 116.7 118.1 117.4 115.6 113.7 121.  120.7
+ 124.3 123.  125.3 124.  120.2 126.9 127.1 122.9 118.8 114.3 126.7 126.9
+ 127.9 126.1 120.9 122.6 119.6 120.  123.7 126.1 118.1 125.3 126.  126.4
+ 125.9 128.  130.8 125.8 125.7 123.9 125.7 119.7 130.7 132.5 137.2 130.2
+ 123.4 122.4 116.5 125.1 124.8 131.1 138.8 136.  134.  124.5 124.5 127.4
+ 124.8 122.6 121.1 130.5 118.1 143.7 128.9 123.7 124.8 129.  126.9 131.6
+ 120.2 129.3 127.5 128.7 131.1 133.3]</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>[ 95.   82.1 100.2 106.2  83.4 101.2 136.6 115.9 107.1 105.1 111.1 109.9
+ 121.5 132.2  80.3 105.2 108.  106.6 102.6 107.4 104.5  97.1 119.4  99.6
+ 114.5 109.1 106.3 109.1 113.1 117.9 115.1 117.2 107.   98.4 103.2 110.9
+ 112.1 112.2 117.8 115.  104.1 106.1 108.5 108.7 104.5 115.9 118.6 111.4
+ 115.7 110.6 114.8 111.3 112.4 106.3 116.6 107.  115.7 114.8 112.8 119.5
+ 111.5 111.2 118.1 114.1 106.  122.9 117.5 117.9 113.  106.9 108.7 108.7
+ 108.9 114.6 116.2 121.7 117.3 115.3 111.8 114.8 114.8 108.8 112.5 115.8
+ 123.7 114.9 113.4 113.8 109.5 110.3 111.4 114.5 115.5 104.7]</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>[129.6 109.9 118.3 141.8 126.5 126.4 127.4 130.1 147.4 162.4 163.9 123.9
+ 303.  116.  136.1 120.8 128.6 137.  160.2 176.3 122.3 451.5 118.3 124.5
+ 135.9 126.7 149.4 162.4 187.5   7.  239.8 704.5  97.7 120.3 128.8 142.8
+ 132.1 160.6 124.3 196.5  95.8  65.1 333.1  84.9 108.8 120.9 141.2 141.4
+ 160.9  91.3 161.6  75.9   8.  331.9 115.7 127.6 143.2 132.6 137.1 110.5
+ 128.1 105.9   1.2 182.5 121.2 127.7 139.3 132.9 122.9 121.3 113.  119.8
+ 102.1 133.9 160.1 136.7 134.1 126.1 132.7 118.5 142.6 107.5 134.2 139.4
+ 141.4 143.5 136.7  96.2 149.2 141.2 140.6]</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>[ 96.1  89.7  89.6  99.1 120.4 124.6 137.9 144.4 152.8 147.9 121.1 111.4
+ 101.8 113.6 113.1 121.9 138.  152.8 145.9 134.1 117.7 118.5 139.4 152.8
+ 138.1 141.5 141.3 139.2 118.6 165.8 143.4 115.  106.5  81.9 134.3 154.6
+ 145.8 134.7 130.6 126.9 168.2 146.8 133.6 148.1 146.8 149.3 139.9 135.2
+ 127.  131.9 121.4 179.6 147.5 147.9 125.9 134.9 129.7 116.7 147.5 140.1
+ 139.3 120.5 148.5 143.4 126.8 120.7 136.8 126.  146.4 137.  140.7 151.9
+  93.4 171.5 124.3 142.7 149.1 162.2 139.8 146.2  98.7 131.3 164.7 165.8
+ 153.3 156.  164.6 166.9 140.  127.1 140.2 139.4 115.8 148.7]</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>[281.4 283.3 261.1 597.2  81.1 315.8 290.4 332.7 338.2 377.1 193.8 315.2
+ 282.4 252.8 212.5 270.1 207.8 209.  177.6 219.9 246.2 251.6 239.7 202.9
+ 192.8 239.5 268.2 197.1 176.4 174.7 235.1 198.9 209.5 160.9 176.8 167.3
+  86.6  64.5 156.5 169.6 136.9 224.5 153.4 176.3 169.9 208.4 205.  243.2
+ 168.4 159.3 152.5 114.2 189.3 138.2 163.8 140.  148.3  86.2  86.   67.5
+  85.1 173.9 143.1 266.3 181.5 136.5 164.7 194.1 190.3 193.4 200.2 223.6
+ 141.9 191.2 145.8 203.  190.4 214.2 169.7 227.7 238.9 102.4 769.    8.5
+ 175.5 209.8 317.4 332.7 334.4 582.7 176.1 217.4 293.6 301.5]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2086,20 +3808,178 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>[2131.8 2046.5 2133.7 2226.5 2169.6 2123.1 2088.3 2047.  2049.6 2092.9
+ 2074.8 2055.  2139.  2120.5 2200.9 2196.8 2201.3 2113.2 2148.9 2183.1
+ 2054.1 2055.3 2171.4 2120.7 2232.1 2096.  2151.  2126.8 2133.4 2105.3
+ 2139.7 2043.8 2013.3 2162.2 2100.5 2067.8 2109.9 2077.3 2061.5 2133.4
+ 2176.1 2117.9 2055.6 2087.6 2102.8 2054.8 2084.7 2069.7 2022.5 2061.4
+ 2030.8 2102.2 2079.5 2028.9 2084.  2091.5 2098.8 2167.5 2114.2 2071.5
+ 2147.4 2118.7 2114.9 2114.  2013.4 2088.2 2102.6 2119.6 2041.5 2142.2
+ 2071.7 2104.1 2082.8 2019.5 2150.9 2137.9 2083.7 2029.4 2179.5 2112.8
+ 2100.1 2121.1 2036.9 2032.4 2171.7 2092.  2081.  2049.  2183.2 2133.9
+ 2116.7 2098.  2149.3 2150.9 2143.8 2066.1 2109.1]</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>[1459.6 1472.1 1458.9 1472.4 1465.2 1499.6 1491.9 1442.4 1464.4 1418.3
+ 1408.4 1426.4 1417.1 1422.3 1456.6 1484.8 1473.8 1448.9 1452.2 1422.3
+ 1438.5 1445.7 1443.4 1470.7 1429.7 1455.6 1480.5 1468.5 1493.4 1458.
+ 1449.8 1480.1 1479.8 1498.  1426.8 1449.2 1482.6 1461.2 1453.8 1455.
+ 1442.2 1469.9 1468.5 1442.4 1446.6 1461.8 1445.3 1438.4 1447.5 1443.1
+ 1450.8 1467.5 1426.4 1435.9 1399.8 1474.7 1443.5 1446.2 1463.6 1464.3
+ 1453.7 1437.6 1469.  1453.3 1400.3 1475.6 1445.5 1425.2 1445.3 1455.7
+ 1456.6 1475.  1455.8 1450.  1435.1 1434.6 1483.3 1448.8 1409.4 1445.3
+ 1474.6 1432.2 1460.5 1493.1 1428.7 1424.6 1448.9 1447.9]</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>[ 990.7 1010.7  989.   985.3  985.8  989.  1021.2  989.3  993.   981.2
+  983.4 1008.3  975.3  981.1 1027.8  991.5 1028.3  993.3 1000.1  983.7
+ 1000.8  987.6  997.7 1006.6 1022.4  987.6 1002.3 1009.7 1007.6  998.8
+ 1008.  1012.6  971.6  986.9 1005.2  995.7 1013.1 1008.5  994.3 1002.7
+ 1001.3  999.9  999.7 1005.8  996.5 1004.6 1018.3  993.9  992.3 1012.8
+ 1000.7  980.7  981.6 1010.2  995.3  999.3 1005.1 1014.6  990.8  995.2
+  989.6 1009.   999.2  988.6 1008.6 1003.6 1031.5  972.9  980.2  992.3
+  990.6  981.8 1000.9  979.3  970.8 1007.2 1034.3 1019.   996.4 1013.8
+  994.   991.3  965.5 1009.  1007.5  997.9 1014.3  992.2]</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>[713.5 705.1 716.6 707.7 697.5 731.8 714.8 722.4 716.3 727.8 719.  696.9
+ 698.6 713.6 703.9 728.  711.2 703.5 705.8 704.9 713.1 737.1 708.6 728.8
+ 726.7 704.4 697.6 714.7 718.9 704.7 700.8 709.8 688.3 716.5 699.5 727.8
+ 709.3 722.4 725.4 709.3 696.5 723.4 706.  687.6 725.8 705.4 719.6 701.2
+ 717.2 715.5 705.7 718.7 718.6 707.1 713.2 715.  697.2 711.  711.3 716.2
+ 717.7 718.3 711.5 715.2 714.3 717.8 727.5 726.2 707.1 691.9 706.3 717.8
+ 704.9 714.3 734.3 704.6 696.3 733.5 702.8 704.7 710.2 735.7 713.2 712.6
+ 695.7 711.6 719.4 712.5 717.7 708.8]</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>[501.2 511.8 502.3 502.1 513.2 505.4 520.8 505.  519.6 506.9 508.8 501.4
+ 500.4 514.6 509.9 511.  511.  500.  511.9 516.1 511.  509.3 515.2 508.9
+ 508.3 498.6 516.7 512.8 506.3 502.9 507.2 508.6 509.5 513.2 515.1 496.
+ 510.  509.5 513.6 510.2 516.4 517.3 517.9 504.5 522.3 504.1 518.6 513.3
+ 507.9 511.2 510.9 509.6 520.3 511.7 513.  495.8 510.4 498.3 507.2 518.4
+ 523.6 512.5 519.2 514.8 515.7 498.4 515.  523.5 501.2 503.  506.5 499.8
+ 511.9 530.4 529.3 486.9 513.5 512.5 514.  507.8 509.8 522.2 529.4 506.8
+ 503.  502.7 507.1 508.9]</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>[357.8 356.1 365.8 358.  355.4 367.8 358.4 359.6 363.1 364.6 362.5 364.8
+ 360.1 358.2 360.4 364.7 362.  361.4 361.  362.7 360.  364.4 365.8 359.9
+ 359.1 361.3 365.3 360.2 361.5 359.  361.  358.5 359.1 364.5 363.9 357.
+ 357.  366.2 358.4 359.8 356.4 363.8 351.4 355.8 365.7 366.6 364.  357.4
+ 364.2 359.5 369.8 367.5 368.2 358.8 360.9 358.7 360.  367.3 357.7 359.2
+ 356.1 365.4 356.6 357.7 359.4 367.4 360.4 353.9 370.3 360.1 355.9 362.3
+ 360.  365.2 362.8 371.4 365.4 364.5 366.7 370.5 366.9 368.4 354.4 357.5
+ 363.9 362.6 367.6 366.4 362.8 358.8 362.9 365.5 357.9 365.5 365.6]</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>[255.1 255.8 251.1 256.  263.5 264.4 253.1 248.8 255.6 252.4 261.8 253.4
+ 249.4 250.  259.1 259.3 257.5 257.5 254.  261.6 253.6 264.4 248.1 263.2
+ 254.2 252.2 267.1 261.8 259.9 256.6 260.4 252.2 256.9 255.9 260.8 256.8
+ 260.6 257.6 261.4 252.6 255.5 255.3 263.5 257.4 258.8 257.7 265.  256.2
+ 261.5 257.8 263.2 252.  264.5 256.5 263.3 259.6 264.  257.6 255.  253.9
+ 260.2 252.8 267.6 254.2 261.4 256.3 261.7 258.8 263.6 256.7 263.8 254.7
+ 268.2 263.7 262.8 257.  256.7 258.6 258.3 258.3 259.7 263.  252.8 265.5
+ 263.  262.3 261.3 263.9]</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>[192.2 193.3 192.2 193.5 195.  195.6 183.1 187.1 192.2 195.5 196.  192.3
+ 181.4 183.2 189.6 188.2 195.3 183.6 189.7 190.1 194.4 189.4 195.5 187.3
+ 191.7 189.8 187.3 190.8 188.6 192.6 198.  189.8 188.3 184.3 190.7 192.3
+ 192.3 197.3 191.7 189.7 191.2 194.6 195.6 193.5 193.4 199.1 188.4 197.
+ 195.5 193.4 191.3 191.7 188.  185.5 191.6 194.7 192.6 197.  188.4 188.4
+ 188.  190.5 196.9 194.5 193.2 193.4 182.3 193.6 193.2 190.2 194.1 192.
+ 192.3 194.5 188.3 206.3 194.9 192.7 188.9 197.  190.1 199.2 192.4 194.5
+ 197.8 196.9 196.4 196.2]</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>[142.8 141.1 141.6 142.6 139.3 132.9 145.6 156.  140.1 143.1 141.6 143.5
+ 141.8 147.3 141.4 145.3 138.2 143.8 141.3 138.8 141.2 140.1 137.8 134.5
+ 136.9 147.2 140.9 139.7 134.6 139.7 146.9 145.2 144.9 142.8 132.1 142.9
+ 135.5 144.6 145.4 145.1 141.2 141.1 140.5 142.9 136.6 142.7 148.  145.6
+ 141.8 142.8 140.2 144.1 151.1 139.7 144.4 138.8 132.  144.6 143.6 147.
+ 146.8 136.  143.5 144.9 143.2 145.5 138.9 140.7 149.1 140.3 151.9 141.6
+ 146.9 143.  123.7 140.8 141.3 142.3 142.5 149.  142.  137.7 142.1 144.5
+ 146.6 142.9 136.1 143.6]</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>[111.  111.7 106.9 106.9 113.2 118.5 111.  116.9 116.  124.9 115.8 111.5
+ 122.5 106.8 106.4 120.8 116.  108.4 112.  110.8 108.3 103.6 118.4 117.
+ 119.2 110.8 121.2 118.9 114.9 124.1 123.2 117.8 115.  102.8 123.1 121.1
+ 122.3 120.7 114.2 118.3 114.6 112.  117.5 120.7 112.1 116.2 118.6 116.3
+ 116.7 122.4 129.2 120.6 119.9 116.8 116.7 110.6 123.4 123.9 132.4 124.7
+ 115.  116.2 109.3 122.  120.  127.  129.7 128.9 120.5 112.6 116.8 123.3
+ 117.9 114.8 109.9 123.7 114.7 132.1 118.1 117.3 115.  122.4 119.6 124.3
+ 106.5 125.1 121.1 119.7 120.8 126. ]</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>[ 97.2  90.5 111.3 117.3  96.4 110.2 136.4 116.  108.1 108.8 122.5 117.5
+ 127.3 136.3  77.1 108.1 112.9 111.2 107.6 113.9 108.7  99.6 126.9 112.3
+ 120.5 110.9  98.9 109.7 114.8 123.3 122.2 123.3 112.4 102.7 100.1 109.6
+ 113.3 110.9 121.4 118.9  97.9 105.2 104.2 116.6 105.4 126.1 124.8 109.5
+ 119.9 110.6 119.1 112.9 117.8 107.2 120.6 103.3 116.  117.  115.9 126.9
+ 117.6 115.3 120.4 114.4 106.6 130.7 120.8 125.9 114.2 106.2 111.2 111.4
+ 110.9 118.2 123.9 125.3 119.3 122.7 118.6 124.1 123.9 118.1 116.2 117.8
+ 129.3 117.7 120.4 120.6 116.6 116.6 118.2 120.2 131.8 112.6]</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>[133.2 112.2 116.3 135.8 127.6 124.1 120.3 147.1 147.3 149.1 154.  120.5
+ 347.4 127.6 153.1 103.8 121.6 136.  142.2 165.2  62.9 621.3 120.6 111.5
+ 137.  123.3 153.  150.9 190.2   3.1 249.3 807.4 111.7 139.2 140.5 148.7
+ 122.7 166.  117.8 201.3 111.4  65.4 340.6  94.6 121.3 118.6 144.3 144.1
+ 161.8  92.5 160.8  79.1   1.9 336.1 134.6 137.  153.1 133.1 135.7 121.7
+ 128.9 102.5   3.  182.6 124.4 117.5 143.8 130.5 121.1 122.4 113.  113.3
+ 102.  129.5 174.2 129.7 136.5 115.3 135.6 123.3 141.6 105.4 132.5 140.3
+ 133.8 142.3 126.1  85.5 144.9 136.5 137.3]</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>[129.5 125.4 114.9 119.8 165.2 166.4 186.4 192.8 179.8 162.  134.7 160.7
+ 121.2 138.1 116.6 128.  143.  167.4 169.3 146.8 140.  150.3 199.9 191.6
+ 166.1 159.9 149.  143.4 119.2 168.4 160.7 128.6 119.8 132.2 152.6 180.8
+ 161.3 146.8 143.5 152.6 181.5 159.6 133.9 192.6 181.9 178.3 162.  144.5
+ 133.8 149.4 143.4 189.7 152.3 183.2 144.2 153.9 147.3 102.2 170.7 156.9
+ 160.6 141.2 154.3 160.7 139.6 151.5 157.7 140.5 166.4 139.4 153.7 171.1
+ 152.4 193.8 113.2 178.7 161.1 198.9 128.8 166.5 182.6 147.2 184.8 191.3
+ 170.8 174.1 183.2 192.3 162.4 119.6 155.1 157.  108.2 149.7]</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>[185.4 174.8 129.  270.6   3.5 419.4 224.3 307.9 268.2 528.4 119.4 281.3
+ 308.7 203.  152.  276.8 111.1 184.6 119.3 305.3 282.2 242.1 213.5 154.6
+ 173.7 292.4 446.9 229.5 195.9 143.4 231.9 242.  270.2 150.6 202.6 173.1
+ 197.9  93.6 213.8 246.  158.7 241.5 190.  214.3 208.3 328.  288.  385.7
+ 227.8 201.4 189.1 119.7 275.  178.8 260.9 160.9 161.9 243.3 279.1 127.3
+ 246.4 272.  211.3 356.4 309.  144.6 187.2 260.4 248.7 243.9 273.2 391.1
+ 181.  313.9 200.3 349.3 214.5 215.2 127.9 271.4 236.5 150.  805.3   7.5
+ 250.8 196.  338.3 361.9 279.6 564.8 193.9 231.4 294.  224. ]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2205,20 +4085,170 @@
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>[1968.  2075.1 2100.1 1994.  2058.  1998.6 2040.5 2107.  2043.6 2140.
+ 2154.4 2069.5 2077.8 1968.6 2153.9 2144.8 1995.  2110.5 2030.1 1960.4
+ 2188.9 1940.1 2042.1 2113.9 2138.3 2080.  2071.4 2117.2 2169.5 2195.1
+ 2076.5 2013.3 2091.8 2096.4 2157.  2169.  2101.3 2100.8 2226.8 2185.5
+ 2139.6 2089.7 2154.3 2157.3 2220.9 2160.1 2191.5 2055.6 2044.4 2137.1
+ 2039.7 2098.6 2127.6 2130.8 2085.5 2144.7 2184.9 2194.6 2085.6 2013.4
+ 2046.8 2093.7 2094.4 2094.7 2076.6 2097.1 2172.2 2097.9 2161.  2172.1
+ 2158.4 2185.5 2105.8 2245.1 2154.5 2137.2 2119.6 2154.2 2136.4 2159.7
+ 2179.9 2165.8 2126.3 2041.3 2087.7 2115.2]</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>[1540.1 1556.4 1505.  1481.7 1536.9 1477.7 1491.4 1451.4 1517.1 1515.3
+ 1490.2 1468.9 1425.  1506.9 1494.6 1528.9 1481.2 1553.2 1474.7 1447.6
+ 1500.2 1492.9 1476.  1479.7 1451.6 1490.7 1525.4 1495.5 1443.7 1462.3
+ 1481.9 1489.7 1435.9 1505.3 1472.2 1497.8 1494.4 1501.9 1519.1 1470.5
+ 1466.5 1512.  1470.3 1511.7 1479.  1467.3 1516.9 1500.  1497.4 1477.
+ 1481.1 1496.7 1519.5 1505.6 1480.9 1514.1 1492.8 1479.8 1551.2 1526.5
+ 1494.9 1520.4 1572.6 1483.4 1483.2 1501.7 1498.7 1501.  1541.  1517.3
+ 1505.4 1500.7 1482.1 1504.8 1530.5 1492.  1519.1 1503.3 1520. ]</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>[ 973.4  993.6  991.7 1000.9  992.3  986.8  967.4 1014.6 1024.   984.4
+  992.7  997.6 1010.5 1018.3  978.3 1033.8 1003.7 1005.4  975.7  986.4
+  996.7  981.8 1005.   989.   973.3 1009.5  988.4  994.6  997.4 1003.
+ 1006.8 1001.9 1004.7 1012.6 1002.4 1004.6 1010.4  997.7  996.2 1005.3
+  999.1 1004.4  991.4  984.2 1012.9  982.7  992.9 1009.9  997.9 1031.6
+  996.4  985.7  998.6  990.4 1005.   993.2  996.2  994.2  991.5 1001.
+  988.9  983.4 1000.1  995.4 1024.8  989.7  988.6 1002.8 1012.3  987.4
+ 1002.  1020.3 1008.5 1024.9  998.9  980.1 1006.4  999.8  991.8 1001.8
+ 1021.5  998.7  986.2 1006.4  991.3  992.1 1004.3 1014.9]</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>[727.7 714.3 733.1 722.  707.1 715.1 703.7 703.3 717.4 724.  712.3 709.6
+ 725.3 710.4 710.  713.  723.8 729.9 719.8 705.4 728.3 717.  723.  711.8
+ 705.6 720.1 719.6 718.4 717.7 719.2 697.8 704.5 727.1 710.7 711.9 709.1
+ 728.4 715.8 710.  717.1 722.  719.6 714.4 710.  713.6 725.6 701.3 720.5
+ 715.8 714.4 708.5 720.1 722.6 717.8 719.2 728.1 712.2 718.1 708.7 713.1
+ 722.9 716.3 710.  710.6 716.1 722.4 721.5 722.4 709.  724.  709.4 706.5]</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>[508.1 500.5 498.2 500.5 501.1 505.5 483.4 503.  501.3 509.2 501.1 486.3
+ 500.9 503.6 490.1 501.5 502.4 503.5 506.1 505.7 500.2 507.9 501.2 500.4
+ 495.3 499.8 492.  499.5 497.3 500.  494.8 502.6 508.3 507.2 497.5 495.8
+ 497.5 508.4 500.2 503.  500.2 506.5 513.3 507.5 498.1 497.4 496.7 514.8
+ 508.  489.2 496.2 497.4 498.8 497.  500.3 500.7 492.4 508.8 509.5 494.5
+ 493.5 503.6 494.1 499.4 498.7 494.7 485.3 496.4 493.  504.8 505.  501.
+ 503.  489.4 496.7 497.7 502.9 498.2 497.7 506.3 503.9 495.9 497.3 491.8
+ 495.4 499.  489.7]</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>[324.1 313.6 322.9 325.2 325.  324.7 328.6 332.  318.8 315.  318.9 320.5
+ 313.6 318.7 319.8 315.6 317.3 318.4 329.6 319.7 318.7 321.7 314.9 319.8
+ 313.9 324.7 313.4 319.1 311.4 318.4 326.3 318.7 320.9 324.2 330.6 315.7
+ 331.5 326.2 318.8 319.4 318.8 322.5 313.7 319.7 323.7 320.6 319.7 318.8
+ 328.1 327.8 315.  317.6 322.7 307.5 316.5 315.3 313.8 319.6 320.7 312.7
+ 322.4 322.2 319.2 325.8 316.8 318.9 317.5 313.6 316.6 322.8 311.8 316.1
+ 312.5 320.8 315.1 315.2 313.7 308.  329.4 322.7 315.4 316.8 314.5 328.6
+ 321.1 314.4 322.2 319.2 314.7 318.8]</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>[248.4 248.8 252.2 246.5 247.  255.3 250.8 248.1 245.4 244.3 252.2 249.
+ 249.2 249.7 245.  251.3 253.5 250.2 250.2 253.9 250.4 252.2 248.2 254.1
+ 250.9 255.6 248.4 249.4 246.8 248.8 248.3 251.9 251.7 249.1 247.4 252.9
+ 247.8 251.9 248.  248.1 249.2 248.7 241.2 244.  246.2 245.3 243.6 245.2
+ 247.5 248.4 247.9 251.2 241.7 251.4 243.5 256.2 245.4 241.8 243.8 249.
+ 243.1 250.6 249.  250.3 243.6 241.  249.2 242.2 244.5 243.4 243.4 240.5
+ 240.3 251.1 238.4 247.2 247.3 246.2 246.1 257.7 245.  254.9 239.8 252.
+ 253.6 249.7 245.3 241.2]</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>[164.  170.6 165.1 167.2 166.8 168.9 172.5 166.9 172.  170.1 169.5 171.1
+ 167.  162.6 170.  168.4 168.5 173.4 164.5 166.6 169.6 167.2 167.5 166.9
+ 170.3 174.2 171.2 169.  165.4 360.9 168.2 349.7 170.6 167.9 165.9 169.3
+ 170.6 337.6 168.5 173.2 167.8 165.3 169.  174.1 168.9 378.8 167.1 168.3
+ 162.8 167.4 168.7 172.6 167.2 173.3 159.4 164.6 169.4 163.2 333.4 167.
+ 163.8 163.2 160.6 395.4 403.7 164.7 174.9 164.4 318.8 165.  167.1 166.1
+ 397.  163.4 354.6 334.1 334.9 162.7 162.2]</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>[129.7 169.7 167.8 129.  154.3 120.9 125.8 124.1 171.  156.8 120.1 127.2
+ 167.8 124.8 128.2 128.9 125.8 130.9 157.5 163.7 129.6 173.4 130.  126.7
+ 166.9 123.5 123.4 164.9 174.5 169.3 122.6 167.7 124.3 125.7 160.2 171.
+ 157.6 173.1 172.4 172.5 129.2 169.5 153.5 168.3 158.6 175.8 170.1 123.2
+ 159.2 119.9 112.9 179.  131.4 188.2 117.  185.2 180.9 131.9 174.  170.5
+ 160.1 187.3 109.7 190.9 181.7 112.7 123.2 123.3 168.2 122.3 166.4 116.3
+ 175.4 163.8 163.4 176.  173.9 181.7 188.1 184.6 162.6 118.9 106.1 111.3
+ 113.5 109.  110.8]</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>[116.7  98.3  98.  116.6 107.4  84.4  97.   84.7  98.3  92.4  94.   96.1
+  88.5  85.2  90.8  81.5 104.7  79.4  90.3 100.3  97.2  93.3  99.7  94.5
+  77.9  90.1  84.  103.5  96.   87.3  85.6  76.5 101.8  95.5  80.6  93.4
+ 107.3 107.6  98.7  89.5  61.4  95.3 103.8  85.1  75.1  91.3  84.6  94.2
+   1.2 104.8  76.7 112.   92.2 106.4  83.5 107.2  82.3  98.1 134.7   2.9
+  71.7  81.2  96.1  93.9  81.   83.4 134.3   2.   86.3  79.2  82.9  61.1]</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>[ 75.7  57.5  72.5 101.   58.1  69.8  72.7  66.3  78.6  72.6  94.    1.
+  84.4  64.2  83.6   3.4  64.2  87.3  69.7  76.1  94.2   4.6  90.5  72.1
+  84.   46.6   3.7   2.4  76.6  84.3  40.1  67.2   2.3  73.9   2.8  76.1
+  63.5   9.5   5.   85.8  87.2   6.8  81.7   3.1  79.8   3.4  48.6   1.1
+  51.4  86.8  51.8   3.7  61.4  58.9   3.1  93.6   3.4   1.2   4.6   1.3
+   5.    2.   86.2   3.6   4.7  94.5  80.8  69.7  57.2   2.   97.    1.8
+ 104.1   3.3  59.3   9.5   9.5   1.2   5.6   1.    1.7  79.1  71.2  94.6
+  86.3]</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>[110.4  92.2 117.5 106.7 120.4   1.  158.4  83.7  60.4  80.4  61.4  59.8
+   4.9  73.1  93.3   2.5  96.   74.5  75.3  76.2  87.4 112.9  76.   59.4
+   3.7  77.2  93.3  76.1  82.   77.3  94.4  62.9   1.1 102.8  58.4   7.
+   3.1  94.7  79.    1.2  78.1   3.   53.7   4.2 104.4   2.7   1.1  71.
+  57.5  88.7  73.8  62.2  70.3  98.2   3.3  65.    2.   69.1   1.1  63.2
+  74.7   2.7   9.5   2.1  73.3   1.2 107.2   9.5   9.5  47.   91.7   3.4
+   2.7   5.    2.1   3.6  66.8   3.1   3.1   6.4   1.2  62.2   1.4   3.4
+   2.    1.   80.8   2.8   3.    1.8   5.   59.6   2.1   2.7]</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>[  3.2  74.6  79.2   1.   74.7   1.8 146.4  87.2  87.7  70.9  69.8 116.4
+   2.6  66.7  73.7  83.   80.8  70.1   2.7  60.9  78.2 136.2   2.2  99.1
+   7.   62.3 159.9 171.8 100.8  84.6   1.   65.6   3.7  92.3  75.7  77.8
+   1.3  63.   83.  101.  100.1   1.1  87.9   2.9  71.9  64.1 119.5  58.3
+  67.9  76.5   1.3   1.3   3.  111.5  54.9   1.8  93.3   2.8  57.2 120.8
+   3.   70.3  58.3  54.3   3.1  70.3   4.9   1.4   4.1   1.2   1.3   2.3
+   3.1 117.    3.3  74.2   2.6   2.8  73.1  58.2   6.2   2.6   1.1   2. ]</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>[  5.   60.3   6.1 153.9 104.9  60.1   7.7  84.6   4.  112.5  67.7  59.6
+  85.1  61.2  79.8   2.  117.8 144.9   7.7 178.7   2.5  78.1  90.2 159.4
+   1.4  78.8   7.2 202.9 150.6  72.8  70.2   3.3 108.9  63.8  65.9   6.7
+ 161.7   2.  133.2   2.7  55.2 230.7   2.4   1.    2.1  64.8   3.3  10.
+   6.6  82.3   6.7   8.3   2.    3.1   1.2   3.    7.7   1.2   3.    7.
+ 164.    3.    3.3   8.  118.2 102.   47.9   6.6   6.2   1.2 177.    2.1
+   2.3   2.1   1.9   3.3   2.2   1.2   4.6 192.5  69.8   4.1   3.    5.3
+  73.  150.2 173.1   3.1   2.5   2.9   4.    3.3   1.2]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2324,20 +4354,170 @@
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>[1977.2 2083.1 2104.3 2009.9 2061.2 2003.4 2045.3 2122.1 2049.1 2145.4
+ 2163.9 2072.9 2086.7 1978.  2154.2 2167.4 2010.6 2125.8 2047.3 1962.3
+ 2195.1 1951.8 2053.4 2133.8 2162.4 2095.8 2072.2 2127.8 2171.3 2202.4
+ 2086.2 2022.5 2095.6 2106.7 2160.7 2185.4 2115.1 2120.3 2229.6 2180.4
+ 2140.2 2093.8 2158.  2174.  2226.6 2167.9 2203.6 2059.8 2046.2 2144.
+ 2049.3 2101.7 2127.6 2128.7 2093.1 2142.5 2191.  2214.1 2090.7 2022.3
+ 2052.5 2093.6 2093.8 2100.2 2083.8 2103.8 2178.1 2102.2 2177.2 2175.5
+ 2157.2 2203.9 2124.9 2249.5 2161.7 2164.7 2128.  2170.1 2147.2 2158.6
+ 2186.3 2161.5 2126.2 2048.4 2084.  2127.2]</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>[1546.8 1564.1 1506.9 1482.5 1540.5 1482.6 1493.  1457.  1521.8 1521.5
+ 1492.6 1473.2 1431.1 1508.6 1500.4 1532.3 1487.5 1563.  1473.5 1447.8
+ 1505.6 1493.7 1481.3 1481.4 1455.7 1495.9 1532.6 1500.3 1444.8 1466.4
+ 1486.4 1495.3 1437.  1510.1 1481.6 1501.9 1503.6 1506.1 1526.3 1476.1
+ 1466.5 1517.7 1474.2 1514.5 1483.6 1467.3 1519.2 1503.3 1500.3 1478.7
+ 1486.4 1503.5 1529.5 1504.2 1486.  1518.5 1503.  1477.6 1558.3 1527.2
+ 1498.  1520.6 1570.2 1485.4 1486.  1503.8 1501.9 1504.3 1551.  1521.9
+ 1508.5 1504.4 1480.8 1506.4 1537.8 1498.3 1521.7 1501.7 1523.1]</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>[ 977.3  997.9  994.6 1006.   997.2  990.4  970.3 1018.9 1024.4  988.2
+  996.4 1001.2 1013.8 1021.1  981.5 1037.1 1007.9 1007.9  974.3  988.6
+  999.1  984.  1009.4  989.3  975.2 1011.1  992.9  998.5  998.1 1004.8
+ 1009.5 1003.4 1007.5 1015.1 1006.3 1007.2 1011.   999.7  999.2 1010.2
+ 1001.3 1008.3  994.5  984.2 1015.5  984.8  994.4 1013.6 1000.  1034.3
+  997.9  987.9 1001.1  991.6 1005.5  995.1  996.8  996.3  995.3 1000.6
+  990.2  983.8  999.9  998.2 1025.7  990.9  990.3 1004.2 1013.4  989.6
+ 1002.9 1023.3 1010.  1026.4  998.8  981.2 1006.1 1000.   992.3 1004.3
+ 1021.8 1001.2  987.3 1008.3  992.3  995.5 1007.1 1018.2]</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>[727.7 715.6 735.8 723.5 708.4 715.2 704.  703.9 718.2 725.3 712.1 711.3
+ 724.6 712.8 711.8 714.2 725.6 731.9 722.  704.9 729.1 716.7 722.8 713.3
+ 706.1 722.  721.3 719.4 719.2 720.3 699.3 706.5 729.7 711.7 711.3 710.
+ 729.  718.5 711.5 717.7 721.9 721.1 714.9 712.1 714.  725.3 702.1 721.9
+ 716.4 714.8 708.8 721.9 724.2 720.3 720.4 728.3 711.7 719.5 707.9 713.
+ 723.2 716.5 709.1 711.4 718.  721.1 722.4 722.  710.4 724.9 710.2 706.5]</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>[508.9 502.  499.4 500.5 501.8 507.9 484.7 503.4 502.8 510.7 502.3 487.1
+ 501.2 504.  491.  502.4 502.9 504.2 507.  506.7 501.1 509.  502.5 500.4
+ 496.  500.5 492.2 500.5 499.1 500.7 496.6 504.9 509.7 506.8 498.3 496.2
+ 497.5 508.8 501.2 503.8 501.  508.5 514.5 507.9 498.8 497.9 498.3 515.7
+ 508.8 489.6 497.3 498.2 500.6 497.3 500.4 501.5 493.5 509.8 510.9 494.9
+ 494.8 503.4 495.1 499.3 499.2 495.4 485.9 496.6 493.6 505.6 505.4 501.8
+ 503.7 490.  497.1 498.5 503.1 498.7 499.  506.9 504.6 495.6 496.7 492.6
+ 495.8 499.2 490.9]</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>[324.4 314.4 323.4 325.9 326.1 325.  328.5 332.6 319.7 315.1 319.5 321.3
+ 314.2 319.7 319.9 316.8 317.6 318.8 330.7 319.9 319.4 322.2 315.6 320.
+ 314.3 324.7 313.4 320.5 312.3 319.3 327.  319.8 322.  324.6 330.9 316.3
+ 332.  327.6 319.1 319.7 319.5 323.3 314.3 320.3 324.  321.7 320.3 319.3
+ 328.4 327.5 315.7 318.5 322.7 308.  317.6 316.3 314.3 320.3 321.4 313.1
+ 323.1 322.8 319.7 326.4 317.3 319.5 318.2 314.6 317.5 323.3 312.2 317.4
+ 312.8 320.8 316.  315.5 314.3 308.8 330.6 322.9 315.3 317.8 314.8 329.9
+ 322.7 314.6 322.8 320.1 315.5 319.9]</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>[248.8 248.9 252.6 246.3 247.1 255.8 251.1 248.4 245.9 244.5 253.  249.
+ 249.3 249.5 245.1 251.2 254.  250.5 250.4 254.  250.1 252.2 248.5 255.
+ 250.9 255.7 248.5 249.4 246.5 249.  248.6 252.1 251.8 249.1 247.6 252.8
+ 248.1 251.7 248.  248.  249.5 248.5 241.3 244.4 246.  245.6 244.4 245.1
+ 248.1 248.8 248.3 250.9 242.3 251.6 243.7 256.5 246.4 242.4 244.1 249.1
+ 243.2 250.7 249.  250.4 243.8 240.9 250.  242.6 244.9 243.6 243.8 240.4
+ 240.8 251.7 238.7 247.8 247.3 246.2 246.3 257.4 245.1 255.8 240.3 252.2
+ 253.6 250.5 246.  241.7]</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>[164.1 170.4 165.1 167.  166.7 168.5 172.6 167.  171.7 169.7 169.1 171.2
+ 166.7 162.1 169.8 167.9 168.5 173.5 164.2 166.3 169.6 167.1 167.4 166.8
+ 170.  174.2 171.1 168.9 165.3 173.1 168.1 169.9 170.3 167.8 166.  169.
+ 170.2 167.  168.6 172.6 167.5 164.7 168.8 173.9 168.6 175.7 167.  167.9
+ 162.3 166.8 168.6 172.4 167.  173.1 159.5 164.4 169.9 162.9 167.3 166.9
+ 163.1 162.7 160.3 176.2 177.5 164.5 175.3 164.2 163.1 164.9 166.5 166.1
+ 180.6 163.3 168.8 166.3 167.7 162.3 161.9]</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>[129.6 126.1 126.2 128.5 119.1 120.4 125.7 123.9 128.3 120.1 119.8 127.
+ 126.8 124.4 128.5 128.7 125.6 130.9 121.1 124.2 129.3 129.1 130.2 126.2
+ 125.6 123.3 123.4 124.6 129.7 127.8 122.3 125.1 123.9 125.7 123.9 128.5
+ 120.6 129.7 128.5 128.3 128.9 126.8 118.3 127.  121.  130.8 127.6 123.1
+ 122.1 119.6 112.6 132.4 131.3 135.9 116.2 134.8 133.7 131.3 129.6 126.4
+ 122.1 136.3 109.6 137.3 133.4 111.9 122.9 123.7 126.4 121.9 125.3 115.9
+ 128.6 123.9 123.  129.6 127.1 132.  136.3 133.9 122.7 118.5 105.3 111.2
+ 112.6 109.1 109.9]</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>[106.   99.   97.3 108.3  99.6  84.2  96.8  83.9  92.   87.5  94.7  95.8
+  82.3  84.9  91.   81.3  97.5  74.5  85.8  93.2  91.2  86.8  99.   94.7
+  77.8  84.8  78.6  96.6  95.5  86.6  86.5  76.3 102.2  89.3  80.7  93.6
+ 100.1 107.6  93.1  89.3  60.   89.1  95.5  83.9  75.3  84.9  83.4  88.5
+   2.   96.5  76.8 103.8  92.8  99.1  78.   99.6  82.3  91.  121.1   3.2
+  71.3  80.4  95.9  88.6  75.1  83.9 119.6  10.   79.1  78.3  84.1  58.2]</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>[ 79.1  52.7  76.2 101.5  59.9  74.   73.8  72.4  81.8  76.3  93.4   3.3
+  85.2  64.6  82.1   3.7  65.2  87.1  68.9  74.6  94.1  10.   90.8  75.3
+  89.   49.9   1.2   6.3  81.4  85.3  10.3  67.3  10.   79.1   4.5  79.1
+  67.9   2.    2.5  86.1  87.    2.   85.6   1.8  77.9   1.    1.8   5.7
+  50.9  86.    6.   10.   66.2  61.5   4.1  92.9   1.6   2.6   1.8   3.
+   7.2   3.4  91.6   2.8   2.5  93.5  83.9  73.   59.2   1.   97.7   9.5
+ 103.2   2.1  60.1   9.5   2.5  10.    7.9   1.2   1.2  78.5  70.7  94.3
+  85.8]</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>[108.1  88.  113.6 105.6 119.8   9.5 155.8 102.3  76.1 101.4  72.8  64.2
+  10.   69.7  88.6   1.   95.7  95.6  95.1  78.5  86.4 111.5  96.7  77.8
+   6.3  98.   93.   97.2  80.9  79.9  97.4  77.    3.5 103.4  62.1   1.1
+   6.9  91.3  94.1   1.8  73.8   3.   67.1   6.  103.7   1.9   5.6  86.6
+   3.2 112.9  80.3  70.4  74.   99.1   6.3  64.4  10.2  78.6   9.5  73.
+  90.    3.    4.2  10.6  73.    1.  109.5   5.    4.6  66.4  89.8   1.
+   3.2   6.6   1.8  10.   72.    3.9   3.   67.1   9.5  54.9   9.5  10.
+   4.2   5.6  73.9   2.7   3.4   3.3   1.8  71.6   2.1   3.3]</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>[  6.4 100.1 111.1   9.5 103.    7.  137.1 131.2 121.4  94.8  98.2 106.
+   1.2  70.   98.7 119.1 118.2  85.8   5.   67.8 120.3 121.4   1.2  96.3
+   3.   98.6 161.9 162.8  92.5  79.3   1.  100.4   9.5 123.1 106.6  87.8
+   3.4  98.6 113.6  50.9  98.5   7.6 129.2  68.6  99.8  61.4 118.6  74.9
+  55.    3.6  10.    3.   10.6 101.9   1.1   5.1  73.7   9.5   3.  115.6
+   6.   60.3   4.9   3.1   9.5   2.5   7.8  10.    2.    1.2   2.7   2.5
+   6.  112.5  10.   57.8   2.8   4.   88.3   1.2   6.2  77.1   1.9   3. ]</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>[ 10.6 145.2  10.  153.9 119.6  97.1   3.6 127.3   5.6 128.7 122.  131.6
+ 143.9   8.1  98.8   3.  126.1 117.9  73.9 172.   85.3 157.5 124.6 124.4
+   9.8  90.5   3.2 157.  131.   94.  138.3   6.9 112.9 109.   89.1  10.6
+  89.2   3.3 106.5   3.7  91.9 150.    2.9   3.4  78.2 101.5 100.2  84.6
+   2.7 145.9   2.6   1.   10.3   5.6   9.5   8.1   6.4   7.5  76.    9.1
+  96.4  63.5  71.8   3.7 151.9  69.2   9.    3.9   2.    5.3 114.8   6.6
+   9.8  10.   63.5   2.    9.8  10.    2.  159.9 122.5   3.4  94.3   4.3
+  91.4 152.1 143.9   7.2   6.3   1.2   1.6   9.5   7.8]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2443,20 +4623,174 @@
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>[1947.1 1976.3 1991.6 1976.1 1988.3 2009.1 2055.6 2016.7 2000.  1978.4
+ 2001.4 2021.5 1988.2 2040.  2075.8 2028.5 1994.  1969.6 1978.1 2014.7
+ 2057.5 2146.8 2027.5 2030.7 2058.7 2042.7 2000.2 2002.4 1985.7 1991.3
+ 2071.  2062.4 2151.2 2053.3 2033.2 2048.2 2046.7 2050.6 2046.3 2061.7
+ 2057.5 2083.1 2056.9 2079.3 2087.8 2076.6 2059.1 2041.4 2024.9 2032.8
+ 2049.1 2054.  2048.  2041.6 2034.8 2069.5 2096.1 2073.3 2028.5 2040.7
+ 2050.  2019.9 2042.4 2021.6 2013.8 2090.2 2122.8 2059.1 2053.6 2020.6
+ 2053.5 2084.8 2019.1 2018.4 2087.1 2081.8 2061.9 2020.  1996.8 2011.1
+ 1981.  2066.1 2064.8 2043.1 2008.7 2017. ]</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>[1421.9 1418.7 1435.1 1453.6 1468.1 1469.2 1436.1 1500.3 1509.5 1492.7
+ 1495.  1484.6 1477.1 1503.7 1479.  1527.9 1475.2 1482.9 1489.1 1469.7
+ 1464.  1466.8 1470.8 1455.2 1509.  1485.9 1480.1 1461.2 1450.  1447.9
+ 1462.8 1478.3 1473.6 1458.4 1482.  1475.2 1496.9 1477.  1443.3 1439.7
+ 1462.4 1453.8 1478.3 1481.1 1465.4 1425.  1466.5 1474.8 1464.9 1468.8
+ 1469.8 1458.9 1459.8 1470.9 1434.6 1463.7 1449.7 1460.1 1468.8 1455.3
+ 1455.1 1448.6 1447.5 1421.3 1451.2 1459.5 1474.9 1452.2 1440.5 1456.5
+ 1459.9 1452.8 1468.8 1478.7 1473.2 1472.3 1470.1 1458.1 1440.  1485.4
+ 1458.  1464.2 1471.1 1450.3]</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>[1040.8 1030.  1000.5  996.8  982.3 1010.6  974.   978.8  986.5  981.2
+  977.9  968.2  954.3  933.9  965.5  996.7  989.4  977.5  984.   993.4
+  992.8  995.2  982.2  963.9  976.9 1000.1  981.5  968.8  974.4  975.2
+  963.6  974.4  976.7  969.9  977.8  979.4  982.4  974.8  973.7  978.3
+  968.8  964.2  973.1  963.   982.7  978.4  968.8  965.4  971.4  970.8
+  976.9  971.2  970.3  962.5  975.9  964.6  964.2  961.3  968.4  968.8
+  972.9  963.5  975.7  966.1  978.3  961.1  959.9  961.2  960.2  963.3
+  968.9  964.6  967.1  964.9  968.7  968.1  965.7  966.5  964.5  973.9
+  965.4  960.1  973.   962.3  952.6  969.1  969.4  971.6]</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>[754.9 721.5 730.9 719.1 712.9 727.  712.9 711.  695.2 710.3 715.1 709.7
+ 715.  711.7 694.3 709.5 726.6 712.4 719.4 715.3 706.5 716.6 718.5 719.3
+ 686.9 713.5 699.6 708.3 701.5 699.6 705.1 708.8 704.9 702.5 702.5 704.9
+ 703.1 705.4 703.1 701.5 709.3 705.8 708.7 712.7 716.5 707.  703.2 696.1
+ 700.  707.3 705.1 708.  704.8 705.  710.4 704.9 703.9 700.1 700.2 702.4
+ 696.6 706.2 705.8 705.3 703.9 705.5 700.3 702.1 702.9 698.9 697.8 700.5
+ 704.2 708.9 702.3 705.3 702.8 707.  711.4 703.6 707.6 702.6 703.9 697.1
+ 700.  701.7 702.2 703.7]</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>[488.4 492.1 495.6 491.3 481.  486.4 473.9 500.1 498.6 501.7 500.9 500.9
+ 502.2 496.  476.8 500.  490.4 492.8 495.4 497.2 498.5 497.6 497.5 490.3
+ 485.3 487.  489.3 492.3 499.2 500.3 498.6 506.2 504.5 492.7 490.2 486.3
+ 492.7 492.2 492.7 498.7 496.4 501.8 497.  497.9 496.  489.1 488.3 499.3
+ 499.4 502.2 498.1 500.5 498.7 495.2 490.3 488.7 491.7 492.8 496.7 497.3
+ 496.3 497.  495.4 495.5 487.1 485.7 493.  495.  494.6 494.1 495.  493.8
+ 495.1 496.4 486.7 495.2 490.6 496.3 494.9 494.  490.1 490.3 495.2 498.6
+ 496.2 501.9 496.6 492.2]</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>[315.9 319.  322.9 319.5 315.4 321.6 320.4 319.  317.4 313.2 310.1 307.2
+ 311.9 313.8 313.  321.1 319.1 319.9 318.  310.2 311.  314.7 319.5 313.9
+ 318.  323.7 320.6 324.2 322.6 317.4 317.7 313.4 312.2 318.4 316.5 318.7
+ 320.7 324.5 323.8 320.9 325.  320.8 317.5 308.9 321.  317.7 319.8 320.7
+ 324.2 326.3 323.2 324.5 323.2 319.7 310.8 322.3 316.6 318.1 319.5 320.9
+ 321.5 321.3 325.  322.8 320.1 323.8 316.3 318.4 320.2 317.6 322.5 323.8
+ 322.1 319.6 316.3 318.5 319.9 319.2 322.6 322.8 318.1 316.5 317.8 320.4
+ 322.5 322.5]</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>[246.1 249.1 253.5 251.3 252.9 251.7 256.3 250.1 245.3 246.3 247.8 247.6
+ 248.2 249.8 257.5 243.1 243.9 246.3 245.3 247.8 246.5 243.7 244.3 245.8
+ 249.2 243.9 247.5 247.7 246.4 243.7 246.7 248.3 249.4 245.3 249.6 246.4
+ 247.5 243.8 248.1 243.9 244.8 246.8 251.1 249.  251.4 246.2 246.6 242.8
+ 248.  248.6 246.2 246.7 249.6 246.2 250.5 246.  246.4 243.5 245.3 248.1
+ 246.2 247.  249.7 246.2 250.5 245.2 247.3 246.  245.6 246.3 247.3 246.
+ 250.  247.1 243.9 247.2 245.9 244.5 243.2 247.9 245.6 246.7 248.  245.9
+ 243.7 243.2 243.8 245.9]</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>[161.4 161.5 162.8 161.5 164.2 164.7 160.8 163.4 169.7 167.2 165.7 167.5
+ 167.9 167.  167.  162.7 166.4 167.  165.  165.7 165.6 165.5 167.5 168.2
+ 170.6 162.4 165.9 168.4 164.6 166.3 166.1 169.6 167.  169.  166.4 164.7
+ 164.4 167.5 165.2 166.6 165.9 165.  163.9 167.4 169.9 167.7 164.4 165.
+ 166.3 165.8 164.9 165.9 165.3 166.4 165.9 165.  165.6 167.6 167.3 165.4
+ 166.3 167.6 168.4 164.  353.6 167.4 166.8 166.2 166.2 168.9 169.2 354.7
+ 162.7 335.8 165.3 166.1 168.2 166.5 323.2 164.3 168.7 166.  164.6 163.4]</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>[111.  159.8 118.7 117.5 118.5 120.  117.4 169.9 121.6 122.3 116.1 117.1
+ 120.  117.7 171.  112.4 120.7 119.  122.3 119.8 117.4 154.8 118.  118.4
+ 128.3 114.8 163.8 118.6 121.2 123.1 120.7 153.  118.2 120.8 175.  118.1
+ 161.7 121.5 122.6 162.6 123.8 120.4 156.9 122.  177.2 117.  120.9 118.9
+ 121.3 123.7 161.3 158.3 156.6 122.7 120.  120.6 173.6 155.6 158.7 165.1
+ 159.9 121.  121.  169.7 168.6 120.  118.3 170.1 120.  166.1 125.1 122.8
+ 120.8 111.8 212.5 168.2 119.1 116.4 112.8 114.7 115.6 118.1 132.6 166.7
+ 177.  171.7 169.  125.1]</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>[109.8  98.7 103.1 101.6 100.7 105.5 122.3  63.9  62.4  70.6  78.9  74.9
+  74.2  89.1   9.5  77.2  63.8 106.8  84.6  89.2  84.8  80.8  82.4  71.8
+  85.2  66.7  70.2  74.9  83.6  76.7  78.9  69.5  75.5  74.1  85.1   2.7
+  73.9  84.1  83.   92.2  93.8  83.7  72.3  80.4  78.2  68.5  84.3  90.9
+  77.8  82.8  85.8  81.8  76.7  86.1  92.1  66.   81.8  91.4  79.5  81.7
+  82.3  82.   85.   87.5  82.2  66.   73.4  59.5  82.5  80.6  84.9  87.4
+  84.3  84.    2.7  60.7 106.8  79.5  93.7  90.1  90.7  91.7   3.6  83.6
+  85.3  87.1  88.7  76.6]</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>[ 93.9  87.7  81.  121.4   2.7   6.1   4.7   2.7   6.6   9.5  93.2   1.1
+   1.    1.1   2.3   5.6   2.6   1.    2.    2.   75.8  65.7  67.   55.6
+   3.4   9.5   5.    1.    2.5   2.8  62.9   2.6   9.5   4.    5.    2.6
+   4.1   3.2   3.2   3.2   1.3   1.2   2.    2.5   2.7   1.3   1.8   2.4
+   1.2   2.6   2.4   2.7   9.5   9.5  56.1   1.3   3.6   2.6   2.1   4.
+   2.7   1.3   1.8  68.5   3.3  64.7   1.3   3.2   3.3   1.3   1.2   1.3
+  59.8   1.3  69.5   1.2   9.5   2.1   2.8   3.2   3.3  97.3   6.    3.5
+   2.5   2.    1.2   1.2   1.8   2.8   3.    2.    7.    2.8]</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>[ 8.2  3.3  1.1  2.4  2.7  9.1 64.5 73.  88.5 70.8  4.6  8.  47.9 97.6
+  1.1  1.6  3.2  2.   2.4  2.7  2.7  1.2  4.6  4.   1.1  2.5  4.   6.4
+  1.8  3.   1.   2.8  5.3  2.   9.5  3.   3.   3.   1.2  8.   2.   1.3
+  3.2  2.   2.   2.7  2.4  2.   1.4  9.1  1.6  9.1  9.5  1.2  3.3  1.1
+  2.5  3.1  1.3  2.   4.6  2.   3.2  3.   5.1  2.   2.   9.5  5.5  1.
+  2.5  3.1  2.4  2.   2.8  1.   1.8  5.   2.7  2.5  1.1  2.8  2.   9.5
+  6.   2.5  1.9  7.5  4.5  3.4  2.   2.7  9.   3.6]</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>[74.1  4.8  2.8  2.   1.2  1.8  4.4  9.5 95.6 52.6  1.9  6.3  3.4 90.1
+ 85.2  5.  53.8  3.6  3.5  8.   4.3  5.  72.8  1.1  3.3 58.3  4.3  1.6
+  2.   7.6  2.   1.9  3.3  2.9  5.  57.9  4.1  4.3  3.3  9.1  2.1  1.3
+  3.2  6.1  2.   2.8  2.4  5.   1.3  2.5  9.1  9.5  1.9  2.4  9.5  1.8
+  3.3  9.5  2.   3.6  3.4  8.2  1.8  3.3  3.   3.3  2.7  1.7  9.1  4.
+  5.3  3.   6.   1.2  2.   4.   5.3  1.3  2.   8.5  3.1  9.1  5.   2.8
+  5.3  9.1  2.7  3.   2.5  6.   5.   3.4  2.6  4. ]</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>[  1.2   1.    2.1 202.1 123.8  91.8  66.7 173.3 185.8 312.    8.    7.
+   1.3   1.8   6.4   4.   52.3  43.6 338.3   2.5   2.8   2.5   2.1   2.4
+  79.6  66.5  65.4   2.8 186.5  58.7   3.3   1.    2.4   9.5   3.1   9.5
+   3.7   1.3   1.8  61.9   2.    2.7  61.7   5.7   1.1  10.    2.7   2.7
+   1.3   3.    2.1   8.    1.2   4.   10.    1.8   2.1   2.7   1.3   2.
+   3.3   2.    2.    1.2   2.    3.   10.   52.6   1.2   2.7   4.7   2.6
+   5.    5.    1.8   2.8   2.    2.3   1.1  60.6   3.1   3.4   7.    1.2
+   4.    2.7  44.9  72.4   8.    1.3   4.1   9.5   3.1   1.2]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2562,20 +4896,176 @@
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>[1976.  2030.9 2062.6 2047.3 2040.9 2067.6 2140.  2072.4 2079.2 2027.2
+ 2065.8 2065.1 1948.4 2042.4 2118.3 2042.5 2029.8 1983.7 1998.4 2026.2
+ 2037.8 2105.4 1981.7 2003.  2044.1 2061.3 1995.  2014.5 1985.2 1968.2
+ 2086.8 2001.6 2129.4 2003.7 2001.1 2023.2 2020.7 2067.4 2070.4 2094.3
+ 2067.8 2108.6 2028.7 2037.9 2074.6 2033.  2016.3 1999.  2024.1 2027.3
+ 2049.9 2070.  2030.2 2013.6 1987.  1973.7 2033.4 2033.  1965.3 2016.5
+ 2061.2 2016.8 2047.6 1997.3 1958.4 2034.7 2070.2 1960.2 2014.3 1992.
+ 2051.3 2133.2 2003.7 2001.1 2019.3 2026.6 2013.1 1983.  1956.4 2018.8
+ 1951.4 2016.9 2032.2 2037.4 2003.6 2010.3]</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>[1422.5 1424.6 1449.9 1463.3 1455.1 1460.3 1414.  1488.2 1515.4 1494.5
+ 1505.  1500.4 1456.8 1502.3 1439.1 1492.2 1465.7 1475.2 1506.1 1460.9
+ 1459.8 1467.1 1459.8 1432.7 1472.7 1458.1 1455.  1450.  1439.9 1443.7
+ 1476.2 1492.8 1470.2 1440.  1446.9 1457.2 1517.8 1493.5 1425.5 1432.7
+ 1465.1 1452.  1479.7 1488.6 1464.8 1436.9 1465.  1494.2 1473.9 1489.3
+ 1490.6 1465.2 1463.2 1484.9 1455.6 1497.8 1450.9 1466.9 1487.  1461.7
+ 1462.7 1451.5 1439.1 1455.1 1453.3 1468.8 1489.4 1456.3 1441.  1472.7
+ 1486.8 1483.  1474.2 1489.6 1476.9 1489.5 1484.6 1474.3 1446.  1489.9
+ 1433.8 1467.9 1491.1 1463.1]</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>[1024.5 1018.9  999.4  975.9  979.4 1013.4  965.8  971.4  980.7  983.1
+  977.4  972.4  956.4  937.9  955.1  986.3  985.2  973.9  986.1 1010.6
+ 1010.7 1006.1  998.1  963.8  967.9 1005.5  978.5  966.   983.8  987.9
+  961.3  989.5  994.8  970.7  973.4  973.8  998.7  982.5  986.4  996.4
+  982.3  972.7  979.4  961.9  992.3  987.9  972.   970.8  989.6  985.6
+ 1000.3  983.5  976.6  963.7  978.6  965.3  977.4  969.6  979.4  985.2
+  984.6  970.5  993.3  973.3  990.2  957.3  970.   970.7  969.5  976.3
+  982.8  971.8  974.8  976.6  980.2  981.2  977.1  977.6  972.9  985.6
+  973.6  962.4  985.2  966.7  949.9  981.4  977.5  974.4]</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>[751.  720.2 725.1 715.7 709.7 724.9 715.7 713.1 690.7 698.9 705.  695.9
+ 709.5 704.3 700.4 710.1 728.  707.1 726.7 716.3 697.2 719.3 718.9 720.6
+ 687.2 721.5 701.6 705.2 697.9 692.2 702.2 709.  699.3 697.5 703.2 704.7
+ 703.  711.2 704.7 702.7 715.  705.4 710.2 716.8 719.3 708.2 703.6 692.2
+ 701.8 715.7 709.6 713.5 703.2 706.6 712.7 700.  706.6 703.5 702.3 705.3
+ 696.9 709.  708.6 711.6 704.1 712.1 699.6 703.6 709.7 700.8 703.2 702.5
+ 707.4 715.  698.  711.3 705.6 714.1 720.7 709.  713.1 705.4 703.  695.3
+ 703.4 704.7 704.9 711.9]</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>[484.6 490.4 495.6 493.3 482.7 490.6 473.  506.6 503.7 506.5 499.6 502.3
+ 507.6 498.8 478.3 506.4 489.4 488.8 489.1 490.5 493.2 489.8 496.  484.7
+ 489.4 491.  486.3 489.5 496.9 493.  487.9 505.  502.3 490.6 497.6 487.7
+ 495.7 488.9 483.2 488.6 486.1 495.8 493.9 502.  500.9 487.8 483.5 499.6
+ 494.1 495.7 490.  494.  496.1 493.4 495.6 490.3 490.3 489.1 490.5 489.4
+ 487.8 492.  490.5 497.9 495.9 486.2 495.4 491.6 488.9 486.8 488.6 489.
+ 492.4 500.  491.5 497.7 486.4 494.1 491.5 489.4 486.  487.6 496.3 494.
+ 494.4 504.6 494.2 489.6]</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>[314.3 319.2 320.7 323.1 320.6 324.9 320.6 313.7 312.4 310.2 309.7 309.1
+ 313.3 312.3 302.7 320.3 311.9 316.4 316.8 305.7 313.1 314.8 318.7 311.4
+ 318.2 322.2 311.9 317.4 317.8 311.1 317.3 315.3 311.1 317.3 312.2 314.4
+ 312.  317.1 313.2 310.4 319.8 315.5 313.4 309.7 319.9 313.3 317.5 313.9
+ 316.3 317.6 313.3 317.3 316.8 317.  310.6 320.  311.6 314.5 315.2 315.3
+ 314.5 313.4 320.2 318.5 317.5 324.2 310.4 315.6 318.6 311.  317.6 319.3
+ 316.7 314.1 316.4 319.9 317.  314.4 318.8 319.7 310.3 309.8 315.6 317.8
+ 317.3 316.1]</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>[245.1 248.1 255.1 248.1 252.6 250.5 256.  245.5 243.8 240.6 247.1 242.2
+ 248.  248.2 255.4 237.2 242.9 246.4 243.4 249.5 246.8 242.7 242.  242.5
+ 247.2 243.  248.7 248.  246.2 240.7 245.7 245.5 250.8 242.3 247.7 245.3
+ 247.6 240.1 248.1 241.9 242.4 244.6 250.6 246.  248.8 245.3 245.7 239.4
+ 248.1 248.6 244.6 244.7 248.2 241.7 246.1 245.4 246.2 240.8 243.6 248.1
+ 244.9 246.5 249.3 242.  247.8 242.1 248.  244.4 243.9 244.8 247.6 244.
+ 250.5 244.3 245.  244.5 244.8 242.8 242.2 249.3 245.3 245.7 248.2 247.
+ 243.8 244.1 245.  248.9]</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>[160.5 159.6 160.3 157.1 163.5 162.1 160.  162.4 170.8 168.1 163.8 168.2
+ 168.1 165.4 167.2 163.  167.7 165.  162.5 164.6 161.9 164.5 161.5 168.2
+ 171.9 159.7 164.3 170.5 163.2 166.3 165.4 171.  167.2 170.2 165.  163.5
+ 164.5 165.6 163.3 165.6 165.  163.2 159.4 166.4 170.8 167.3 164.  163.4
+ 166.1 164.9 164.1 164.5 165.7 164.9 165.3 162.  164.7 167.7 167.2 164.4
+ 166.2 166.9 169.5 163.8 171.4 167.1 167.1 164.9 164.2 170.1 167.2 168.5
+ 157.8 164.7 163.7 165.4 171.  165.5 164.7 163.6 168.3 166.9 163.4 161.8]</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>[110.8 119.6 118.  117.4 119.1 121.  118.8 124.4 122.2 124.6 113.2 115.9
+ 117.8 118.1 125.  112.3 120.4 117.4 122.6 118.4 114.4 120.2 116.  117.8
+ 129.2 116.6 122.7 115.4 118.7 122.5 119.8 114.7 115.7 123.7 127.  119.4
+ 124.4 121.8 122.  122.8 122.6 118.3 117.6 123.4 127.7 117.5 118.5 117.3
+ 119.8 123.2 121.7 118.  119.3 122.1 120.4 121.8 127.9 114.3 120.3 123.
+ 118.  118.4 118.8 124.3 124.5 119.1 113.9 125.8 118.4 126.1 126.1 122.6
+ 120.9 106.8 144.3 123.1 116.5 115.1 111.6 114.9 115.8 119.4 131.3 123.1
+ 128.1 126.5 125.7 126.1]</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>[100.2  85.7  94.   89.1  87.3  94.3 112.8  58.2   5.   49.3  78.2  59.3
+   2.6  79.4  70.4  79.7  69.3  96.   76.1  86.1  83.3  78.2  83.6  60.5
+  92.3  81.4  71.3  80.7  72.3  69.6  53.5  53.6  57.1  82.4  90.2   5.8
+  69.2  86.1  88.6  88.2  89.4  78.2  76.2  90.5  88.5  79.5  93.1  95.3
+  58.   64.4  87.   77.9  52.5  92.2 101.1  71.   83.  101.4  81.7  85.7
+  79.4  80.8  85.7  94.7  90.5  83.1  84.6  61.7  79.1  78.5  80.9  91.3
+  79.2  86.8   7.   63.8  95.9  75.7  94.2  87.8  93.5  82.    1.2  76.6
+  85.1  87.4  82.6  61.6]</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>[ 90.5  85.1  81.  111.5   9.5   9.5   1.2  10.    1.4   9.5  93.1   6.6
+   1.8   2.5  61.1   3.2   3.7   1.8  73.6   8.5  74.   69.5  91.1   3.5
+   2.    1.1   2.    2.6  61.2   5.3  81.1   3.4   4.2   3.6   1.   11.
+   1.3  10.6  56.6   3.6   1.2   3.4   4.1  79.7   1.3   2.8  66.3   7.2
+   2.5   1.3  10.    9.5  67.2   1.2  82.4   3.6  10.9   3.3   2.5   1.1
+  59.9   1.    9.5  92.2   2.   88.7   9.5   2.4   3.7   9.5   6.3  59.8
+  73.4   9.5  97.8   4.5  51.4   1.3   5.3   9.8   1.6 101.1  10.    1.6
+  74.3  54.4  62.7  54.5  64.9   1.4  52.    5.    8.9   1.2]</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>[  8.    5.    2.2  10.    3.1   3.1   9.5  10.9  73.6  81.8  72.8  62.
+  81.8  78.9   9.5   1.5   5.3   1.1   1.8   3.9   1.    5.3   9.5   6.9
+  10.    3.    1.   71.8   2.7   9.5   2.6   2.7   6.2   4.6   5.6   9.5
+   5.3  44.7   2.6   2.8  10.6 102.5   5.   10.    9.1   2.6   2.    2.8
+  83.8   9.5   3.    4.9   1.    2.7  10.    2.1   1.   72.6   3.    2.7
+   1.    9.8   3.4   9.5   9.5   4.9   1.1   5.5   1.3  10.3   5.    1.7
+   2.5   4.9   3.6   4.1   1.1   3.    9.5   9.5   1.2   6.3   1.   38.9
+   7.3   2.1   1.2   1.5   3.3   1.4   3.    1.5   3.   68.5]</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>[ 79.3   5.6   2.    8.3   1.2   5.9   3.    2.   97.3 102.5   6.4   2.5
+   3.4 110.7 129.9   2.   82.1   1.3   3.7   1.3  89.4 125.8 112.3   3.9
+   2.8  80.3  10.    3.    1.4   5.    6.6  77.    2.7  10.    7.  124.2
+   9.5   3.3  10.    1.1   3.3   1.8   2.   94.6  92.    7.7   4.    2.1
+   2.8   3.   10.6   2.8   5.    1.    2.9   2.    8.8 114.4   3.    1.
+   2.5   3.3   3.2   3.    1.    3.3   2.7 105.   10.    2.    1.4   4.6
+   6.7   9.5   1.    1.4   4.    3.4   1.9   6.    2.5   8.7   2.5  95.1
+   2.    2.    1.4   8.    9.5  10.    1.2  10.    1.3   1. ]</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>[ 10.   10.   10.  133.  133.9   7.9 100.  180.9 159.6 177.6   5.9   1.5
+   6.    1.5   6.    7.9   2.5   5.7 301.5   3.8  80.    6.6   3.5   2.2
+ 236.6 142.  178.9  10.2 144.8  79.8   2.    2.    8.    2.    2.4  89.1
+  10.1   3.4   4.5 103.    1.    3.3 170.9  10.9  96.8   4.    4.    8.
+   2.    6.5 124.2 108.7  10.   32.2  10.    1.2   1.    8.    3.9 134.1
+   2.   10.    5.2   2.  117.5   1.5   9.  146.2  10.  177.8   2.  153.8
+   7.1   1.    2.    4.    1.5   2.4   6.2 189.6   2.7 157.8   3.6   8.
+   9.3   6.9 112.3 162.8  10.3  87.8  74.    2.6   2.   10.7]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2681,20 +5171,172 @@
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>[2047.6 2071.9 1954.7 1975.9 2106.9 2113.1 2032.4 2017.9 2003.1 1968.
+ 2005.6 2026.4 2060.  2088.  2062.6 2006.4 1990.9 2034.6 1954.9 1942.7
+ 2025.3 1984.6 2141.3 2086.7 2009.9 2020.  2039.5 2003.7 2000.9 1994.3
+ 2015.4 2056.8 1950.2 2081.7 1994.8 1919.1 1986.1 2012.5 1992.1 1975.3
+ 2007.9 2036.1 2028.  1970.5 2053.1 2006.5 1952.3 2006.6 2018.3 1980.8
+ 1901.4 1980.4 2084.2 2033.3 2036.  1975.8 2075.3 2056.3 2064.3 1977.8
+ 1984.1 1946.1 1948.9 1967.8 1984.  2138.4 1966.  2097.3 2063.7 2073.1
+ 2014.7 1971.5 1990.5 1974.8 1944.6 1942.1 2021.6 2123.3 2029.9 2072.6
+ 2120.8 2037.9 2033.  2034.1 2024.  2009.2 2105.7 2037.5 2001.2 1997.
+ 1998.6 1982.6 2007.  1978.2 1989.9 2009.  2004.3]</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>[1434.2 1441.8 1414.4 1432.5 1438.4 1410.4 1405.3 1477.9 1425.7 1413.6
+ 1426.8 1432.2 1406.6 1414.6 1393.2 1467.4 1456.5 1401.9 1405.2 1406.
+ 1423.2 1438.7 1413.5 1415.1 1399.9 1466.3 1446.4 1417.1 1411.4 1394.7
+ 1406.4 1416.1 1410.3 1411.1 1359.3 1451.2 1459.2 1442.6 1432.1 1426.8
+ 1410.3 1391.5 1405.4 1403.5 1342.5 1442.4 1443.2 1455.4 1451.7 1430.4
+ 1425.7 1431.  1371.5 1411.1 1357.  1410.3 1425.6 1430.5 1442.  1440.1
+ 1445.1 1439.9 1387.4 1441.4 1411.5 1428.9 1423.9 1410.6 1425.2 1430.7
+ 1440.6 1446.6 1449.4 1432.2 1459.1 1446.8 1434.2 1427.1 1414.8 1433.4
+ 1429.1 1439.6 1443.4 1434.2 1446.8 1429.2 1391.6 1398. ]</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>[1010.9  984.4  959.1  956.1  950.4  989.5  963.6  963.8  963.4  953.3
+  945.   951.1  998.8  972.2  949.   971.2  966.8  964.6  968.8  958.8
+  965.2  980.3  966.9  961.5  968.5  966.8  966.4  965.   949.6  958.5
+  959.8  961.   957.8  966.9  946.4  955.3  964.3  955.5  944.7  964.9
+  961.8  968.   967.8  943.8  945.7  964.3  952.1  954.7  954.9  940.7
+  950.4  954.4  965.5  969.4  951.5  950.   966.8  973.5  949.3  949.6
+  954.1  960.6  952.3  954.5  954.   960.4  961.8  976.3  962.6  955.7
+  964.9  955.4  965.1  953.9  958.6  965.5  928.8  972.2  967.7  970.3
+  957.5  941.3]</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>[699.4 694.4 706.2 714.1 693.7 700.  706.6 706.8 708.3 706.8 697.3 701.
+ 702.8 701.2 700.7 704.6 702.4 695.  691.3 684.2 710.1 691.9 705.1 704.8
+ 696.1 698.5 690.  683.6 694.8 675.5 707.2 690.5 702.7 699.2 694.7 695.9
+ 688.5 690.2 685.1 698.4 703.9 690.8 702.  688.5 693.3 691.8 686.7 695.
+ 701.4 696.1 708.7 694.  697.4 702.4 706.8 691.6 689.3 698.9 701.7 688.3
+ 703.4 688.7 697.3 699.9 712.  702.9 697.9 703.6 705.5 704.3 694.8 694.7
+ 690.8 698.6 702.1 693.9 697.6 700.8 697.3 696.5 706.1 708.3 699.8]</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>[475.5 498.4 498.4 494.4 493.4 483.4 473.4 493.9 487.5 488.7 490.1 496.5
+ 488.1 485.9 480.2 491.  480.9 490.3 492.6 488.8 491.8 488.2 494.  500.
+ 483.1 494.1 488.8 494.2 490.1 497.8 489.6 486.5 486.3 491.  476.2 488.7
+ 483.9 489.7 497.3 502.  497.7 498.2 491.3 485.8 466.2 484.6 486.2 491.7
+ 490.5 493.6 496.8 492.5 490.6 488.7 468.8 488.5 488.4 486.3 489.4 498.3
+ 497.4 494.3 486.2 491.5 477.6 488.  479.5 483.1 485.3 486.3 491.  490.7
+ 487.6 485.5 486.  480.6 482.2 488.4 486.6 487.6 488.3 488.8 485.4 481.
+ 487.8 486.1 486.3 487. ]</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>[315.5 306.9 309.7 309.7 306.6 314.9 305.3 308.2 315.6 313.9 307.7 309.6
+ 309.  305.7 308.4 308.7 310.9 315.8 312.8 308.7 304.2 307.6 317.2 305.9
+ 308.7 311.2 312.3 316.  313.8 313.3 310.9 310.4 296.8 316.2 305.  305.3
+ 314.4 319.3 317.2 314.  319.6 318.7 317.5 302.7 315.  309.6 307.3 310.4
+ 311.4 309.9 307.7 312.9 315.  320.  307.6 320.7 306.4 307.2 311.1 310.9
+ 311.2 311.9 313.6 317.2 317.9 303.9 314.  305.  304.9 313.7 314.9 317.
+ 320.2 320.1 315.9 316.1 310.3 311.2 311.  314.6 316.8 316.9 318.8 314.2
+ 310.2 323.9 315.2 314.9 313.3 314.8 318.8 314.7 322.5 323.8 326.8 323.5
+ 323.2]</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>[239.2 236.  235.2 235.4 239.8 237.2 238.8 237.5 235.8 238.5 240.9 237.
+ 236.1 247.8 242.8 240.9 234.2 240.1 239.8 236.8 241.5 243.  240.7 237.7
+ 241.4 239.3 238.7 239.7 236.6 240.1 241.1 240.  239.  242.  238.8 234.1
+ 241.5 238.4 238.  238.4 241.2 242.5 244.3 239.7 239.2 241.6 242.1 242.3
+ 237.4 241.5 238.5 241.8 243.4 248.2 243.3 243.8 239.  236.  240.  242.6
+ 236.5 238.6 244.2 247.  241.8 241.2 238.9 242.3 241.  237.1 236.4 239.3
+ 241.1 238.  241.4 234.7 239.5 236.3 236.8 237.6 240.4 238.4]</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>[160.1 155.1 154.8 160.1 157.2 157.8 164.2 162.6 157.1 160.1 162.  162.2
+ 157.  270.  155.9 158.6 159.7 157.1 159.2 156.1 158.4 160.5 161.2 157.6
+ 154.4 156.6 160.2 158.5 157.5 157.7 156.1 159.6 162.5 153.8 155.4 155.9
+ 157.7 159.1 158.  156.4 155.5 159.4 162.4 156.5 157.5 156.3 157.  158.6
+ 158.4 159.5 158.5 161.1 165.  160.2 153.5 260.8 160.7 157.5 158.2 158.3
+ 158.  161.3 165.4 161.6 148.1 154.7 163.3 161.4 160.4 159.5 159.2 166.1
+ 293.5 153.8 147.6 161.3 159.4 157.6 158.8 155.6 159.2 155.2 165.1 163.8
+ 160.5 161.5 164.  165.6]</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>[ 94.6 118.8 107.8 105.8 106.9 111.1 102.1 142.7 113.1 110.2 106.7 106.7
+ 110.4 113.8 149.8 112.5 131.5 108.7 114.1 117.1 114.2 112.  112.7 112.3
+ 163.4 114.9 146.7 118.1 120.4 117.3 118.4 118.5 114.5 109.8 170.3 147.1
+ 157.8 121.4 117.3 119.7 113.3 115.3 118.1 112.6 177.7 125.6 148.9 118.1
+ 113.6 117.4 118.5 117.4 116.6 111.4 110.1 116.8 150.7 118.5 113.3 112.1
+ 114.7 118.4 113.4 142.  112.5 152.2 110.3 159.4 116.2 112.8 114.8 119.7
+ 129.9 108.1 179.  115.  118.6 108.8 102.2 105.3 103.2 112.6 130.6 129.3
+ 122.5 120.3 118.1 119.6]</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>[  2.8  63.3  10.    3.2  61.3  74.9  45.7   8.4   3.1  66.2  72.6   1.3
+ 100.8   9.5  68.8  55.8  81.8  75.3  74.5   1.3  72.3   7.   61.4   3.
+  83.6  74.   62.9  66.8  59.7   2.    1.8   1.2  53.7  62.9  85.5  50.1
+   4.6   2.8   9.5   3.   64.6   2.   58.9  70.1  75.2   2.    3.3  53.4
+  58.1   9.5  91.8  43.6  67.1  69.7  72.9   9.5  62.1  70.8  76.5   1.2
+  90.4  53.9  67.8   1.1   2.1   7.   79.5  67.9  80.6  89.5   4.2   9.5
+   1.   63.1  81.4  73.9  73.3 110.5   2.6   1.2  46.3   3.3   9.5]</t>
+        </is>
+      </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>[ 2.5  1.9  3.3  3.2  2.4  1.9  2.6  2.7  3.   1.   1.2  3.3  2.1  1.3
+  3.   5.   2.7  6.8  2.6  4.   4.1  2.   2.7  2.5  1.2  1.1  1.8  9.5
+  2.6 58.2  2.1  4.6  1.4  2.7  6.3  3.   4.9  1.9  3.6  2.9  1.8  2.5
+  1.3  4.1  1.8  2.8  2.5  9.2  2.7  1.2  1.1 79.6  1.2  2.9  3.7  2.6
+  1.9  1.3  1.2  2.   9.5  1.   2.   2.4  2.5  2.7  3.3  1.3  9.5  9.5
+  3.7  5.  78.7  2.8  2.5  2.6  1.3  1.1  3.4  1.2  3.7  1.3 95.7  2.4
+  1.8  2.1  1.2  1.2  1.4  1.8 84.5 10.   3.   2.4]</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>[ 9.5  2.7  1.8  4.   3.3  1.2  2.1 90.3  2.4  1.1  1.2  1.7  3.   1.
+ 79.3  2.   2.5  3.3  6.9  2.7  9.5  1.2 93.2  3.   1.2  3.2  2.   1.9
+  2.8  5.   9.5  1.2  1.8  2.4  3.1  1.3  2.   2.6  1.8  2.   6.3  2.7
+  1.8  3.4  1.1  7.   4.   2.   2.1  2.4  3.2  1.6  1.6  5.   9.5  9.5
+  1.2  1.8  9.5  4.1  2.4  9.5  1.3  3.1  1.8  5.   4.7  2.7  2.   2.1
+  2.7  2.   7.7  1.   3.4  2.5  4.1  1.9  2.8  1.8  3.3  6.3  1.2  1.9
+  1.3  2.   6.1  3.   1.2  1.8  1.2  3.3  2.5  2.6]</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>[ 3.   2.   4.1  9.5 10.   1.3  5.   1.1  2.   1.8  1.1  6.1  1.  73.7
+  4.3 66.9  3.6  3.2  4.   3.2  1.8  1.8  2.8  2.1  1.1  2.1  6.8  4.
+  2.   7.   4.   2.5  1.2  2.9  3.6  5.6  2.9  1.1  1.9  4.9  3.   5.
+  2.7  2.1  2.4  4.   3.6  1.1  8.1  2.7  9.1  6.5  9.   1.2  7.   1.2
+  3.3  2.5  1.9  1.9  9.5  9.5  3.3  3.3  3.   3.3  1.2  4.1  2.   9.1
+  4.9  2.8  2.4  1.2  4.3  4.9  1.9  2.3  3.8  3.6  1.1 10.   2.7  4.8
+  1.2  3.3  7.2  6.2  4.   7.6  1.4  2.4  1.8  3.6]</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>[70.7 68.4 64.9  6.   3.3  3.1  3.4  1.8  3.1  5.   2.7  7.3  6.7  8.
+  1.   1.3  1.   1.2  9.5  9.   1.2  1.   4.   2.  10.   1.3  5.   3.4
+  5.5  3.   4.9  2.4  1.3  5.4  2.   1.6  1.   9.5  1.2  1.5  6.1  7.
+  1.1  2.7  1.2  4.   1.2  2.8  7.8  3.   6.   6.3  1.2  1.7  1.2  4.1
+  9.1  1.3  3.6  2.   1.2  2.8  3.3  2.7  1.4  3.4  1.1  1.7  2.6  1.8
+  2.2  1.   1.2  2.   3.2  4.5  1.   9.5  4.2 65.6 44.7  3.3  2.7  2.7
+  9.  66.4  2.8  1.3  1.8  2.8  4.   2.9]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2800,20 +5442,175 @@
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>[2013.8 2074.5 1850.  1885.6 2169.2 2055.1 1953.2 1970.3 1996.6 1914.4
+ 1972.4 2056.5 2011.  2028.9 2076.8 1945.1 1935.5 2049.7 1902.4 1900.7
+ 2055.5 1931.  2128.7 2127.4 1970.9 2041.9 2051.6 2005.6 2019.  1998.7
+ 2006.5 2082.5 1962.6 2053.8 1952.5 1863.7 1995.1 2021.1 1996.2 1959.9
+ 2041.2 2050.1 2032.8 1987.3 2033.6 2004.8 1910.2 2010.3 2046.6 1983.2
+ 1848.8 1977.6 2156.  2040.1 2051.9 1954.3 2096.5 2084.7 2095.2 1946.6
+ 1980.5 1933.7 1926.4 1967.1 1981.  2060.5 1945.1 2066.9 2032.7 2062.4
+ 1945.2 1937.6 1975.4 1967.3 1902.2 1881.5 1981.1 2089.3 1950.  2049.9
+ 2179.  2001.1 2051.4 2044.9 2050.2 1960.2 2066.9 2002.9 1933.8 1969.6
+ 1973.9 1930.6 1993.9 1935.1 1939.7 1991.2 1970. ]</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
+        <is>
+          <t>[1430.9 1444.8 1413.5 1449.7 1462.  1409.8 1382.9 1489.7 1421.1 1419.4
+ 1448.  1453.9 1399.2 1414.4 1367.7 1449.8 1453.9 1377.6 1423.9 1413.2
+ 1447.2 1470.8 1409.5 1413.6 1396.8 1469.6 1441.2 1414.5 1412.  1393.8
+ 1414.9 1433.8 1434.7 1413.5 1376.5 1460.5 1475.  1444.8 1433.  1451.
+ 1405.  1399.1 1424.7 1413.2 1365.2 1467.3 1453.6 1473.9 1473.3 1430.1
+ 1439.6 1452.2 1357.2 1435.5 1369.9 1413.2 1425.2 1435.  1450.1 1459.4
+ 1468.4 1452.9 1371.3 1467.8 1399.8 1422.5 1418.  1390.8 1431.4 1431.8
+ 1450.1 1454.3 1497.9 1427.8 1423.8 1432.2 1430.7 1423.6 1392.6 1459.6
+ 1440.7 1450.7 1417.6 1400.2 1441.  1436.2 1388.9 1406.2]</t>
+        </is>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>[1001.   981.9  960.9  958.4  956.6  987.9  961.   956.9  976.5  962.
+  945.4  959.1  987.4  964.9  953.   992.4  975.4  978.4  993.9  974.
+  971.5  969.8  970.8  963.6  974.   981.4  990.7  977.5  960.4  965.7
+  952.   963.   952.   986.   948.4  965.9  990.4  964.   946.   971.6
+  984.6  991.4  981.8  946.5  948.4  981.4  964.6  963.3  959.3  942.2
+  956.7  954.9  985.4  988.1  961.5  957.6  987.2  988.4  962.3  966.8
+  964.3  972.2  961.7  963.1  968.   977.1  963.4  989.2  978.5  963.9
+  979.2  959.1  984.8  957.1  968.7  980.   914.2  971.2  974.4  979.5
+  969.6  936.4]</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>[699.9 684.3 708.  719.7 698.5 701.7 711.  708.9 709.9 707.  692.3 707.
+ 698.1 702.3 701.3 712.5 704.  692.3 685.3 688.1 711.5 686.7 713.1 712.8
+ 696.4 700.5 691.5 679.7 698.9 672.9 713.7 683.7 710.  700.4 698.5 699.8
+ 690.  694.4 682.1 701.5 707.1 686.3 709.9 681.2 690.9 692.3 682.8 699.3
+ 712.8 703.  722.7 693.7 696.8 704.2 715.  688.3 686.5 703.6 707.4 687.6
+ 708.4 683.9 704.  708.3 721.4 705.2 698.6 707.6 711.8 707.7 694.8 698.3
+ 683.5 697.7 701.7 689.1 697.8 705.6 702.  703.9 713.2 715.  697.2]</t>
+        </is>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>[475.6 500.2 496.9 494.9 495.7 481.  474.4 496.8 483.4 483.5 482.4 497.9
+ 481.5 481.4 477.  492.8 477.1 491.6 485.8 479.2 487.  482.8 492.8 507.3
+ 486.9 497.9 492.1 483.9 484.3 494.9 481.4 477.4 478.  485.9 478.2 494.1
+ 476.2 483.7 494.4 499.4 489.2 494.9 486.7 479.1 467.3 483.3 485.3 487.8
+ 480.1 483.6 489.9 484.4 484.  483.3 469.7 493.5 491.2 480.1 484.1 494.3
+ 494.1 490.  480.4 495.7 483.3 493.  474.  478.5 477.9 477.8 483.1 486.7
+ 482.9 481.9 498.4 480.  480.  484.6 479.6 483.  486.3 488.1 487.4 472.
+ 486.5 482.6 483.7 486.8]</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>[315.3 303.5 311.2 310.6 304.  315.6 301.3 305.2 319.7 313.8 303.  310.9
+ 308.2 302.8 310.2 308.3 306.6 317.9 314.3 309.2 302.2 305.8 318.6 303.8
+ 310.6 309.1 309.7 315.3 310.  312.  309.9 310.9 294.7 316.8 299.  302.2
+ 316.4 324.5 317.7 312.4 325.  318.4 317.1 302.5 313.  311.7 307.8 307.4
+ 310.7 305.3 301.5 307.1 307.8 320.2 310.8 324.3 302.4 308.1 312.  309.4
+ 308.6 306.6 309.3 314.5 315.8 303.  315.4 302.3 304.4 312.2 312.  316.3
+ 317.  318.7 310.  316.1 310.2 308.1 308.8 316.7 316.2 312.1 314.2 308.7
+ 306.7 321.5 309.1 309.2 304.  304.8 315.1 309.  317.1 318.9 323.6 312.8
+ 315.1]</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>[237.5 232.  232.2 232.5 242.9 236.2 239.4 235.6 234.8 237.5 244.6 236.2
+ 232.5 246.8 241.9 242.7 228.2 242.8 241.3 236.1 244.6 241.6 238.4 233.4
+ 242.7 238.8 239.4 240.6 235.  242.8 237.1 239.8 235.4 241.7 239.1 229.8
+ 244.7 238.4 235.8 235.2 241.  242.9 244.7 235.6 235.4 240.8 243.1 246.5
+ 234.4 242.4 234.9 240.6 241.3 251.2 243.3 246.5 238.3 231.2 241.3 245.5
+ 231.4 236.2 240.8 249.4 239.2 240.9 241.5 244.5 240.3 235.5 235.6 237.6
+ 241.3 234.6 246.3 233.3 237.5 232.5 234.3 235.5 237.8 238.6]</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>[159.5 153.4 151.8 161.1 154.5 157.7 161.9 165.1 154.7 159.7 162.2 164.2
+ 153.2 159.2 156.1 157.2 157.1 155.4 160.8 153.7 158.1 159.6 159.6 159.5
+ 152.7 156.9 163.9 157.3 157.4 157.2 153.4 158.5 165.  151.  155.3 154.8
+ 155.2 159.9 159.2 155.1 154.1 156.8 161.  154.2 158.  156.9 157.8 158.5
+ 158.  160.7 158.5 161.  167.8 160.4 154.3 157.2 161.6 155.6 158.1 157.
+ 155.6 156.6 162.7 161.4 148.7 151.4 167.  161.7 163.  158.6 158.2 169.6
+ 169.5 152.9 144.5 161.2 157.7 156.3 162.7 151.1 156.8 152.  167.  163.5
+ 160.2 160.  163.9 166.5]</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>[ 93.9 119.2 108.7 108.6 113.3 114.8 102.5 115.5 112.8 111.  105.  104.7
+ 112.2 111.6 118.3 110.4 110.1 101.1 114.9 117.3 115.  111.  110.9 113.7
+ 127.  112.6 115.2 118.5 121.4 117.6 118.4 119.  111.3 108.6 131.6 116.7
+ 122.5 121.  114.4 120.9 107.9 110.5 120.  110.9 132.7 125.9 120.3 117.3
+ 113.7 118.8 121.  118.6 115.5 112.  108.5 115.1 120.4 118.  111.9 111.1
+ 113.7 120.3 113.7 111.3 111.1 119.1 105.1 121.5 118.9 116.2 115.2 120.1
+ 126.5 107.8 134.4 114.  118.  112.  105.2 111.5 103.5 110.3 129.3 130.
+ 125.8 124.4 121.5 122.9]</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>[  2.   67.1   1.3   3.5  74.7  65.    4.6   4.   10.    4.4  71.4   9.5
+  87.5   6.5  57.9   2.8  87.7  73.1  74.4   2.6  78.2  10.   57.8   3.4
+  83.8  63.3   1.2  57.5  56.9   5.    4.    2.7  60.8   2.   92.8   1.
+   2.    2.4   2.7   9.5  82.3   2.7   4.   58.3  77.    9.5   1.8   1.2
+  70.2  55.3  95.4   3.3  79.3  68.7  79.3   2.   57.4  68.7  83.8   1.8
+  94.4  73.3  73.2   3.3   2.1  10.   89.5  61.1  82.7  97.6  10.    9.5
+   1.2  67.1  80.4   9.5   2.5 113.8   6.9   3.1   1.2  50.3   2.5]</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>[  1.2   4.   10.    1.4   9.5  10.2   1.2   4.5   9.5   6.9   1.6   1.6
+   1.1   2.4   5.    3.6   3.7   1.9  10.    2.4   7.6   2.6   2.4   3.4
+   9.5   2.    1.8   2.    5.   72.6   3.2   2.6   1.1   1.1   6.6  10.2
+   2.3   6.9   3.3   9.5  47.2   9.5   3.2   5.    6.6   2.    5.    3.5
+   5.6   1.1   4.1  78.    4.1   4.4   2.7  10.    1.2   2.    9.5   1.3
+   6.    2.7   3.4   4.3   1.5  33.2   4.    3.2   5.    2.1   9.5  49.
+  76.8   2.5   1.9   3.    3.7   1.3   3.    3.3   3.2   9.5  98.5   2.
+   9.1   2.    3.1   9.5   5.    3.  101.5  61.    5.   63.4]</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>[ 9.5  3.1  4.7 10.7  4.3  9.5 10.  79.1  7.   1.   1.3  2.8  1.6  3.1
+  2.2  2.7  1.  78.   2.   2.4  7.7  1.2 95.1  2.6  4.9  9.5  6.9  5.7
+  1.   7.   3.4  7.2  9.5  1.3  1.7  9.6  5.1  9.5  2.3  1.1  6.4  1.2
+  4.9  9.6  4.6  1.3  2.6  4.9 10.   2.6  6.9  3.4  6.2  4.1  2.3  9.5
+  3.   2.7  2.7  5.9  4.9  5.   2.3  6.7  2.   1.2  9.5 70.8  9.5  2.6
+  4.2 57.4  3.   9.5  5.  10.   2.1  1.3 74.9  1.   9.5  2.8  2.3  2.6
+  5.7  2.   1.1  7.9 10.  66.2  5.   2.5  1.8  7.3]</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>[  9.5   4.    5.3   9.5  10.9  10.    6.    3.4   6.    9.8   4.8   2.
+   6.  104.3   4.1 102.1   3.4   7.8  65.4   4.9   2.8   2.7   4.7   2.8
+   3.6   2.8   2.    8.1   1.    5.    1.1   1.4   4.2   7.    7.8   1.
+   5.   10.    4.   10.    5.1   7.6   1.2   7.8   1.1   1.2   2.8   3.8
+   7.7   1.3   1.7   1.2   7.8   7.    6.4   3.3   7.   96.    3.    8.
+   7.    6.6   2.    3.3   8.4  10.   10.3  63.8   8.   10.9   3.   65.6
+   2.    4.8   5.    7.    9.5   1.2   1.3  10.    3.    2.1   5.   72.1
+   5.3   9.5  10.    1.2  95.3   5.5  10.   10.9   1.1   8.4]</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>[147.7 109.    1.2   6.4   8.3 106.5   7.    9.5   6.    5.    4.    8.
+   1.    6.6   2.4   4.5  10.    9.   10.    3.1   3.    5.5  10.   10.3
+ 134.    1.6   8.    7.9   2.2   2.    5.6   3.3   3.    1.6   8.    3.
+   2.   10.3   2.7   9.   96.1   8.9 176.8  86.3   3.    7.2   3.    1.2
+   5.9 178.2   5.    7.    6.6 133.4   8.9   1.    4.    6.    7.    2.
+   9.   73.5   3.6  10.3   1.  119.7   1.    4.    2.7  10.3   7.    3.6
+   1.    8.    2.   10.3   1.1  90.5   3.3 169.6 179.6  10.    2.9   9.
+   8.  206.3   5.6   4.    4.8  10.    4.1   1.2]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2919,20 +5716,180 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>[1962.9 1882.7 1897.8 1925.9 1885.9 1970.8 1943.5 1863.2 1918.1 1986.6
+ 1889.1 1914.3 1979.2 1924.6 1872.3 1825.9 1927.2 1933.3 1927.8 1911.5
+ 1922.3 1916.5 1953.  1966.4 1894.1 1863.7 1914.6 1896.2 1950.5 1916.9
+ 1974.2 1924.  1912.  1934.6 1914.8 1888.8 1956.2 1956.4 1899.6 1898.9
+ 1944.9 1981.4 1910.7 1943.8 1996.4 1915.9 1846.5 1908.9 1943.4 1855.5
+ 1815.7 1902.9 1913.1 1909.9 2095.1 2080.7 2004.9 1872.8 1978.8 1982.
+ 1900.  1848.7 1903.4 1935.  1913.8 1961.6 2053.2 2038.9 1931.6 1938.5
+ 1963.9 1891.5 1866.9 1945.6 1921.7 2020.1 2043.1 1974.6 1884.4 1886.3
+ 1913.6 1863.6 1874.6 2089.8 2027.2 1994.1 1914.  1981.3 2054.  2032.1
+ 2069.8 2028.6 1994.3]</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>[1453.5 1473.7 1413.1 1376.7 1359.3 1371.  1445.4 1420.3 1439.9 1422.8
+ 1399.2 1372.8 1397.5 1433.4 1505.6 1436.6 1414.3 1407.2 1432.8 1390.3
+ 1365.9 1362.3 1378.2 1342.1 1408.5 1393.1 1379.4 1364.1 1389.2 1411.9
+ 1377.1 1374.5 1368.6 1350.1 1455.7 1428.4 1371.7 1347.8 1382.5 1455.4
+ 1390.8 1389.  1381.9 1408.3 1435.8 1416.  1376.9 1361.9 1401.2 1387.1
+ 1411.7 1361.9 1378.2 1434.5 1355.3 1376.4 1404.6 1399.2 1408.6 1386.5
+ 1454.5 1416.2 1416.2 1452.7 1399.4 1392.8 1416.8 1431.4 1408.7 1411.1
+ 1412.2 1386.4 1416.2 1447.9 1402.7 1403.3 1433.2 1403.4 1417.9 1430.1
+ 1405.7 1431.5 1402.6 1373.8 1346.8 1345.  1399.1 1439.3]</t>
+        </is>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>[944.1 967.7 971.4 965.3 969.9 964.8 937.2 935.1 957.9 986.3 967.5 957.1
+ 950.4 955.6 947.7 938.2 959.8 966.9 961.7 972.6 959.1 946.5 945.  948.7
+ 968.9 957.  952.2 967.  980.3 975.9 946.1 946.  957.3 948.7 978.  956.3
+ 960.6 990.4 970.2 958.9 945.  946.1 957.8 952.4 950.9 968.6 953.6 966.
+ 982.9 970.6 945.8 959.8 948.5 962.8 978.7 964.6 967.9 974.1 990.8 973.9
+ 934.1 943.1 954.  945.1 949.6 952.9 988.2 983.4 974.6 944.8 936.6 941.8
+ 928.3 947.3 956.2 993.6 987.2 942.9 954.7 938.4 946.  951.5 943.6 990.4
+ 943.7 947.6]</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>[719.3 715.7 712.9 718.6 719.  717.2 728.1 727.6 721.9 724.5 730.6 721.2
+ 723.5 716.3 721.8 723.4 721.6 725.2 725.8 705.  718.1 720.2 716.4 717.2
+ 733.1 724.3 725.7 717.3 726.5 705.3 710.6 680.4 685.2 721.5 744.4 730.3
+ 723.6 679.6 692.5 699.5 693.  685.2 688.5 687.2 693.2 720.7 687.  709.
+ 719.6 692.3 689.2 693.6 692.8 691.7 695.8 693.1 696.6 722.7 720.2 688.2
+ 693.4 705.1 721.7 714.6 700.2 729.3 735.8 705.1 701.7 718.8 695.  720.5
+ 699.1 738.3 706.4 704.3 722.9 690.  698.7 688.8 692.6 727.4]</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>[488.6 502.1 510.  494.5 483.9 486.6 478.6 481.2 492.5 497.  491.8 492.1
+ 477.7 482.3 486.2 484.1 485.  485.4 486.8 488.9 490.1 486.6 482.8 493.2
+ 489.8 482.9 489.7 490.  489.3 490.9 490.1 484.5 489.5 491.9 485.4 491.5
+ 494.7 498.7 499.7 490.8 488.4 486.2 499.8 488.8 492.5 491.1 496.5 494.1
+ 487.3 494.3 494.1 500.8 490.5 499.3 498.6 489.5 494.5 486.5 487.3 491.7
+ 494.2 486.6 497.2 497.5 494.  496.6 492.3 492.7 471.  496.4 500.2 494.6
+ 485.5 493.6 499.8 499.2 477.6 494.5 489.8 482.9 485.4 492.1]</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>[317.5 319.3 312.6 318.6 328.8 308.9 307.4 309.6 314.9 308.  313.7 304.9
+ 312.4 310.4 312.7 319.  314.  313.5 312.7 317.5 324.6 316.1 314.3 315.4
+ 312.8 316.4 315.  315.1 315.9 314.4 315.4 310.4 311.1 313.1 320.4 316.7
+ 313.1 314.6 308.1 314.3 314.5 309.9 310.1 312.9 320.7 317.5 315.7 318.6
+ 314.9 313.7 319.7 316.5 312.7 318.8 319.9 313.1 314.2 314.7 315.9 319.
+ 309.2 322.2 316.2 311.8 319.  315.8 315.4 314.4 317.3 317.2 312.3 306.8
+ 318.3 317.1 315.7 312.4 311.1 314.9 317.4 321.3 311.2 318.3 314.3 316.9
+ 318.4 319.1 315.  321.1 320.4 315.8 316.1 322.7]</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>[242.7 249.8 248.9 243.8 231.4 239.7 241.5 236.2 246.  245.7 241.  237.7
+ 237.2 242.  246.2 247.1 241.7 248.  243.5 238.5 237.5 240.7 239.1 243.2
+ 241.5 243.  248.5 245.8 245.5 239.3 239.  245.2 240.6 241.8 241.3 243.
+ 243.7 248.4 243.9 244.3 248.5 251.3 246.6 241.3 239.6 244.2 243.8 248.2
+ 241.5 249.5 256.6 249.6 248.3 246.6 240.7 241.7 243.  255.3 248.4 245.6
+ 243.2 244.6 247.3 251.6 247.  245.5 243.8 264.7 243.  247.  245.9 245.3
+ 249.6 250.  250.6 249.6 255.8 248.3 251.5 248.2 245.8 244.8 246.8 251.4
+ 244.4 248.7]</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>[161.6 163.6 232.9 230.  254.1 160.1 243.3 226.8 161.3 229.3 234.2 234.7
+ 227.7 229.1 228.2 225.6 205.7 214.1 231.9 236.2 164.2 237.8 167.5 232.5
+ 165.1 227.6 235.3 231.  229.1 236.1 233.6 169.3 169.3 243.6 230.3 163.9
+ 234.4 234.7 227.1 170.1 165.7 236.2 171.6 246.4 238.1 236.1 162.7 239.3
+ 239.4 238.6 161.6 213.2 235.8 247.8 166.5 240.6 250.8 179.2 170.6 237.4
+ 162.7 224.1 161.8 261.1 174.5 171.8 173.8 170.1 240.5 170.  164.7 240.1
+ 234.  242.8 275.4 172.  166.  168.4 235.3 225.2 273.1 239.4 154.6 157.8
+ 160.5 156.4 164.8 162.6]</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>[137.5 134.8 126.5 132.1 134.9 141.4 137.7 130.9 134.  141.3 124.1 132.8
+ 140.9 122.9 119.1 120.3 139.7 136.6 116.4 140.7 118.9 119.8 117.4 135.9
+ 118.4 120.  135.5 140.5 142.4 136.8 137.4 116.  140.9 139.2 143.9 147.8
+ 143.5 127.  142.7 126.4 122.2 118.3 142.2 146.9 145.6 121.4 138.9 135.9
+ 138.1 120.6 141.4 144.4 133.9 128.3 125.  142.3 112.8 139.7 137.8 141.1
+ 147.6 148.2 149.8 128.2 123.9 130.2 147.3 109.8 149.5 124.6 118.8 113.7
+ 115.7 101.8 127.2 123.7 133.1 139.  133.2 131.3 141.9 145.3]</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>[ 81.4  95.2 103.9  96.   89.5  78.1 105.5  88.8  97.3  81.8  75.3  81.1
+  86.9  93.   58.6  84.8  84.   67.8  62.6  75.1  73.   83.4  79.7  83.5
+  72.   86.1  92.3  81.7  87.4  99.7  98.2  95.   87.8  80.8  98.3 106.8
+  75.   81.4  82.8  83.9  83.2  94.4 100.1  99.1  92.5  75.8  86.8  89.4
+  92.7  90.4  95.5 105.1 107.2 100.3  84.8  92.3  90.2  91.5  91.3  87.2
+  96.8  98.3 106.4 118.5  96.4  99.1  94.1  92.8 115.9  88.1  86.5  86.4
+  96.   93.7  85.2  87.   88.8 110.1 108.3  85.7  95.3  91.8]</t>
+        </is>
+      </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>[  1.1   2.7   1.7 101.3  42.7   2.8  58.3  73.9   4.6   1.1 101.4  78.6
+  57.1  54.1   2.5   2.7   2.7  58.2   1.3  76.8  50.6   4.1   1.3   3.3
+   4.6   2.7  10.    9.4   2.    2.7   2.7   7.   65.8  62.3  67.2   1.8
+   2.6  53.4   1.1  89.5   4.   69.6  59.5  70.7  74.4  69.5   2.7   2.
+  81.   72.   84.5  57.8  77.7  71.9  47.9  85.2  72.5   2.5  10.   72.6
+  77.2  94.2 100.  119.1   2.8  67.2  61.   76.8   2.5   1.2  90.2  68.8
+  74.9 115.5  80.   80.7  88.6  79.2  10.6 111.1   2.8  82.6   1.1   3.1
+  50.7  75.7   4.    2.5   6.8  94.5  98.5  90.9  65.5 100.9]</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>[ 54.7   5.    1.8   2.7   9.5  64.4   4.   93.    3.5   4.    1.3   1.2
+ 105.7   2.4 120.9  74.5  69.3   9.5   8.   78.7  80.2  74.1   1.3   1.8
+  51.9  68.6  46.4   1.6   1.   52.3  54.8   1.4   8.    5.   41.1   1.1
+   8.    1.2  60.2   1.   41.3 103.    5.3  40.5   3.4   2.7   3.   66.2
+  70.    7.    5.    9.5  91.6   1.4   2.5   1.8   3.   54.6  82.4  48.4
+   4.5   2.1  67.4  85.3   5.    1.3   1.1  93.8  93.5  78.4   2.    1.3
+   9.5   2.9  98.9   4.4 129.8  91.5   9.5  91.3  89.8   1.  106.3  10.
+   2.5   3.    2.8   2.8   3.4  79.6 102.4]</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>[  4.9   4.5 119.6 148.8  66.2   2.1  86.8 103.4  98.9 112.1   5.6 166.3
+  63.9   2.5   1.8 122.3 115.8   9.1  89.8   4.    1.9   1.8   1.8   4.
+   3.4   3.4   2.5  74.7   9.5 111.8   3.3   9.5  59.4   1.1  50.6   1.8
+   5.   87.2   2.7   7.7  68.4  69.1 101.1  77.1  54.6   1.3   9.5   2.1
+  68.9  61.9   9.5  69.3  10.3  79.5   3.3   2.    2.1   2.5   4.9  82.1
+  72.1   8.3   2.    5.   85.2  57.8   2.5   1.2   5.    3.   86.3   2.5
+   1.  114.  103.5  70.6  86.2   2.    5.    2.5   3.    1.4  79.4   1.2
+ 101.8  70.5  50.3   2.5  95.   80.1  85.1]</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>[2.5580e+02 3.6340e+02 2.0000e+00 8.1000e+00 9.3000e+00 2.7000e+00
+ 2.7000e+00 3.0000e+00 1.2410e+02 7.0200e+01 6.1200e+01 1.2000e+00
+ 1.2000e+00 2.4000e+00 3.2000e+00 1.2000e+00 1.3350e+02 2.5000e+00
+ 1.2000e+00 8.0000e+00 7.1000e+00 1.3000e+00 6.3000e+00 9.9600e+01
+ 1.1523e+03 1.0000e+01 2.5000e+00 4.2000e+00 1.0000e+00 3.7000e+00
+ 1.8000e+00 1.3000e+00 2.9000e+00 1.0220e+02 2.9610e+02 6.0690e+02
+ 2.0000e+00 2.5000e+00 9.5100e+01 3.7000e+00 6.3900e+01 6.3000e+00
+ 3.4000e+00 1.1700e+02 1.2860e+02 1.7670e+02 1.8000e+00 8.4000e+00
+ 2.7000e+00 6.9100e+01 6.3200e+01 3.3000e+00 4.8300e+01 1.0980e+02
+ 1.3000e+00 3.2000e+00 1.9210e+02 3.0000e+00 2.7000e+00 2.0000e+00
+ 4.1000e+00 1.0000e+00 5.9800e+01 1.8000e+00 8.5000e+00 2.8000e+00
+ 1.0000e+02 1.4870e+02 5.4200e+01 5.8100e+01 6.2500e+01 6.3900e+01
+ 4.3800e+01 6.0100e+01 1.6480e+02 8.7800e+01 2.7000e+00 3.2000e+00
+ 7.4100e+01 5.9800e+01 1.3000e+00 4.9000e+00 2.1000e+00 7.3160e+02
+ 2.0000e+00 5.6500e+01 7.0800e+01 7.0000e+00 1.0060e+02]</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3038,20 +5995,181 @@
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>[1909.4 1755.2 1853.3 1905.7 1722.9 1937.7 1964.  1803.8 1898.6 2019.8
+ 1828.  1889.  1959.6 1868.  1833.7 1781.7 1924.7 1948.4 1907.1 1916.6
+ 1905.4 1906.8 1914.2 1983.5 1855.5 1814.6 1896.6 1908.6 2013.9 1921.8
+ 2066.3 1975.3 1848.7 1910.6 1891.7 1866.4 1961.9 1991.1 1875.7 1923.8
+ 2016.6 2100.5 1940.9 1946.2 2011.2 1874.7 1790.1 1899.9 1947.2 1851.4
+ 1823.5 1963.1 1909.7 1949.6 2145.  2123.5 2025.9 1839.4 2000.8 2014.9
+ 1888.2 1839.6 1926.2 1987.3 1924.8 1917.9 2007.5 2072.  1901.8 1936.
+ 2002.8 1866.6 1855.3 2032.7 1961.4 1970.3 2017.2 1959.3 1809.2 1855.
+ 1911.  1819.2 1827.4 2078.6 1939.2 1972.8 1806.5 1966.  2060.8 1939.
+ 2026.1 1972.  1955.5]</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>[1442.2 1488.9 1404.1 1364.  1351.6 1370.3 1428.6 1395.1 1462.2 1431.5
+ 1427.8 1390.6 1428.6 1463.9 1484.5 1451.1 1421.6 1418.1 1468.1 1395.4
+ 1369.6 1365.5 1402.5 1354.3 1373.3 1363.1 1379.7 1361.3 1407.2 1447.7
+ 1396.  1405.  1395.6 1342.4 1472.2 1451.9 1388.1 1341.9 1404.3 1512.7
+ 1410.5 1406.3 1403.3 1443.1 1461.5 1441.3 1379.3 1369.5 1430.4 1391.1
+ 1431.1 1364.7 1369.1 1469.  1331.6 1354.2 1428.2 1411.8 1428.6 1384.1
+ 1488.7 1434.5 1427.1 1467.  1391.5 1409.4 1436.8 1466.1 1417.7 1417.4
+ 1411.  1368.3 1413.5 1444.  1390.4 1407.1 1494.4 1406.3 1462.8 1453.3
+ 1388.6 1431.7 1411.  1405.7 1358.9 1326.2 1407.  1464. ]</t>
+        </is>
+      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>[ 943.3  970.9  983.8  960.4  983.9  984.   925.   926.4  963.6  988.
+  966.4  989.9  945.3  970.3  961.3  931.6  981.5  979.5  944.   970.
+  962.3  952.   943.8  955.6  989.5  963.8  945.1  965.7  975.8  984.3
+  937.8  948.6  973.1  951.6  997.7  965.7  963.4 1017.7  958.4  946.7
+  940.4  944.9  968.3  959.5  949.4  981.1  948.1  960.2  987.   969.6
+  951.9  971.7  953.6  980.1 1002.6  968.9  973.9  983.3 1001.1  982.3
+  919.8  954.4  969.5  952.9  960.   954.  1009.2  991.1  994.6  947.6
+  934.1  949.2  917.8  955.6  962.1 1009.2  984.7  946.1  964.5  937.4
+  953.   970.9  928.3  977.6  938.1  955.7]</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>[706.6 713.1 694.2 684.8 695.4 701.3 694.6 695.5 693.  701.7 711.8 717.
+ 719.8 682.5 710.8 698.2 711.5 693.4 696.8 700.5 709.4 698.4 701.8 687.8
+ 702.2 692.4 723.2 683.9 689.6 713.5 696.4 671.7 683.2 702.8 711.7 699.
+ 684.8 667.8 685.5 706.9 694.1 682.5 692.2 674.6 692.3 698.6 680.1 694.4
+ 714.8 692.7 687.3 713.6 687.7 684.3 698.5 689.5 704.3 720.  703.4 684.9
+ 699.7 719.4 715.8 692.8 700.7 719.1 704.9 706.7 705.5 692.8 696.4 689.5
+ 704.1 718.1 716.9 714.6 694.5 691.1 705.9 695.6 690.  694.9]</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>[485.4 499.7 513.7 493.4 483.1 487.9 471.8 471.4 493.5 499.8 486.6 498.8
+ 470.7 481.5 479.9 482.3 481.9 480.8 477.8 492.8 489.1 483.2 481.8 491.8
+ 486.9 477.1 486.6 486.3 479.8 488.1 490.1 483.2 484.5 489.4 473.9 487.1
+ 490.4 498.7 503.8 487.6 484.2 477.5 492.2 479.7 482.7 479.5 492.6 491.
+ 480.5 496.3 486.9 501.2 481.9 497.4 496.4 481.2 493.9 479.9 479.6 488.2
+ 486.7 471.  495.8 493.8 488.4 491.6 489.  488.6 464.7 500.4 495.2 490.
+ 472.6 493.1 501.5 496.2 478.  495.4 484.7 475.4 479.  492.3]</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>[317.3 321.5 307.6 315.9 328.8 307.7 304.9 302.1 316.3 299.4 312.7 305.
+ 315.3 307.8 312.4 323.1 311.1 313.8 310.8 317.8 330.3 314.6 314.6 316.7
+ 304.4 316.4 315.8 314.  318.2 314.3 313.5 307.4 308.8 309.5 322.4 316.3
+ 308.3 314.4 299.9 310.3 313.1 305.7 303.4 309.  321.3 316.7 313.1 319.8
+ 309.5 312.3 320.5 315.8 309.3 320.9 321.1 308.7 313.  312.  310.2 322.5
+ 308.4 323.9 313.7 303.3 319.3 314.7 314.1 314.3 317.3 317.4 307.2 302.7
+ 316.6 315.2 316.8 308.8 306.3 315.1 316.  323.4 309.6 317.  310.6 320.
+ 319.7 320.1 312.2 319.5 320.1 314.2 312.6 321.2]</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>[243.5 255.3 251.4 250.3 228.4 243.4 244.6 237.7 246.8 245.7 244.6 237.2
+ 238.9 245.6 251.2 246.7 242.4 247.1 243.7 238.3 238.2 242.3 238.9 246.
+ 241.7 243.1 249.7 245.7 246.4 237.8 237.3 247.2 239.6 244.8 242.  245.3
+ 242.5 248.2 244.3 242.2 249.3 255.4 247.5 241.4 236.6 247.2 244.4 246.4
+ 235.3 252.4 263.  248.6 247.4 246.4 236.3 242.4 242.6 254.2 252.7 245.8
+ 239.9 243.  247.4 256.2 247.5 243.6 241.2 266.  239.5 247.9 244.9 241.8
+ 248.7 250.6 253.4 251.8 255.1 250.9 250.3 249.3 243.5 245.  247.5 250.2
+ 244.1 249.5]</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>[163.9 167.3 174.2 163.3 178.1 161.2 170.  164.8 162.6 166.3 166.8 167.1
+ 158.5 168.9 163.2 164.9 148.7 151.3 165.8 170.2 160.1 170.5 168.  163.7
+ 168.3 163.4 168.9 167.2 165.7 169.6 163.2 172.1 169.9 170.6 168.  160.4
+ 168.4 164.5 155.8 174.  166.4 168.2 174.3 172.4 172.5 168.1 156.8 162.9
+ 170.1 166.1 160.8 152.8 166.  172.1 165.4 166.1 173.6 184.  171.9 162.7
+ 165.2 156.1 160.2 179.2 175.8 174.1 173.1 168.2 166.6 175.7 163.6 173.5
+ 165.1 167.2 181.  173.3 165.5 173.2 165.7 158.5 179.1 168.9 157.1 159.9
+ 164.  153.3 167.1 162.8]</t>
+        </is>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>[118.5 118.  131.5 115.8 120.9 126.1 125.  110.6 121.6 126.1 126.5 116.4
+ 128.4 123.2 120.8 119.7 131.1 121.6 109.5 127.  119.7 121.  121.  118.4
+ 115.7 117.3 117.1 125.6 122.6 119.  125.8 112.7 126.4 124.7 127.5 133.
+ 129.7 127.7 127.6 131.5 128.7 114.4 123.8 131.5 130.1 116.1 124.  121.9
+ 123.6 122.6 121.7 125.  132.8 127.4 123.  129.7 112.7 126.4 123.1 118.4
+ 130.5 128.  131.2 133.2 120.8 130.9 123.8 109.4 128.2 127.7 117.5 116.1
+ 124.9  98.8 121.6 126.9 135.7 141.7 136.2 134.2 150.7 129.7]</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>[ 78.5 103.6 107.4 105.  100.8  64.5 105.8  86.2 110.   86.7  70.4  84.6
+  93.   94.2  56.2  92.9  88.2  53.8  48.5  72.7  74.3  81.3  74.1  92.
+  60.   91.8 104.1  86.2  91.2 107.4 103.7 101.   90.   86.9 109.3 111.6
+  78.   80.5  77.6  81.5  70.8  98.2 105.2  96.3  93.   71.8  98.4  93.3
+  96.   96.6  99.5 110.4 114.  104.   93.3  96.7  86.7  94.1  89.6  91.1
+  95.1  99.8 114.  112.   99.  108.3  98.2  98.8 113.8  82.6  92.2  76.2
+ 104.9 101.1  83.9  97.2  88.9 108.5 110.6  77.  103.2  93.7]</t>
+        </is>
+      </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>[  6.7   1.1   1.3  90.9   1.5   4.   67.1  74.3   1.   10.6  86.5  76.8
+   1.8  81.3  10.   65.8   4.   44.8   6.1  91.6  11.    9.8  10.   53.7
+   1.4  62.3  65.9   9.5   1.8   1.2   1.8   1.3  73.9  65.3  79.   58.8
+  63.4  68.2  10.   85.4  55.5  64.8   3.4  67.1  87.7  88.1   2.1   1.
+  87.4  74.2  95.   74.9  57.2  73.8   4.   86.   96.1   2.    3.   78.8
+  80.3  95.9 106.1 107.8  44.3   9.8  61.8  58.7   9.5   2.4  99.1  88.1
+   1.3  96.7  84.6  83.6  96.9  86.5  70.5  96.8   1.2  74.5   2.4   4.5
+   3.1  88.3   3.4   2.4   2.7  99.  106.8  99.5  63.8 106.4]</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>[ 79.9  61.5   6.9   3.   10.9  90.1   5.   90.9  10.    6.    3.1   1.1
+ 101.3   9.5  99.6 107.1 103.2   9.5   9.5  94.8  89.2  82.6   3.1   3.2
+   1.3 106.1  79.4   4.1  10.9  78.2   2.5   7.   60.3   1.6  91.8   1.2
+   1.    9.5 105.5   2.4  59.2 107.5   5.  105.7  79.6   5.    3.1  95.6
+ 113.7   5.3   9.6   2.4  91.8  47.5   3.5   9.3   1.3  10.  124.2   1.3
+   7.7  77.8  92.3  84.2  10.    9.5   3.9  74.4  78.8  66.5   4.6   9.5
+  75.1   3.3  98.3   2.7  90.1  82.5   3.5 107.6 111.2   2.5 104.9   9.5
+   9.5  10.   76.9  68.5   1.3  85.5 109.6]</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>[ 81.7   2.7 129.  156.5   2.7   2.4 116.4   9.5   5.   76.    2.1 157.1
+ 129.3  69.2   9.5 139.9 134.5   5.3   2.5   3.3   1.8   3.6   8.2   3.7
+  68.3   4.1   4.  108.1   3.2 136.    6.5  10.3 132.2  83.8 109.7   9.5
+  87.4 127.    4.6  10.   97.1 135.8 137.7  97.  116.5  70.8   4.5  87.6
+ 127.9 108.2   3.  117.6   1.9 120.1  75.9  64.1   9.5  97.5  79.6 118.6
+ 125.    2.4   9.5   8.6  66.7  98.3   2.1   2.5 103.5   4.8  94.2   9.5
+   1.  111.2 116.6 114.8  92.3   9.5   4.    9.5 117.9   8.    1.3   8.2
+ 126.2  80.2  58.8   4.   89.1  83.9  89.1]</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>[2.7390e+02 3.7260e+02 1.5000e+00 1.8000e+00 4.9000e+00 1.0210e+02
+ 8.0000e+00 2.4000e+00 1.9190e+02 2.2360e+02 2.6620e+02 7.2000e+00
+ 1.6700e+02 8.0000e+00 6.0000e+00 6.0000e+00 1.9670e+02 6.0000e+00
+ 9.4700e+01 2.4900e+02 3.0000e+00 4.9000e+00 9.2400e+01 2.0760e+02
+ 1.4973e+03 6.0000e+00 3.0030e+02 1.6340e+02 1.7040e+02 7.5600e+01
+ 3.2000e+00 9.0000e+00 2.1900e+02 2.5000e+00 2.6280e+02 4.8530e+02
+ 5.7000e+00 1.2020e+02 2.2300e+02 8.9500e+01 1.8560e+02 2.0000e+00
+ 9.3000e+00 1.2990e+02 2.0000e+00 1.5330e+02 8.2000e+00 1.0000e+00
+ 8.0000e+00 2.7260e+02 2.1820e+02 6.6000e+00 2.1360e+02 1.7810e+02
+ 2.1000e+00 9.0000e+00 1.5300e+02 1.9000e+00 1.9000e+00 6.5500e+01
+ 2.4000e+00 1.2440e+02 1.5070e+02 2.0000e+00 2.6000e+00 8.3000e+00
+ 6.1000e+00 3.6940e+02 2.8910e+02 2.3490e+02 1.3910e+02 1.8260e+02
+ 7.2900e+01 1.3070e+02 2.4170e+02 2.9090e+02 4.0000e+00 1.0000e+00
+ 3.9920e+02 8.2000e+00 9.0000e+00 2.0000e+00 6.5000e+00 6.8570e+02
+ 6.0000e+00 1.4350e+02 1.9870e+02 9.0000e+00 1.1330e+02]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3157,20 +6275,177 @@
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>[1803.1 1821.  1850.8 1859.7 1868.9 1838.  1784.2 1790.2 1817.8 1844.1
+ 1845.6 1838.9 1847.5 1843.6 1874.5 1786.6 1775.9 1786.8 1805.6 1817.5
+ 1799.3 1797.1 1773.7 1824.3 1864.6 1788.9 1880.3 1829.7 1806.4 1803.6
+ 1773.3 1798.1 1783.3 1783.2 1802.  1784.3 1774.3 1852.4 1774.3 1794.3
+ 1788.3 1768.2 1773.8 1956.4 1864.1 1794.3 1798.8 1792.9 1770.1 1778.1
+ 1810.  1764.1 1742.6 1803.2 1854.2 1853.3 1800.9 1785.5 1773.2 1747.7
+ 1837.6 1797.  1755.7 1795.9 1802.3 1816.9 1846.6 1830.  1837.7 1834.9
+ 1814.  1839.8 1846.6 1835.3 1865.9 1847.9 1899.3 1846.7 1908.7 1935.6
+ 1908.1 1847.6 1849.8 1854.  1836.3 1883.  1891.8 1859.9 1851.8 1828.9
+ 1797.2 1810.7 1802.7 1856.  1821.4 1856.5 1806.4]</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[1368.  1336.  1343.5 1327.9 1328.6 1338.5 1373.2 1337.1 1336.  1347.4
+ 1331.4 1330.5 1346.2 1342.3 1347.1 1367.1 1340.8 1366.2 1351.3 1325.1
+ 1300.  1333.1 1365.9 1342.5 1368.9 1357.2 1349.5 1347.4 1351.4 1308.
+ 1289.8 1353.4 1368.  1370.4 1340.2 1355.  1348.3 1318.7 1357.  1336.9
+ 1318.6 1337.2 1318.8 1354.3 1300.6 1341.2 1331.7 1326.4 1359.1 1372.5
+ 1333.  1339.1 1348.  1334.  1289.  1316.8 1325.7 1330.3 1340.9 1342.7
+ 1326.5 1350.  1367.  1341.2 1323.7 1308.1 1328.  1362.  1341.6 1351.9
+ 1330.4 1320.9 1335.4 1346.1 1359.8 1350.4 1347.3 1335.5 1348.7 1355.5
+ 1330.3 1360.6 1369.9 1386.6 1346.1 1324.9 1355.7 1350.2]</t>
+        </is>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>[917.2 916.9 910.5 901.1 904.4 903.6 921.7 909.5 905.1 906.4 907.3 918.1
+ 905.8 906.2 935.2 916.2 917.  901.1 902.9 910.4 917.5 901.2 905.3 930.
+ 922.3 914.6 918.4 905.9 912.8 916.6 913.9 900.6 902.5 930.6 919.7 913.2
+ 927.  904.7 911.5 928.4 920.5 915.8 908.3 914.6 916.3 908.9 913.7 913.6
+ 912.9 916.5 901.1 910.4 921.6 910.  921.7 919.4 917.5 912.1 912.8 909.
+ 903.6 920.5 925.3 907.4 921.8 920.6 921.  908.5 916.8 926.6 920.6 915.1
+ 919.4 917.9 914.2 912.8 927.9 932.7 932.8 925.3 908.7 921.  912.2 919.1
+ 916.2 919.1 913.  915.9]</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>[678.  667.1 662.2 670.6 667.8 669.  672.8 662.2 677.7 665.6 672.7 670.9
+ 666.7 672.6 676.6 664.7 666.3 669.4 670.3 668.3 672.6 666.2 675.4 662.2
+ 677.4 670.5 669.  661.1 660.9 661.3 669.  674.3 670.2 665.  682.4 668.8
+ 680.6 667.5 666.8 666.3 665.7 671.8 672.9 671.9 684.3 666.  668.6 670.6
+ 666.  665.3 670.1 665.6 669.5 670.7 680.2 663.1 664.5 669.8 668.  666.2
+ 666.1 672.2 674.8 669.6 675.2 667.3 669.3 664.3 669.9 668.4 662.7 667.3
+ 668.  666.2 661.1 672.6 671.3 668.9 667.6 674.8 673.4 669.5 664.3 667.8
+ 667.3 665.4 672.6 675.9]</t>
+        </is>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>[462.3 470.1 465.6 472.6 469.6 460.6 472.2 473.7 469.9 469.7 466.4 468.8
+ 477.3 464.8 472.9 468.4 468.1 471.5 477.1 472.7 471.8 475.9 476.8 483.1
+ 465.2 471.3 473.8 474.5 478.8 477.5 479.5 476.2 480.7 479.6 477.  478.9
+ 476.6 478.3 484.3 476.3 480.5 474.6 475.1 473.8 474.5 477.9 479.8 479.3
+ 480.1 479.3 477.7 479.2 478.5 472.7 471.4 476.4 479.6 470.2 472.7 478.
+ 477.  481.4 480.  474.4 470.9 472.4 478.9 477.2 481.5 482.6 479.1 479.
+ 478.3 468.1 471.7 471.1 477.6 475.3 473.5 482.3 473.7 474.3 480.  476.1
+ 471.1 472.4 478.8 481.4]</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>[299.2 299.8 304.6 306.1 302.7 309.  307.1 313.6 314.5 315.9 321.7 312.8
+ 308.9 305.7 304.8 305.9 309.4 308.1 310.7 309.6 306.  300.8 298.6 305.3
+ 310.6 309.1 312.5 315.5 311.7 312.  307.4 309.9 306.6 305.3 304.5 308.7
+ 311.5 310.9 314.8 311.  314.7 312.1 309.6 311.1 303.9 304.1 309.4 313.
+ 311.5 311.6 307.2 311.4 312.8 310.5 313.5 305.4 303.3 309.8 314.6 311.1
+ 313.2 309.8 310.1 315.3 312.  315.3 303.7 305.9 313.1 311.9 308.9 316.
+ 314.5 311.9 314.5 311.7 297.9 301.9 309.  309.8 309.9 310.9 308.4 311.5
+ 312.6 303.4 309.6 313.8 310.8 308.  307.9 310.  307.8 315.1 313.3 309.9
+ 309.9]</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>[236.4 242.  241.4 240.4 238.9 241.1 241.6 245.3 246.3 242.7 244.4 243.8
+ 247.7 238.5 242.8 239.8 240.2 239.2 238.8 238.5 241.5 234.6 248.  247.3
+ 238.9 247.9 244.2 243.4 242.3 241.9 243.5 243.9 235.8 251.5 244.4 242.6
+ 240.2 240.5 242.5 246.4 243.2 244.  240.6 244.6 242.  242.  240.7 242.
+ 241.3 246.3 243.2 243.5 240.5 246.  242.2 241.  240.9 242.4 244.  240.9
+ 240.5 241.8 240.3 244.5 246.6 242.4 238.9 246.7 245.7 239.7 241.4 244.5
+ 238.1 242.2 242.7 236.8 240.4 243.1 242.2 243.1 243.5 240.2 236.  238.8
+ 242.8 242.5 243.6 240.6]</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>[163.5 162.  160.4 162.1 296.5 164.5 154.1 304.9 297.7 293.3 304.3 301.8
+ 300.5 163.4 164.7 311.4 316.3 309.7 164.5 293.2 307.2 294.  312.4 164.8
+ 164.7 162.  162.2 161.8 164.4 161.4 162.5 160.5 160.8 165.4 163.2 289.9
+ 160.9 161.3 296.2 168.3 166.2 164.6 168.1 164.4 161.2 164.5 161.5 159.6
+ 296.9 295.  166.1 164.9 168.2 301.3 153.7 164.9 162.3 161.2 161.8 285.7
+ 298.2 163.4 166.5 160.2 158.7 295.8 160.  161.1 161.2 162.7 162.9 164.6
+ 165.4 160.4 288.9 326.7 166.7 167.4 162.7 164.8 166.7 167.1 161.7 294.7
+ 303.6 291.4 161.7 310.5]</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>[115.7 141.3 148.1 150.6 118.8 118.5 118.4 150.8 144.2 154.5 153.6 158.2
+ 161.3 161.3 121.4 151.3 146.  147.6 118.5 146.4 119.9 151.1 150.5 146.2
+ 117.9 159.  156.9 160.2 156.  151.7 162.2 120.5 149.9 144.8 114.7 163.3
+ 147.8 118.4 121.4 120.  154.5 154.8 157.3 151.4 107.3 158.9 148.2 150.5
+ 148.8 148.5 160.8 146.7 155.2 118.4 116.  142.1 142.4 149.8 119.4 119.5
+ 156.1 147.5 155.4 119.6 119.3 124.3 159.1 153.5 156.6 123.4 155.2 157.3
+ 181.5 156.1 116.9 130.5 155.1 152.2 146.8 148.6 158.8 122.4 130.9 127.
+ 119.6 118.4 117.7 126.9]</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>[  3.1  91.8  94.4 100.2  86.1  66.   76.   76.6  81.9  88.1 104.9  93.8
+  89.1  99.1  85.1  84.2  69.6  76.3  87.   92.2  86.   88.2  81.   93.3
+ 108.2  68.7  78.4  83.8  90.2  89.5  88.3  88.4  56.7  61.4  89.1  63.2
+  86.5  83.1  85.7  95.6  85.8  84.1   2.7   4.9  73.4   2.7  77.9  84.3
+  92.4  90.3  74.1  84.6  82.1  66.4   1.2  84.9  85.1  86.9  79.2  81.4
+  76.1  86.8  88.9  88.7   1.2  93.8   2.5 108.3  85.9  88.1  92.7  90.6
+  95.1  84.4 107.4  96.5  82.5  84.5  77.1  80.4  52.6  78.9 115.1 102.9
+  96.9 105.8 110.3 102.3]</t>
+        </is>
+      </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>[68.2  1.  60.2  2.8  2.8  1.9  1.2  1.9  1.2  8.1  3.3  1.8  2.8  6.
+  2.9  9.5  4.1 91.9  3.4  2.5  2.5  3.1  2.7  3.2  2.1  6.3  1.  46.
+  3.3 57.9  3.2  2.4  3.  62.7 10.   3.   5.6  1.8  3.6  1.3 30.7  2.
+  9.5  3.4  3.   2.5  2.   2.5  1.2  9.1  3.3 56.3  2.  40.8  1.8  1.8
+  3.6  3.   4.5  4.6  2.5  2.  85.   9.5  1.3  2.   2.6  3.2  2.7  2.
+  1.2  1.2  3.  59.7  1.2  3.6  2.7  3.1  1.8  3.4  1.2  2.1  3.3  8.2
+  5.1  1.8  2.4  3.   1.2  3.3  1.8  5.6  1.   2. ]</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>[ 79.8  71.9  72.2  67.3  90.1 157.8   1.2   1.8   4.    2.    1.2   2.7
+   5.   61.1   2.   92.4  64.5   2.   49.9   1.1   1.3   1.    1.1  53.6
+  64.6   3.    2.    3.2   1.    1.    1.2   2.5   3.1  10.6   4.1   3.
+   3.    3.    2.5   3.1   1.3   7.5   3.1   6.6   1.2   1.8   2.3   2.3
+   1.4   1.8   1.    2.5   1.8   5.3   3.4   2.    1.7   3.1   1.8   3.2
+   4.    1.2   3.4   3.4   4.1  10.    2.7   1.3   1.    2.1   1.9   1.
+   2.    1.1   2.4  10.    3.    2.8   4.    3.1   2.5   2.4   1.3   2.5
+   3.2   3.3   1.2   3.4   4.    2.    2.5   3.1   2.9   4. ]</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>[  4.3 104.   97.9  83.6  58.    5.    1.3   2.3   1.2   5.3   8.4   4.7
+   3.9   1.2   3.    4.2   4.3   1.   65.    3.1  40.3   1.2   5.    1.4
+   2.1   9.5   2.4   7.9   2.1  52.2 105.6   3.2   2.5   1.3   6.5   1.8
+   1.    3.    3.3   1.3  63.4 113.9   1.3   6.7   2.8   1.2   6.4   1.3
+   6.8   1.7   3.3  53.4  75.7   8.6   3.1   5.    2.    5.    1.2   6.4
+   1.    9.5   1.4  69.4   5.6   2.5   1.2   6.    1.    4.    1.9  60.5
+   4.9  62.    9.5   2.5   2.    1.2   4.8   3.9   9.5  51.7   6.1  49.
+   2.5   1.1   1.2   1.2   1.3   3.6   8.7   2.7   3.    4.3]</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>[176.9   1.2  64.2   3.1   1.2   6.2   6.2  61.5 147.3 206.3   2.6   3.1
+   1.    1.    2.    1.6   2.    3.2 202.7 149.6  74.2   3.3  56.8  56.8
+  10.7   4.7   5.1   3.3   8.9   4.    2.5  10.6   5.    4.7   1.2  72.4
+   4.    1.8   3.3   7.    4.    1.3   2.4   5.    2.    1.9   2.    1.9
+  62.5   1.2  74.2   2.4   2.1   1.2   5.    2.    2.    1.1   6.   68.8
+   2.    1.1   1.    2.1   8.9   1.    1.2   3.4   5.8   4.1   9.5   1.2
+   2.4   5.9   7.    2.7   1.    7.9   1.8   5.8   2.5  98.8   2.    6.6
+  82.6  46.5  81.8   3.    2.    1.2   3.6   1.3  10.9   3.6]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3276,20 +6551,177 @@
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>[1789.7 1807.6 1853.9 1782.5 1844.5 1838.6 1730.4 1779.6 1793.4 1843.7
+ 1844.7 1829.5 1850.2 1832.2 1963.1 1778.  1748.  1766.5 1814.2 1837.6
+ 1814.  1796.3 1732.  1844.1 1928.  1765.1 1927.5 1848.3 1826.1 1830.4
+ 1778.6 1832.6 1725.7 1756.6 1820.5 1741.8 1755.  1896.  1761.6 1809.6
+ 1817.2 1783.2 1773.3 1984.9 1878.3 1754.3 1796.5 1798.  1730.9 1759.3
+ 1825.9 1750.8 1723.4 1830.1 1854.7 1827.9 1757.9 1745.1 1736.3 1702.2
+ 1856.9 1792.3 1710.  1807.7 1763.8 1752.5 1811.3 1783.4 1786.6 1793.2
+ 1776.6 1828.6 1849.4 1831.9 1906.7 1859.4 1886.  1822.8 1896.9 1944.
+ 1910.4 1802.  1853.8 1841.5 1815.2 1866.  1885.2 1837.1 1898.3 1833.
+ 1799.1 1789.8 1800.8 1839.2 1819.6 1904.4 1808.7]</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[1351.5 1317.9 1355.9 1314.7 1322.5 1345.4 1369.7 1306.3 1315.7 1348.6
+ 1319.8 1338.  1362.4 1330.8 1336.3 1354.2 1320.4 1386.9 1358.  1319.5
+ 1287.7 1329.6 1384.1 1310.  1369.7 1359.  1355.7 1351.8 1357.1 1297.
+ 1279.  1377.  1380.1 1378.5 1346.9 1377.7 1361.3 1296.7 1369.3 1350.7
+ 1324.9 1347.3 1297.2 1350.9 1298.7 1360.9 1336.9 1325.6 1383.3 1395.6
+ 1338.8 1350.  1368.  1323.1 1289.7 1315.6 1328.  1333.4 1321.2 1348.1
+ 1318.5 1370.9 1386.6 1334.9 1323.3 1317.4 1319.8 1385.  1334.  1360.8
+ 1330.3 1304.8 1326.3 1324.4 1355.9 1337.8 1349.2 1324.  1338.  1378.6
+ 1306.6 1345.6 1355.3 1364.1 1316.  1297.2 1367.9 1331.8]</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>[914.6 926.7 919.2 896.8 912.1 906.5 921.7 905.  907.8 914.  917.5 941.7
+ 913.  905.3 935.  913.8 923.  899.9 911.4 916.6 931.2 900.2 909.2 931.7
+ 920.8 913.9 927.6 909.5 925.4 930.6 926.6 902.8 898.1 943.3 924.8 908.3
+ 949.1 907.3 922.8 951.9 933.8 926.8 912.5 914.  917.8 905.4 918.8 925.4
+ 918.4 923.6 902.7 913.6 934.2 909.4 931.1 923.7 923.2 913.3 921.3 908.5
+ 902.8 932.5 938.3 905.6 929.6 925.8 933.9 898.4 915.7 935.4 928.6 915.6
+ 920.  923.6 906.6 914.8 942.1 945.6 945.  936.  902.4 926.3 909.2 919.2
+ 912.4 915.5 905.1 912.1]</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>[687.2 666.  659.  671.5 664.2 670.6 679.2 658.9 676.2 658.6 675.8 678.5
+ 663.5 671.7 671.8 666.2 657.9 674.1 672.1 669.9 675.3 661.3 682.2 657.8
+ 673.4 671.7 669.7 659.9 663.2 663.  672.8 681.4 667.4 664.2 679.  663.4
+ 694.3 670.6 668.9 668.  666.2 675.4 674.4 674.9 683.  660.8 668.9 672.2
+ 671.6 667.8 672.4 664.7 669.2 671.5 679.7 658.2 664.  677.2 674.1 667.5
+ 669.1 675.6 680.3 668.1 666.6 667.6 671.2 665.9 675.4 673.2 660.4 666.9
+ 667.9 662.6 656.3 671.4 674.3 672.9 669.1 680.  676.9 665.4 660.9 668.2
+ 667.  661.2 673.3 678.1]</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>[468.8 479.1 470.8 484.4 480.4 464.8 477.7 480.9 470.  473.2 462.3 469.1
+ 486.3 463.2 484.2 468.2 464.4 469.1 480.  469.5 468.4 473.5 468.  484.
+ 462.6 472.  471.3 470.  474.4 475.7 478.4 471.3 481.6 473.6 481.1 481.6
+ 471.8 473.  481.3 469.5 478.3 469.3 468.6 465.5 470.6 473.1 476.5 475.
+ 475.4 473.2 472.7 475.8 478.4 467.9 466.8 473.7 478.1 459.  461.8 471.6
+ 470.3 479.1 478.3 477.7 464.8 467.  477.1 473.  479.2 480.6 474.8 476.2
+ 481.7 464.  470.1 467.4 478.6 471.2 466.9 481.9 474.1 468.7 478.7 478.1
+ 467.3 467.3 476.9 482. ]</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>[297.3 297.3 300.3 302.7 301.8 309.8 304.8 310.  311.2 311.5 322.3 310.2
+ 315.1 307.6 299.7 298.4 303.5 295.7 305.8 304.2 299.3 305.2 299.4 306.1
+ 316.6 305.5 309.  315.2 304.9 311.4 302.4 307.6 310.5 311.  307.1 306.2
+ 310.4 305.7 311.2 306.  313.  313.4 308.1 314.2 302.5 306.1 310.9 311.9
+ 307.1 306.9 300.3 307.4 309.9 306.4 314.3 307.7 302.5 308.6 313.8 307.4
+ 309.8 305.4 306.1 317.4 308.1 317.6 302.5 308.5 315.6 310.5 303.8 315.4
+ 313.7 310.  314.9 309.5 293.2 301.  307.2 305.3 305.9 307.5 303.7 310.9
+ 315.9 305.7 307.4 313.  305.5 301.6 304.8 311.9 305.7 313.4 309.1 307.2
+ 309.2]</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>[236.1 239.6 238.9 238.7 238.7 241.6 239.7 244.6 245.9 242.4 245.2 244.2
+ 247.9 239.3 241.6 237.4 237.  235.8 238.4 233.9 244.3 231.7 247.4 247.1
+ 234.7 246.2 246.3 244.8 242.3 240.  244.3 244.5 232.5 252.3 244.1 239.4
+ 236.3 238.6 242.  250.5 239.7 245.9 239.7 242.8 238.2 241.5 240.2 243.3
+ 240.3 248.5 243.6 244.7 238.  245.6 237.  238.6 239.8 242.4 244.9 239.8
+ 238.1 240.5 240.1 244.2 248.  241.8 236.7 249.2 248.3 237.  240.5 246.4
+ 234.2 238.5 244.2 234.3 240.  243.1 241.3 241.3 243.8 239.6 233.7 236.
+ 243.2 242.9 243.6 241.2]</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>[162.4 161.9 157.2 162.9 159.3 165.5 154.2 162.1 162.4 159.5 164.  160.1
+ 162.  161.4 163.3 168.4 170.5 167.1 164.2 158.1 167.9 158.3 164.5 164.8
+ 163.7 158.8 158.9 159.6 163.5 157.1 159.7 158.  155.1 164.3 159.7 158.6
+ 160.7 159.  164.5 169.1 166.  162.8 171.2 161.8 160.2 165.9 159.9 156.2
+ 164.5 166.3 166.1 163.4 168.  163.  150.  164.2 162.9 160.9 161.3 157.7
+ 160.5 161.6 166.9 156.6 160.4 160.2 158.9 160.  159.8 161.6 163.3 163.2
+ 165.2 160.2 161.3 169.8 166.1 171.2 162.3 165.2 168.5 166.1 160.3 160.3
+ 165.  159.5 160.3 165.6]</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>[116.  110.2 115.6 118.9 116.3 117.2 116.9 121.8 112.6 125.7 118.4 125.7
+ 128.9 126.6 122.  118.3 114.  116.3 116.6 110.7 119.4 112.3 117.1 117.4
+ 117.1 126.5 125.  130.3 123.4 118.1 127.5 121.1 117.2 114.3 118.9 127.3
+ 110.6 115.3 123.7 118.3 121.1 121.2 125.7 123.4 107.7 123.3 118.  120.6
+ 116.3 115.6 127.1 111.9 122.9 116.1 117.8 109.3 108.7 122.7 118.2 117.
+ 125.1 112.8 121.1 120.3 116.6 121.6 125.5 120.1 126.5 121.6 123.4 123.8
+ 135.4 120.3 115.3 133.3 119.3 119.9 121.7 114.5 123.8 118.4 131.5 126.7
+ 119.  118.6 117.4 130. ]</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>[ 10.6  83.   85.9  98.9  83.    2.4  71.7  66.   93.6  65.  110.2  88.3
+  89.6  98.8  90.8  92.2  71.6  68.4  82.   86.6  73.8  88.   68.6 103.1
+ 108.2  68.9  80.2  91.2  95.7  80.3  78.5  89.2   3.4  75.6  93.4  72.3
+  99.   75.6  75.1  94.9  79.8  79.6   2.8   7.3  78.4  10.6  75.2  79.1
+  96.9  89.3   7.6  85.4  82.5  77.7   3.6  83.3  74.8  79.5  51.7  75.5
+   2.   80.2  79.6  94.6   3.4  91.1   3.7 104.7  71.9  84.2  88.3  85.4
+  90.4  86.5 101.7  88.4  76.1  71.1  64.2  81.9   4.6  80.5 106.6  94.4
+  88.5  99.9 108.3  94.6]</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>[72.8  2.5 69.1 10.   1.   4.   4.4  4.   2.   4.6  9.1  6.7  5.6  2.6
+  4.  74.6  3.5 85.  10.   1.  10.6  2.5  9.5 68.4  4.   1.6  2.   1.1
+ 76.1 84.5  1.2 11.   1.9 91.3  9.5  2.1 69.3 63.4  1.4  1.2 76.2  3.3
+ 59.6 10.   3.1  2.5 71.5  9.5  9.5  1.2  3.3 77.2  1.1 92.4 52.4 54.3
+ 81.8 67.3 73.6  2.   1.2  5.7 90.6  6.2  2.6  5.7  5.7  9.5  1.2  5.2
+  5.3 69.5  7.5 44.6  2.6  3.1  2.4 69.4  4.1  2.8 51.4  4.  10.3  1.8
+  9.5 70.2  7.   2.  10.   2.   9.5  3.7 10.2  3.3]</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>[ 81.1  95.8  88.7 100.5 101.7 142.2  10.    4.   48.1   1.    5.2   3.6
+   3.4  88.1   3.3  98.1  99.5  63.8  76.4  79.4  10.    2.7   1.2  92.8
+  98.    3.2   2.4   3.8   1.1   1.8   1.2   4.   82.1   6.    7.3  74.5
+  63.3  63.2   8.    3.2   4.5   8.    2.   93.4   4.   54.3   8.    3.
+   2.9   1.5   2.7   3.2  87.   95.7   4.4   3.4   9.5   6.    3.   10.
+   2.   73.6   5.    6.7   2.4   9.5   5.7   2.4   7.1   2.1  76.2   4.6
+  41.    6.2   1.1  10.    1.    9.5  48.2  77.4   3.   42.   85.8  79.6
+   2.7   2.    6.    1.1   5.    4.   68.2  83.7   3.   10.2]</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>[  7.5 133.  128.8 101.1 106.    3.   10.    1.3   2.8   9.5   4.6   3.4
+   4.5   4.5   3.4   3.   10.3 115.7 127.5   3.  101.3   4.  121.6   3.2
+   4.9  76.8  76.7  71.4  63.8  10.  131.2   2.7  86.7   5.6   5.   10.7
+   4.3 100.6   2.6   2.1 126.2 115.4   4.5   8.6  10.    3.7   2.6   9.5
+  10.    2.6   9.5   3.4 129.    9.6 121.2   2.1   9.5  97.   76.5  10.6
+   9.5   9.5  76.4 123.1   9.5   4.1   5.   10.7  94.   58.4   4.4 128.
+  80.1 103.2   9.5 112.8   7.1   9.5   2.8   9.5   4.1 130.6   5.  112.1
+   4.   72.7   4.   95.4 105.5   4.    9.1   3.   10.6   5. ]</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>[164.8   4.2  55.8   2.8   1.6   1.1   1.7 145.1 190.3 182.    9.5   5.
+  59.3   3.    4.    1.3   5.    4.  275.2 345.8 310.4 158.7 162.6 130.3
+ 129.7   3.2 100.9   5.   88.6   7.   92.  141.3   1.9   1.2   1.6 276.6
+   2.1 126.7   2.3 108.9   8.4   3.  253.8 171.7   9.5   6.3  70.5  10.6
+ 154.1   4.2 288.  183.5  89.5   9.5   9.5   7.  156.5   8.   71.1 325.3
+   1.    8.5 101.    2.    5.  188.2 120.6   7.7  10.   73.7   5.5 209.6
+  10.   10.    6.3   8.6   1.8   2.1   5.    9.5   2.3 338.1   5.    4.4
+ 207.2 127.2 253.7  10.    2.7   6.6   2.1 119.2   3.7   5. ]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3395,20 +6827,175 @@
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>[2041.9 2045.1 1956.4 1890.1 2035.3 2068.7 2103.7 2094.3 1982.4 1851.7
+ 1982.1 2109.3 1933.8 2037.8 2054.9 1984.5 1970.1 1931.2 2002.6 2045.
+ 1949.3 1926.9 1926.  1941.3 1929.6 1899.6 1935.2 1936.6 2025.6 1993.3
+ 1930.8 1973.7 2048.1 2097.  1936.7 1857.1 1897.1 1993.7 1979.4 1972.
+ 1940.7 1885.  2004.1 2030.5 2209.9 2078.7 2026.7 1959.4 1909.6 1977.6
+ 1965.7 1904.4 1948.5 2008.  2042.4 2073.7 2079.8 2087.6 2029.7 1930.4
+ 1915.8 1939.6 1895.2 1968.2 2033.6 1956.8 2024.9 1963.5 1905.3 1998.5
+ 2087.5 2034.6 1965.8 1938.5 1915.2 1985.3 2143.3 2120.7 1882.4 1910.9
+ 2057.9 2024.9 2063.1 2048.2 1891.  2022.3 2156.9 1927.  2003.1 1985.9
+ 2016.1 2014.5 2049.8 1958.1 1974.  2042.8 2033.6]</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[1421.7 1438.5 1447.5 1412.7 1399.6 1420.5 1437.9 1400.7 1421.7 1416.7
+ 1413.2 1414.3 1381.2 1406.7 1379.3 1499.8 1414.8 1435.9 1454.  1464.9
+ 1451.2 1377.9 1400.  1430.3 1359.4 1432.7 1425.5 1446.6 1432.1 1424.4
+ 1395.9 1386.7 1447.3 1436.  1373.4 1426.6 1419.9 1428.3 1393.8 1393.6
+ 1406.3 1402.8 1439.2 1459.1 1400.4 1424.4 1416.9 1436.7 1432.7 1389.6
+ 1416.1 1387.2 1405.1 1439.  1360.  1419.1 1444.9 1474.1 1397.8 1386.7
+ 1421.  1363.  1415.1 1415.3 1386.4 1427.2 1430.3 1478.5 1435.9 1436.
+ 1437.8 1396.7 1444.1 1418.  1386.4 1370.5 1462.3 1437.7 1437.1 1416.6
+ 1425.4 1443.2 1415.9 1457.9 1474.6 1429.7 1428.2 1448.9]</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>[955.9 973.4 978.3 947.7 923.  940.3 955.2 970.  969.4 967.8 974.8 964.4
+ 938.6 949.3 953.9 964.7 954.8 953.9 973.4 987.3 965.9 982.3 945.  946.
+ 947.9 942.5 953.7 960.8 964.  972.5 957.1 979.7 946.7 965.6 961.4 938.8
+ 951.2 964.1 965.7 969.5 961.4 970.7 961.7 971.8 976.8 947.5 945.9 975.9
+ 960.  963.3 972.8 971.8 946.9 938.6 977.4 954.7 948.1 962.4 953.2 937.7
+ 980.4 968.8 946.9 955.  956.4 987.6 950.8 948.2 970.2 978.4 972.2 944.1
+ 958.8 963.8 965.9 955.9 965.7 974.5 972.8 978.2 975.9 989.1 978.6]</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>[683.9 708.1 709.5 710.7 703.8 699.3 708.2 694.  712.  700.  701.1 696.4
+ 691.4 703.9 689.  697.3 695.8 703.3 700.2 712.5 710.1 695.  699.6 697.5
+ 697.4 681.6 701.7 701.4 696.1 705.1 700.2 685.2 701.3 697.6 707.8 689.6
+ 699.9 689.6 690.3 689.7 691.5 687.5 690.2 695.3 702.1 699.3 696.1 699.
+ 697.7 694.3 703.7 681.9 691.5 702.1 702.4 694.4 694.5 694.  707.9 711.1
+ 714.3 689.1 703.3 696.6 709.1 691.9 697.2 695.1 693.3 709.2 703.2 690.5
+ 705.8 702.5 694.6 702.5 703.2 695.8 695.6 695.7 695.7 691.5 694.3 708.1
+ 708.8 702.3 703.2 702.1]</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>[492.7 487.2 489.7 493.9 498.2 487.5 493.5 495.  491.6 494.9 506.1 496.7
+ 487.3 480.5 486.8 493.6 492.8 491.4 496.9 503.4 501.1 498.7 495.5 483.3
+ 496.7 494.9 495.2 493.5 496.  494.7 498.8 498.1 499.3 492.9 492.6 490.3
+ 489.8 486.6 491.7 489.3 493.2 494.3 495.8 486.2 489.7 492.1 487.3 485.7
+ 486.8 493.  492.9 495.9 501.2 490.8 490.  497.6 490.5 493.4 492.3 490.5
+ 495.2 495.4 495.6 484.  487.  498.5 484.4 484.  488.9 480.5 486.3 486.1
+ 486.4 492.7 484.3 490.3 482.7 489.  486.6 489.6 485.8 493.6 487.7 485.8
+ 487.9 491.5 488.6 493.9]</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>[317.9 327.2 325.6 316.8 319.  325.6 319.8 310.7 305.1 311.  311.8 314.4
+ 323.3 311.  316.  309.5 308.6 313.4 315.9 318.6 319.5 304.5 316.2 310.1
+ 315.4 314.7 310.5 309.9 312.  313.5 318.  310.8 308.5 315.2 306.9 309.2
+ 309.6 308.5 309.1 306.2 309.1 312.3 309.5 314.5 316.3 309.7 307.2 307.1
+ 308.8 313.3 312.5 307.8 308.4 307.8 309.6 312.2 308.3 311.8 316.8 309.
+ 310.6 313.4 309.8 309.3 309.8 306.3 310.8 306.8 311.7 312.  305.9 311.4
+ 315.5 312.  312.8 312.3 315.5 310.4 312.  307.8 306.8 311.3 314.3 311.2
+ 312.3 307.2 308.8 310.  314.6 312.  309.  307.8 305.4 310.2 317.  314.1
+ 311.7]</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>[246.5 245.  243.  243.9 240.9 238.3 237.  234.8 239.3 244.9 247.2 235.9
+ 241.5 241.4 240.1 239.3 239.3 241.4 246.9 236.4 233.8 239.4 239.8 241.5
+ 243.1 242.8 241.4 243.7 245.7 235.6 240.5 244.9 242.8 243.2 240.1 242.4
+ 242.7 239.5 237.6 240.2 240.6 247.1 243.3 237.1 241.6 240.3 239.6 241.4
+ 234.  238.4 238.1 241.4 240.5 241.  241.2 233.2 241.7 243.1 235.8 240.7
+ 238.9 239.  239.3 243.9 241.7 235.8 239.9 240.6 235.8 238.7 239.8 242.9
+ 239.4 243.7 244.2 238.9 239.3 241.2 247.  245.3 243.8 240.3 236.2]</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>[163.2 156.1 240.1 238.9 160.9 162.2 164.  155.9 250.2 242.9 249.2 244.2
+ 242.  244.9 155.1 159.3 241.1 241.5 164.2 235.5 235.  241.  217.6 238.6
+ 255.  160.2 238.6 242.  235.  238.7 239.  239.4 225.4 229.8 259.1 160.9
+ 259.4 244.1 238.7 244.3 162.6 233.8 229.6 243.1 240.1 155.  256.9 244.2
+ 244.1 161.3 226.4 238.1 159.6 236.7 238.3 154.5 236.1 241.9 240.2 233.4
+ 157.6 161.9 233.5 237.3 228.3 157.  248.3 233.  232.5 231.5 231.8 239.8
+ 163.7 164.4 151.5 157.3 261.1 237.5 236.5 231.5 238.5 238.3 235.8 232.8
+ 156.6 156.  156.4 155.3]</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>[121.4 129.5 115.5 133.2 128.3 137.4 144.4 144.7 107.9 134.9 113.  113.5
+ 118.3 131.  138.1 112.8 146.8 122.2 122.2 112.9 112.6 121.5 139.8 135.
+ 140.8 117.5 152.6 119.1 118.5 116.7 113.2 142.6 144.4 116.2 159.7 107.1
+ 141.5 133.2 115.7 134.6 140.2 142.8 146.5 121.6 135.3 113.9 134.  110.8
+ 118.5 121.  121.4 123.5 120.3 138.  104.3 130.7 132.  131.2 134.7 140.4
+ 136.8 139.1 140.8 148.  132.4 141.1 105.5 113.1 113.2 133.4 133.6 129.6
+ 129.  104.  130.4 150.6 134.  119.4 142.7 139.5 134.8 133.8  98.6 106.9
+ 127.6 146.3 135.7 120.5]</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>[ 87.7   1.2  72.1  80.5  91.6  92.   61.4   2.   54.5  80.5  90.   87.5
+  84.5  89.1  73.6   4.   59.7  77.3   9.5  57.   66.5  54.2  63.4   1.1
+   2.7  71.9   3.3  75.8  72.6  82.3  71.9  57.3  84.6  76.4   4.9   1.6
+   7.   74.4  67.9  79.5  70.1  81.   88.9  97.8   4.    1.2   3.3  72.5
+  65.8  75.3  79.1  98.7  95.   80.9   2.7  91.    7.    1.8  61.2  74.9
+  84.1  95.9  81.9   9.5  75.8   2.4   1.8   9.1  92.9  84.5  92.8  89.1
+  64.1 116.7   3.6 111.4   3.6  80.5  69.5  75.6  71.6   3.4   4.6 103.5
+ 111.8  90.3  64.9  78.5]</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>[74.1  1.3 40.2  2.5  4.9  4.4  9.5  1.2  1.6  1.4  1.1 92.8  5.3  1.2
+  2.6  2.7  3.1  1.3  1.2  4.   3.7  2.6  3.2 10.   3.3  5.   2.7  1.8
+  2.6  2.   5.   2.1  1.4  9.5  2.5  2.6  2.   2.7  3.4  1.3  1.6  1.6
+  5.3  1.2  9.5  5.   9.5  2.3  2.5 87.8  2.1  4.5  5.   3.1 57.2  1.2
+  2.   1.   2.7  2.5  1.8  1.7  5.   9.5  9.5  2.6  2.8  9.5  1.3  1.8
+ 10.   1.3  1.8  4.3  1.6  3.3  2.3  9.5 74.7 62.   2.1  3.6  1.3  9.5
+  1.2  3.2  2.7  1.8 10.   1.1  1.1  1.4]</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>[  9.5  83.8  42.7   2.    3.   60.7   2.5   1.8  10.    2.3   4.1   9.1
+   9.5   9.5   2.  105.5   1.9   1.3   2.6   2.    4.4   2.4   2.8   1.
+   2.4   4.9   5.    1.5   3.3   1.6   3.3   1.9  69.7   2.5   2.8   5.
+   2.7   1.2   9.5   9.5   2.7   4.1   3.    3.1   2.1   1.4   4.4   2.8
+   3.1   1.2   7.    1.3   2.7   4.6   7.8   5.    3.    9.5   2.4   1.8
+   5.    1.3   3.7   1.1   2.1   1.1   9.5   5.    2.    3.3   1.2   4.
+   2.    9.5   8.3   9.5   2.4   2.    9.1  10.    4.2   2.4   2.7   1.6
+   1.3   1.8   5.    1.    3.7   1.2   4.    1.2   2.8   4.2]</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>[  4.7   6.3   9.6   2.8   1.8 152.2   1.3  67.3  10.3   1.3   7.    1.1
+  79.2 163.1   2.8   9.5   1.    1.2   3.4   1.8   5.9   1.1   2.1   1.1
+   1.    5.    1.3   2.7   8.5   3.4   3.3   1.2   1.3   1.9   3.    2.6
+   4.3   2.5   9.5   6.3   1.    5.    2.6   4.9   7.7   7.3   2.5   9.3
+   4.3   5.7   1.    1.    1.    1.1   1.3   4.2   1.1   1.2   1.2   2.8
+   4.3   3.2   9.5   4.1   2.7   1.    1.8   3.8   3.3   1.1   6.1   2.
+   1.2   3.1   3.3   4.1   2.5   4.6   1.2   1.1   7.1   2.    5.7   1.3
+   8.1  69.6   1.9  63.5   4.    2.8   3.2   2.7   2.8   4.5]</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>[198.9 166.7  99.7   3.3  64.5   1.2   2.6   3.3   1.9  38.1   9.  100.7
+  41.    1.8   6.    7.3   7.2 180.3   1.    9.6   4.1   3.3   1.    1.2
+   8.6   1.2   6.3   1.8  10.    9.3   4.   69.4  76.3   2.1   9.    1.4
+   1.1   1.1   5.    5.2   9.8   2.2   3.1  10.6   1.    1.2   8.2   1.1
+   9.3   3.4   2.5   8.2   3.1   6.    4.4   5.    6.3  53.2   2.5   1.8
+   1.2   5.6   9.   10.    8.    5.    3.2   1.2   5.    2.5   4.2   1.3
+  66.1   1.    4.3   1.3   6.3  52.9   3.2   5.    1.3   1.2   3.3   2.1
+   3.   77.9  68.   79.3   4.7   5.6   1.3   2.    1.4  67.9]</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3514,20 +7101,176 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
       <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>[2061.7 2128.  1970.8 1813.2 2080.7 2083.2 2110.8 2145.7 2014.2 1770.
+ 1945.2 2174.3 1917.3 2091.  2057.2 1924.9 2003.7 1889.3 2011.6 2068.6
+ 1906.6 1941.3 1883.9 1935.5 1909.4 1857.  1934.7 1909.  2079.1 2024.5
+ 1905.7 1975.5 2065.7 2140.4 1864.1 1789.7 1838.7 2001.1 1997.3 1970.5
+ 1930.9 1841.8 2001.4 2036.8 2331.6 2075.6 2043.  1940.5 1857.3 1958.
+ 1965.3 1889.6 1969.3 2018.7 2076.3 2047.3 2121.1 2146.4 2019.2 1857.3
+ 1859.8 1934.8 1856.8 1993.3 2071.4 1908.  2027.1 1903.1 1813.7 1974.1
+ 2136.  2066.8 1931.9 1923.9 1887.5 1970.  2083.  2075.7 1820.7 1831.6
+ 2098.7 1984.  2081.  2137.3 1769.4 2014.6 2092.2 1855.6 2023.  1926.6
+ 1991.9 2001.9 1979.5 1924.3 1923.6 2036.  1988.3]</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[1426.7 1434.2 1466.8 1413.4 1367.6 1427.3 1426.6 1385.1 1418.8 1400.9
+ 1389.3 1426.5 1349.3 1392.7 1381.2 1506.8 1401.6 1436.6 1473.7 1478.5
+ 1500.  1357.2 1392.  1429.5 1363.6 1419.9 1428.7 1464.3 1417.1 1432.
+ 1372.2 1379.5 1489.4 1426.6 1370.4 1430.1 1411.4 1425.8 1372.5 1376.3
+ 1404.4 1415.5 1467.4 1484.9 1420.5 1432.  1380.4 1437.6 1437.3 1374.4
+ 1427.4 1382.5 1403.1 1459.2 1368.6 1409.1 1454.9 1503.7 1377.  1367.1
+ 1419.7 1338.8 1422.4 1419.1 1388.3 1436.3 1418.8 1515.  1420.6 1461.
+ 1435.1 1379.  1466.9 1423.7 1390.1 1342.  1455.5 1421.5 1442.8 1402.4
+ 1416.2 1433.1 1388.4 1444.7 1469.2 1390.1 1406.9 1443.5]</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>[ 955.1  968.4  971.5  958.9  924.1  945.7  946.5  973.5  972.2  978.
+  983.2  972.5  951.4  954.8  955.5  971.1  954.4  947.7  993.   999.8
+  966.8 1019.7  938.3  939.3  947.7  935.4  962.4  961.7  964.9  978.5
+  949.8  996.9  940.   982.8  974.2  937.5  960.8  965.6  973.1  970.3
+  955.3  977.7  965.   981.7  995.3  933.7  943.2  996.6  958.1  976.1
+  969.4  980.8  944.1  924.9 1001.3  961.   947.8  974.2  955.8  931.
+  987.1  973.1  949.9  959.2  954.2 1006.6  958.5  933.5  984.1  996.4
+  983.1  933.1  964.9  965.3  974.3  946.7  977.3  993.1  973.5  969.5
+  973.3  990.2  984. ]</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>[688.8 709.1 707.7 716.  703.  690.1 722.8 693.3 714.3 697.2 695.3 689.
+ 685.  694.4 693.4 704.8 694.1 702.4 697.1 721.3 720.7 690.9 701.3 693.7
+ 693.5 668.9 703.3 702.7 696.4 712.4 697.6 677.3 709.6 696.4 713.4 683.
+ 701.1 683.7 687.2 685.  684.9 683.2 689.3 694.  702.6 710.1 694.5 700.2
+ 699.9 690.5 709.6 672.1 685.2 712.1 702.  695.4 694.4 694.6 712.5 718.2
+ 726.8 683.7 712.2 693.4 720.1 692.2 700.3 698.3 687.7 718.1 707.4 685.6
+ 714.7 700.7 693.9 706.4 712.5 697.1 694.3 691.9 693.6 684.9 688.3 706.4
+ 714.1 702.9 704.9 705.2]</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>[491.5 481.6 486.3 491.  503.4 484.1 489.9 489.6 485.9 486.1 508.4 494.8
+ 480.7 475.6 482.6 488.8 491.4 484.7 490.7 499.  493.7 494.4 496.2 481.1
+ 493.1 488.4 489.7 484.2 492.2 485.4 493.  490.1 500.2 493.3 485.2 482.1
+ 484.7 477.3 485.4 479.1 487.2 486.2 489.7 475.  485.2 489.5 478.7 473.4
+ 475.8 485.6 484.5 486.1 501.9 489.2 488.1 499.6 488.2 494.6 489.1 485.8
+ 493.4 490.7 494.6 467.1 488.5 503.6 476.3 478.  489.  466.  479.4 477.7
+ 477.3 487.1 478.2 492.1 479.4 489.7 485.8 487.4 479.  489.3 489.6 484.1
+ 487.2 491.9 481.5 492. ]</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>[314.  327.2 324.5 313.6 319.  324.1 319.  307.2 302.8 309.9 306.3 314.5
+ 321.1 306.  318.3 306.1 306.3 316.2 315.9 320.3 318.1 302.5 315.2 306.7
+ 317.7 317.2 311.  307.9 313.5 310.5 320.8 307.5 307.3 315.2 302.2 309.
+ 308.8 308.9 307.7 303.4 307.2 313.  306.7 315.6 319.8 311.4 307.1 304.4
+ 307.6 314.9 314.  306.7 308.1 305.  310.4 312.1 307.8 314.9 323.3 307.4
+ 309.4 314.9 308.3 310.8 308.6 305.2 311.1 304.  313.5 314.7 304.9 311.7
+ 317.1 311.6 313.4 314.6 317.  313.2 316.6 304.2 303.9 310.7 316.9 310.6
+ 315.6 307.4 309.7 310.2 317.1 311.  307.8 307.5 304.7 307.8 318.8 310.
+ 308.6]</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>[245.3 243.3 240.4 241.3 239.7 234.4 237.2 229.  235.7 244.  248.  233.8
+ 245.1 240.3 240.8 239.7 237.8 241.7 245.9 236.4 233.7 237.  238.4 241.4
+ 243.6 244.  238.7 244.5 245.5 234.6 243.  248.1 243.1 244.9 238.8 242.3
+ 243.1 238.  237.1 242.8 241.7 252.2 244.  234.  240.7 240.6 239.1 245.7
+ 232.2 238.9 237.7 241.8 239.9 242.5 243.1 229.2 241.  247.5 237.1 240.5
+ 239.5 239.8 238.2 247.  241.6 231.4 243.8 240.7 236.1 239.5 235.9 243.3
+ 234.5 242.7 249.8 236.  240.9 242.2 250.9 247.  244.2 240.2 234.8]</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>[164.9 154.4 163.4 162.  157.1 159.3 163.9 156.1 167.2 161.1 169.4 166.4
+ 166.  162.6 155.8 159.1 164.2 167.7 161.9 159.7 156.  165.6 151.6 163.2
+ 171.8 158.1 161.9 164.9 160.1 162.3 162.4 164.1 154.3 157.7 175.3 163.1
+ 173.9 163.9 162.5 166.5 163.4 158.3 157.  168.8 161.8 153.5 169.5 163.3
+ 164.5 158.  149.8 165.  158.5 158.7 160.4 153.2 157.  165.6 163.1 159.5
+ 158.  163.9 158.2 160.1 157.8 158.2 164.8 162.8 155.6 156.5 157.4 163.4
+ 162.1 167.7 150.5 156.4 167.2 159.8 160.7 157.4 164.3 161.7 162.1 158.6
+ 156.7 154.4 155.1 152.5]</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>[119.6 115.7 113.6 121.3 111.  124.  127.2 121.8 112.8 120.1 111.3 114.7
+ 118.3 114.1 117.6 115.4 125.4 127.6 128.7 112.9 109.7 123.8 120.9 119.9
+ 121.4 111.5 129.3 120.9 120.3 120.4 110.7 126.1 124.3 113.9 135.9 110.5
+ 122.3 117.9 116.2 115.7 124.1 124.2 126.9 124.7 119.  118.4 115.5 110.7
+ 123.  122.8 120.4 123.8 115.5 115.7 103.9 114.  116.3 114.4 118.9 127.5
+ 118.1 122.8 123.1 120.7 113.  120.5  97.7 110.  112.4 113.6 117.1 111.
+ 110.7 103.  113.8 129.  115.8 121.3 125.1 120.4 117.1 115.2  98.3  96.6
+ 113.9 127.5 119.2 103.4]</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>[ 89.9   3.7  64.1  73.5  89.   86.4  83.6   1.8  48.6  80.5  91.4  87.
+  84.2  87.8  82.2  67.3  77.5  82.5   1.1   1.2  10.    1.4  59.5   6.7
+   1.8  89.1  65.4  80.1  69.3  90.5  66.4  10.1  87.4  71.5  10.   69.7
+  56.1  78.1  57.2  73.3   1.2  64.   81.  100.7   2.6  71.3   6.4  81.9
+  10.   78.7  67.2 100.5  89.8  52.9   1.7  98.2  65.5   1.2   9.1  72.2
+  65.3  93.6  73.6   6.   75.   72.4  59.8   1.1  78.4  79.6  95.2  86.7
+  42.1 108.8   1.  114.7   3.   83.4   2.6  72.6  73.6   2.   10.  100.4
+ 107.2  88.9   3.1  85.9]</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>[76.9  9.5 67.4  4.8  3.   7.1  2.4  6.3  8.8  3.4 10.  76.5  5.  10.6
+  3.6  8.6 55.5  9.5 71.5  9.5  6.9  1.2 10.7 70.3 47.6  6.1  1.8  3.3
+  6.6 10.   2.6  7.   4.5  7.5 79.6  3.   2.   3.   9.  10.  58.4  9.5
+  5.5  9.5 10.   4.   6.5  1.3 78.9 93.1  5.  10.  57.6 55.6 89.8 67.7
+ 81.6  3.   5.4  5.   9.5 47.6  9.5  5.9 10.   3.3  3.4  9.5  2.   6.3
+  3.9  1.   2.   9.5  6.9  9.5  2.5  8.  92.1  9.5  5.   9.5  1.3  4.
+ 10.   1.8  1.3  2.4 67.6  3.3  6.4 10. ]</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>[ 5.  99.8 82.3 10.3 81.5  2.1  3.   2.3  2.7 10.   1.4  4.   9.5  3.3
+  6.3 88.1  3.4  6.5  1.2 84.8  1.3  2.   7.  65.6  2.   5.   9.5  4.9
+  7.   2.  10.2  9.5 62.6  9.5  3.7  4.4  5.   1.2  6.4 86.3  4.7  3.3
+  2.   2.3  4.4 10.   6.9  7.  10.   7.6 10.   8.6  5.   2.8  1.2  1.4
+  1.1 10.   3.6  9.5  2.5  1.  10.   2.3  4.9  4.7  9.5 10.   1.8  3.5
+  7.7  6.3  7.2  3.9  1.   3.3  6.1 44.6  1.2  2.1  1.3  2.5  9.5 10.
+  1.7  9.5  1.   9.5  5.   3.1  4.   1.8 10.2  6.4]</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>[  2.    9.5   1.    4.9   3.  148.6   8.  142.8  10.    6.1   2.    2.1
+  75.2 152.6   1.3  10.    9.5  10.    1.2   2.    9.5   6.9   1.5   2.7
+ 116.1   7.3  73.8   1.9   3.    2.5   8.    1.    2.    8.    7.3   3.
+   3.2   3.6   4.   10.    7.1   5.    2.    7.    2.1   8.4   1.6   7.
+   9.6   2.8  49.5  96.6  10.   10.    3.3   9.2   1.2   4.7   7.7   4.
+   6.7   2.8   2.3   7.    7.6   2.1   7.2   3.    7.    7.8   2.8  10.3
+   5.4  10.    9.1   9.5   1.2   2.    4.9   9.5   3.3   8.    9.   10.3
+   8.   87.3   6.9 137.3  70.5  51.2   6.1  10.    4.9  10. ]</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>[196.4 171.7  80.2   4.  172.8   8.2  10.3   1.3   8.5 157.5   2.8  80.
+ 101.2   2.5   5.4 102.9   2.1 307.3   7.7  78.4  72.1   9.6   5.6   2.6
+   8.8   7.    3.1   4.3   3.2 131.6   3.6 254.  250.7 120.6   1.3   5.3
+   5.7   2.6   9.4   2.8  91.1   5.    6.7   8.2  10.7   3.2   9.5  10.
+   6.    4.    2.6 113.1   4.3 155.7  10.    6.7  93.7 197.3 153.9   6.
+  10.6   5.6  10.6 124.9   8.    7.1   9.3  10.6   3.5   9.5 138.7   8.6
+ 179.6 152.7  10.    8.5   8.  164.2   2.4   7.    4.    5.3 127.7   7.6
+   3.  309.7 144.4 126.3   1.6   5.4   8.    2.7   3.2 140. ]</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3633,20 +7376,172 @@
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>[1946.2 1880.9 1872.1 1875.  1864.7 1933.9 1894.3 1883.8 1882.8 1877.1
+ 1893.7 1904.6 1848.  1897.6 1867.7 1887.2 1876.3 1882.2 1877.3 1882.9
+ 1884.5 1825.9 1895.7 1887.  1851.4 1835.7 1845.3 1903.8 1857.9 1875.
+ 1891.  1850.4 1818.6 1863.8 1875.  1868.5 1859.1 1849.8 1869.  1838.9
+ 1852.8 1870.2 1853.6 1835.4 1850.4 1864.5 1850.5 1840.2 1856.2 1842.9
+ 1851.3 1857.  1870.  1877.  1838.9 1868.6 1883.3 1850.8 1857.1 1853.4
+ 1821.4 1848.3 1829.5 1852.3 1886.2 1850.2 1814.  1867.9 1878.9 1855.2
+ 1839.2 1853.1 1847.  1816.6 1839.3 1876.4 1826.2 1868.6 1881.1 1840.
+ 1856.9 1861.1 1847.4 1856.4 1883.  1852.9 1854.9 1921.4 1916.3 1877.9
+ 1873.3 1869.3 1867.4 1888.5 1867.1 1869.1 1878.3]</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>[1332.3 1377.7 1386.  1372.5 1393.7 1412.3 1346.  1385.  1372.2 1361.
+ 1361.8 1361.5 1384.  1412.9 1354.7 1377.9 1367.5 1356.7 1377.4 1370.6
+ 1364.4 1382.1 1402.  1402.7 1324.1 1374.4 1346.6 1369.4 1383.1 1360.6
+ 1365.4 1369.5 1379.  1388.6 1376.6 1355.3 1353.6 1372.6 1373.6 1355.
+ 1362.  1372.  1373.  1370.2 1379.  1381.3 1362.9 1368.6 1386.9 1364.3
+ 1354.1 1361.9 1364.6 1371.3 1352.8 1390.  1361.2 1362.5 1382.7 1369.1
+ 1375.7 1361.1 1348.8 1362.6 1366.7 1392.9 1369.2 1358.9 1362.4 1364.7
+ 1372.2 1364.1 1340.5 1345.8 1419.4 1377.3 1370.4 1371.5 1377.5 1379.1
+ 1368.8 1348.9 1386.1 1377.5 1387.4 1392.5 1398.8 1379.1]</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>[953.  967.3 936.1 925.9 937.8 966.  949.6 945.3 926.4 920.2 933.7 944.2
+ 950.9 926.8 929.6 929.  926.8 926.3 924.4 929.4 932.6 928.  920.4 932.
+ 923.4 923.3 920.6 920.1 919.7 923.4 940.6 920.8 926.  926.3 924.3 922.2
+ 925.6 923.3 917.6 934.7 933.6 925.6 926.3 936.  927.5 935.8 922.  932.2
+ 935.8 932.3 928.4 928.8 931.9 920.9 923.6 933.2 937.4 943.1 940.8 930.8
+ 938.1 939.  928.4 930.7 929.9 922.1 940.1 942.9 926.6 942.4 934.4 935.5
+ 926.3 929.6 928.1 942.2 940.6 943.5 944.8 932.1 926.5 932. ]</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>[677.9 680.7 679.  686.  689.5 685.3 680.3 704.8 693.4 692.6 686.9 690.6
+ 688.4 681.7 659.7 698.6 682.3 685.6 684.9 680.7 684.6 682.5 683.7 679.9
+ 683.8 681.3 687.1 688.6 685.1 685.8 681.7 677.9 678.9 676.  691.  681.6
+ 680.1 677.5 678.7 677.4 672.6 676.8 674.5 677.9 694.5 676.5 679.7 685.
+ 693.7 676.1 672.8 692.  681.2 678.7 692.8 680.  692.6 687.5 688.3 679.8
+ 680.8 688.7 680.2 683.7 692.6 679.3 685.4 688.8 691.1 679.2 676.5 682.4
+ 686.1 692.8 680.  681.5 680.8 681.1 678.8 677.8 684.4 685.7 688.4 684.1
+ 681.  676.9 681.8 688. ]</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>[484.4 483.7 483.1 483.6 483.4 486.  484.5 489.4 485.6 481.7 480.5 482.2
+ 483.1 483.3 487.  489.8 483.8 487.3 490.2 488.1 489.3 488.6 492.9 486.5
+ 480.8 492.1 488.6 482.6 490.6 482.6 486.  485.7 486.8 492.4 486.1 486.5
+ 485.7 488.8 490.2 488.8 488.5 490.3 485.  484.3 492.2 488.5 489.6 488.5
+ 489.4 489.1 493.3 493.9 481.6 484.6 492.9 489.  488.  488.1 494.9 488.8
+ 487.4 490.1 484.6 483.2 491.5 488.2 485.6 484.2 487.1 490.3 490.2 485.1
+ 482.2 481.7 484.4 489.1 482.2 480.4 486.  487.3 482.3 476.4 480.5 484.
+ 481.5 483.3 483.8 482.5]</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>[313.1 311.  305.9 307.6 313.6 310.8 307.8 306.4 302.3 307.2 311.4 311.2
+ 310.6 310.2 314.1 307.6 306.2 310.8 317.2 315.9 316.6 299.6 310.8 309.1
+ 310.5 307.2 309.9 310.3 313.7 314.  314.1 312.8 307.6 309.1 308.3 313.1
+ 310.3 312.4 313.1 313.8 314.4 312.3 310.2 314.1 312.8 311.3 309.7 308.9
+ 313.3 309.8 310.9 316.8 313.3 310.9 313.6 314.2 311.3 311.4 309.5 312.9
+ 310.6 313.5 314.8 314.9 311.2 310.3 316.1 312.2 313.9 311.2 312.4 310.4
+ 313.7 311.5 313.5 313.4 317.2 310.2 314.7 312.  312.8 311.2 311.5 311.9
+ 312.1 309.9 308.7 309.8 314.5 312.8 316.1]</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>[243.8 243.6 243.6 243.8 242.3 239.8 240.8 239.5 239.  240.4 240.7 241.1
+ 241.7 246.7 240.9 241.1 243.3 242.6 241.3 244.4 239.  241.1 243.8 240.4
+ 240.1 240.8 241.1 242.  243.9 241.6 240.3 243.2 243.4 242.1 241.9 243.5
+ 242.1 244.6 243.7 243.2 241.2 242.3 243.9 241.1 241.5 243.9 243.2 242.2
+ 240.4 241.3 242.9 242.9 243.  242.9 244.6 246.8 241.7 248.6 242.5 244.3
+ 240.2 240.7 241.7 242.5 243.  247.2 243.  250.1 242.2 242.9 244.1 239.5
+ 244.1 246.4 245.7 243.1 243.5 243.3 239.7 242.  246.3 244. ]</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>[159.6 161.  161.1 161.  161.4 162.9 296.7 317.2 161.6 165.5 330.  332.2
+ 339.3 164.7 163.5 161.7 161.6 160.8 163.8 163.6 164.  161.3 328.1 160.1
+ 156.6 161.7 161.  161.1 161.8 162.1 163.8 162.6 159.8 156.9 160.8 161.7
+ 160.7 163.2 160.6 160.8 162.7 163.3 161.4 157.9 159.1 163.  161.1 163.5
+ 163.6 162.6 161.8 162.2 163.7 159.2 159.2 160.9 160.4 161.  162.1 162.2
+ 161.4 161.4 162.6 158.7 160.4 331.  161.1 158.9 159.2 161.1 162.1 164.2
+ 349.4 159.  154.8 322.8 159.8 315.3 313.7 161.1 338.9 157.  162.8 161.5
+ 157.1 158.8 161.8 164. ]</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>[152.  171.5 123.3 121.2 114.2 113.5 116.7 121.  114.5 115.8 117.6 114.4
+ 113.7 115.3 188.2 114.7 121.9 120.3 117.4 115.6 115.6 116.5 114.6 121.
+ 179.2 117.4 124.3 123.  120.2 119.2 113.8 116.1 116.3 118.6 178.4 112.6
+ 123.7 119.5 117.5 118.6 117.3 116.4 116.8 116.5 173.1 118.7 116.2 112.
+ 115.5 116.7 115.6 113.9 112.9 115.7 169.8 119.9 161.2 157.6 116.5 118.
+ 113.5 114.2 116.8 121.8 117.2 170.1 108.9 160.3 117.2 118.9 118.7 115.
+ 118.3 102.4 165.6 175.5 117.  118.1 116.3 119.6 121.1 120.9 102.7 113.1
+ 121.2 164.5 128.3 127.4]</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>[110.7   1.3   4.2  55.9  44.1  43.4 112.9   5.   78.9  49.8  64.1  65.3
+  62.5  90.8   5.   85.4  76.2  80.1  63.   70.3  73.4  73.   70.2 101.4
+  49.2  79.3  65.2  58.8  45.9  74.6  70.8  77.6  70.3  75.6  61.4  58.9
+  70.5  70.6  70.2  83.   76.6  77.1  72.2  94.   57.3  68.6  75.1  82.6
+  74.9  84.6  84.2  66.1  62.4  79.4  73.4  78.6  64.8  80.   73.1  90.4
+  79.6  75.3  69.9  74.3   1.3  86.6   1.   95.7  75.4  80.2  67.3  81.8
+  68.9  95.   93.    2.1  81.5  80.8  89.1  86.2  77.6  82.5 104.9   3.4
+  76.   59.3  82.   75.5]</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>[54.8  2.7  2.   1.8  2.8  3.2  2.7  3.3  1.2  1.2  1.3  1.2  2.   1.2
+  1.   2.7  1.3 69.5  1.3  2.5  1.3  1.2  1.2  2.   1.3  1.2  1.4 74.9
+  2.1  3.3  1.   2.5  2.   1.4  3.4  2.7  2.5  1.3  1.   2.   3.3  3.4
+  1.   3.2  1.8  2.   2.8  1.3  4.6 88.8  1.1  4.9  1.1  1.   3.4  1.1
+  2.8  2.   2.7  1.1 83.9  1.8  5.   1.1  1.1  9.5  4.   4.9  2.7  2.7
+  1.2  1.   4.   4.9  1.3  1.3  3.4  1.2  1.2  5.   1.3  5.   4.9  2.4
+  1.2  1.1  1.3  3.   2.   6.3  2.7  1.2]</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>[91.5  1.2 45.7  3.1  1.8  1.3 86.6  4.   3.5  3.   1.3  2.7  3.6  3.1
+  3.   7.2  5.   2.8  1.   1.1  2.  67.2  1.2  1.8  9.5  1.3  2.4  2.5
+  3.3  9.5  3.4  3.6  2.6  2.7  4.6  1.   1.1  1.2  5.   1.3  8.1  4.
+  1.2  2.4  2.8  1.3  2.   3.   1.3  2.7  2.7  3.3  2.7  1.   8.  60.6
+  7.3  4.   9.5  2.   3.   2.5  2.7  1.1  2.7  1.3 95.3  2.4  4.5  3.7
+  1.2  2.5  1.3  1.1  3.3  3.1  6.3  3.6  4.3  2.7  9.5  1.2  1.9 70.1
+  1.8  1.3  2.6  2.4]</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>[  2.    7.    9.5   5.    1.   55.6   7.    4.3   3.3   8.1   9.5   1.2
+ 141.   66.5   2.9  10.    1.1   9.5   1.2   2.5  10.    1.8   1.7 112.2
+   3.3   1.1   3.    1.1   2.1   5.8  10.    4.8  78.4   9.5   2.7   2.4
+   1.7   2.    1.    6.4   9.5   1.9   4.2  63.7   1.8   3.4   1.2   3.2
+   1.9   5.    3.4   1.   58.8   2.5  45.    2.9   1.1   3.    2.    2.6
+   3.2   6.7   2.7  50.3   1.3   1.3   2.5   1.8   5.6   9.5   2.5   1.1
+   1.2   2.6   1.2   4.3   2.4   5.6   9.1   1.6   2.9   2.5   1.   67.6
+  60.4   9.1  54.3  58.1   2.9   2.7   1.2   2.9   9.5   1.3]</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>[ 2.   9.1  8.6  2.   3.1  2.7  3.4  1.2  4.8  1.8  9.5  1.8  9.   2.2
+  8.   3.   2.1  8.9  3.1  3.   6.   2.   2.4  1.4  9.5  2.7  6.3  1.8
+  5.   3.   4.1  1.2  6.3  1.3  3.8  1.8  3.6  2.7  1.   3.   2.   2.5
+  5.   5.6  1.8  5.3  1.3  2.7  3.2  1.8  3.   1.9  2.   2.   2.8 10.
+  3.   1.1  2.4  4.8  6.5  3.6  2.   9.4  1.8  1.9  7.5  1.2  3.1  9.3
+  2.   3.8  9.3  1.9  6.   1.9  3.   1.9  4.   3.   1.2  1.9  2.8  5.
+  8.   2.8  2.6  9.1 72.   6.7  7.9  7.9  3.   1. ]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3752,20 +7647,174 @@
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>[1933.9 1817.8 1819.1 1851.1 1808.9 1914.5 1843.2 1856.1 1874.7 1828.6
+ 1866.8 1880.6 1851.4 1889.9 1840.7 1885.9 1845.5 1858.7 1860.  1844.9
+ 1855.8 1822.7 1887.  1876.2 1834.7 1795.  1811.2 1903.9 1834.2 1860.2
+ 1898.5 1812.4 1795.6 1880.4 1869.  1879.2 1854.3 1827.6 1854.4 1819.7
+ 1843.9 1883.3 1852.4 1824.3 1839.4 1840.2 1826.1 1820.4 1852.5 1831.
+ 1856.3 1870.5 1883.  1896.1 1841.8 1884.2 1892.6 1824.5 1856.3 1854.1
+ 1816.3 1863.  1825.5 1863.  1897.9 1847.7 1822.1 1835.  1890.3 1852.7
+ 1822.5 1871.1 1864.4 1792.8 1836.  1875.6 1811.3 1854.3 1861.3 1786.5
+ 1845.1 1861.6 1834.  1858.3 1880.7 1828.4 1820.9 1916.2 1902.  1844.4
+ 1863.3 1862.9 1827.5 1875.2 1831.6 1840.2 1870.3]</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>[1343.7 1377.8 1388.5 1370.9 1387.  1396.  1362.5 1399.6 1382.4 1359.
+ 1365.6 1351.4 1375.1 1402.8 1359.5 1383.6 1375.1 1363.2 1404.3 1387.1
+ 1377.1 1390.8 1413.4 1396.6 1324.8 1368.3 1346.6 1392.6 1409.2 1367.2
+ 1383.6 1373.2 1376.9 1401.2 1367.7 1342.3 1355.  1395.1 1389.8 1372.9
+ 1383.6 1389.8 1396.7 1375.  1378.2 1401.8 1373.8 1379.9 1413.8 1379.4
+ 1359.  1378.9 1377.5 1388.7 1352.  1389.6 1360.1 1367.3 1403.3 1383.1
+ 1387.3 1373.6 1356.8 1383.6 1372.2 1397.8 1365.4 1358.2 1355.4 1371.7
+ 1379.8 1386.3 1346.2 1350.  1417.4 1363.5 1369.6 1362.8 1376.7 1383.9
+ 1381.8 1346.7 1358.8 1359.4 1378.9 1387.  1417.8 1384.9]</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>[943.1 958.3 931.4 924.6 948.4 964.7 945.5 952.  926.4 916.4 941.6 963.2
+ 951.5 928.5 929.5 932.9 936.1 941.4 932.6 935.  940.9 935.3 923.2 947.8
+ 921.1 928.7 926.1 929.7 927.6 935.2 953.8 921.1 931.1 938.1 933.6 929.3
+ 939.8 935.  919.7 943.3 930.5 930.3 937.1 944.3 940.5 950.5 928.9 940.2
+ 931.6 938.  926.  937.  942.7 927.7 931.6 947.1 940.4 939.3 951.3 925.6
+ 947.7 949.7 931.2 936.8 938.3 923.4 945.5 940.7 933.9 951.4 936.1 942.9
+ 934.5 937.1 931.2 951.8 951.6 944.9 954.6 928.6 924.1 943. ]</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>[680.3 676.  672.2 688.9 688.  677.6 674.7 702.8 693.2 697.8 687.  698.1
+ 695.6 684.6 665.3 707.3 675.1 680.7 684.4 678.3 688.2 684.5 688.6 689.7
+ 689.  680.4 689.  695.  685.6 692.9 684.8 677.3 684.7 676.2 696.6 683.4
+ 677.3 672.4 678.7 679.7 672.5 681.  675.8 682.  699.4 669.6 679.2 683.8
+ 701.9 674.4 669.2 700.  684.2 677.4 691.8 675.9 698.3 683.9 693.6 678.3
+ 683.2 691.2 676.  683.9 693.2 676.8 690.4 688.  693.9 679.1 673.2 682.4
+ 686.7 696.1 679.4 682.8 676.6 683.6 678.3 676.1 685.3 687.4 687.1 683.3
+ 679.5 676.9 683.9 689.9]</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>[487.7 483.7 482.5 481.4 481.5 490.9 498.4 487.9 483.5 472.6 472.7 475.
+ 476.1 479.5 489.7 488.4 480.1 481.2 489.7 483.  487.2 486.  495.  483.2
+ 478.5 492.2 484.5 477.5 487.5 472.7 477.8 479.1 481.4 494.8 482.3 475.2
+ 477.9 482.5 483.7 480.7 481.4 486.1 480.8 480.2 490.6 479.8 482.5 482.8
+ 482.3 479.7 487.2 492.  473.6 483.2 492.1 481.7 484.2 483.2 493.2 482.8
+ 481.7 487.8 481.2 481.7 493.1 484.1 480.9 479.4 483.5 487.8 488.2 482.9
+ 483.2 483.9 482.8 491.5 481.2 475.2 482.6 488.3 480.9 475.8 477.2 483.
+ 479.5 481.4 481.4 485.1]</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>[309.2 316.5 308.1 308.7 312.4 305.8 301.8 305.9 297.4 305.5 308.8 303.5
+ 311.4 309.2 322.6 305.6 303.5 311.6 317.9 314.4 319.9 301.8 316.3 308.1
+ 308.1 303.1 307.6 306.8 311.3 310.5 310.7 311.7 310.5 309.8 305.2 313.5
+ 307.9 310.  311.5 312.2 311.2 309.5 305.7 315.5 313.5 311.3 307.6 304.7
+ 311.1 306.4 307.4 317.6 311.4 309.4 313.1 311.6 307.7 308.  305.  310.1
+ 307.9 310.9 313.7 314.  306.8 308.1 311.9 306.4 311.3 306.2 310.2 308.7
+ 313.8 308.6 310.4 313.  310.7 301.7 317.2 308.2 312.2 309.1 309.4 309.1
+ 307.  305.9 305.3 306.2 315.6 309.8 313.3]</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>[245.  241.2 239.8 242.3 242.7 237.4 241.4 238.1 237.8 239.5 239.1 239.5
+ 240.9 253.  237.4 242.2 245.4 244.2 238.3 245.8 234.9 238.9 244.2 238.8
+ 238.4 240.6 240.1 240.6 243.  238.5 237.7 243.4 243.8 241.4 240.9 244.1
+ 240.4 246.1 240.7 246.2 241.  242.1 244.8 239.8 239.9 243.7 239.1 238.5
+ 236.  240.2 242.4 242.1 241.4 241.7 243.5 248.3 235.3 241.6 242.8 244.8
+ 238.3 238.6 239.7 240.  236.8 243.2 239.6 247.3 249.2 240.3 244.5 236.3
+ 242.1 242.1 246.6 237.3 244.3 243.  235.5 238.2 241.3 238. ]</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>[158.8 159.6 156.9 157.7 157.8 162.8 155.6 161.7 159.7 166.9 162.  165.
+ 167.8 162.8 165.5 164.  158.8 157.8 164.1 162.2 164.3 158.8 163.3 162.7
+ 153.4 163.5 163.  159.7 160.8 161.1 164.4 163.6 160.8 156.4 161.5 161.3
+ 157.9 163.2 158.3 158.6 162.4 163.8 161.4 158.7 158.6 165.8 159.9 165.1
+ 163.3 162.8 160.2 161.1 166.8 159.8 156.8 161.7 159.3 161.7 160.8 161.4
+ 160.4 160.1 162.  158.3 160.6 162.8 163.9 157.8 157.9 159.7 160.9 161.8
+ 164.5 156.7 151.3 160.4 160.3 163.9 159.4 161.8 163.6 151.3 164.6 164.6
+ 156.1 158.4 162.6 162.4]</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>[114.6 127.5 127.  124.5 114.4 114.5 116.5 122.5 113.7 115.4 117.1 115.6
+ 113.  116.5 133.3 110.7 122.9 117.6 118.  114.4 116.5 118.9 114.9 124.5
+ 128.5 113.6 127.3 121.7 122.3 120.1 110.7 116.1 117.4 120.1 127.1 111.4
+ 126.3 119.6 116.2 119.4 118.1 117.2 120.5 118.7 124.2 118.4 114.9 108.3
+ 117.  115.6 115.8 115.7 111.  115.2 126.2 120.9 120.8 121.1 118.  119.6
+ 112.9 116.  118.1 122.9 117.2 125.3 107.4 120.1 116.8 121.5 121.6 113.2
+ 116.6 103.3 121.3 131.1 117.5 118.3 114.4 120.3 120.6 120.8 106.4 116.
+ 120.5 119.9 127.2 125.3]</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>[ 99.    2.5   6.5  57.4   2.   50.9 101.6   2.7  78.3   2.5  71.9  71.4
+  57.7  91.8   1.   87.2  69.7  85.5  57.1  72.8  76.2  75.9  52.2  88.1
+  65.1  88.3  64.    3.5   3.   69.5  68.4  76.   62.7  72.6  69.   67.4
+  77.3  71.7  68.4  80.2  68.5  71.7  67.1  89.6  67.1  77.8  79.3  87.9
+  68.   83.7  78.7   5.    2.7  85.4  78.6  79.   58.3  80.5  62.6  86.3
+  68.4  74.   65.1  61.9   4.6  81.3   9.5  92.2  66.7  71.   10.   82.2
+  45.2  89.6  87.3   2.   85.1  80.7  84.5  89.2  63.9  78.2  96.8   2.2
+  81.3   2.7  81.4  70.1]</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>[68.9  9.5  9.5  9.5  3.1  9.5 10.3  4.8  2.5  9.5 43.8  3.1  1.   2.
+  5.3 62.5 47.5 75.2  9.5  1.3  1.2  1.   2.4  3.3  9.5 10.  10.  83.5
+  2.7  9.5  2.5  1.2  3.1  2.7  1.   1.9  4.1  2.   5.   1.   1.1  8.
+  3.7  1.3  1.2  2.1  8.   1.2 10.  97.5  1.6  9.5  2.6  1.6  7.   1.
+  1.3  2.3 62.3 10.  90.9  1.2  1.2  3.4 10.6  2.  10.   1.9  1.3  3.1
+ 10.   8.   6.9  2.   1.2  6.2  1.   6.9  1.   2.6  5.2  1.   2.7  2.4
+  9.8  2.1  2.8  7.6  9.5 10.   1.3  1.8]</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>[ 86.2   9.5  75.6  75.6  39.4   7.5  83.1   2.7   3.    2.6  10.9   2.
+   3.1   2.    7.   10.6   6.    9.5  69.5   1.8   4.9  10.2   7.5  10.2
+   1.9   1.2   3.2   2.7   1.8   9.6   3.9  10.3   3.   79.6   1.2  81.1
+  10.9  59.2   3.2   1.1   2.7   1.    1.4  10.   70.    5.8   6.4   3.2
+   3.2   3.3   3.6   1.1   1.2   4.6   2.7  85.4   4.4   4.1   2.    4.6
+   3.2   2.7   2.6  10.    9.5  10.  113.2   5.    9.5   1.9   1.2   4.5
+   9.5   1.3   3.2  10.    7.    7.    1.4   2.5   9.5   9.5   1.3 102.1
+   3.5   9.5   1.1   2.3]</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>[  5.6   3.7  67.4  74.2   5.    2.    6.9   4.    4.   78.6   9.5   3.6
+ 173.3  10.3   4.1   7.6   3.6  10.2   6.9   3.8   3.2   2.4   5.  105.9
+   2.3  10.3   9.5   3.    9.1  74.4   4.    3.7 107.    2.5   4.9   6.3
+   9.5  10.    3.2  10.    4.    9.3   7.4 117.2   4.    3.8   5.    5.
+   9.5   2.    7.6   5.5 101.    5.9   1.3   2.4   2.    1.1   2.    4.
+  73.3  10.    9.5  88.3   3.3   1.9 103.4   1.3   4.1   5.    4.   65.5
+   8.5   2.    1.9   1.3   6.    3.2  73.3  40.4   4.    1.2   2.  121.1
+  72.3  94.7 104.9 117.2   8.8   3.4 107.8   2.8   5.6   7.6]</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>[116.2  71.4  92.7   1.   10.6   2.   10.    6.    1.6   5.    1.    2.7
+   9.    4.8  10.   79.1   6.   94.1   3.8   3.1   1.    1.4   8.1  10.
+   6.    1.    9.4   3.6   2.6  10.   10.  175.4  10.    1.4  10.    9.5
+   5.2   1.8  10.    5.7  10.    2.9   5.1   2.7 131.    2.    7.9   2.
+   9.4   1.    4.7   1.    1.6   4.8   9.6   1.9   4.8   5.1   9.2   4.8
+   6.    2.2   4.    4.    4.    3.3   9.    2.    4.    8.    3.1   1.9
+   6.8   2.5   9.    2.   10.    1.2   5.1   8.1   1.    4.8   9.    2.4
+   7.4   3.    5.4   2.    4.9  76.7   1.5   3.2   9.5   2.3]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3873,20 +7922,171 @@
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>[2097.5 2003.5 2046.2 2015.5 2003.  2072.3 2032.  1956.6 1984.7 2011.7
+ 1976.7 1937.5 1954.5 1909.9 1989.8 1953.3 1952.1 2026.6 1901.8 1907.5
+ 1948.5 1948.2 1912.8 1832.1 1960.5 2010.4 1910.3 1954.9 1907.5 1897.3
+ 1954.6 1902.4 1841.  1922.  1915.5 1900.5 1945.1 1956.4 1942.4 1905.4
+ 1879.4 1947.3 1928.2 1815.6 1930.2 1985.  1946.  1943.  1904.  1902.6
+ 1916.6 1922.4 1955.3 1924.4 1866.8 1938.6 2014.5 1959.  1867.8 1904.8
+ 1906.2 1940.  2001.7 1949.1 1891.2 1892.4 2007.5 1979.3 1897.3 1873.8
+ 1915.1 1937.1 1961.7 1981.8 1907.2 2050.8 1970.6 1891.7 1884.7 1913.6
+ 1991.1 1924.6 1917.3 1981.  1942.3 1888.  1920.9 2007.  2014.2 1901.
+ 2023.2 2022.5 2013.1]</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>[1365.4 1352.4 1336.2 1350.8 1359.3 1394.9 1379.5 1320.8 1322.5 1320.7
+ 1333.1 1362.6 1388.4 1351.6 1547.  1340.8 1315.6 1321.2 1343.5 1377.2
+ 1357.8 1360.1 1316.8 1321.1 1541.2 1329.2 1281.  1324.8 1397.9 1411.2
+ 1375.7 1353.9 1326.8 1337.2 1289.1 1322.9 1292.7 1349.  1418.2 1372.9
+ 1324.5 1328.  1311.5 1305.3 1312.4 1359.7 1319.8 1332.6 1357.2 1324.6
+ 1305.6 1320.6 1348.6 1319.4 1378.2 1383.5 1330.4 1321.9 1346.4 1356.9
+ 1347.8 1331.2 1383.9 1383.3 1383.1 1365.9 1364.7 1361.6 1354.6 1357.1
+ 1341.7 1343.4 1349.8 1354.9 1390.8 1378.6 1357.2 1371.2 1353.2 1355.9
+ 1369.3 1355.4 1372.2 1348.1 1378.8 1384.3 1360.4 1364.4]</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>[958.7 938.1 952.3 958.1 952.  967.8 978.9 954.3 948.1 970.3 969.5 948.4
+ 952.7 955.5 981.  952.9 950.1 962.  972.8 976.3 961.7 934.7 937.9 942.9
+ 953.7 961.7 934.3 961.1 973.3 962.7 976.7 962.3 940.2 944.6 929.5 947.8
+ 950.5 954.9 965.1 966.1 970.1 954.5 930.9 930.2 939.6 954.1 961.6 950.8
+ 964.9 963.7 963.8 957.8 950.8 947.8 956.9 957.2 962.2 966.5 978.  953.
+ 951.2 966.9 960.  964.2 976.5 947.7 951.4 947.4 974.9 960.8 940.9 955.3
+ 947.9 957.5 934.4 955.2 937.7 940.6 947.6 940.8 939.4 937.7 961.6 965.1
+ 943.6 931.2 931.5 911.2]</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>[704.7 712.8 723.5 695.2 674.9 678.3 679.8 705.4 715.9 707.  685.5 688.9
+ 685.3 706.9 693.6 676.9 670.9 679.3 701.  691.5 699.7 694.3 664.3 699.5
+ 692.1 674.9 681.7 690.  693.2 672.8 675.4 681.9 674.6 678.  683.1 680.8
+ 698.4 703.3 693.  693.7 682.4 685.8 683.  685.4 676.7 684.  682.3 677.2
+ 675.6 681.3 680.1 682.9 685.7 686.5 689.2 690.9 676.2 670.2 670.7 675.7
+ 676.5 686.5 681.2 683.6 687.5 684.  683.3 674.  685.8 699.2 687.1 677.8
+ 669.6 684.9 684.  678.7 679.6 685.2 688.8 689.2 690.6 686.7 678.8]</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>[493.4 492.2 492.3 487.  486.8 480.1 502.5 500.9 496.2 491.3 495.1 488.9
+ 496.8 480.8 498.6 498.6 495.9 491.7 486.8 501.5 494.7 498.3 484.6 495.9
+ 489.1 492.9 491.2 486.  504.3 500.1 488.2 480.4 498.1 493.9 506.4 501.
+ 490.6 505.9 494.3 484.5 482.2 493.  501.3 507.7 498.5 492.6 497.8 494.
+ 487.4 482.8 488.8 487.7 500.5 493.4 494.1 496.5 489.6 486.5 488.1 496.8
+ 490.6 492.9 485.3 487.4 489.  485.4 485.6 478.5 502.  494.9 483.9 478.7
+ 476.9 478.8 486.3 475.9 485.5 483.9 481.4 482.7 482.3 482.2]</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>[358.6 353.2 352.9 359.3 352.2 357.4 358.3 354.7 362.5 357.7 355.3 357.4
+ 353.  346.4 347.1 354.2 349.7 349.8 353.4 355.6 356.9 356.4 349.1 345.1
+ 355.1 358.7 348.9 344.5 348.4 357.2 353.6 351.5 350.9 345.8 353.7 359.5
+ 354.7 349.5 350.2 348.  350.6 354.5 353.8 346.6 346.6 355.8 352.3 346.8
+ 352.  356.3 346.9 351.9 351.7 353.7 349.9 344.  350.3 352.1 343.  353.8
+ 355.2 348.9 353.5 346.1 350.7 352.1 350.3 347.  349.8 349.8 359.8 337.8
+ 342.4 346.8 341.5 346.  349.3 348.3 345.4 362.6 349.9 351.9 354.2 357.6
+ 348.5 349.5 365.3 339.3 348.  355.  342.  344.7]</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>[243.2 240.3 243.1 246.1 248.  245.6 241.5 245.7 247.3 247.3 247.2 246.4
+ 241.9 238.4 243.9 246.2 245.9 245.7 245.7 246.  244.4 239.2 236.6 248.4
+ 244.4 245.  242.3 245.2 245.3 245.9 242.9 245.3 244.2 249.5 239.8 243.5
+ 244.4 245.4 243.9 244.9 245.7 249.7 244.8 245.1 240.2 244.6 241.6 241.3
+ 240.1 245.  243.8 246.2 238.1 238.3 240.1 244.6 241.  242.4 237.7 241.1
+ 241.8 242.8 243.1 247.1 241.2 240.9 242.5 247.  243.8 252.4 252.8 245.
+ 251.2 253.3 239.1 239.  245.1 246.9 247.  249.3 247.4 233.4 241.5 241.7
+ 238.5 232.5 241.3 239.2]</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>[176.3 176.  176.  173.9 171.2 178.7 176.2 177.4 176.8 178.4 177.  176.3
+ 176.8 181.3 176.2 177.4 381.7 178.9 176.3 174.7 179.5 175.7 179.3 372.3
+ 184.7 186.  379.1 181.5 379.5 181.5 178.2 174.7 182.9 394.7 180.6 181.7
+ 380.9 382.1 388.5 181.  175.4 173.9 181.  388.8 387.6 374.5 182.1 389.4
+ 368.4 173.4 386.1 173.2 179.4 395.  385.9 177.  176.8 382.1 358.5 172.5
+ 180.7 364.1 180.7 177.7 399.5 383.6 367.  176.3 177.7 174.7 421.9 173.9
+ 408.7 169.4 359.4 168.4 178.2 180.6 173.2 172.8 175.3 189.6 171.4 177.6
+ 180.3 180.3 386.6 434.4]</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>[137.7 116.7 123.1 119.4 159.5 183.1 151.2 163.3 161.8 126.1 161.9 110.8
+ 103.8 121.3 137.9 133.2 130.  124.2 125.3 124.2 137.1 107.7 171.3 155.4
+ 162.  159.5 127.4 129.2 119.5 110.8 110.9 180.6 158.5 161.4 165.1 170.6
+ 175.4 123.7 147.2 107.5 123.3 159.1 165.4 157.  158.2 170.3 161.6 153.5
+ 140.5 169.5 132.6 169.9 157.4 154.4 160.8 152.  153.3 117.3 164.  137.7
+ 161.5 154.9 149.8 146.  152.6 154.  118.3 143.7 163.4 120.3 133.4 153.3
+ 152.7 154.4 117.6 120.3 122.  117.6 117.8 116.5 144.5 115.7]</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>[ 89.6  97.9  86.9  91.1  88.6 110.5  96.1   7.2  91.3  82.6  91.2  89.1
+  65.5 117.1  93.4  93.3  60.9  90.6  92.  101.3  98.5  89.8  93.8  80.7
+  99.3  93.3  66.2 101.6 112.2  98.2  87.1  86.7  90.3  90.   88.2  63.2
+  86.9 103.4 101.7  92.1  92.7  82.7  70.   84.4  84.9  78.7  77.2  97.9
+ 100.4  93.5  84.9  79.9  79.1  79.4  92.7  91.6  87.1  79.2  88.3  77.9
+  70.1  82.   81.7  85.2  90.7  82.1  69.3  74.9  87.4  67.2   1.2  89.7
+  76.  100.  109.6  79.9  86.8   6.3  90.5  86.4  84.6  88.1  91.8]</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>[ 55.    2.5   1.9   9.5  72.4  72.3   2.1   3.2   1.3   6.3  16.3  73.6
+  58.8   1.3   3.    1.2   2.6  68.5   5.3   9.5   4.3   9.5   3.3  70.8
+   5.    1.1   3.   73.6   1.2   1.2   1.3  14.1  58.2  68.2  51.8   1.3
+   6.3   2.5   5.   68.1   3.1   3.1   1.8   3.5   1.2   5.    1.3   3.2
+   1.3  52.1  86.    6.3   9.5  65.1   2.5   2.5   1.3   1.1   3.3   2.6
+  64.3  94.6   3.1   9.5  73.   85.    3.3   3.    3.    9.5  66.9  49.7
+   2.    4.4  93.6   6.1   9.5   9.5  59.   68.9   1.2  85.6  62.3  93.9
+   9.5   6.4  58.   81.    3.  107.   98.7 112.4 114.2 117.5]</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>[  1.8   2.    2.4   2.9   2.5 354.9  10.    1.8   1.2   4.5   2.8   1.2
+   1.9   2.5 100.9 102.8   3.6   2.8   1.   10.    2.8   1.1 100.8 102.2
+  80.2  71.3   3.   74.   96.4  59.7   1.1  10.2 109.9  77.4   1.   84.5
+   3.3   3.4  81.9   4.2  76.3  82.4   1.3  94.3  86.8  87.1  70.9   5.
+   1.2   4.    4.6   2.4   1.8  64.7  87.6  81.8  91.3  63.2  75.4   1.8
+   2.    1.2   1.1  65.   67.1  77.9  77.7  79.3  10.    3.6   1.8   2.4
+  77.6  77.9   2.7   2.   67.2   1.8  78.7  83.9   3.6   2.   56.9]</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>[  5.    1.2   2.   55.5   2.    1.8  72.9  20.2  73.   81.7   4.2 100.5
+  75.9   1.1  80.8  72.7  85.   86.6   9.6   9.5  59.5  74.4   4.9  62.5
+ 100.   97.2  69.4  73.3  85.2  94.2  13.2  74.6  84.9  65.1  88.   94.9
+  80.4  59.4  92.8  90.3  82.2   2.5   1.   81.6  73.1  75.   82.2  79.2
+  67.3  83.3  84.1  59.5  76.3  76.2  78.1  75.2  95.4  96.6  69.5  93.3
+  87.6  76.5  86.8  50.    1.3  59.6  83.2  82.   76.6 145.1   3.4  77.8
+  84.3   6.6   1.2   1.2  75.3  83.9  75.7   7.7]</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>[170.8 241.2 234.1  72.1  63.4  97.6 105.2 224.9 208.7   3.    3.    2.1
+  82.   94.3  74.3  56.4   1.   86.7   2.    5.3   4.1  80.7  82.1  87.4
+  97.   82.7  77.6  80.6   1.3  56.5  60.3  63.5  86.1  77.8  79.9   2.1
+   1.2   3.2   1.3  56.7  85.1  78.    9.5   1.1   3.3  78.6 214.  186.
+  72.5  82.2   3.3   3.2  79.5   2.1  76.7  76.6 103.3  66.  144.5  97.8
+  85.6 144.5  82.3  87.8  87.7   3.  171.5 129.7   4.   82.1  95.  243.7
+  66.2  92.5 692.7 315.3 255.6 191.1  98.9 181.    1.   71.4 121.5  92.3
+   1.8   4.2 116.1   2.7   2.7]</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3994,20 +8194,185 @@
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>[2004.3 2072.1 2095.2 2093.3 2037.7 2041.4 2085.6 2077.7 2005.8 1996.7
+ 2040.5 2089.7 2044.4 2023.3 2039.3 2046.4 2016.9 2135.9 2036.1 2044.5
+ 2032.9 2035.6 2030.5 2044.5 1974.9 2067.3 2080.8 2060.7 2064.  2072.4
+ 2034.4 2042.6 2039.4 1989.2 2022.4 1976.  2126.1 2071.7 2043.2 2050.1
+ 2029.7 2026.2 2063.8 2057.6 2033.9 2072.5 1969.  2152.4 2094.4 2042.2
+ 2025.2 1993.  2018.6 2049.8 2043.8 2035.6 2063.2 1982.5 2100.1 2086.3
+ 2013.8 1991.8 1996.3 2013.5 2030.1 2036.9 2043.8 2067.7 2010.2 2045.4
+ 1976.4 1976.1 1982.6 2007.7 2006.4 2029.3 2059.6 2076.  2019.4 2080.5
+ 2009.3 2033.2 2055.2 2030.9 2050.9 2075.3 2063.7 2007.3 2050.5 2031.7
+ 2056.8 2082.8 2074.4 2034.4]</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>[1446.1 1430.8 1438.9 1454.1 1469.3 1421.6 1391.8 1391.7 1396.1 1409.2
+ 1439.5 1417.9 1399.8 1418.5 1404.1 1414.5 1413.7 1420.  1421.8 1429.7
+ 1433.8 1410.5 1401.  1392.6 1418.3 1420.8 1424.1 1429.  1442.6 1430.
+ 1416.6 1449.9 1422.9 1402.1 1406.2 1418.9 1424.2 1444.3 1464.1 1452.4
+ 1411.2 1420.8 1415.9 1431.2 1410.3 1411.6 1421.8 1424.9 1437.3 1432.
+ 1415.5 1427.9 1413.8 1410.7 1394.4 1400.  1418.5 1411.  1427.2 1439.5
+ 1426.7 1435.6 1431.8 1387.4 1400.9 1411.6 1408.4 1427.3 1445.1 1428.6
+ 1432.4 1434.3 1404.6 1417.8 1423.2 1420.8 1434.3 1435.5 1442.3 1423.5
+ 1424.8 1441.2 1425.8]</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>[ 975.   972.5  986.4  969.3  968.7  980.9  988.   983.   988.   994.8
+  988.5  993.2  989.5 1009.4  998.6  981.4  966.9  966.8  965.4  966.9
+  971.   962.4  967.5  998.6  980.4  966.1  978.8  976.5  966.5  973.1
+  976.7  986.   960.7  980.7  972.8  967.3  973.5  974.2  963.5  974.5
+  978.1  987.1  986.3  978.3  974.9  984.3  982.2  984.   966.9  974.2
+  985.7  986.3  987.4  974.9  978.7  996.2  972.8  979.1  973.   974.
+  981.4  988.   986.8  980.1  987.9  982.   971.4  981.   978.9  986.2
+  990.   991.2  990.6  981.6  986.5  980.9  986.7  975.3  989.4  993.8
+  994.1  989.2  994.7  983.2  983.5  990.8 1001.2 1012.5]</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>[702.1 717.6 718.9 712.4 709.9 721.2 717.1 717.7 695.3 695.  703.  701.5
+ 709.6 707.7 700.8 685.1 712.1 697.7 712.6 712.4 714.2 715.1 709.  700.1
+ 713.3 695.9 714.7 702.5 704.5 705.  711.7 708.3 710.9 704.3 709.6 706.7
+ 717.5 696.7 707.3 710.7 715.7 706.6 707.3 705.8 707.9 706.2 716.3 704.6
+ 712.  707.7 712.  699.6 700.8 706.  710.2 702.3 718.9 703.9 711.3 705.5
+ 704.3 701.8 712.  709.2 708.4 696.  720.  726.9 707.4 710.7 706.5 711.9
+ 713.1 712.8 697.2 711.1 707.6 707.2 706.5 703.9 712.7 706.7 703.  701.7
+ 703.7]</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>[499.  502.6 508.  510.1 504.  504.  495.7 509.4 496.3 501.7 497.2 497.5
+ 496.1 498.1 497.9 495.  487.9 504.1 500.  497.  497.  498.7 502.4 504.3
+ 497.7 496.2 500.1 505.5 498.1 498.8 497.6 501.1 499.3 500.9 499.7 501.1
+ 500.  502.7 497.6 498.5 500.3 501.9 496.8 502.5 500.4 503.4 499.2 500.5
+ 501.1 498.2 497.  497.3 493.1 498.7 504.  499.6 499.1 501.2 499.8 497.2
+ 498.1 499.9 495.3 496.  503.2 501.3 501.5 500.  497.9 499.4 498.5 499.2
+ 492.5 494.3 489.7 501.3 511.1 497.1 503.5 502.1 498.1 491.8 487.8 506.
+ 501.4 499.5 503.4 500.9]</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>[342.  344.7 353.3 351.8 355.9 355.3 355.7 354.4 353.3 352.9 355.1 356.2
+ 360.5 354.8 351.  350.8 351.8 352.6 353.8 354.6 346.6 353.  350.3 354.7
+ 353.1 356.  354.5 354.2 353.5 356.9 342.  354.8 350.  351.4 356.  356.9
+ 353.5 352.8 348.5 351.  351.8 353.7 357.1 349.6 351.4 355.7 354.3 352.
+ 351.6 349.4 350.5 350.7 355.  355.3 353.1 351.6 349.5 351.9 352.7 352.7
+ 349.1 349.8 349.8 352.3 354.3 353.8 353.2 352.  353.4 353.4 355.2 351.8
+ 350.5 350.  356.5 354.4 351.5 352.5 351.5 349.7 351.1 349.2 351.5 354.2
+ 353.3 354.2 353.4 353.  350.6 355.  352.3 352.1 357.  354.  351.5 353.4]</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>[253.1 254.4 254.3 254.9 256.8 255.1 250.7 250.  247.7 248.7 249.5 247.4
+ 246.9 248.7 245.4 246.1 249.6 248.5 250.1 251.5 248.6 249.9 248.9 249.3
+ 248.1 248.5 248.2 247.2 248.5 249.5 249.6 250.  250.5 248.9 248.7 248.1
+ 248.4 250.7 248.  248.8 252.1 249.6 249.2 245.7 247.8 248.5 248.7 250.1
+ 247.6 247.7 250.1 249.4 251.5 245.  247.5 248.5 249.1 249.8 248.6 246.4
+ 247.4 248.  250.3 244.7 247.8 248.9 247.  246.2 246.4 244.2 246.2 246.3
+ 246.7 244.8 249.5 247.  244.3 245.2 247.  247.9 246.2 246.1 250.2 244.8
+ 246.  247.6 246.2 246. ]</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>[178.8 178.7 179.4 179.4 178.  181.8 180.2 183.2 181.7 181.4 181.7 180.8
+ 422.3 180.2 182.1 183.  179.5 179.4 181.3 408.2 180.9 404.5 405.2 407.5
+ 178.7 182.1 180.4 181.9 184.9 415.6 414.3 181.1 401.1 411.6 179.8 180.9
+ 181.5 181.8 182.4 405.4 404.3 400.  423.4 434.8 178.2 178.3 179.6 180.
+ 179.  398.8 411.8 402.1 407.6 173.3 178.3 393.4 176.9 177.6 392.1 391.1
+ 396.8 178.7 417.2 172.4 176.9 423.4 399.2 418.2 412.5 395.2 421.7 177.1
+ 171.4 378.3 176.4 178.8 178.2 176.7 179.7 436.9 181.5 414.4 181.6]</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>[161.6 125.9 126.9 150.  159.6 165.1 161.  192.9 172.3 168.4 165.8 163.6
+ 169.8 158.3 165.1 183.7 166.5 165.8 165.8 166.8 165.5 172.8 172.9 166.8
+ 168.4 166.4 161.3 169.3 167.3 167.6 168.  172.5 169.3 159.1 167.1 166.4
+ 165.3 167.4 165.4 168.9 167.2 167.2 165.3 157.5 166.3 167.3 162.9 164.7
+ 168.1 166.5 168.6 167.4 158.2 155.2 168.1 163.6 158.9 166.2 169.2 164.5
+ 165.1 166.3 156.4 167.5 161.6 176.6 166.7 163.  164.1 166.2 164.3 167.3
+ 159.9 170.4 154.8 171.  159.6 157.8 161.1 161.1 158.1 149.1 170.1 166.
+ 160.2 160.6 170.  169.8]</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>[107.6 105.9  99.7  98.5 106.7  98.1  95.6 101.8 103.3 113.5 105.4 100.8
+  99.7 100.9  96.7 112.7  90.2 101.6 105.9 100.2  99.7  96.3 100.   97.7
+ 104.1  90.3 107.2  97.2  99.9  96.7  99.7 101.6 105.6  94.8  99.   94.
+ 109.6  96.5  95.7  97.8 104.7 103.7 103.6  89.8  94.4  94.2 109.  100.6
+  97.5 101.2 104.8 101.4 101.2  92.7  97.   88.8 110.7 105.9  97.   89.2
+  94.2  97.9  98.3  93.3 103.4  99.6 118.3  98.7  95.6  95.4  97.1  89.8
+  86.2 106.5  80.9 119.3  90.5  76.4  82.7  78.1  77.2   4.  123.8 107.3
+ 107.7]</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>[  2.7  74.2  69.    4.    2.4  78.7 110.6  99.6 102.8  98.5 101.8 109.3
+ 111.8   2.7  74.8  71.   81.2  83.2  90.7  67.2  89.9   3.1 100.2  88.7
+  83.7  91.   89.1  92.1 106.    2.9  91.9  88.   93.2  93.8  86.6  89.
+  84.5  79.2  96.1  92.4  90.2  62.   91.8  89.1  86.3  88.8  91.6  85.8
+  82.2  57.3  65.9  77.9  73.   90.1  80.3  66.1  74.   89.1  85.   76.6
+  73.4   4.5  95.4  84.4  96.6  83.6  76.9  76.8  90.9  84.1  72.8  76.3
+  62.5  81.2  90.4  85.7  77.5  73.2  74.8  75.2  78.   74.8  92.5  92.8
+  84.3  63.9  69.8  73.8  80.8  79.4  77.3  79.6]</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>[1.1600e+02 1.2010e+02 1.3270e+02 1.1980e+02 1.2000e+00 9.3300e+01
+ 1.2000e+00 6.0000e+01 9.3900e+01 1.3290e+02 1.4240e+02 1.5560e+02
+ 5.0000e+03 6.1200e+01 9.9900e+01 7.1500e+01 1.0650e+02 1.0670e+02
+ 1.2380e+02 5.0500e+01 5.3150e+02 9.6430e+02 1.3320e+02 1.0400e+02
+ 1.0290e+02 1.1370e+02 9.4300e+01 1.5320e+02 1.3240e+02 3.5150e+02
+ 1.1840e+02 1.1090e+02 8.9900e+01 1.0190e+02 9.9800e+01 1.0530e+02
+ 1.2030e+02 1.0050e+02 1.3590e+02 1.2000e+00 2.1350e+02 3.9590e+02
+ 2.1010e+02 8.1700e+01 8.1400e+01 1.0230e+02 1.0100e+02 1.2510e+02
+ 7.5700e+01 1.4550e+02 3.2000e+00 3.5000e+00 2.4030e+02 1.0575e+03
+ 9.6800e+01 9.5800e+01 9.9200e+01 9.8900e+01 1.1860e+02 7.0900e+01
+ 1.3860e+02 2.4000e+00 1.2000e+00 2.6520e+02 4.6000e+00 1.0930e+02
+ 9.9300e+01 8.9000e+01 1.0130e+02 9.6300e+01 1.1320e+02 9.5000e+00
+ 1.2000e+00 1.5750e+02 2.3310e+02 8.2000e+01 7.3000e+01 8.5700e+01
+ 9.4200e+01 8.3400e+01 2.0000e+00 5.9200e+01 3.7200e+01 1.1160e+02
+ 8.4800e+01 8.7300e+01 9.9800e+01 9.8700e+01 9.3800e+01 7.9600e+01
+ 5.5600e+01 8.1800e+01 7.7100e+01 8.7700e+01]</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>[  7.6   9.5 148.3 135.8 117.7 104.1 128.4 145.9  46.7  10.    1.3   1.2
+   3.6   2.1   6.    1.8 117.2  68.   71.9  86.2 101.5  89.6 112.1   2.
+ 125.9  80.5   1.2   2.   59.   65.1  93.9   7.9   7.3  76.7  53.8 126.4
+   1.3  92.   91.3  90.9  65.7  45.6  79.5  44.4   3.    4.4 129.2  94.8
+ 106.5  47.7  88.1  70.8   1.3  79.3  59.5   7.4   2.8  41.5  80.4  82.2
+  81.8  70.9  39.8  39.2  38.8  59.2   2.   35.    2.   55.   75.7   4.7
+   5.    3.2  58.5  74.7 104.5 107.6  39.1  71.3  58.9   1.1  59.2 105.7
+   3.3  76.    5.    2.    2.7   4.    2.7   1. ]</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>[230.  246.7 162.9 546.8  57.   74.   92.3   1.    2.5  64.9 152.1 174.8
+ 130.6 125.7 137.8 139.2 150.6 132.7 128.7   1.1 157.3 123.5   7.    1.8
+   7.    3.   73.9   1.2   5.    4.6 157.8   9.    1.8   1.1   8.   70.7
+  54.9   9.1   1.3   5.6   2.5 104.1   3.1   6.4   3.2   1.2  41.   57.4
+  42.1  74.   44.6   8.   86.3   1.2  88.8   1.2   3.    1.1   5.3  43.5
+ 113.6   2.3   2.  173.1   1.8   1.3   5.    3.1   6.4   1.2   3.2   3.7
+ 145.4   1.3  98.    6.    1.1 105.1 111.1  83.  106.9   1.  192.    1.2
+   6.4   2.8 102.3   6.2   6.  154.3   2.5 121.   90.   60.2]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -4115,20 +8480,174 @@
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>[1881.6 1877.1 1842.6 1889.2 1890.3 1845.7 1902.  1839.5 1875.2 1880.9
+ 1880.3 1864.  1890.1 1852.6 1870.8 1859.5 1819.2 1879.7 1895.3 1901.8
+ 1871.2 1860.2 1834.3 1890.7 1927.9 1880.9 1920.6 1890.9 1915.  1912.2
+ 1882.8 1890.4 1846.8 1900.  1893.6 1938.9 1866.3 1888.  1874.5 1888.3
+ 1870.3 1854.8 1883.9 1849.4 1854.  1918.6 1916.  1914.3 1913.2 1904.9
+ 1871.2 1853.4 1878.2 1920.  1866.8 1849.8 1905.2 1893.1 1921.5 1961.5
+ 1921.7 1843.  1862.2 1908.9 1893.6 1846.5 1900.4 1884.1 1952.9 1886.6
+ 1934.8 1869.8 1865.2 1859.4 1853.6 1909.5 1914.8 1893.9 1885.8 1913.3
+ 1900.3 1844.3 1904.  1933.5 1879.3 1844.1 1856.3 1860.5 1889.2]</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>[1390.1 1361.7 1384.5 1386.5 1380.3 1388.8 1340.7 1415.3 1349.7 1387.8
+ 1376.  1359.4 1366.6 1388.1 1402.9 1381.7 1390.6 1363.2 1384.8 1362.4
+ 1372.2 1370.1 1362.7 1363.4 1366.2 1402.5 1374.2 1371.3 1355.8 1361.3
+ 1352.1 1359.2 1360.4 1395.9 1374.5 1389.1 1364.4 1396.1 1371.3 1368.8
+ 1359.9 1414.7 1353.4 1383.5 1356.7 1385.5 1363.8 1400.4 1381.7 1390.3
+ 1363.5 1385.1 1355.7 1373.9 1362.3 1377.3 1367.8 1402.8 1395.8 1398.2
+ 1401.9 1380.  1366.4 1367.  1370.9 1370.7 1367.8 1394.5 1363.7 1376.7
+ 1363.1 1357.1 1384.  1347.  1360.3 1396.8 1376.7 1364.5 1379.4]</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>[ 974.4  968.2  956.8  952.4  953.8  960.1  983.9  955.2  953.2  965.3
+  956.   967.1  966.4  952.1  985.5  964.9  962.6  995.3  958.7  951.6
+  957.2  962.2  979.2  947.8 1000.6  953.2  993.8  970.6  949.1  976.5
+  972.7  959.7  993.7  970.   988.8  965.3  977.1  951.8  964.5  953.5
+  949.6  965.8  973.4  971.5  985.9  972.4  977.   977.9  967.1  978.8
+  961.5  958.6  959.6  955.8  989.4  978.   978.3  985.2  968.8  966.5
+  960.1  957.2  962.5  973.8  973.6  992.5  984.1  966.8  976.6  967.4
+  957.6  966.2  977.6  988.7  992.3  963.7  968.8  958.4  976.2  985.5]</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>[695.6 672.3 669.1 662.5 673.2 680.8 674.2 680.7 704.6 711.9 709.5 709.5
+ 700.  677.  673.6 706.1 707.4 694.4 676.8 675.4 677.9 697.4 712.1 695.9
+ 705.6 699.3 683.8 699.9 699.6 710.2 702.6 699.8 685.9 707.3 712.9 689.7
+ 711.8 704.6 698.7 699.4 694.4 709.9 710.4 688.7 701.  707.3 709.9 699.
+ 711.3 715.9 711.2 695.1 716.6 699.  694.6 712.8 701.2 714.1 698.7 702.3
+ 703.6 715.4 702.5 709.7 696.4 723.5 708.  715.9 702.1 726.7 699.1 717.2
+ 700.6 717.  712.6 703.  710.1 695.3 700.4 703.2 714.  707.6 715.3 706.9
+ 717.2 717.8 715.3 700.5]</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>[511.7 504.  499.1 500.2 499.6 512.6 510.9 505.6 507.8 512.  517.4 512.6
+ 503.9 507.1 513.7 500.3 511.4 507.3 501.2 502.7 507.9 512.2 503.8 503.4
+ 506.3 504.5 512.7 500.5 510.2 510.1 511.7 503.3 511.5 508.4 503.9 513.4
+ 507.1 508.9 502.2 499.8 504.7 505.2 506.2 517.  504.  518.2 507.3 510.2
+ 505.6 520.9 504.2 515.  507.1 519.  505.9 518.4 506.3 516.3 510.1 509.6
+ 507.  512.7 503.1 517.  509.4 511.3 513.4 510.4 513.2 513.  515.3 504.5
+ 504.5 512.7 507.8 520.  514.2 507.9 505.9 503.9 508.3 518.1 508.2 514.9
+ 518.1 515.1 515.1 514.8]</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>[343.8 345.1 344.6 346.3 350.  345.3 347.8 354.9 341.8 353.3 349.4 347.8
+ 349.2 349.7 345.8 341.7 348.3 348.1 353.3 352.9 349.4 354.1 350.8 355.5
+ 348.1 351.7 352.  356.3 357.5 352.1 353.3 356.5 354.4 351.2 350.4 348.
+ 345.8 346.3 348.6 358.5 349.6 355.7 356.7 354.9 354.9 349.2 351.9 351.6
+ 356.4 350.3 356.  354.  360.5 355.2 356.9 355.  353.8 352.4 354.5 345.4
+ 348.6 356.5 355.5 362.3 353.8 353.7 357.8 355.2 351.2 353.4 354.1 353.5
+ 359.1 354.6 359.8 350.4 350.4 349.2 349.2 349.  358.4 352.4 356.9 354.1
+ 351.1 353.  351.4 352.5 358.3 345.3 348.2 351.9]</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>[259.7 258.6 262.8 260.8 263.8 260.1 262.9 258.9 261.1 258.9 256.5 255.7
+ 258.8 263.8 264.9 258.7 261.  256.2 263.1 260.9 262.2 258.4 257.4 262.7
+ 261.9 257.5 259.9 259.5 257.3 253.3 254.4 258.5 252.9 254.4 260.4 258.6
+ 255.5 258.1 253.8 264.4 259.  257.  257.6 259.3 260.5 258.  255.4 254.9
+ 254.9 252.5 255.  258.2 251.4 260.1 260.2 256.1 260.2 255.2 256.4 260.1
+ 259.1 255.1 257.9 257.9 257.  252.6 258.9 252.5 251.7 255.6 256.3 258.
+ 254.8 254.7 253.3 256.1 257.3 258.9 253.4 253.3]</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>[193.  188.6 187.6 188.4 187.7 190.1 189.2 191.  189.1 189.1 191.5 189.8
+ 191.8 189.5 191.9 186.8 192.3 185.1 191.4 184.9 193.4 185.4 192.9 189.
+ 194.6 186.5 193.2 184.1 192.7 184.3 188.9 186.5 194.2 187.7 195.  189.
+ 189.7 189.3 189.3 191.4 189.8 191.7 189.8 189.1 189.2 195.6 186.7 613.9
+ 188.4 185.9 189.6 186.1 191.8 615.  188.2 650.  193.5 185.3 188.  191.3
+ 192.3 189.1 186.6 184.7 195.4 612.  193.3 187.3 185.2 185.5 184.  187.7
+ 195.5 539.7 611.4 188.3 187.5 189.8 603.7]</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>[218.8 205.4 198.5 193.7 199.6 217.3 217.  228.1 205.8 218.3 220.2 208.5
+ 206.7 218.4 214.  219.1 200.6 223.7 197.4 192.3 205.4 209.  204.  203.2
+ 214.  237.2 208.7 224.5 203.6 233.  192.2 218.1 186.9 206.2 210.8 235.1
+ 193.8 225.1 195.1 205.2 209.9 214.4 197.  205.2 211.5 224.2 202.3 210.3
+ 223.1 228.1 222.9 196.1 212.5 187.3 238.  194.5 210.4 203.9 193.  192.9
+ 198.1 211.1 194.8 199.  252.4 212.7 188.6 200.9 206.2 207.8 204.6 183.8
+ 191.9 233.7 228.3 224.8 193.6 189.5 190.8 134.6 211.  230.2 201.8 220.4
+ 218.5 214.7 215.3 200.1]</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>[136.3 146.8 141.6 139.1 148.5 145.2 128.6 146.7 135.2 138.6 145.1 131.7
+ 145.5 144.6 139.4 144.3 135.7 147.3 136.3 132.4 147.1 125.6 154.6 128.8
+ 139.2 139.7 138.2 134.2 135.7 133.6 138.2 130.4 145.1 136.1 143.8 132.5
+ 134.8 132.4 138.3 139.9 139.3 128.5 139.4 128.7 133.  144.8 124.5 139.3
+ 131.2 127.3 141.3 122.  140.6 129.3 132.4 137.5 138.7 132.3 131.  128.8
+ 121.9 131.4 134.7 130.8 147.9 124.2 121.2 133.9 127.4 124.9 114.2 122.6
+ 116.1 152.6 150.8 129.6 121.7 122.4 118.6 115.  129.8 146.2 139.8 140.1
+ 133.6 130.2 135.5 136.9]</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>[117.7 102.3 102.3 114.1 106.  144.4  97.8 126.9 108.4 104.4 106.3 104.9
+ 102.2 134.7 131.  107.4 112.7 105.2 116.2 115.  120.9 107.7 117.3 139.4
+ 123.8 115.2 108.6 121.1 106.5 114.9 105.3 118.4 111.  142.2 121.9 114.6
+ 112.7 123.  110.9 128.8 110.8 120.5 113.9 124.  139.8 126.5 118.7 121.3
+ 121.9 119.5 108.5 125.8 125.4 126.7 123.3 133.2 135.7 102.6 126.8 117.
+ 128.5 123.3 124.8 133.9 130.2 153.4 117.4 109.5 111.6 124.8 121.2 128.8
+ 122.9 109.6 133.5 134.2 136.3 114.7 114.4 124.7 120.9 120.1 132.4 139.3
+ 125.2 122.2 129.7]</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>[ 169.  1860.9  420.   145.   195.3  167.8  177.6  181.2 2513.  1345.2
+   98.3  191.7   15.   170.   157.2  153.4  124.5 1180.8 5000.   251.9
+  202.4    9.5  145.8  142.1  136.7  162.7  168.8  210.5   71.4  257.2
+  179.   134.9  130.5  161.7  131.6  133.3  145.3  132.6  137.7  159.4
+  153.   156.2  120.9  117.7  137.3  135.8  163.1  148.   126.3  138.7
+  126.1  134.9  159.   153.1  125.6  115.8  123.5  136.2  156.2  129.
+  131.2  128.3  140.5  171.   106.   131.5  131.8  123.4  133.1  124.5
+  155.2  110.4  139.6  156.9  134.1  124.2  144.9  105.8  130.5  147.
+  142.2  125.9  125.7  151.7  125.7  142.4  134.6]</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>[201.2 185.9 190.3 208.7 208.6 186.1 153.  146.8 157.9 151.6 173.6 207.3
+ 204.4 170.1 145.4 160.7 175.9 171.  175.2 162.3 146.4 208.4 156.  177.4
+ 169.5 152.5 157.6 157.6 185.  174.2 168.1 208.2 168.1 181.  154.  166.9
+ 171.2 180.1 167.2 169.7 196.1 165.2 200.8 174.4 152.4 154.9 177.1 139.3
+ 166.8 141.5 192.4 173.  190.1 197.3 227.3 162.6 168.9 156.1 168.4 138.7
+ 181.5 148.8 181.2 157.2 157.4 156.9 198.  147.2 174.7 162.2 154.3 173.2
+ 163.7 188.9 169.8 174.  197.8 167.3 154.2 172.6 167.8 183.9 180.9 174.6
+ 170.  176.1 178.1 168.4 168.9 172.2]</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>[223.1 210.9 217.8 288.5 237.2 224.6 263.2 263.6 220.3 292.6 408.2 219.3
+ 215.5 226.7 220.  188.4 238.6 215.6 250.1 299.7 186.7 255.7 162.4 354.6
+ 211.6 258.4 214.2 255.7 253.9 257.1 422.7 266.4 275.1 210.  250.8 192.9
+ 256.5 213.2 258.3 256.6 302.6 325.  347.6 259.9 292.1 276.8 286.2 253.5
+ 301.4 264.9 263.8 454.3 284.5 338.6 371.7 311.4 253.1 224.8 263.1 299.9
+ 207.  305.8 350.1 290.4 245.1 290.9 347.8 338.9 286.6 219.5 260.9 369.4
+ 293.9 470.2 343.8 270.9 242.7 218.6 251.2 347.1 381.5 229.1 314.1 436.2
+ 422.7 430.2 413.2 307.5 116.6 332.7 248.9 251.  122.3 119.9]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4236,20 +8755,178 @@
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>[1854.5 1894.4 1910.8 1923.8 1926.8 1848.9 1913.  1873.2 1906.2 1920.8
+ 1827.  1963.4 1827.8 1937.1 1891.1 1864.1 1905.2 1895.9 1866.  1911.1
+ 1883.5 1896.9 1878.8 1951.9 1928.2 1906.7 1870.5 1915.5 1923.4 1883.5
+ 1889.5 1946.6 1902.9 1910.5 1928.3 1924.5 1904.8 1876.6 1897.3 1923.7
+ 1893.3 1904.  1896.8 1916.2 1914.2 1910.9 1895.7 1918.  1911.  1896.5
+ 1947.4 1948.9 1930.3 1917.7 1940.5 1929.4 1936.7 1927.  1948.4 1908.6
+ 1890.9 1892.5 1909.6 1943.8 1947.5 1949.2 1917.3 1997.3 1925.  1932.4
+ 1895.4 1926.1 1913.3 1905.  1913.5 1940.6 1900.2 1962.7 1950.7 1895.8
+ 1896.1 1889.4 1855.8 1883.  1925.8 1900.6 1974.1 1928.6 1881.9 1914.2
+ 1970.  1968.1 1918.1 1946.7 1943.3 1938.7 1940.6]</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>[1293.4 1417.6 1400.4 1328.7 1342.2 1368.3 1311.8 1405.1 1375.6 1316.9
+ 1391.7 1408.5 1406.2 1411.9 1432.3 1349.7 1411.5 1336.9 1418.9 1374.1
+ 1392.8 1392.6 1376.5 1387.2 1317.4 1387.3 1354.4 1386.  1382.8 1360.5
+ 1401.5 1386.1 1390.4 1390.7 1302.3 1421.2 1360.9 1403.7 1394.5 1415.
+ 1381.8 1365.6 1384.1 1407.  1284.4 1417.  1374.9 1410.6 1376.8 1385.6
+ 1381.1 1416.9 1378.5 1398.5 1266.8 1399.9 1364.  1396.2 1376.2 1381.8
+ 1380.7 1372.8 1370.7 1404.2 1375.2 1382.5 1388.1 1411.  1384.8 1405.6
+ 1410.7 1389.8 1383.4 1415.3 1334.  1387.3 1386.1 1399.5 1399.1 1366.3
+ 1402.1 1336.4 1377.9 1389.5 1395.4]</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>[823.3 859.9 841.8 826.1 823.8 830.4 835.4 875.1 818.7 818.9 835.2 831.6
+ 836.3 825.3 824.9 904.1 830.7 839.4 847.3 844.4 848.5 858.1 856.1 855.1
+ 881.9 866.6 843.7 856.1 840.7 858.3 875.2 869.  846.4 870.2 934.2 848.5
+ 882.1 873.2 876.2 866.3 859.3 874.6 889.9 862.8 946.3 847.1 913.5 877.8
+ 893.3 863.5 907.1 855.9 898.4 874.  954.8 854.9 941.3 887.1 918.2 866.
+ 884.2 878.6 891.5 879.  961.3 859.8 919.1 887.2 901.  911.5 901.7 910.8
+ 868.6 900.8 903.2 870.6 931.5 877.2 887.1 889.9 877.5 895.1 865.5 874.5
+ 919.2 917.8 913.5 905.1]</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>[684.8 468.  453.  449.4 447.4 447.8 592.2 447.2 440.2 593.  439.2 439.7
+ 596.6 595.7 596.5 443.6 607.3 446.8 441.9 440.9 441.4 441.3 440.9 611.7
+ 446.3 621.4 446.7 440.9 439.1 599.1 600.2 437.7 438.8 439.7 620.1 595.9
+ 443.2 603.6 592.3 589.8 591.2 587.4 599.7 601.9 641.9 446.6 600.6 610.1
+ 611.3 608.5 611.3 610.2 598.6 607.7 643.3 590.1 627.1 619.9 621.  608.7
+ 609.2 617.4 620.3 626.8 651.3 605.  637.  617.9 626.7 624.3 632.1 624.3
+ 623.3 636.1 610.6 643.1 621.  647.  622.5 626.6 640.1 622.9 636.2 638.4
+ 629.7 645.5 643.1 622.7]</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>[444.4 427.3 418.8 420.2 421.  431.3 448.  422.1 426.7 437.8 447.8 442.3
+ 429.8 423.5 464.5 427.9 436.3 437.2 433.6 436.9 432.  441.8 442.8 424.9
+ 449.4 431.7 441.4 434.  450.3 451.4 448.1 435.6 444.1 439.6 435.7 449.9
+ 442.9 455.1 453.3 437.6 452.  457.5 438.6 455.1 440.1 474.6 448.6 463.7
+ 447.6 473.3 445.8 458.6 445.8 462.  445.  475.6 451.6 468.2 447.5 460.
+ 443.8 464.6 451.6 467.2 449.5 466.2 460.7 465.5 469.5 454.5 463.2 465.
+ 449.8 464.8 449.6 470.9 451.7 458.2 458.2 455.  452.3 462.  455.6 469.9
+ 464.7 460.4 458.4 467.8]</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>[324.3 313.8 307.1 303.5 302.2 335.9 315.  317.1 319.4 325.4 320.3 310.
+ 345.2 316.2 322.7 323.2 316.2 317.3 315.3 316.4 314.4 342.5 332.  322.5
+ 326.1 322.  326.9 327.  323.1 314.  317.6 310.8 358.  321.1 335.1 324.3
+ 334.6 324.3 324.7 324.8 325.1 317.3 322.4 363.1 320.2 343.2 325.3 335.5
+ 325.  341.2 321.3 329.4 320.8 332.8 359.6 323.2 337.7 331.8 338.5 325.9
+ 325.  326.2 332.4 322.4 326.4 342.  332.6 328.2 335.4 330.3 334.1 328.9
+ 332.5 328.4 328.2 319.5 344.7 326.8 330.  328.6 326.2 323.5 323.5 325.1
+ 323.4 338.4 324.9 327.6 329.6 331.4 329.8 320.6 331.3 321.5 316.3 315.5
+ 315.3]</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>[233.8 218.7 216.5 216.1 212.9 211.3 239.6 222.6 233.3 227.6 232.6 229.7
+ 229.7 221.  256.6 224.5 238.5 232.7 226.7 228.7 225.  223.7 230.7 223.3
+ 249.9 227.5 241.9 233.2 243.8 235.5 236.3 234.8 226.2 231.5 244.6 239.3
+ 243.6 240.1 238.2 233.4 232.1 236.7 231.2 239.5 243.7 245.5 246.2 241.1
+ 239.1 244.8 237.8 235.4 233.5 241.4 249.2 231.6 249.4 236.8 243.9 230.4
+ 234.1 240.7 230.  238.2 256.9 227.4 243.6 235.8 239.8 240.9 238.5 231.6
+ 233.3 230.8 243.2 229.9 238.3 233.8 230.4 228.2 229.7 231.7 237.8 227.3
+ 234.2 233.8 237.1 229. ]</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>[165.3 137.6 146.  156.6 153.8 151.  179.8 137.3 155.1 154.7 149.9 151.
+ 148.1 157.  177.5 162.2 147.3 163.6 156.  164.  163.1 158.  154.8 157.
+ 188.3 148.8 161.2 154.4 165.  158.2 156.4 165.3 158.7 168.2 189.1 148.8
+ 170.4 157.2 168.5 162.9 166.9 164.6 162.  170.7 186.4 157.1 165.6 162.2
+ 164.7 161.  159.4 165.1 160.2 168.  175.5 171.6 149.8 169.6 160.5 164.9
+ 164.5 161.2 164.8 163.5 185.5 155.4 155.8 164.5 160.4 158.4 155.3 165.
+ 151.  178.5 157.2 152.8 161.5 157.2 159.1 153.7 170.3 161.6 151.9 150.
+ 157.4]</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>[129.1 106.3 103.  107.9 105.6  97.8 144.9  93.3 118.4 108.9 112.3 112.4
+ 116.9 112.1 246.4 118.5 113.1 128.1 117.2 123.5 120.6 111.9 122.3 113.4
+ 247.2 103.5 131.7 114.6 132.  121.6 122.  123.2 114.  132.  244.5 103.4
+ 224.9 119.2 134.2 120.9 125.5 124.3 116.3 132.5 259.  104.6 207.  121.4
+ 132.1 119.5 122.6 122.4 115.7 127.2 263.  119.3 121.9 127.2 120.  123.6
+ 122.7 115.6 122.3 117.2 223.3 229.8 105.7 128.8 114.7 112.4 113.2 112.6
+ 119.6 103.4 240.3 128.7 109.3 110.3 103.7 105.3 105.6 107.3 218.3 132.8
+ 112.2 103.6 104.7 113. ]</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>[157.8 136.4 142.3 153.1 142.4 146.2 165.4 128.7 144.4 142.6 134.1 136.9
+ 136.7 151.6 165.  165.8 150.9 147.3 147.  158.6 158.8 154.8 139.9 150.9
+ 160.2 152.3 146.1 135.1 144.4 134.2 126.  150.4 134.5 147.9 168.5 137.9
+ 139.4 143.2 138.8 147.8 148.7 141.5 137.7 142.6 168.1 141.9 141.4 127.5
+ 138.9 127.6 125.7 137.6 127.1 138.2 161.  141.  144.5 134.8 136.9 140.9
+ 143.6 132.2 128.8 139.2 153.4 150.9 125.2 133.2 138.5 124.5 128.7 123.
+ 130.7 123.7 150.5 150.6 120.1 129.7 142.4 140.4 119.4 120.2 145.8 151.
+ 131.1 121.3 121.3 128.5]</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>[132.8 112.1 103.8 124.5 129.1  98.1 106.6 114.9 113.5 108.  107.6 141.7
+ 110.6 117.  119.3  98.6 107.7 104.6 110.2 144.6 127.2 136.4 108.5 105.
+ 107.  118.1 113.1 114.3 114.1 136.5 140.8 126.2 122.6 112.3 116.  111.4
+ 107.5 108.8 118.3 109.  138.3 140.1 127.  133.8 116.6 110.7 107.1 112.6
+ 116.6 122.7 116.7 153.8 131.7 135.8 109.9 128.  102.7 119.5 114.1 124.7
+ 118.8 125.7 189.4 119.6 144.7 108.4 125.2 121.1 119.2 119.  121.5 119.6
+ 114.7 145.2 132.  114.4 115.7 121.6 117.6 126.9 121.6 161.2 121.  133.3
+ 140.1 124.7 118.3 118.7 120.  110.1 126.1 137.2 135.7 130.4]</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>[ 250.8  137.3  172.5  151.5  168.1  174.5 1837.3  293.7  136.3  175.4
+   10.   159.6  150.4  159.2  722.9  283.5  179.1  176.2   13.   138.2
+  127.9  131.7  163.1  153.9  206.2  122.3  252.7  181.9    9.5  130.3
+  148.6  122.5  177.9  119.   167.3  150.7  170.8  149.4   13.   126.4
+  130.4  143.4  131.8  173.   138.5  168.8  150.4  146.4  143.3  143.
+  139.4  127.5  115.6  135.5  183.4  144.8  139.6  127.3  145.8  159.4
+  105.3  143.4  123.4  110.1  151.7  124.8  142.9  127.   143.1  149.
+  149.4  128.1  129.4  107.5  140.2  154.   137.2  129.4  136.8  156.2
+  172.3  140.8  145.1]</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>[172.3 176.2 162.6 156.4 173.2 195.7 177.9 149.9 159.8 171.4 153.4 154.5
+ 192.4 207.2 163.  152.9 174.3 173.  167.6 168.2 162.5 143.4 188.5 166.6
+ 188.6 164.5 168.7 183.4 162.4 172.5 179.9 165.4 234.2 174.8 188.9 156.3
+ 170.1 153.9 155.4 175.3 164.7 182.6 162.8 235.7 175.7 197.4 150.4 169.4
+ 143.1 183.1 148.2 180.7 176.3 178.1 161.6 233.4 152.6 168.9 141.2 160.6
+ 147.9 180.5 169.4 184.5 164.8 195.9 182.2 164.9 172.  177.1 187.5 179.4
+ 207.7 165.3 207.9 185.5 177.6 181.1 164.9 192.1 185.3 193.  190.3]</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>[207.7 230.4 248.  185.9 230.2 246.  187.8 177.1 172.  239.  215.8 225.3
+ 218.2 212.6 226.3 274.6 219.8 224.9 225.4 255.5 217.9 236.  233.3 203.2
+ 206.1 225.6 197.9 201.4 235.5 402.9 289.6 242.6 247.3 249.  248.6 236.
+ 244.7 207.3 212.7 272.6 453.5 288.3 290.1 244.3 273.2 206.2 192.8 240.2
+ 245.4 255.5 247.8 506.  305.8 257.3 255.4 245.7 250.9 268.7 244.6 284.1
+ 263.1 265.9 421.1 247.  260.4 252.9 226.4 216.2 240.7 278.7 207.7 320.3
+ 469.8 432.9 293.6 265.8 290.  319.9 263.5 249.  284.4 404.4 423.1 382.1
+ 299.2 277.6 280.3 362.  362.7 297.9 358.  396.  448.7 412.5]</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -4357,20 +9034,183 @@
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>[1925.8 1910.3 1978.1 1892.9 1918.4 1933.  1867.5 1947.6 1918.6 1843.7
+ 1862.8 1886.2 1893.8 1875.3 1869.5 1884.4 1879.1 1889.1 1895.3 1878.7
+ 1894.8 1876.  1903.7 1985.  1828.9 1837.4 1875.6 1891.1 1865.9 1892.4
+ 1906.5 1886.4 1889.3 1907.7 1879.2 1864.3 1886.4 1907.2 1926.4 1873.4
+ 1914.6 1867.3 1893.  1911.4 1911.2 1899.9 1863.6 1894.5 1860.6 1872.1
+ 1851.3 1882.3 1879.2 1879.8 1912.1 1928.8 1940.4 1879.8 1902.2 1890.3
+ 1916.9 1928.4 1908.  1909.4 1864.4 1837.5 1951.2 1882.3 1919.  1880.3
+ 1850.2 1841.3 1844.3 1914.9 1980.  1830.7 1934.7 1910.6 1815.7 1899.5
+ 1938.4 1904.2 1889.7 1883.5 1836.6 1951.1 2004.3 1895.6 1823.1 1805.2
+ 1839.2 1936.5 1794.5 1948.8 2025.7 2026.8 2002.7]</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>[1323.8 1346.6 1361.2 1340.7 1381.6 1371.5 1341.2 1351.6 1353.3 1349.7
+ 1328.5 1348.2 1329.  1343.4 1359.6 1333.9 1376.2 1351.5 1378.5 1371.8
+ 1378.  1357.  1348.8 1358.5 1350.6 1348.2 1360.8 1346.3 1338.6 1325.2
+ 1344.1 1326.1 1352.1 1356.9 1345.9 1353.4 1358.2 1345.8 1365.5 1363.7
+ 1372.2 1351.7 1363.8 1348.  1365.  1357.9 1355.8 1362.9 1325.6 1354.1
+ 1338.1 1335.1 1333.5 1330.7 1330.  1364.6 1370.9 1330.7 1367.  1333.9
+ 1376.9 1372.2 1368.7 1358.8 1356.  1340.4 1353.4 1346.3 1366.7 1335.5
+ 1369.1 1338.2 1326.5 1341.1 1341.6 1336.  1365.4 1341.7 1276.2 1371.5
+ 1348.8 1329.1 1400.1 1378.  1374.2 1361.2 1389.5 1318.4 1287.5 1377.8
+ 1366.8 1300.8 1322.2 1320.3 1319.6 1317.8 1362.1]</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>[ 964.1  936.6  943.1  963.3  948.7  963.   958.8  957.   967.3  966.6
+  971.8  976.   972.   982.3  929.8  976.9  960.5  977.   993.8  971.6
+  990.7  987.   988.   978.5  945.8  986.4  985.4  984.8  976.8  989.2
+  998.1  982.3  997.2  979.9  954.7 1004.1  986.3  993.5  984.5 1001.1
+ 1000.5  992.1  990.   993.6  944.   989.5  982.5 1004.   997.5 1004.1
+  988.8 1001.1  993.7  989.9  988.   982.3  998.8  992.1  983.6  996.2
+  997.7 1000.5  990.5 1020.2 1008.4  953.8  983.2 1004.7  992.5  995.9
+  991.8 1005.1 1017.6  984.3 1010.4  973.7  965.4  995.3 1000.9 1005.5
+ 1012.2  960.6 1009.  1015.7  959.2  973.9  973.8  961.9]</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>[452.  623.2 621.1 616.9 626.7 614.5 452.7 630.1 626.5 614.4 619.4 610.6
+ 612.4 624.1 628.3 602.3 631.  632.3 633.4 631.5 633.3 636.5 629.7 628.3
+ 616.3 629.8 627.7 634.3 630.3 635.  623.6 630.3 628.  642.8 612.3 633.6
+ 638.8 642.  636.9 646.2 642.5 639.1 641.5 642.8 629.  637.3 637.2 644.
+ 640.9 636.6 630.4 647.1 635.7 645.  666.5 612.4 656.4 644.8 640.2 659.1
+ 652.1 649.4 647.6 655.4 691.9 636.  631.5 668.5 659.2 650.1 642.8 655.5
+ 661.9 617.7 678.5 641.  618.8 647.5 662.9 665.4 640.8 617.6 682.1 683.6
+ 653.1 639.6 640.6 652.5]</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>[480.2 488.  490.9 496.2 487.  489.6 477.7 493.1 481.4 485.2 482.8 484.7
+ 485.6 482.  478.4 490.3 483.2 492.3 483.1 484.9 489.3 489.5 490.2 485.7
+ 480.  489.9 485.2 484.4 481.8 483.8 482.6 486.1 487.3 484.6 481.9 491.3
+ 481.2 486.4 484.7 484.6 487.1 486.5 482.8 483.8 481.7 488.5 485.9 487.
+ 483.8 478.1 482.1 483.5 479.7 484.2 481.7 484.4 479.8 491.  481.4 486.1
+ 487.4 484.8 484.9 483.9 487.2 484.6 486.7 486.9 485.5 484.5 487.4 479.3
+ 484.6 485.2 486.5 488.2 485.9 490.8 484.2 480.9 483.5 486.1 487.5 489.7
+ 482.9 484.3 489.1 489.4 481.9 485.2]</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>[339.1 339.2 341.2 340.2 340.5 340.7 349.2 353.3 357.3 352.9 354.  349.8
+ 339.7 351.8 342.7 342.4 336.2 339.6 334.9 341.6 340.1 347.2 340.8 351.2
+ 340.8 354.8 341.2 354.1 345.4 353.3 342.9 348.2 346.  342.7 352.2 336.8
+ 343.4 334.5 341.7 334.2 343.7 339.1 350.6 347.8 342.8 351.1 342.7 351.9
+ 342.8 353.8 344.2 350.8 342.2 347.  345.5 341.7 350.4 337.4 343.  336.2
+ 341.  335.4 346.3 339.9 346.5 343.2 345.2 341.1 348.1 345.7 358.  342.4
+ 352.4 343.3 351.  342.8 346.  347.  342.8 340.4 351.5 340.  339.9 337.4
+ 341.  335.3 341.6 339.8 351.4 341.2 346.8 353.  349.9 351.3 349.3 350.3
+ 349.2 350.4 337.8 338.9 342.7 342.8 343.1 342.6 344.3 346.4]</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>[247.4 246.  243.7 249.1 246.8 245.  247.3 240.8 243.7 238.8 241.1 239.1
+ 244.6 236.7 238.2 248.8 240.  248.5 241.5 248.8 241.  247.2 241.3 243.7
+ 239.7 249.9 236.2 242.9 235.8 241.  238.6 241.  237.8 244.6 240.  246.7
+ 242.1 248.6 240.8 247.4 242.2 245.9 242.3 246.2 240.3 245.8 238.5 243.9
+ 238.4 242.  236.6 242.8 237.9 243.4 240.5 245.6 241.9 246.5 242.  250.2
+ 244.3 246.8 242.5 243.6 240.4 244.6 241.  237.2 239.2 242.  238.1 239.5
+ 238.4 244.8 243.8 243.9 243.9 243.9 245.6 243.9 240.6 244.2 241.2 242.2
+ 240.8 239.6 241.  243. ]</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>[175.  170.8 167.4 163.7 163.4 165.4 175.1 172.3 164.6 178.9 179.2 178.6
+ 175.8 180.3 492.1 171.7 165.5 173.  172.4 166.7 173.6 166.3 170.3 175.
+ 176.2 155.1 177.1 170.1 182.9 176.2 180.1 178.8 180.  173.7 175.7 158.8
+ 174.9 167.1 173.  165.  168.4 164.  173.7 164.7 171.2 168.2 160.5 172.8
+ 172.9 173.4 172.1 180.  170.1 178.2 168.7 175.1 167.5 156.7 168.9 161.7
+ 164.5 161.  161.7 162.2 166.1 160.2 166.6 173.4 148.  161.4 166.  169.9
+ 167.8 168.9 168.9 165.6 165.3 151.6 174.5 147.7 159.9 156.6 155.2 150.5
+ 154.4 152.8 158.1 160.5 167.5 137.3 154.2 157.1 163.6 163.9 155.9 153.3
+ 142.8]</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>[114.7 117.2 120.6 117.  112.1 116.5 117.4 125.5 167.1 163.  169.6 167.3
+ 170.2 171.5 165.7 124.8 163.1 116.6 119.1 118.6 118.3 116.6 114.7 164.7
+ 119.2 123.8 111.5 125.2 170.3 171.2 122.6 177.1 123.2 154.2 118.6 120.8
+ 110.5 120.  115.2 121.4 114.6 117.  117.1 120.1 117.1 169.8 116.  175.5
+ 119.3 173.5 121.8 173.3 120.6 172.1 117.4 171.3 113.5 122.6 120.7 119.3
+ 116.2 120.7 118.3 162.4 115.3 124.1 150.5 124.1 120.7 176.4 168.7 125.7
+ 115.8 164.7 126.  118.7 161.8 117.3 117.7 116.9 114.1 156.1 113.  125.5
+ 113.8 164.4 163.2 117.6 160.9 109.4]</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>[ 97.2  89.2  93.4 104.1  92.8  98.2  95.8  77.8  77.1  74.4  83.5  62.2
+  86.5  64.3  84.3  84.4  78.7  92.7  83.9 103.3  79.  100.5  78.5  84.8
+  86.5  79.6  78.7  90.   65.6  92.9  74.8  89.   74.3  92.   86.2  95.2
+  76.9 103.7  85.3  99.6  79.9 101.8  69.9 105.8  88.8  86.3  76.4  86.7
+  79.6  76.1  71.5  99.9  66.8  94.5 100.5  87.5  98.3  73.4  83.7  90.2
+  77.7  91.1  81.5  79.5 103.1  86.3  84.9  84.   68.   80.5  74.1  71.7
+  79.8  89.6  98.7  93.6  96.3  84.9  81.   80.4  89.9  99.5  98.5  98.5
+  90.6  92.3  92.3  93.3]</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>[62.8  4.   9.5  1.3  6.3 78.6  3.  69.8  2.6 89.4 78.7 80.9 56.9 70.4
+  2.7  3.3  2.   7.9  1.2  1.2  3.4 48.2 63.2 52.1 56.2  1.2 88.1  1.6
+ 86.8 52.3 63.9  1.2 85.8  2.  75.3  1.2  4.   3.3  1.4  3.2 60.7  1.6
+ 64.1 92.3  1.  79.6  5.  91.2  1.8 97.5  4.2 84.7  5.1 77.8 93.8  2.
+  1.1  2.  72.1  8.  44.   2.  70.5  3.3 67.5 90.4  1.2 49.   1.1 88.
+ 57.  89.5  8.  82.6  3.2 92.1  3.4 62.7  2.7  2.4  8.   9.5  1.5 56.7
+  2.4 67.7  9.5  6.7  1.  61.9 73.  57.3  2.  63.4 70.3  2.   3.   2.
+ 82.5]</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>[  1.2   1.    2.    2.5  66.3  48.3  74.8  98.   46.4  60.9   1.2   2.8
+   1.    1.3   3.1   1.3   7.    1.2   3.1  84.7   3.3   3.6   3.1 108.4
+   1.   83.8   2.5  98.2   1.2 100.9   3.2  86.2   3.3   6.1   2.5  63.3
+   1.2   1.2   2.7  75.7 103.9   1.1  83.3   3.4 100.7   4.1  94.2   3.6
+  81.5   4.2  86.9  86.4   1.    2.1   1.3   1.8   2.8   6.5   2.1   1.4
+   1.   75.    2.7  63.6   2.1  51.6  88.8   2.   93.7  46.8  86.6   6.4
+  78.   54.   59.    3.3   1.    2.5   2.5   2.5   2.5   1.2   1.2   2.5
+   1.2  75.8   1.    6.4   1.8  89.2  59.4  91.5   1.3  62.4  64.8   6.4
+   2.5   3.    4.8   3.2   2.7  74.1]</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>[  1.6   2.4   1.2  64.2   7.2  87.2   2.8 113.9   2.4 107.9   3.1   2.5
+  98.8   1.9  73.6   1.1   3.1   3.4  60.3   3.1  47.1   3.6   1.2   2.6
+  90.7   6.7 105.8   1.1  91.5   2.   74.4 116.2   1.1 110.4   1.8  58.6
+   1.6   2.    2.7   2.7   1.8  61.9 119.6   4.   82.9   4.   94.    1.9
+  95.5  62.8 103.4  45.3  78.5   1.2   1.    3.3   6.4   2.8   3.1  56.9
+   3.6  62.    4.9   2.    3.3   3.8  45.4  63.7   2.5 102.2  70.5 103.3
+   1.8   9.5  92.4   1.2   3.    4.    1.3   9.5   1.    2.    3.1   2.4
+  51.6   2.5   2.7   7.3   2.4   1.2  10.   54.5   1.2   8.1   3.6   3.3
+   4.    1.2   3.2]</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>[  2.6   2.6   1.2   7.3   5.   52.3   1.1  78.1   9.5 144.8   1.2  13.
+   3.4   4.   95.5   2.    1.2   4.5   1.8   2.   90.2   8.    2.7   3.
+  51.1 101.4   9.1  68.6   1.8   8.6   2.8   1.5  66.3   4.2   4.9   1.1
+   1.9   1.1   2.   55.   58.1   2.5 112.3 133.9   1.8 132.2   2.7  79.3
+   2.  117.8   4.1  67.1   2.   66.7 141.5   8.5  49.6   3.6  89.    5.6
+ 105.8   1.3  63.4   2.1   4.    8.9   4.2 124.8   2.7  81.6   3.3 135.
+   1.9 112.4   2.6   7.    2.1   9.    2.   83.9   1.7   1.3   2.   99.
+   2.5  53.    6.4   2.8   1.6 119.9   1.1  57.6  57.7   1.2]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -4478,20 +9318,183 @@
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>[2399.8 2874.8 2327.3 2037.4 2407.6 2273.7 2266.7 2780.5 2262.8 2288.5
+ 2763.7 2258.5 2116.7 2266.  2081.1 2166.9 2329.2 2287.4 1831.6 2258.7
+ 2129.9 2563.  2002.6 2518.  2206.3 2607.6 2498.2 2346.8 2216.6 3071.9
+ 2295.3 1966.3 2329.7 2001.1 2359.8 2373.4 3256.6 2470.  2448.  2001.6
+ 2107.2 2201.2 2002.7 2236.5 2217.2 3446.3 2221.5 1704.5 2021.7 2716.1
+ 3285.5 2277.2 1828.7 2141.6 2339.5 2107.9 2349.3 1952.3 2246.  2216.8
+ 1786.9 2375.9 2459.9 1824.3 2334.1 2249.9 2407.  2752.7 1818.7 2335.6
+ 2583.6 1916.8 1957.3 1882.7 1588.9 2037.6 2643.7 2196.8 2006.1 2081.4
+ 1982.7 2480.2 2923.2 2121.4 1838.  2672.3 2259.7 2325.9 1680.2 2169.
+ 2201.9 1985.4 2590.1 1982.  1884.5 2185.7 2156.1]</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>[1456.7 1281.8 1419.3 1351.7 1622.  1385.6 1201.2 1248.3 1204.5 1288.8
+ 1365.1 1264.2 1457.2 1307.1 1352.4 1258.  1221.9 1304.8 1439.  1376.5
+ 1407.4 2070.  1990.  1315.8 1315.7 1319.1 1280.9 1282.  1318.1 1184.6
+ 1228.2 1297.9 1377.6 1377.6 1991.4 2236.6 1353.1 1335.  1358.1 1452.3
+ 1419.3 1240.3 1368.7 1394.  1317.1 2314.  1238.2 1356.  1331.  1398.9
+ 1397.5 1342.1 1220.3 1181.3 1253.6 1349.7 1247.6 1329.9 1399.8 1266.
+ 1268.3 1288.3 1344.5 1406.  1323.5 1228.3 1254.2 1455.8 1339.4 1452.5
+ 1343.  1302.1 1495.6 1442.7 1239.4 1303.5 1371.7 1422.7 2190.2 1295.9
+ 1399.7 1412.5 1344.  1300.6 1267.6 1316.7 1382.8 1367.6 1385.8 1378.6
+ 2025.8 1324.2]</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>[1000.6 1020.9  911.  1079.9 1047.5  976.6  978.3  970.5 1059.7  976.
+ 1022.4 1043.3  952.4 1047.9 1034.3 1024.6  995.6 1025.9 1044.7 1003.7
+ 1009.6 1005.4 1091.1 1091.1 1012.6  995.2 1091.  1052.5  928.8  936.8
+ 1005.8  986.8  999.1 1019.8 1065.5 1025.8  987.1 1034.4 1047.6 1073.7
+ 1044.1 1025.  1041.8 1047.5 1112.6 1071.2  993.7 1073.4 1070.2 1098.
+  963.  1052.3 1054.  1089.8 1036.8  988.3 1032.3 1045.6  977.2  985.2
+  996.9 1027.   991.4  990.   997.4 1002.2  960.9  996.  1017.8 1067.5
+  953.4 1027.  1034.8  966.5 1070.2  977.5  960.7 1013.5 1015.3 1014.2
+  954.5 1043.3 1010.8 1046.8 1049.9 1040.8 1051.6 1081.  1009.3]</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>[828.2 765.1 749.  754.7 764.4 760.6 769.4 615.  782.4 659.6 779.8 663.5
+ 761.2 798.1 785.9 755.3 771.2 777.6 832.1 833.3 623.  800.1 760.7 786.9
+ 816.5 804.4 767.9 749.6 681.6 635.5 643.7 835.6 791.6 769.  650.7 772.2
+ 803.  789.7 775.8 811.4 778.4 794.2 578.5 749.5 660.6 641.6 703.3 781.
+ 765.5 760.8 764.1 673.8 800.2 827.3 775.5 775.5 783.5 770.8 780.1 750.8
+ 754.4 825.5 773.  775.6 750.6 777.8 825.2 791.8 758.2 765.6 788.  789.8
+ 783.7 780.2 669.8 786.4 781.9 747.1 808.5 856.2 795.8 780.8 787.8 691.3
+ 663.6 814.5 799.2 780.4]</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>[493.8 526.7 545.1 544.6 545.8 489.7 547.8 521.3 524.5 535.6 525.7 536.5
+ 534.4 542.8 538.2 527.7 509.6 543.4 528.1 476.2 485.8 510.5 546.  582.
+ 518.  500.8 544.5 518.8 497.9 517.1 527.8 532.  545.6 521.7 514.4 474.2
+ 510.2 508.1 508.  551.  503.4 536.9 537.6 530.5 560.1 553.8 505.1 514.9
+ 520.  516.1 488.9 516.6 519.2 526.5 510.5 527.2 493.  513.9 508.5 544.6
+ 517.9 494.1 546.5 523.2 526.3 526.6 548.2 531.3 534.7 545.1 528.3 493.8
+ 540.6 529.4 507.5 526.5 540.5 522.6 502.6 505.1 475.3 530.7 495.4 492.8
+ 518.9 524.8 515.  509.2]</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>[360.3 375.  381.6 385.4 385.8 389.2 398.3 360.6 372.1 368.8 368.9 388.7
+ 393.1 410.4 351.1 327.6 374.5 412.3 408.5 362.8 400.  358.2 359.5 339.4
+ 356.1 374.3 367.2 421.9 367.9 365.  375.8 401.7 356.7 374.5 379.6 425.6
+ 361.6 366.7 371.2 413.1 377.7 400.9 367.9 361.9 339.8 387.1 387.5 364.1
+ 360.3 377.5 352.  359.1 369.1 368.  342.1 366.6 363.  354.2 363.5 347.
+ 364.8 365.7 352.6 389.5 352.3 356.7 368.6 401.1 378.5 350.9 393.3 389.5
+ 364.8 372.7 333.  385.2 381.7 324.8 347.3 321.9 378.2 347.6 346.9 388.7
+ 354.7 364.2 335.7 386.6 383.2 378.9 370.1 407.5 373.9 385.3 376.4 349.4
+ 360.9 388.7 396.9 412.9 376.6 366.9 366.4 348.1 353.1 338.4 328.4 330.6]</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>[266.1 279.4 271.1 266.9 265.4 277.5 269.  270.3 238.2 244.4 259.9 258.2
+ 252.3 285.2 288.1 261.1 280.  273.2 266.8 268.  269.  258.6 230.4 257.6
+ 257.2 228.5 270.  270.9 271.1 265.6 255.  259.6 252.5 271.1 250.5 293.6
+ 258.9 248.6 247.2 248.  292.8 260.6 257.4 277.  231.5 271.7 260.6 275.5
+ 256.2 234.5 277.3 268.5 259.  269.1 246.1 260.6 269.4 259.  262.1 262.1
+ 226.9 256.3 274.6 250.9 276.4 264.4 246.8 272.4 278.8 279.1 252.6 279.6
+ 257.7 264.2 291.5 271.5 260.1 255.  268.9 287.3 311.2 259.6 282.5 270.8
+ 263.7 274.  268.  251.1 247. ]</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>[202.2 199.8 193.2 178.  200.8 194.9 206.  213.9 189.4 193.  195.3 544.8
+ 215.2 188.2 187.7 443.9 162.3 187.1 178.1 208.1 209.4 202.3 199.7 183.8
+ 200.2 500.2 198.9 199.6 455.7 219.7 194.3 192.8 438.3 172.1 201.7 475.
+ 193.5 185.6 435.7 212.3 216.3 210.3 434.3 432.3 195.1 187.8 186.5 564.5
+ 386.8 180.7 224.8 199.6 177.8 205.4 209.7 193.5 345.  211.6 202.7 377.7
+ 189.3 171.7 182.2 594.2 518.9 183.8 196.4 214.3 195.9 184.9 198.6 195.4
+ 197.1 229.4 217.8 212.8 206.1 203.1 457.8 448.6 185.  195.4 205.3 206.
+ 501.6 484.2 201.6 198.2 187.6 176.8 194.9 197.3]</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>[104.1   2.1 152.  131.3 242.2 124.7 143.1 174.2 124.1 122.9  96.3 138.2
+  95.4 129.4 166.3 118.2 186.6 138.3 245.4 192.8 145.8 211.7 188.4 142.
+ 200.9  91.3 196.5 121.2 203.2 115.  133.3 154.4 208.  122.7 191.1  54.4
+ 196.7 114.3 141.4 137.2   1.8 234.6 202.  168.6 149.2  86.  139.3 108.6
+ 206.5 188.4 141.9 208.5 110.3 133.  160.3 145.7 173.  155.4 184.4 107.6
+ 249.3 124.3 140.8 154.8 139.6 166.1 135.4 106.3 110.9 132.1 147.4 111.5
+ 138.6 116.  113.  169.6 151.6 129.7 206.  217.  138.6 126.9 126.9 158.
+ 146.3 130.5 110.8 108.6]</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>[136.7 162.3 140.3 149.7 165.6 150.3 129.8   1.    2.    2.   64.4   1.8
+   2.  116.4   9.1  71.4 128.4 125.1   2.    2.9  95.4 135.6   1.8 151.1
+  11.  177.8 159.6 132.6  89.8 106.1  13.  149.    4.  130.2   3.6 188.3
+  84.1 149.7  80.2 124.8 116.7   2.    1.   92.7   1.3   3.3   4.1 141.9
+ 110.4  79.2 111.6   1.2 131.  139.4  87.6 152.3  85.  168.6 151.4 193.7
+ 115.6   3.4  19.  132.6   1.2 149.1 138.3   3.2   1.3  85.7 129.7   1.3
+  91.7 128.7  77.9 125.   96.9  78.1 113.8   1.    2.8   1.2  94.9 135.4
+ 128.9   3.    9.1   2.5]</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>[ 88.3   1.3  70.1  13.    1.8  85.5 114.8  12.3 109.3  79.8  94.4   1.3
+ 124.5   7.5 149.9   4.3   6.6   2.8 105.2 129.9  10.3 132.3 163.1 129.1
+ 121.2  65.3  94.3  11.1   1.2 121.    8.2 139.2  10.3   2.7   3.3   4.3
+  89.9  93.6 101.1 189.2  92.5  13.    1.3   2.5   2.5   3.2  11.    4.
+  90.4  10.  132.1 130.4   1.   11.  174.1   1.1 106.7 136.2  71.6 137.4
+   2.4  10.6  99.2 137.    1.9  74.2   2.7   4.  104.7   2.7  12.3   1.1
+ 108.5  11.    1.2   1.3   1.8 123.9 164.3 131.6 122.8 131.3 114.1   1.2
+   1.3   4.7   1.3  11.  120.8 150.7 114.9  56.8   1.3   4.    5.    2.7
+  11.  116.6 148.7]</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>[110.8   2.7 169.  145.2 142.3   3.6 124.7   2.7 203.1  11.    1.8  95.6
+  11.  163.4   2.7 129.1 116.3 172.3  11.    1.3 131.5   1.8   3.  136.5
+   2.9  83.2 114.1 111.9 100.  148.8  82.5   2.    8.  120.4   2.4   2.
+  87.  116.7   1.3   5.    2.4   1.4 108.6  85.7  12.4 130.4   2.5   6.9
+   2.1   4.    1.3 104.3   3.2   2.   84.8  12.4 107.8   2.7   2.4  62.2
+   3.2 108.3 130.6 121.8   2.  105.9 134.  132.8   1.2   5.    3.    2.4
+   1.8   2.    4.   20.    1.8   3.5   2.   95.8 103.  155.4 120.4   1.9
+  13.  123.8   1.3   2.4   6.3   3.4  82.6 126.1 103.6  10.    1.2 111.
+   1.8   1. ]</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>[ 12.3   1.8   3.6   2.5  99.7   3.    3.4  96.5 226.1 162.5   1.6  91.8
+ 104.9 247.4 122.9   2.    1.8  10.  152.8   1.    1.  125.5 133.9 212.4
+  80.2 140.8   4.  212.    5.6   2.8 161.6  94.7  92.3  86.3   1.8   7.6
+ 103.7  11.   99.8   3.    1.   11.  184.2  93.1   1.8 128.2  68.7 115.1
+  99.7   2.    1.2  79.5   4.2 201.1 206.2  10.2 115.9   2.    3.2   1.9
+ 208.8 177.7 143.4  19.  134.2   1.2   1.3  55.5 117.   75.6 132.8  71.3
+   1.6   6.1   1.    1.6   3.2   2.7 147.1  88.6   2.    1.   94.7   4.8
+  12.4 186.5   1.1   2.7 154.5 100.   89.7   3.1  75.2   2.7   2.8   2.
+   1.8]</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>[  5.    2.7 243.9   3.  128.5  13.   10.9 211.8   4.7   2.   11.6  75.9
+ 338.1 316.2   2.   84.6 145.7   5.9   2.   12.3   2.   11.  112.1   1.8
+  93.9 123.4   1.2   8.   87.5  83.    6.    9.3   1.   94.1 238.4 259.5
+  61.1  12.3 123.9   3.  135.3   2.2   3.   10.2 244.5 157.6   3.2 137.2
+   2.5 296.3   2.  132.6   1.8   1.2  13.    2.    1.2 321.2 126.8   5.
+   3.    8.9 111.3  12.6   2.7  94.2   9.1 379.4  99.4 267.6 330.2   1.8
+  11.2 139.1   4.  266.    3.    4.    2.7   5.  140.9   2.3  20.  399.8
+ 116.3  71.1 169.7  10.2   8.8   2.7   4.   12.    3.1 201.9]</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4599,20 +9602,177 @@
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>[2336.5 2248.5 2771.3 2231.6 1830.  2344.1 1990.  2126.8 2653.6 2060.
+ 2048.1 2328.1 2519.8 2205.  2185.7 1924.  2065.7 2267.4 2236.4 2155.2
+ 2102.8 2179.8 2342.6 1911.4 2372.8 2132.7 2242.9 2070.2 2208.9 2213.9
+ 2538.  2224.2 2122.3 2269.7 2154.9 2165.4 2358.1 2555.  2354.6 2383.8
+ 1929.3 1858.4 2252.  2108.6 2150.7 2167.5 2381.2 2289.4 2045.8 2187.4
+ 2326.8 2235.6 2121.4 2079.6 2072.2 2118.5 2025.4 2073.4 1950.9 2084.6
+ 2070.9 1807.4 2386.9 2444.5 1879.9 2134.6 2358.4 2214.4 2215.  1936.1
+ 2089.5 2197.7 1868.4 2087.  2105.1 1723.4 2325.7 2279.4 2030.8 2232.6
+ 2069.9 2015.6 2032.6 2276.2 2303.5 2196.7 2202.1 2198.8 2132.9 2009.8
+ 2455.5 2241.6 2797.3 2461.2 2118.2 1975.3 2095.7]</t>
+        </is>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>[1531.6 1361.2 1532.1 1861.2 1406.6 1354.8 1836.2 1303.7 1544.2 1443.8
+ 1576.9 1540.2 1513.6 1481.6 1370.9 1340.2 1330.5 1479.9 1483.1 1500.1
+ 1382.6 1497.9 1473.7 1401.2 1391.3 1445.1 1362.6 1476.3 1565.6 1427.1
+ 1446.8 1512.5 1333.6 1350.9 1408.9 1414.5 1415.2 1431.  1479.3 1353.9
+ 1400.6 1468.7 1444.2 1456.6 1423.  1903.2 1488.5 1363.5 1469.6 1527.
+ 1408.2 1411.  1507.  1457.9 1338.9 1396.2 1338.3 1353.5 1432.4 1533.5
+ 1375.1 1410.6 1392.7 1300.6 1340.4 1376.9 1366.7 1466.2 1386.  1421.7
+ 1397.  1416.9 1403.4 1415.5 1283.5 1353.7 1491.8 1398.1 1423.7 1457.6
+ 1595.6 1492.  1393.3 1355.6 1444.4 1377.3 1483.5 1438.1 1413.6 1447.9]</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>[1010.8 1080.8 1062.6 1028.  1005.1 1017.9 1046.4 1021.1 1049.7 1084.2
+ 1019.1 1013.5  994.3  955.4 1057.1 1016.9 1009.  1021.7 1058.4  988.
+  983.  1073.5  979.1  978.9 1026.5  967.3 1030.1  997.6 1051.3 1006.6
+  967.4 1061.8 1031.1  991.1 1005.9 1018.7 1060.9 1016.4 1021.5 1009.
+ 1013.8 1026.4  968.   944.5  978.3  990.5 1017.1  996.3 1039.5 1020.8
+ 1009.8 1059.6 1036.9 1029.2 1047.2 1053.5  993.3  996.  1066.9 1018.9
+  989.9 1058.4 1052.5 1072.3  988.9 1020.9 1040.6 1039.3 1030.8  981.7
+  989.1  982.6 1013.3 1012.3  999.5  996.7 1021.6  997.2  988.1 1026.7
+ 1020.6 1033.2  990.4 1051.6 1026.7  987.4  967.5  973.9  981.8  997.7
+  999.3]</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>[749.1 744.4 768.6 786.9 777.3 766.7 776.7 780.8 779.4 783.3 800.  787.3
+ 706.7 765.8 780.  767.7 792.9 797.3 773.6 776.2 760.7 754.1 771.5 771.3
+ 768.3 772.8 771.8 717.3 769.6 781.4 755.2 773.1 769.1 764.8 771.1 779.8
+ 751.  780.7 791.9 799.8 789.2 751.9 784.  745.2 761.4 799.  780.2 758.7
+ 764.9 789.7 767.8 673.4 813.5 763.2 747.7 790.8 760.8 741.  771.1 763.8
+ 782.9 768.1 799.3 754.  752.7 683.6 740.1 762.9 783.1 773.  773.6 797.3
+ 770.7 764.3 759.  792.  770.8 743.6 766.  773.9 765.2 779.8 750.7 750.6
+ 757.2 778.6 778.3 771.1]</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>[554.9 553.1 528.3 529.1 538.5 529.9 531.  528.7 532.6 534.  507.1 515.2
+ 541.4 550.4 556.2 525.9 517.7 540.9 530.8 536.1 562.2 544.1 547.4 523.8
+ 542.8 558.6 534.2 534.6 580.1 535.6 503.3 525.5 525.6 541.1 540.5 533.9
+ 557.8 548.6 562.5 544.3 519.4 537.7 541.  510.8 524.2 521.3 531.9 569.9
+ 522.3 539.2 535.7 568.5 541.1 522.9 533.4 543.8 541.5 538.6 542.7 530.3
+ 537.2 512.8 529.3 514.2 529.2 561.  516.4 543.5 540.5 529.8 564.4 524.4
+ 521.6 519.1 531.  546.6 518.5 537.4 540.8 542.2 531.1 521.3 523.9 532.8
+ 558.7 524.4 524.4 549.4 542.9 535.2 559.4 546.9 537.8]</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>[360.8 359.3 366.8 368.5 383.4 360.2 364.2 368.7 380.1 373.4 377.1 384.9
+ 361.1 383.7 377.1 355.2 397.2 385.9 378.7 387.6 372.7 375.1 382.2 393.
+ 376.5 375.3 386.9 403.2 391.4 358.1 358.4 369.5 368.1 390.4 380.4 381.
+ 381.2 382.6 385.8 381.9 375.5 385.8 368.7 375.8 370.5 392.3 397.  378.7
+ 373.4 388.  379.2 382.5 383.4 414.1 376.5 383.6 369.4 381.3 393.3 379.
+ 381.3 385.  363.2 384.9 376.9 376.9 376.7 370.3 382.  376.8 369.2 370.
+ 384.6 379.8 381.  372.2 360.2 363.8 393.3 366.9 378.1 378.  376.5 375.2
+ 370.6 368.5 383.5 394.3 387.9 365.5 364.3 347.  376.3 363.9 369.4 382.8
+ 383.9 365.4 360.3 399.  381.3]</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>[265.2 270.3 263.3 267.3 272.2 272.8 267.1 266.4 268.3 261.8 267.  261.3
+ 259.8 269.  270.3 272.1 276.1 264.8 267.  266.6 275.2 271.8 268.3 262.2
+ 262.1 262.9 271.  260.4 259.3 267.9 267.  259.9 263.5 272.1 261.3 258.6
+ 271.3 266.6 266.1 257.4 259.  261.3 263.9 272.1 266.2 267.6 265.1 260.7
+ 263.2 261.7 257.6 260.4 262.9 274.3 266.5 263.9 264.9 262.9 269.3 266.7
+ 257.6 258.3 256.6 252.5 266.9 275.6 261.4 267.6 257.7 274.9 270.9 269.1
+ 257.8 271.9 273.3 273.3 270.4 255.9 263.9 266.2 265.4 275.4 264.6 257.1
+ 262.4 264.8 264.9 271.3 264.9 269.4 258.3]</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>[200.6 205.5 192.4 199.5 196.2 197.9 200.2 200.6 198.1 198.6 198.9 198.6
+ 197.7 196.4 196.6 193.7 191.6 191.1 202.6 206.6 199.7 196.5 194.3 194.1
+ 200.6 193.8 194.8 201.8 202.1 192.4 195.6 193.8 191.3 195.1 203.6 198.2
+ 193.5 201.1 194.1 198.5 202.9 193.7 196.4 196.4 196.9 195.5 199.2 201.2
+ 194.4 200.9 206.3 193.3 198.7 202.2 193.5 188.6 203.2 196.3 203.5 192.
+ 196.3 193.3 190.8 196.  195.  200.8 212.  194.8 201.3 205.4 198.5 195.7
+ 199.1 203.4 201.4 201.5 198.9 187.  190.9 196.6 201.2 195.4 192.7 197.3
+ 207.7 195.7 195.8 196.3 193.4 198.7]</t>
+        </is>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>[135.4 137.6 144.2 146.6 149.3 141.2 135.9 138.5 144.6 137.  135.7 132.6
+ 137.8 135.6 134.7 138.1 140.5 136.3 139.4 134.1 144.3 134.7 141.7 134.8
+ 136.3 138.7 139.5 141.7 133.7 136.9 139.7 137.5 138.9 139.9 136.4 135.4
+ 133.7 139.4 144.  137.1 135.4 139.2 135.2 135.6 142.1 134.  146.  136.5
+ 141.2 137.  137.  138.8 131.5 134.8 134.7 137.9 137.3 134.7 136.2 138.
+ 139.4 137.8 139.5 140.9 141.8 134.9 148.  146.8 137.4 145.1 132.5 145.7
+ 134.5 133.  136.  133.6 137.1 139.2 140.7 125.8 135.3 142.4 150.5 143.6
+ 145.8 148.  145.1 155.  132.  135.  136.5 136.8 136.1]</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>[ 97.4 104.6 104.5 101.8 102.5 105.2  97.  105.2  95.  101.4 105.7 102.3
+ 101.2  99.7 104.1  95.6 104.5 102.8  99.3 100.7 103.7  97.4 103.   99.9
+ 103.9  97.1 101.  100.7  93.7  92.8 104.  102.5 101.5  98.6 101.3 105.
+ 105.1 101.3 103.4 105.1 106.  104.  104.8  98.1  98.8  98.7 101.9  95.2
+  99.3 102.1  98.6  95.7 104.5 102.9 100.7  97.3 103.3 104.2 105.2 104.
+ 102.9  95.  103.7  95.4 102.9 103.2 105.2  98.8 102.  104.9 101.8  98.1
+ 104.3  99.3  98.8 106.2 103.6  94.3  94.2  99.  101.4 103.5 102.2 104.2
+ 101.5  98.5  96.2  97.6]</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>[68.3 66.5 68.5 73.5 73.3 74.2 73.4 68.7 69.9 75.8 68.8 76.5 69.  77.2
+ 73.2 70.8 68.1 67.7 72.6 71.9 70.7 73.6 75.6 71.8 65.9 73.7 66.  75.9
+ 72.2 74.9 72.1 78.4 67.7 67.6 76.2 70.6 68.8 69.2 73.6 74.6 80.  71.3
+ 69.5 75.7 75.2 75.9 74.1 71.6 67.  73.6 68.8 76.2 69.3 74.8 70.5 73.9
+ 73.2 70.7 73.1 77.1 68.8 73.7 74.  71.  77.6 72.3 74.2 64.1 73.  77.3
+ 73.5 73.6 71.4 76.3 74.7 68.9 74.1 77.3 66.7 72.3 73.  66.9 73.4 69.8
+ 73.4 72.  74.5 78.3 76.5 81.9 76.4 73.1 70.7 73.  64.9 72.6 74.6 69.1
+ 71.2 76.4]</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>[53.7 52.5 52.3 50.6 52.2 51.  50.9 52.3 52.7 53.1 50.3 53.5 52.7 52.3
+ 52.  52.6 52.  52.6 48.3 49.8 51.7 52.9 54.2 51.3 51.8 50.1 52.7 51.2
+ 53.8 53.6 51.5 51.8 54.2 52.6 52.6 50.6 54.  50.7 52.9 51.7 50.4 53.
+ 50.  50.4 53.5 51.6 51.4 55.5 50.6 51.3 50.  51.3 53.2 51.4 52.5 52.7
+ 52.  51.6 53.8 53.2 52.5 52.9 52.1 50.3 49.9 53.5 50.2 52.1 52.9 50.7
+ 52.  52.4 51.6 50.8 50.  54.5 52.4 53.2 51.6 51.5 49.2 52.9 51.9 50.3
+ 52.5 52.6 54.6 52.8 51.9 51.  52.8 51.9 53.1 53.5 49.1]</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>[39.8 40.3 39.9 38.9 31.8 38.9 34.2 41.2 39.1 40.5 33.7 39.4 39.2 39.5
+ 39.4 31.3 39.8 32.7 33.5 39.7 32.9 39.2 33.3 35.  39.7 40.3 40.3 39.9
+ 38.3 31.6 39.1 33.8 39.6 39.2 35.3 40.  34.5 33.7 40.6 40.2 33.2 39.
+ 34.2 35.3 40.1 33.5 39.7 38.3 39.1 34.1 41.8 33.9 39.6 33.9 35.5 39.1
+ 39.7 38.7 32.9 38.6 38.9 39.3 35.4 39.7 39.7 34.1 32.7 37.9 31.7 32.6
+ 39.3 40.1 40.4 39.9 39.3 41.3 31.8 34.9 39.8 32.4 32.8 34.8 37.5 37.9
+ 39.8 31.9 38.9 39.7 32.3 37.5 38.9 39.3 39.  32.5]</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>[25.7 27.6 27.9 27.9 29.4 26.3 30.9 27.6 28.4 29.5 27.6 26.1 26.2 26.9
+ 29.  24.5 28.3 26.2 26.8 28.2 30.6 27.7 27.4 29.1 26.9 26.8 30.2 26.7
+ 27.5 26.4 27.6 29.3 28.2 28.2 27.8 25.9 26.5 28.2 28.4 27.7 27.9 26.8
+ 27.3 28.8 27.9 25.9 27.7 27.8 27.2 26.8 27.4 29.  28.1 28.  27.8 26.3
+ 26.4 28.2 27.6 24.9 27.3 27.9 27.2 28.6 28.  26.7 27.8 26.2 26.5 25.9
+ 27.4 27.5 29.4 26.3 26.7 28.8 28.4 26.7 27.8 27.  26.8 28.5 27.1 25.9
+ 28.1 27.8 26.8 27.2 27.7 28.3 28.  29.1 26.9 26.2 26.7 27.8 26.9]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4718,20 +9878,176 @@
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>[1813.8 1698.3 1719.  1734.1 1684.5 1728.3 1689.5 1862.9 1944.3 1923.4
+ 1928.4 1815.4 1664.8 1513.9 1579.  1669.2 1802.6 1903.8 1772.9 1746.9
+ 1717.8 1744.2 1923.6 1985.6 1811.3 1625.8 1512.9 1539.2 1751.5 1712.9
+ 1710.9 1719.9 1692.6 1777.7 1923.4 1990.1 1936.3 1703.2 1883.5 1987.8
+ 1869.3 1883.4 1596.7 1552.4 1694.  1587.  1807.9 1746.6 1760.4 1905.3
+ 1789.8 1638.1 1598.1 1846.3 1751.3 1552.7 1802.4 1702.9 1706.7 1776.1
+ 1732.8 1679.5 1661.6 1812.6 1766.7 1751.3 1756.4 1622.6 1822.  1743.3
+ 1950.4 1758.5 1745.8 1655.1 1686.6 1748.3 1578.8 1708.2 1578.2 1843.6
+ 1688.2 1561.4 1955.9 1762.4 1637.9 1581.2]</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>[1294.8 1305.  1225.8 1260.4 1359.9 1358.8 1249.7 1274.5 1317.6 1235.9
+ 1242.5 1262.4 1307.2 1294.1 1253.7 1251.  1246.3 1239.4 1289.4 1326.
+ 1263.3 1309.7 1314.3 1300.2 1270.1 1309.2 1308.  1297.  1324.6 1318.8
+ 1308.3 1294.  1265.6 1310.5 1289.  1297.6 1253.2 1299.  1378.2 1273.8
+ 1275.9 1253.9 1233.5 1342.8 1288.9 1346.1 1342.9 1341.  1428.9 1284.
+ 1272.9 1285.3 1260.  1339.6 1231.8 1260.  1296.9 1262.4 1305.8 1266.7
+ 1267.5 1296.1 1336.1 1327.8 1303.7 1259.8 1249.2 1223.6 1278.7 1314.5
+ 1290.3 1294.3 1315.6 1263.7 1292.4 1270.2 1270.3 1323.7 1347.6 1328.6
+ 1275.8 1241.  1243.5 1259.6 1301.3 1269.9 1307.4 1277.1]</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>[942.9 918.5 922.3 931.8 889.3 911.3 933.8 905.1 896.2 922.4 931.6 905.4
+ 938.4 935.9 872.6 919.  886.8 909.6 940.  936.7 897.9 920.  944.8 945.4
+ 880.8 899.6 881.4 904.6 891.2 890.  884.1 910.  943.2 914.9 918.8 865.2
+ 857.7 900.6 902.9 932.2 938.5 936.2 932.8 911.6 890.6 885.5 934.1 922.7
+ 910.7 918.7 921.1 925.3 930.9 946.2 914.  923.4 945.7 905.6 908.7 906.2
+ 918.7 905.4 901.6 917.7 932.2 890.4 915.3 921.6 923.6 911.1 922.8 926.8
+ 935.5 932.8 881.1 932.8 928.7 925.8 916.1 915.6 906.2 935.9 940.3 867.5
+ 900.1 941.  946.6 895.1]</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>[659.9 670.1 663.3 665.5 658.4 672.9 677.2 715.4 727.8 659.4 676.6 657.3
+ 661.8 669.1 669.5 685.6 690.4 667.  651.  678.5 664.  654.3 689.2 667.5
+ 657.9 669.5 672.4 671.2 674.7 654.1 665.1 674.  668.9 657.5 659.9 659.7
+ 654.3 665.5 659.4 652.  669.7 662.9 629.4 647.8 674.5 666.1 659.3 672.1
+ 667.3 662.5 668.  654.8 652.1 671.4 726.8 662.  665.  671.8 680.  688.3
+ 663.4 645.  667.4 680.3 701.6 649.2 672.  663.7 665.8 678.1 660.2 653.8
+ 662.5 651.1 661.2 651.6 641.7 655.2 669.4 666.9 659.3 665.6 676.3 662.4
+ 649.  656.8 661.4 649.8]</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>[483.5 477.7 479.2 474.9 468.2 469.3 485.6 479.6 484.4 486.9 477.5 478.5
+ 477.8 479.4 474.7 485.9 468.6 481.3 480.7 466.3 474.9 476.6 475.8 469.3
+ 479.6 479.9 470.7 471.9 483.  484.  486.1 485.2 485.2 467.8 473.5 475.
+ 483.9 470.9 473.8 477.5 473.1 474.  486.  483.3 469.6 471.1 476.1 469.4
+ 474.3 475.9 476.  475.6 483.1 480.4 470.8 476.7 475.3 470.3 474.5 471.5
+ 482.5 488.1 476.  462.9 473.4 482.2 486.7 478.4 472.6 457.4 465.7 487.4
+ 474.9 475.6 470.3 476.4 469.3 476.2 473.8 472.9 487.6 474.3 472.  475.
+ 474.6 472.4 472.6 471.9]</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>[353.7 338.3 333.4 339.1 354.2 335.8 342.3 329.9 331.7 345.3 354.8 361.
+ 351.7 338.8 324.5 350.1 356.2 346.9 337.6 324.4 324.6 340.7 339.6 350.6
+ 357.5 342.6 341.7 336.6 349.9 330.1 332.5 338.5 339.9 340.6 330.1 337.6
+ 357.1 349.  347.6 340.1 345.4 337.3 339.6 338.8 341.8 345.3 342.8 333.5
+ 349.7 346.3 357.7 345.5 338.7 335.7 336.4 337.8 341.1 342.1 340.6 339.6
+ 346.1 343.6 336.6 345.1 344.2 339.2 344.4 346.5 350.4 345.8 342.8 327.2
+ 327.4 332.3 338.8 346.5 346.2 333.9 323.1 333.4 340.5 339.5 341.1 333.9
+ 339.8 337.9]</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>[238.1 231.8 243.3 242.4 231.1 236.  240.2 246.  237.7 237.8 244.4 243.2
+ 242.4 242.2 243.1 237.8 245.7 242.1 232.5 236.  236.8 239.2 232.6 232.9
+ 239.9 240.6 241.2 242.9 243.  240.9 236.  240.  236.5 242.2 245.9 249.9
+ 245.6 243.4 240.9 241.3 242.6 243.7 241.7 245.  242.7 240.  241.  249.
+ 243.4 240.5 233.6 233.5 233.3 240.9 245.1 246.4 242.2 237.6 238.4 244.2
+ 236.2 240.  238.9 237.9 245.5 245.6 243.8 234.5 236.5 238.6 237.4 238.7
+ 232.7 233.3 234.6 239.5 239.2 239.  236.8 244.1 245.  238.8 235.7 235.1
+ 244.  248.9 247.9 241.2]</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>[178.6 380.3 364.9 172.9 179.  341.7 169.  175.2 320.7 171.8 159.1 302.6
+ 329.1 168.7 366.9 160.4 328.8 371.6 173.9 169.2 351.7 319.1 165.3 168.6
+ 305.2 166.9 182.1 318.4 279.9 157.3 178.2 350.7 306.2 163.  170.6 304.
+ 320.2 168.3 315.  286.  169.5 173.2 282.9 321.1 182.1 173.5 319.  174.3
+ 173.  298.3 352.6 191.7 177.3 299.4 310.6 171.1 182.4 296.6 173.2 177.7
+ 319.3 314.8 289.  279.7 287.4 298.2 291.5 271.9 289.7 179.1 291.9 278.8
+ 309.2 308.5 179.7 294.1 169.9 181.  315.7 171.3 168.7 174.9 180.7 291.1
+ 186.6 300.4 165.9 168.8]</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>[183.1 188.1 162.9 117.9 111.1 101.4  85.7 125.3 195.7 183.7 123.8 112.5
+ 112.6 121.1 175.  126.5 106.8 127.  173.3 169.1 137.3 111.9 107.2 109.3
+ 141.9 140.4 121.5 107.2 101.  137.8 155.  172.6 138.3 123.1 103.1 143.7
+ 174.1 156.5 120.3 130.3 112.4 143.7 125.4 159.9 135.6 179.4 159.4 150.8
+ 123.5 114.9 123.8 129.   88.9 126.8 112.1 146.9 133.4 114.5 128.7 127.5
+ 145.9 167.5 132.6 162.4 133.9 152.5 132.  129.5 132.6 120.8 133.9 116.8
+ 111.5 131.9 127.7 120.8 141.1 163.2 130.6 130.2 115.1 121.1 143.7 136.
+ 143.6 143.  129.  134.7]</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>[ 56.  123.8 104.4  97.4  97.5  86.7  84.9  77.6  88.3  88.2  80.4  77.6
+  81.4  85.   86.8  94.4 100.5  93.8  83.2  89.6  76.1  63.4  91.2 101.4
+ 113.7  86.5  89.2 109.1  72.5  96.1  99.9  68.   92.2  95.4  79.4  90.2
+   1.2   4.9   9.5  86.8  90.6  66.9  97.7 102.1  70.5  80.9  62.4 108.2
+ 114.7 109.4  85.    9.5  79.8 106.9  92.5 108.7  77.4 105.4  87.6  99.5
+ 108.5  91.4  55.5  93.1  74.   98.6  89.3 120.6  98.   88.9  62.    9.5
+   2.7  80.   74.    4.5  92.3  83.6  73.1  90.8  99.3 102.2  96.8 108.4
+  91.5  93.7  99.4  79.2]</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>[  8.1   2.    1.2   5.   82.8 111.1 118.8  95.4   2.4  92.   76.3   1.
+  59.3 100.3   2.7   2.1   4.5   1.1  85.4 102.9  63.1   2.6  78.1  89.7
+  82.8   1.6  58.2  97.7   2.    2.1   9.5  99.8   2.7   2.8  86.4  60.
+   9.5  84.8  88.4   1.2  91.9  98.3 118.4 100.4  90.  112.4  88.9   1.3
+  91.1  92.   71.    1.6  60.6   1.8  92.4  47.4  84.5 114.5   1.2 125.2
+  96.5  75.6   3.4   4.1   2.   81.9   1.1  88.4   2.1   1.3  73.2 120.8
+  88.    1.1   1.2 115.2  86.2   2.8  72.    1.1   1.1   2.7  86.2 106.2
+   7.    2.    1.2   3.3   2.   64.9   1.9   6.1   5.1   3.1]</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>[ 74.2  97.7  83.2   1.2   2.5 103.9 164.9   6.3   3.3   2.8   3.    2.5
+   7.    2.6  89.8  79.7  93.    2.4   3.   72.8   3.6 107.2 117.3  86.9
+   1.8   8.   96.1  80.4   2.4  66.4  70.   81.9   1.2 117.4   1.1   2.7
+   2.   81.1   5.    1.    2.4  86.2  75.    3.3  84.4 116.6  96.9   1.9
+ 139.6  70.4  99.4   2.6   9.5  60.6   1.3 135.5  98.8  70.8   1.8 118.1
+   6.1   1.3   1.2  60.9  79.9 132.8  89.   82.7  92.7   1.8   1.6 117.5
+   2.4   4.6   1.2   6.1   3.3   1.9   2.8   4.7   4.4   2.5   2.6 101.3
+  62.8  71.7   3.6   3.6  89.    2.8   2.6   2.4   8.    4.1]</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>[  4.1   1.4   3.    2.   70.3   4.2  68.7  45.9  42.1   2.    1.5   1.8
+  72.2   1.1   3.2   7.9 122.4   7.7   1.3   3.6  78.3  84.7  77.5   3.
+   5.   71.4  73.6   3.6  77.4   4.1   1.8   3.1  77.7  99.7   6.3   2.
+  81.2   2.7   2.   92.8  75.2  52.8   7.6   1.    4.4   5.    3.7  96.8
+   3.2   2.   82.7  62.9   3.2   1.2   6.6   1.4   3.3 127.9  87.5   1.2
+   2.    1.2   2.8   5.3 109.2   1.3  78.4  76.9  93.4  59.2  83.    2.5
+   3.1   3.1   7.6   2.5  70.4  91.1   1.1   9.5  85.4   2.3   2.2   3.4
+   3.6   1.8   8.7 102.7 140.8   3.2   1.3   2.    1.8   1.2]</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>[112.7  71.    2.8   1.4   6.  228.5  77.6   2.7   1.1   2.5   2.7   2.8
+   4.9  59.5 195.8   5.6 154.7 873.4   2.7   1.1 723.6 283.1 155.1   1.9
+   7.   80.5 490.1 123.    2.3 340.1 237.1   1.6 152.  238.    1.8   4.7
+   5.    6.6  61.6   2.3   4.  182.7   2.1   5.   80.2   1.6 468.4 244.8
+   6.5  87.8  78.2   9.  119.6  94.2 130.6 236.6  62.1 531.8   1.3   2.7
+   6.3 134.   96.6   1.5   9.    1.4   3.3  94.6  70.9 124.4 391.5 193.
+  78.6  64.3 254.3  87.2   3.2   3.   74.7  96.3 111.  145.9  53.9 767.1
+   4.4   3.4   1.2   1.4   4.    1.8   5.8   3.1   1.    1.8]</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4837,20 +10153,176 @@
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>[1822.1 1712.3 1732.5 1753.7 1695.7 1742.4 1707.4 1889.2 1959.7 1930.6
+ 1944.5 1836.7 1675.7 1522.6 1591.6 1675.3 1811.2 1937.6 1788.1 1769.
+ 1739.2 1756.3 1938.8 2013.3 1822.  1637.4 1534.6 1546.1 1760.7 1729.
+ 1724.4 1735.5 1708.9 1817.4 1941.6 2006.3 1969.5 1729.9 1899.8 2012.1
+ 1891.9 1903.6 1614.3 1566.  1706.4 1596.5 1830.3 1760.  1780.7 1932.1
+ 1797.5 1645.5 1613.4 1858.5 1766.4 1573.2 1813.1 1713.8 1728.4 1800.8
+ 1749.1 1690.1 1676.4 1826.4 1775.2 1772.5 1768.7 1628.9 1849.7 1772.5
+ 1980.1 1776.1 1767.  1672.  1697.5 1766.7 1588.  1719.5 1586.9 1875.
+ 1705.3 1570.4 1976.  1774.8 1648.8 1585.6]</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>[1300.9 1311.4 1230.5 1269.  1365.4 1360.4 1255.  1277.9 1322.7 1237.5
+ 1247.8 1268.8 1313.3 1299.  1257.9 1255.1 1249.9 1243.3 1293.3 1330.2
+ 1266.  1315.3 1319.5 1306.3 1272.6 1312.5 1310.8 1299.5 1329.7 1324.7
+ 1313.2 1299.2 1271.5 1314.7 1298.9 1303.7 1258.9 1303.2 1383.5 1279.3
+ 1283.  1258.6 1237.5 1347.1 1298.1 1352.  1347.1 1347.3 1436.6 1288.2
+ 1276.3 1290.2 1265.3 1344.4 1236.5 1264.7 1301.1 1266.2 1312.4 1270.8
+ 1271.5 1297.3 1340.8 1334.3 1311.6 1268.1 1254.4 1228.1 1285.7 1320.3
+ 1296.  1295.7 1318.4 1268.2 1304.1 1275.2 1275.1 1331.7 1354.6 1337.5
+ 1279.7 1243.4 1249.6 1264.6 1307.  1272.6 1315.4 1286.3]</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>[945.1 921.7 924.1 932.8 889.9 911.5 935.4 908.2 900.1 925.  935.4 908.7
+ 939.9 937.2 875.7 921.1 888.6 911.7 942.1 938.8 898.9 922.5 948.2 947.7
+ 882.8 901.4 881.4 906.  893.5 892.4 884.8 911.3 945.4 918.  919.6 866.7
+ 860.3 902.6 905.1 936.  940.3 937.1 933.6 912.7 891.9 886.4 936.5 923.7
+ 912.2 921.1 923.1 926.3 933.9 948.2 916.5 926.5 947.8 907.5 910.6 908.9
+ 921.1 907.3 903.8 919.7 934.3 892.7 917.7 923.2 925.  913.1 925.9 928.
+ 936.8 935.  880.9 933.8 929.8 928.3 919.  917.4 908.5 937.7 945.1 869.
+ 902.4 943.2 949.1 898.2]</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>[661.  671.9 666.6 670.2 661.8 674.5 680.  684.3 679.3 662.4 678.4 657.4
+ 665.4 675.1 672.1 687.  691.  672.5 663.6 681.5 665.4 655.8 690.6 668.9
+ 660.8 671.7 673.9 672.7 676.8 665.8 669.7 675.  670.2 659.9 661.2 661.3
+ 656.5 669.9 665.1 654.8 676.8 665.7 629.7 649.2 675.5 673.1 663.8 674.3
+ 672.1 663.2 668.2 655.9 653.1 675.1 704.1 668.4 668.9 673.8 682.  690.8
+ 664.3 646.5 668.9 682.7 704.4 651.1 676.7 665.5 668.2 681.3 661.2 656.4
+ 664.3 652.3 662.3 658.3 643.4 658.2 673.6 668.1 659.5 666.8 681.7 663.5
+ 649.8 658.5 663.  650.1]</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>[484.5 478.7 479.8 475.5 469.  469.8 486.6 480.8 485.2 487.3 477.7 479.4
+ 478.8 480.2 475.3 486.7 469.4 482.2 481.6 466.6 475.8 477.1 476.3 469.8
+ 480.3 481.3 471.6 472.1 483.9 485.  486.6 486.  485.6 468.  473.7 475.9
+ 484.9 471.5 474.4 478.4 473.6 474.4 486.6 483.8 469.7 471.5 476.5 469.9
+ 474.9 476.6 477.  476.1 483.6 481.2 471.8 477.3 475.7 471.1 474.8 471.9
+ 483.2 488.6 476.6 463.1 473.9 482.7 487.6 479.3 472.7 457.5 466.2 488.1
+ 475.8 476.2 470.9 477.2 469.8 476.6 473.9 473.1 488.2 475.1 472.6 475.8
+ 475.2 473.  473.5 472.6]</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>[354.2 339.2 334.3 339.9 354.7 336.8 343.1 330.  332.3 345.6 354.7 361.5
+ 352.9 339.1 325.  351.4 357.2 347.6 338.  324.1 324.6 341.1 339.6 350.8
+ 357.3 342.5 342.4 337.  349.9 330.3 332.8 338.8 340.3 340.7 330.1 338.
+ 357.4 349.  348.  340.9 345.9 337.5 340.6 339.1 342.1 345.6 342.9 333.5
+ 349.7 347.2 358.2 346.  339.2 336.  336.4 337.7 341.1 342.3 340.6 340.1
+ 346.2 343.9 336.7 345.3 344.4 339.2 344.6 346.7 350.8 345.8 343.  328.
+ 327.9 332.3 338.8 346.4 346.4 334.1 323.6 333.6 340.7 340.  341.5 334.3
+ 340.1 338.2]</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>[238.1 232.  243.5 242.5 231.2 236.1 240.2 246.3 238.1 238.2 244.3 243.2
+ 242.2 242.3 243.3 238.  246.  242.1 232.8 235.8 237.  239.1 232.7 233.1
+ 240.3 240.6 241.3 243.  243.  240.8 235.9 240.2 236.6 242.  246.2 249.9
+ 245.4 243.7 240.9 241.1 242.8 243.8 241.6 245.2 242.6 240.4 241.1 249.1
+ 243.4 240.5 233.9 233.4 233.1 241.  244.8 246.1 242.2 237.5 238.3 244.1
+ 236.1 239.9 238.9 238.1 245.4 245.5 244.  234.4 236.5 238.7 237.5 238.6
+ 232.7 233.3 234.7 239.8 239.3 239.1 237.3 244.  244.7 238.9 236.  235.1
+ 244.1 249.5 248.1 241.2]</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>[178.9 194.9 190.4 172.4 179.2 186.6 168.2 175.6 183.7 171.9 159.1 176.8
+ 181.4 168.3 194.6 160.6 180.9 192.2 173.8 169.1 188.2 183.2 164.8 168.6
+ 173.5 166.6 182.4 183.8 171.1 157.1 178.1 195.8 179.2 162.6 170.9 177.5
+ 178.3 167.9 180.5 171.7 169.4 173.4 171.7 178.3 181.6 173.5 182.3 173.9
+ 173.3 175.9 191.8 191.1 176.8 177.5 181.9 171.2 182.6 179.4 173.3 177.2
+ 182.6 181.1 175.  171.6 173.6 171.6 176.3 170.3 172.1 179.2 172.6 168.8
+ 180.  180.3 179.8 182.7 169.7 180.9 185.3 171.  168.3 174.6 180.8 173.7
+ 186.6 174.8 165.2 168.9]</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>[153.3 152.8 135.8 117.5 111.4 101.5  85.  126.2 158.  148.  107.2 112.1
+ 113.8 105.  143.5 109.6 107.2 127.9 140.6 138.2 116.3 111.  107.4 110.9
+ 123.3 121.4 121.1 106.6 100.2 137.8 131.3 139.8 137.2 121.  103.  143.9
+ 143.5 130.7 119.6 130.3 112.4 120.5 125.5 135.1 115.9 147.4 135.3 126.2
+ 123.1 115.3 123.  128.5  89.1 127.2  98.3 123.3 113.6  99.9 109.9 106.4
+ 120.9 137.  113.7 136.7 117.6 128.7 131.8 129.3 115.8 103.2 111.9 116.1
+ 110.8 112.  109.7 121.  140.7 135.  130.8 130.2 114.6 120.7 120.3 113.6
+ 120.9 123.9 129.  134.8]</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>[ 54.8 123.4 104.7  97.1  96.7  86.6  85.2  78.   88.9  87.9  79.1  76.9
+  82.3  85.3  87.1  95.1 100.7  93.9  82.4  90.4  75.5  62.9  91.1 102.
+ 112.5  86.3  87.9 108.8  73.3  95.7 100.3  67.9  92.1  95.3  79.9  89.5
+  10.    1.    1.   85.8  89.6  67.4  97.1 100.9  70.4  81.5  61.6 108.3
+ 114.8 109.5  84.7   9.1  79.9 105.2  91.6 107.8  77.1 105.5  87.8  99.
+ 108.4  90.2  55.6  92.4  75.3  98.4  89.3 120.1  98.6  87.3  60.8   2.
+   2.9  80.1  73.9  10.   91.8  84.   73.6  90.7  99.5 102.1  96.5 108.3
+  91.6  94.3  98.9  79.1]</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>[  2.6   1.2   1.6   4.4  86.6 110.2 135.2 106.6   3.  103.7  81.4   1.2
+  67.1  99.    4.    2.6   2.8   2.4  85.7 116.   73.4   6.6  79.9  89.2
+  82.8   1.1  50.6  97.7   6.    7.6   6.6 100.2   1.8  10.   97.   62.4
+   4.2  93.  102.    6.1  95.6 112.5 118.3 100.   98.1 107.7  86.8   2.
+ 100.  103.3  78.2   1.   67.4   9.5  93.4  42.8  92.2 134.4  10.1 123.1
+ 108.8  83.5   2.4   7.    1.2  83.7   1.3 101.6   3.4   3.5  86.8 120.
+  89.4   3.4   5.  116.1  84.7  10.   81.4   2.8   8.1   5.9  86.  109.4
+  10.    2.6   2.8   4.9   9.5  71.8   4.    2.1   2.4   2.8]</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>[ 90.1 131.7 114.4   9.5   2.7 109.8 164.   10.7   3.    9.5   4.    4.4
+   1.3   9.5 127.  105.2 125.9   3.3   4.1  88.2   7.  114.1 112.5 107.6
+   1.8  50.8 127.   99.    1.8  78.4  83.6  85.2   9.5 119.    2.1   2.
+   3.6  82.2   2.4   1.2   1.2 114.3  89.9   7.   94.8 113.2  94.4   3.3
+ 140.2  85.8 109.1   3.    2.4  66.3  10.  134.  140.8  93.3   9.5 120.2
+   1.    1.2  10.   91.2  90.1 128.6  91.9 108.8  92.5   4.    1.1 122.8
+   9.5   1.6   2.    2.8   1.    2.4   4.    3.2  10.2   9.5   1.2 105.9
+  73.2  92.3   6.9   3.3  85.9   1.    4.3  10.   10.    8.8]</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>[ 10.9   3.    1.8   1.8 119.9   4.  110.8   4.4   6.    4.    1.3   5.2
+ 128.7  58.9   1.    1.  139.4  80.9  65.9   5.2 133.6 147.6  70.  121.7
+   8.5 112.9 132.6  10.  112.6   3.    3.2   6.4 117.8 187.4  81.4  70.7
+ 165.5 104.1   3.7 104.   88.4 100.7   4.7   1.1  62.7  10.    4.9 105.2
+   2.6   9.2 135.9  75.1  65.3   1.1   7.    7.1   3.5 122.5 139.8  62.6
+   2.3   1.9  10.   56.3 138.6   5.   10.  110.3  86.   91.8 122.4  10.9
+   4.4   9.3   9.5   1.5 108.  154.1   9.1   7.8 146.1  10.    1.4   4.9
+   5.7   2.3   2.  124.  165.    1.2  10.6   3.1  10.   84.5]</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>[386.3 189.2   2.    7.   69.3 299.9 128.    1.  190.5  10.    3.7   1.3
+  10.  119.9 248.2   6.6  96.8 649.3 123.8   4.2 621.5 197.5  99.4   7.7
+ 162.3 183.9 337.4   1.1   4.  246.3 234.1   4.8 221.6 262.4  40.8 295.3
+ 174.7 238.9 561.  149.7   7.  109.8   7.3 184.5 133.4   5.2 715.8 211.4
+   8.6 265.2 148.7   6.  212.4 253.2  10.7 114.  112.  536.3   1.2   3.7
+   5.  210.9 229.4 252.  198.5   9.8   2.  242.6   1.2 152.8 213.1 210.7
+ 203.6 156.8   2.3   5.    5.    2.1  10.  273.8 328.7 160.5 309.2 238.2
+   3.7  10.7   2.8   4.7 110.4  80.5   1.3 178.9   2.    9.5]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4956,20 +10428,175 @@
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>[1856.2 1864.  1781.1 1757.3 1818.6 1894.5 1897.5 1936.2 1886.4 1823.
+ 1865.  1836.  1848.8 1873.3 1862.5 1813.8 1792.3 1845.1 1928.5 1865.3
+ 1817.  1774.7 1758.2 1778.8 1845.9 1819.3 1779.6 1857.8 1841.  1870.7
+ 1905.  1886.5 1795.5 1815.4 1815.1 1855.2 1844.9 1827.6 1859.3 1751.7
+ 1818.4 1837.4 1823.5 1868.6 1866.1 1852.9 1922.6 1914.4 1874.6 1865.1
+ 1785.9 1773.9 1751.3 1760.8 1807.  1828.8 1846.1 1897.2 1894.4 1867.8
+ 1825.8 1856.3 1822.3 1763.3 1852.8 1850.9 1892.3 1922.5 1840.8 1836.
+ 1846.7 1793.3 1884.3 1865.9 1846.6 1927.  1808.1 1848.9 1790.3 1796.6
+ 1822.4 1885.3 1950.7 1795.1 1804.8 1838.6 1848.4 1805.6 1782.1 1852.5
+ 1878.4 1828.6 1810.8 1771.6 1800.9 1842.1 1782.6]</t>
+        </is>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>[1327.4 1329.2 1278.9 1260.4 1276.  1317.1 1283.9 1315.  1402.3 1327.5
+ 1305.7 1329.2 1358.9 1338.6 1355.9 1294.  1303.5 1334.6 1317.1 1303.8
+ 1324.2 1337.9 1293.8 1284.8 1338.3 1306.6 1320.4 1318.6 1334.1 1281.5
+ 1307.7 1336.1 1339.1 1330.6 1315.7 1301.4 1323.6 1310.1 1357.8 1325.3
+ 1339.9 1312.3 1321.8 1339.  1309.2 1321.8 1366.3 1328.1 1352.  1333.2
+ 1311.5 1295.6 1318.7 1333.4 1351.8 1335.3 1318.8 1293.3 1331.6 1361.5
+ 1322.5 1309.8 1326.8 1317.2 1324.5 1315.1 1315.9 1343.4 1347.7 1342.2
+ 1327.8 1311.6 1331.2 1318.9 1302.2 1333.4 1315.6 1311.2 1324.1 1347.6
+ 1332.4 1324.8 1317.9 1336.3 1333.1 1339.7 1344.6 1360. ]</t>
+        </is>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>[932.1 935.5 935.1 947.7 940.9 940.8 928.2 936.2 951.3 942.2 929.2 916.5
+ 927.5 947.8 933.9 934.9 935.1 928.6 937.1 927.2 946.1 952.7 950.9 939.1
+ 938.3 930.5 940.8 938.6 944.4 916.7 940.9 945.1 941.8 953.6 950.  921.1
+ 931.4 932.9 943.8 935.1 934.  929.  932.3 937.  949.6 929.3 950.8 932.3
+ 927.7 933.2 920.7 933.1 951.  934.3 939.  926.6 942.  936.8 941.5 961.6
+ 958.6 939.6 956.4 925.  934.6 944.  935.1 950.7 928.2 945.6 956.8 920.5
+ 946.4 938.3 931.9 918.5 962.6 937.8 943.4 954.3 945.7 944.9 932.1 948.7
+ 930.3 936.8 934.6 944. ]</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>[674.1 682.7 680.3 679.1 674.6 678.7 683.6 666.8 672.8 675.4 664.8 664.
+ 674.5 665.9 673.1 676.3 686.5 679.4 675.5 663.  664.4 680.8 673.4 678.1
+ 685.7 663.9 688.3 681.5 671.8 672.4 672.6 664.8 662.2 669.8 687.8 668.7
+ 673.1 673.6 683.4 675.2 687.2 683.2 684.9 676.3 674.5 672.1 679.3 677.8
+ 685.  662.5 685.  684.1 682.  662.2 676.5 673.1 694.6 686.6 670.5 661.2
+ 683.4 675.3 681.4 676.3 666.6 683.9 681.4 675.6 673.3 672.  677.4 666.3
+ 670.3 695.4 679.  667.2 668.7 669.9 669.5 685.8 689.9 671.1 673.2 673.1
+ 670.4 667.2 670.8 692.1]</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>[490.6 496.5 490.6 490.6 489.4 487.1 479.7 478.2 474.9 482.2 487.5 479.1
+ 481.4 479.1 486.9 486.8 487.6 484.4 484.2 482.4 481.3 485.7 484.3 483.9
+ 484.9 485.4 480.6 485.  480.  481.7 480.1 481.  485.6 479.9 489.3 488.7
+ 481.7 480.2 480.7 477.4 485.9 475.2 478.  484.3 492.4 474.8 478.9 483.2
+ 484.7 473.5 489.  473.6 483.3 496.1 491.2 467.6 473.4 477.1 480.9 470.7
+ 480.9 479.1 480.5 480.4 487.8 475.8 478.5 489.4 478.7 476.3 482.9 479.8
+ 489.6 502.9 476.4 469.8 493.6 488.8 482.9 488.9 486.7 477.2 471.2]</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>[336.  344.6 342.4 346.8 342.2 336.4 326.2 344.1 348.2 344.8 348.7 351.5
+ 341.3 331.2 320.7 336.5 347.9 342.7 336.5 348.7 347.8 340.8 341.8 352.1
+ 349.6 347.3 341.3 339.8 332.5 345.9 343.9 348.3 347.7 340.3 339.  339.
+ 341.7 338.2 337.1 338.8 348.  343.5 341.2 342.3 344.  348.9 343.4 339.2
+ 341.1 338.1 342.  345.4 348.1 341.5 348.4 343.6 342.1 341.9 339.8 342.9
+ 344.1 343.9 339.7 348.3 344.5 346.7 339.8 342.7 349.3 347.6 342.8 344.1
+ 342.3 343.  349.2 342.  337.5 343.7 347.  340.4 340.9 344.3 340.5 339.5
+ 338.8 344.1 354.5 344.4 336.2 339.2 348.8 348.6 344.3 345.7 337.7 337.7
+ 344.2]</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>[251.6 242.1 239.2 243.5 243.  246.1 234.6 233.9 236.7 243.9 241.5 238.3
+ 238.2 245.8 246.2 240.  236.8 237.7 239.9 237.7 243.1 243.7 239.9 242.6
+ 236.9 237.7 239.  242.5 240.4 238.5 239.5 240.7 240.5 238.9 244.2 244.
+ 240.8 244.4 239.5 238.2 236.6 243.6 246.5 241.9 238.5 239.8 238.9 245.3
+ 240.9 241.5 238.8 243.5 243.6 241.4 237.3 237.5 237.  240.1 234.9 238.1
+ 241.4 243.2 244.2 242.1 240.1 238.  239.1 241.2 237.8 241.8 242.9 240.7
+ 240.  238.  243.9 244.2 240.1 239.7 242.8 241.5 244.7 244.5 240.3 243.8
+ 248.7 245.3 243.2 243.6]</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>[261.4 175.1 178.1 177.8 178.9 175.1 172.5 175.6 177.  174.  174.2 176.1
+ 174.  174.1 173.1 169.7 282.  289.9 170.7 180.4 298.4 173.6 278.  174.
+ 174.9 173.8 272.9 174.8 164.8 274.9 174.1 173.7 179.6 171.4 171.6 171.
+ 175.  181.3 174.8 179.4 275.8 176.2 275.1 172.7 179.1 178.1 171.  271.9
+ 171.3 168.4 270.7 176.9 176.2 288.  171.8 283.8 176.8 173.6 177.7 178.3
+ 179.9 178.1 175.6 172.6 273.7 270.5 178.  171.7 172.2 174.2 175.4 171.
+ 269.9 175.1 175.  173.  175.4 177.6 177.  285.  175.3 177.8 175.7 173.9
+ 172.9 173.6 172.9 171.3]</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>[116.1 113.5 140.5 118.4 143.2 122.7 115.2 124.4 150.3 125.1 118.3 120.1
+ 141.2 119.7 123.9 122.7 141.  117.9 112.4 132.4 120.2 121.5 141.5 143.4
+ 121.5 123.6 142.  145.1 113.1 109.  119.5 125.9 120.4 116.6 122.1 123.3
+ 115.9 152.7 133.5 118.1 118.9 121.2 122.5 119.5 117.8 121.3 121.9 149.3
+ 131.5 121.3 147.5 139.6 144.5 121.  115.  123.7 144.8 149.7 123.5 113.9
+ 122.  135.4 137.9 143.2 125.1 123.9 138.1 141.3 112.5 125.5 141.9 118.1
+ 142.2 124.  120.3 149.8 149.1 119.6 122.  140.2 122.1 122.1 123.2]</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>[ 84.8  92.3  80.8  83.8  82.3  83.1  88.6  88.5  96.4  87.6  86.4  99.2
+  87.1  74.2  87.7  86.6  87.3  91.4  80.5  61.3  80.2  79.7  85.2 101.2
+  97.5  87.8  90.8  85.5  93.7 102.6  87.1  61.1  72.7  85.2  92.8  83.5
+  99.1  79.9  87.7  93.1  83.4  73.5  86.4  91.2 103.1  82.6  84.1  84.
+  95.1  86.2  99.1  95.2  87.4  80.9 103.3  95.1  88.3  99.2  77.3   2.7
+  75.8  86.1  83.7  79.8  51.9  83.4  80.3  84.7  67.  101.3  95.1  88.
+  77.2  89.8   2.7  97.6  96.4  65.1  87.6  75.7  82.9  93.2   4.8   2.5
+  76.3  84.   81.1  64.9]</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>[58.2 43.1  4.  62.   2.8 10.  63.3 56.9  2.6  9.5  1.9 62.7  1.3  1.2
+ 61.  67.4 60.4 80.  66.5  1.3 79.6  4.  60.   1.8 55.7  6.  79.3 46.8
+ 59.1 96.5  3.3 70.9 66.  78.4  3.4  1.8  1.2 70.  49.8 61.2 92.5  1.8
+ 81.3  3.3  1.  64.1 78.6 58.  70.1 76.7 57.4 64.7  3.1 73.2  2.4  2.7
+ 59.1  9.5  2.  65.1 65.   1.3 85.4 51.7 64.6 89.8 90.9 84.9 72.3 77.2
+ 68.  59.   3.4  2.4  1.2  6.6  6.1  2.9 10.   1.3 63.9  1.1  2.8 73.7
+ 83.2 66.5 77.8 78.3  1.6  1.2  3.2  3.4  2.   2.4]</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>[  2.5  65.6  60.9   3.   79.4  51.6   4.9   1.8   8.    1.8   1.    1.6
+   3.3   9.1  62.1   8.1   3.1  51.1   3.1   1.    3.2   2.5  71.4   2.4
+   2.3  45.9   2.   79.6  59.    3.    1.2   9.1   9.    5.    2.   78.9
+  50.2   2.5  10.    3.3   1.1  72.3  91.6  53.5   3.    3.   54.8   4.7
+  85.3  74.3 115.9   1.    2.5   3.    3.1   4.2  69.   91.9   1.3   2.
+   1.8  92.4   4.   58.   54.4  76.    3.3   2.1   4.6   1.9  94.8 118.8
+   9.5   1.8   1.3   3.4   2.8   1.4  62.7   1.2   3.3   3.3   3.4 105.8
+  39.2   9.4   3.   63.9  73.5   2.2   3.    2.5  53.1   1. ]</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>[ 79.9 116.5  72.5 109.1 122.2   2.    1.8   3.6   1.5   1.2   9.5   3.4
+   3.1 112.5  74.4 103.4 101.8 116.5  80.6  87.8  74.6  72.9   1.9  77.2
+   4.    4.9   2.5   2.8   1.    1.3   2.6   4.   10.2  95.7   2.    1.2
+  71.5   3.   99.8   4.6 110.4  67.6 128.1   1.3   7.9   2.6   3.    6.6
+   3.4  63.8   1.1  68.8   5.  108.3   2.6 114.3  83.4   9.5   1.8 105.2
+ 113.1   1.8  74.5  89.6 131.6   5.   57.5   1.8   4.    2.4  83.2  90.2
+  62.   67.9   2.1   4.3  86.9   1.8   2.    2.5   1.2  73.4  58.    3.6
+   2.8   2.5  85.7   4.3  66.9  59.1   5.3   3.3   2.1   2.5]</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>[ 69.7 145.3 209.7  85.5  50.1  76.6   2.8   7.    2.   63.2  62.2 126.7
+ 120.1   4.    5.   66.2 210.4 169.9  63.5  82.    2.4   9.6 174.8   4.
+   8.3   1.9   2.8   2.7   2.5 127.4 149.4 176.7   3.    1.7   6.3  71.
+  66.1  75.6   1.2  67.3   2.9   3.6  63.    2.5 120.9   4.1  44.2   7.
+  59.1   2.  129.7 158.  183.8 108.4   3.3   1.1   4.6 106.3  54.6 153.7
+ 121.6  76.2   2.5   3.6   1.2 121.1  40.6  70.9   2.5   3.3   1.1   5.6
+ 155.2 140.1  95.7   1.    1.1   1.8  68.6 133.8   1.8   1.1   7.    2.5
+ 179.2   3.1   1.2   4.8  51.3  62.  138.4   3.3   1.3   2.8]</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -5075,20 +10702,175 @@
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
       <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>[1865.1 1868.9 1784.4 1761.3 1822.  1900.7 1906.3 1944.2 1890.  1827.6
+ 1870.2 1843.7 1854.6 1879.2 1868.4 1818.9 1799.4 1853.2 1934.5 1870.8
+ 1822.4 1777.5 1762.8 1782.8 1851.8 1825.8 1784.1 1863.1 1849.1 1875.5
+ 1911.7 1891.8 1799.7 1820.3 1819.  1858.3 1850.3 1830.9 1863.5 1759.7
+ 1824.4 1842.4 1827.2 1872.9 1869.5 1857.5 1926.2 1919.4 1878.6 1869.8
+ 1791.9 1775.3 1755.2 1763.8 1811.5 1833.5 1850.4 1900.7 1898.8 1873.2
+ 1831.4 1862.7 1825.8 1765.9 1856.3 1853.9 1897.5 1927.4 1845.7 1841.1
+ 1852.  1798.  1889.3 1871.9 1852.3 1933.4 1813.5 1854.8 1795.1 1802.3
+ 1827.6 1891.2 1956.1 1800.5 1808.3 1843.4 1854.5 1810.3 1787.6 1856.6
+ 1881.8 1834.1 1815.1 1776.3 1807.  1846.  1785.6]</t>
+        </is>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>[1330.3 1332.4 1280.5 1261.8 1279.  1319.3 1285.4 1317.1 1405.3 1329.5
+ 1307.9 1331.9 1361.  1341.2 1358.9 1296.1 1305.4 1337.8 1320.3 1306.2
+ 1325.7 1340.7 1295.7 1286.5 1341.1 1308.4 1322.4 1320.2 1337.2 1283.7
+ 1309.2 1338.5 1341.4 1332.4 1317.7 1304.6 1324.9 1311.5 1359.8 1328.4
+ 1343.  1314.4 1323.7 1341.  1311.  1324.3 1367.9 1330.2 1354.5 1335.
+ 1314.2 1297.4 1322.1 1336.2 1354.2 1338.1 1321.1 1295.3 1332.9 1364.
+ 1324.4 1311.4 1328.8 1318.9 1326.2 1316.9 1319.5 1347.2 1348.8 1344.2
+ 1329.8 1312.5 1333.1 1321.8 1305.4 1336.5 1317.8 1311.9 1326.5 1350.9
+ 1335.6 1326.5 1320.8 1338.8 1335.4 1342.6 1347.1 1361.9]</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>[932.5 936.  935.7 948.  941.6 941.9 929.1 937.3 952.2 942.9 929.8 917.5
+ 928.5 948.3 934.3 935.9 935.6 928.9 938.  927.8 947.  953.2 951.7 940.
+ 938.7 931.3 942.1 939.7 945.4 917.1 942.2 946.3 943.  953.9 950.5 922.4
+ 932.4 933.2 944.4 935.8 934.6 930.2 933.3 937.2 949.9 930.3 952.1 933.4
+ 928.4 933.3 920.9 933.8 951.2 934.9 939.6 926.7 942.2 937.8 942.6 962.7
+ 958.8 939.9 956.4 925.6 935.9 944.8 935.7 951.5 928.8 946.9 958.2 920.9
+ 946.7 939.1 932.9 919.8 964.  938.5 943.5 954.3 946.7 945.7 932.2 949.1
+ 929.5 936.8 934.8 944.3]</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>[674.6 683.4 680.5 679.5 675.1 679.3 683.5 667.3 673.5 675.5 665.6 664.5
+ 675.2 666.2 673.6 676.8 687.2 679.7 675.6 663.9 665.3 681.4 674.4 678.3
+ 686.4 664.4 688.9 682.2 672.  673.  673.2 665.3 663.5 670.7 688.1 669.1
+ 673.4 673.9 683.5 675.7 687.8 683.5 685.9 676.5 674.8 672.5 679.7 678.2
+ 685.  662.7 685.3 684.3 682.6 662.7 676.9 673.2 694.8 687.4 670.8 661.7
+ 683.9 675.9 681.9 676.5 666.8 684.6 681.5 675.8 673.3 672.2 677.7 667.1
+ 670.7 696.  679.3 667.5 669.  670.5 670.3 686.1 690.3 671.7 673.5 673.7
+ 670.8 667.3 671.1 693.5]</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>[490.7 496.7 490.9 490.7 489.6 487.3 479.7 478.3 474.8 482.3 487.5 479.3
+ 481.6 479.2 487.2 486.9 487.7 484.4 484.2 482.3 481.5 485.8 484.6 483.9
+ 485.1 485.9 480.8 485.1 480.2 481.9 480.4 481.2 485.8 479.9 489.5 489.
+ 481.8 480.2 480.7 477.5 486.1 475.4 478.1 484.4 492.5 474.7 479.  483.2
+ 484.7 473.9 489.1 473.7 483.3 496.3 491.7 467.8 473.7 477.3 480.9 471.
+ 481.4 479.6 480.7 480.5 487.8 475.9 478.8 489.9 478.8 476.4 482.9 479.9
+ 489.7 503.1 476.5 470.1 493.8 489.1 483.2 489.2 486.8 477.2 471.1]</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>[336.3 344.8 342.4 347.2 342.6 336.4 325.9 344.  348.3 345.  348.8 351.7
+ 341.3 331.2 321.  336.5 347.8 342.9 336.7 348.8 347.8 340.9 341.8 352.
+ 349.6 347.5 341.2 339.9 332.5 345.9 344.1 348.5 347.9 340.4 339.  339.
+ 341.7 338.2 337.1 338.7 348.3 343.7 341.2 342.3 343.9 349.  343.5 339.3
+ 341.1 338.4 342.2 345.8 348.3 341.5 348.5 343.5 342.1 342.1 339.9 342.9
+ 344.2 343.9 339.9 348.6 344.8 346.7 339.8 342.6 349.3 347.7 342.7 344.1
+ 342.4 343.  349.4 342.3 337.5 343.7 347.1 340.5 341.2 344.5 340.5 339.6
+ 339.  344.4 354.7 344.3 336.4 339.3 348.9 348.7 344.2 345.7 337.8 337.6
+ 344.2]</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>[251.8 242.2 239.3 243.4 243.2 246.3 234.7 233.9 236.6 243.8 241.4 238.6
+ 238.6 245.9 246.2 240.  236.8 237.7 240.  237.5 243.  243.9 240.  242.6
+ 236.9 237.8 239.  242.6 240.5 238.4 239.6 240.6 240.6 239.  244.3 243.9
+ 240.6 244.4 239.6 238.3 236.7 243.6 246.4 241.8 238.7 239.9 239.1 245.4
+ 240.8 241.6 238.8 243.4 243.6 241.3 237.3 237.6 237.2 240.1 234.8 238.
+ 241.3 243.2 244.2 242.2 240.  238.1 239.2 241.1 237.8 241.8 242.9 240.8
+ 240.1 237.8 243.9 244.3 240.1 239.8 242.9 241.5 244.6 244.5 240.4 243.7
+ 248.6 245.4 243.2 243.6]</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>[170.2 175.  178.1 177.7 178.8 175.  172.5 175.8 176.9 173.9 174.1 176.1
+ 173.8 174.  173.  169.7 178.7 181.1 170.6 180.4 183.7 173.6 175.7 173.9
+ 174.8 173.9 175.7 174.8 164.8 175.8 173.9 173.7 179.6 171.2 171.6 171.1
+ 175.1 181.2 174.6 179.5 174.7 176.2 175.4 172.5 179.1 178.  171.2 175.5
+ 171.2 168.4 173.6 176.9 176.3 179.8 171.8 176.9 176.6 173.6 177.7 178.3
+ 179.9 178.1 175.6 172.5 172.3 172.3 177.9 171.6 172.2 174.1 175.4 171.
+ 173.7 175.1 175.1 173.  175.4 177.7 177.  178.8 175.3 177.8 175.6 173.9
+ 172.8 173.6 172.8 171.2]</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>[116.  113.5 122.5 118.2 124.7 122.5 115.  124.3 129.8 124.9 118.2 120.
+ 122.4 119.4 124.  122.6 123.  117.9 112.3 116.4 120.1 121.4 123.  124.4
+ 121.4 123.5 123.6 125.5 112.9 108.9 119.5 125.8 120.2 116.5 122.  123.2
+ 115.9 131.1 117.  118.1 118.9 121.1 122.3 119.5 117.8 121.2 121.8 129.7
+ 115.2 121.2 126.5 121.8 126.  120.9 114.9 123.6 125.5 129.8 123.5 113.8
+ 121.9 118.6 120.  124.1 125.2 123.8 121.  123.1 112.4 125.4 122.9 118.
+ 122.9 123.9 120.2 129.2 128.7 119.6 121.8 122.  122.  122.  123.1]</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>[ 84.8  93.   82.2  85.1  82.5  83.4  89.6  88.2  96.8  88.2  86.7  99.2
+  87.5  74.6  87.7  86.7  87.5  92.5  81.1  62.   80.7  80.2  85.3 101.9
+  97.5  87.7  90.8  86.2  94.3 102.5  87.5  61.4  73.   86.1  93.4  83.7
+  99.3  80.3  88.5  94.1  84.2  74.1  87.2  91.3 102.8  83.8  84.6  84.6
+  95.2  86.3  99.7  96.3  88.1  81.3 103.3  95.3  88.5  99.2  77.2   2.6
+  75.9  86.7  84.1  79.7  52.2  83.4  80.8  85.5  68.  102.2  95.7  88.
+  77.5  90.2  10.6  98.1  96.4  65.8  88.6  76.3  83.4  93.5   2.7   2.
+  76.7  84.   81.   65. ]</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>[58.3 49.5 10.9 68.1 40.8  5.  64.3 58.5  1.  10.   1.3 64.3 10.   4.
+ 63.1 75.9 66.8 89.  67.7  9.5 80.1 11.  67.1 10.9 62.4 10.  80.4 46.2
+ 65.4 97.5  3.4 71.6 68.2 80.4  2.   1.  10.  71.9 52.4 62.4 93.1  7.6
+ 90.8  2.7  1.8 71.7 88.5 64.5 71.1 77.9 64.9 71.2  1.  80.8  3.   2.8
+ 64.8  4.9 10.  71.2 66.9  4.8 85.6 56.3 72.2 90.1 91.1 85.8 73.  77.6
+ 76.7 61.2  1.3  1.2  5.   3.5  4.   9.5  1.1  1.8 64.4  3.7  9.5 74.8
+ 83.3 67.4 78.7 78.4  8.   2.8  2.5  4.8  5.7  7.6]</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>[  3.1  71.5  78.2   5.8  85.6  69.1   1.9   2.6   5.    3.3   3.3   4.
+   3.2   2.   69.7  61.2   3.3  66.8   2.7   2.7  53.8  57.9  75.    3.7
+   1.2  66.2   1.   82.   67.8   4.3   8.    2.    1.8   9.5   2.4 101.
+  60.7   7.3   5.   61.   56.   78.4  94.8  67.8  54.7   3.6  61.7   1.9
+  89.2  77.9 117.4   2.3   9.5   8.3   8.3   4.   73.4  93.4   6.3   2.5
+   8.   94.5   4.   64.5  66.2  80.   42.6  51.7   1.9   3.3  97.6 120.5
+   2.9  10.9   4.9   4.1   4.    3.3  68.8   2.5   8.    6.   10.  106.8
+  48.2  10.2   1.3  80.3  93.9   1.3   9.5   5.7  64.2   9.5]</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>[123.  118.   88.7 110.4 124.5  10.7   7.1   1.4   5.    4.9   9.5  62.4
+   6.7 111.  114.7 112.7 102.2 110.3  82.7  98.6 108.1 105.7   2.   81.6
+   3.1   4.1   9.5   6.2   6.3   1.9   2.7   3.7   1.4  99.4   8.    3.
+ 105.    8.5 100.6   8.  109.8 104.4 133.7   4.3   4.3   1.1   7.1  67.
+   1.2  99.2   1.6 104.8   9.5 109.7   7.2 115.9  89.3   1.1   6.7 112.8
+ 118.5  11.  107.4  93.5 134.6   1.4  73.    2.    5.    4.   92.7  95.5
+  90.2 102.6   9.5   8.   85.8   5.3  67.5   1.6   5.   94.5  88.6   9.5
+   6.7  10.   92.8  10.2  83.1  89.7   6.   10.    1.3   5.3]</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>[109.4 135.6 204.6 189.   77.8 138.   10.9   2.4  83.9  10.7  89.9 127.8
+ 114.1   1.9  10.6 110.9 208.9 169.5  83.4  88.5  66.5   2.8 163.7 105.2
+  79.3   9.5   3.6   1.   10.7 122.7 139.8 146.4  10.2   2.    4.1 135.6
+  85.  135.5 102.7 121.9  51.5   4.  125.8  83.9 129.1  10.7 109.   10.
+ 121.3   2.  122.5 142.  166.7 144.7   1.8   3.6   2.2 129.5  83.  127.1
+  96.8 114.2 110.1  80.1   9.  120.6  81.8 131.3  10.6   5.    5.9  89.9
+ 164.6 165.  126.6   4.2   4.5  85.9 109.  142.8  88.1   9.2   4.8  10.
+ 153.8  10.3  10.7   1.  107.7 111.7 140.4  10.6  10.2   1.3]</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -5106,7 +10888,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Prisma_noFS_NIST_Magnitude_T1map.nii.gz</t>
+          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_noFS_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5131,7 +10913,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Prisma VE11C</t>
+          <t>Skyra VE11C</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -5149,7 +10931,7 @@
         <v>46</v>
       </c>
       <c r="N39" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
@@ -5196,20 +10978,181 @@
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>[1977.3 1884.1 1991.3 1978.9 1846.1 2064.6 2154.7 1972.  1931.1 1912.4
+ 1870.  2034.4 2275.8 2060.9 2076.7 2030.5 2011.8 1989.5 1853.6 1899.5
+ 1862.9 1961.9 2118.6 1914.3 1913.8 2016.2 2048.6 2036.1 1978.2 1922.7
+ 1896.6 1986.9 2077.6 2164.3 2073.7 1983.8 1944.2 1967.1 1881.3 1940.2
+ 1853.  1915.1 1944.5 2156.5 2087.  2145.6 2106.2 1965.2 2019.8 1959.5
+ 1993.5 1889.1 2020.1 2057.6 2000.7 1951.1 2023.2 2011.3 1940.9 1930.3
+ 1934.9 1976.9 2035.  2027.7 1909.3 2128.5 2050.5 2078.5 2137.8 2095.
+ 1914.8 1865.1 1933.8 1991.8 1900.  1846.9 2035.3 2007.3 2095.7 1953.8
+ 1900.1 1937.7 1960.2 1965.  1936.6 1998.1 2043.1 1891.9 1906.8 1839.7
+ 1808.5 2002.  2065.8 2088.6 2151.  2027.8 1988.2]</t>
+        </is>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>[1347.8 1389.3 1361.3 1381.9 1383.3 1382.3 1380.  1366.2 1442.2 1368.9
+ 1320.  1321.8 1359.4 1400.9 1470.9 1436.2 1368.9 1329.7 1369.3 1361.
+ 1382.1 1366.3 1303.9 1359.1 1438.1 1359.8 1380.1 1347.9 1361.8 1308.7
+ 1383.6 1428.4 1332.  1392.8 1321.8 1325.8 1375.2 1345.4 1369.4 1421.5
+ 1439.  1370.6 1304.6 1367.6 1325.  1350.2 1431.2 1361.7 1351.5 1391.
+ 1376.2 1394.3 1404.4 1405.7 1454.4 1313.7 1359.8 1365.4 1400.6 1380.1
+ 1326.5 1372.2 1404.2 1414.3 1392.7 1386.4 1365.3 1406.3 1384.8 1352.2
+ 1349.7 1317.9 1333.5 1387.4 1375.  1360.  1432.3 1354.1 1378.1 1444.3
+ 1334.7 1390.5 1358.6 1403.3 1390.2 1368.4 1354.2 1373.6]</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>[ 979.   970.4  946.4  951.8  980.3  994.1  972.3  982.1  982.3  995.4
+  993.7  981.8  976.6  998.4  985.1  990.4 1037.1 1024.1 1010.4 1005.7
+ 1004.   984.1 1007.8  982.7  984.4 1002.  1014.8 1040.1 1004.  1004.5
+ 1035.8  995.7 1004.2 1007.9  966.7 1011.2  991.4  987.  1021.2 1025.3
+  997.4 1011.5 1009.8 1012.   965.4  998.5  984.8  981.9 1021.1 1006.7
+ 1003.6 1021.   981.2 1033.6  961.6  980.1 1003.5 1032.3  997.9  947.3
+  973.3  981.9  974.3 1004.4  954.5  979.7  992.9  963.   995.6 1022.5
+  973.7  975.7 1008.9  957.7  975.4  982.1  992.8  970.8  972.8  991.4
+ 1017.5 1014.7  955.   989.1  971.   973.   987.9  975.3]</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>[742.8 668.2 690.  678.3 680.9 706.3 701.  695.5 699.1 729.2 704.6 698.8
+ 678.3 664.  742.5 688.  727.6 694.7 676.9 676.9 690.6 708.7 692.4 694.8
+ 707.5 719.2 691.3 699.  713.3 716.6 696.8 681.5 720.  680.3 674.8 704.9
+ 692.5 734.1 717.  701.1 687.9 683.4 706.6 683.1 682.2 721.1 684.1 708.4
+ 689.8 688.3 700.8 687.1 698.4 679.4 695.6 726.5 684.2 693.9 709.5 685.4
+ 707.2 669.8 701.6 681.3 719.1 697.1 704.  683.2 702.3 687.8 684.  684.9
+ 698.  687.8 698.3 707.7 725.4 703.4 683.7 706.4 711.4 690.3 697.9 690.6
+ 703.3 701.6 683.8 666.2]</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>[490.1 482.1 454.4 464.4 463.1 456.1 488.1 476.2 473.4 468.9 469.  471.3
+ 469.4 470.4 476.5 488.1 452.7 473.4 474.3 453.7 441.  451.3 473.7 458.2
+ 487.8 489.7 470.6 455.  458.  471.1 463.2 459.1 461.  482.  481.1 472.5
+ 479.  459.4 457.2 458.9 449.2 467.8 453.3 469.7 493.5 487.  478.5 481.6
+ 468.5 471.5 466.  486.6 461.5 467.8 481.7 498.3 469.3 491.5 459.8 467.7
+ 468.  460.4 451.1 462.8 460.3 495.7 472.5 480.8 482.5 477.7 463.2 475.
+ 481.2 460.6 472.2 494.9 468.4 469.1 479.5 469.6 475.1 457.8 456.3 488.3
+ 480.4 474.5 467.  474. ]</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>[345.5 318.7 319.  336.8 347.7 333.  346.2 356.  351.7 353.6 347.7 338.7
+ 337.3 349.6 344.7 341.  332.2 329.7 342.9 357.7 354.7 338.9 346.  349.3
+ 349.7 349.3 347.5 343.7 355.7 339.  338.2 338.1 358.4 342.9 337.9 340.3
+ 328.6 327.1 325.4 342.6 333.3 331.9 357.6 364.2 339.2 338.9 331.8 331.8
+ 331.8 337.7 340.4 348.4 335.7 355.4 347.  337.8 351.4 344.4 349.6 325.4
+ 337.5 328.  346.4 338.5 346.3 357.8 340.5 342.8 329.1 342.7 339.5 345.1
+ 318.8 343.8 342.7 351.2 342.  338.7 329.6 333.6 340.8 341.9 336.  351.5
+ 337.1 338.7 342.3 344.7 336.1 342.9 347.2 345.4 335.  339.6 336.9 339.6
+ 327.9]</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>[256.4 254.9 251.  257.1 260.5 254.7 251.7 249.5 246.5 238.4 239.8 242.7
+ 235.2 250.7 246.9 246.6 239.5 249.6 249.7 241.  245.6 241.  236.7 250.2
+ 260.9 243.9 248.4 236.2 236.5 230.3 228.4 239.2 242.4 229.9 250.7 244.9
+ 243.6 240.4 245.  242.5 245.3 232.3 247.3 240.  243.1 251.8 239.3 235.3
+ 237.1 231.2 244.1 234.7 241.4 232.1 240.2 251.8 240.9 236.4 242.3 236.7
+ 242.6 232.4 240.4 220.2 244.8 235.8 232.7 233.5 242.9 238.2 233.1 231.1
+ 241.5 221.2 230.3 241.5 247.7 228.8 225.1 235.5 243.3 235.4 237.3 244.9
+ 246.8 246.1 237.9 225.5]</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>[182.  181.6 182.  184.3 183.7 177.9 178.2 181.2 181.1 183.4 186.  184.2
+ 190.8 177.1 181.8 173.5 190.  165.1 173.8 181.  162.6 172.8 187.3 173.5
+ 170.5 636.7 171.6 483.8 178.7 183.5 189.6 179.6 178.4 182.  174.9 197.8
+ 176.2 188.5 168.  184.8 167.6 184.8 172.4 590.1 175.5 190.8 181.  188.1
+ 179.1 835.4 164.7 184.2 173.5 191.9 175.4 186.9 173.4 612.7 172.5 168.8
+ 181.  498.8 163.  181.3 173.2 183.4 182.6 177.1 190.5 186.5 187.6 164.8
+ 180.8 175.8 179.  189.1 181.  174.4 164.7 173.  177.9 176.8 169.2 176.7
+ 187.3 178.9 185.  180.2]</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>[199.4 179.3 185.2 226.7 142.2 121.  202.2 121.5 231.  194.2 190.6 190.3
+ 203.4 202.7 224.9 123.  214.5 206.4 183.  203.2 208.  189.3 195.3 188.1
+ 196.8 202.8 202.9 188.5 220.5 187.6 191.7 212.9 164.3 216.2 205.7 247.2
+ 197.7 210.7 180.5 203.4 193.8 205.6 189.6 210.6 196.4 198.  171.7 199.4
+ 164.  125.7 177.1 180.6 180.6 195.8 186.6 185.  199.9 192.7 223.1 181.8
+ 182.8 202.9 166.8 218.5 240.7 182.7 220.9 175.3 170.6 199.1 183.2 125.5
+ 183.1 192.9 211.7 195.9 195.9 179.2 125.4 152.4 205.3 209.4 183.  156.6
+ 171.9 157.2 173.4 187.9]</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>[114.9 136.4 128.9 135.2 147.2 136.1 133.1 144.5 136.3  98.8 105.6 129.4
+ 142.9 154.3 126.4 113.3   4.  116.4 132.3 132.7 124.8 104.7  95.  126.3
+ 140.7  10.  122.6 127.9  97.   99.  106.2 134.7  92.4   3.2  97.6  96.6
+ 105.1   9.5 120.  134.7 119.3 100.8 115.5 114.6  89.  136.9 108.8 118.3
+ 118.9  99.5 115.5 131.9 121.3 130.2 112.  118.2 115.2 127.9  88.5 115.3
+  92.7 123.3 104.1 124.5 101.  115.8 119.7  91.9 119.3 110.5 121.7 122.2
+ 103.6 125.8 110.9 137.6  77.6 119.8  99.8 107.4  74.2 115.1 117.2 131.6
+  92.8  79.2  85.1  81.1]</t>
+        </is>
+      </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>[107.1 113.7 126.7 134.4  76.6   2.   91.7  90.2 113.6  75.6 121.4  84.9
+ 106.8 111.7 117.4 111.  138.1  95.9  86.7 140.3 115.4 128.3 142.4  74.2
+ 113.  111.3   3.2   1.  122.1 115.8 110.3 126.2 110.3 125.1 126.   96.5
+ 116.6  97.9 113.2  86.5  96.1 132.1 126.5 121.2 121.4  91.7  77.  106.5
+ 121.5 108.9 125.  123.9 129.1 104.7 120.2 120.3 135.4 139.  101.  133.2
+ 119.  102.1 148.4 136.2 106.2  81.9 118.  115.  101.2 122.5 108.9 104.9
+ 108.6 109.6 127.5 116.4 120.5 116.1 123.8 102.8 117.4 129.5 104.8 150.2
+ 129.9 121.3 104.8 128.6 141.2 122.  116.1 130.6 115.8 108.9]</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>[165.7 148.  153.6  95.4 139.5 126.  137.4 119.  120.2 123.9   3.2 103.4
+   1.8 119.9   1.3  88.3 116.9 116.   78.3 120.4 139.  109.9 136.  104.5
+ 107.4 148.4  57.1  94.5 105.7 128.5 122.1 141.5 107.2  95.9 129.9  78.3
+  92.5 131.1 133.7 143.8 127.  144.5 147.9 108.5 151.4 157.2 123.5 144.6
+ 103.  153.6   1.2 115.3 116.4 105.  121.  131.6 130.  113.9 144.7   4.7
+ 147.8  97.  139.7 130.2 136.2 169.1 117.4 154.6 135.5 148.2 128.7  65.2
+ 119.5  87.7 129.8 131.9 148.5 123.8 100.4 131.1  53.6 159.6 130.4 121.1
+ 108.7 131.7 162.6 102.6 115.5 100.4 136.5 104.3 129.8 147.6  86.1 165.3
+ 127.8  78.1 109.3 124.6 120.2   1.1 154.8 118.   86.9]</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>[133.1 146.7 193.  171.7 168.5 153.2 229.7 234.3 159.1 129.2 105.1 145.9
+ 173.9 166.2 224.4 158.4  99.7 126.3 139.3 164.2  84.7  55.7 193.4 147.4
+ 166.5 160.5  87.9  82.9 169.5 172.2   2.4 142.3 222.3 169.5 151.7 159.7
+  93.9 130.  166.6 123.2 107.3 166.1 114.6 176.1 106.8 196.4 194.5 199.3
+ 191.9 217.8 141.1 164.2 191.2 146.9 202.3 219.4 219.9 126.  159.5 110.2
+ 184.2 115.1 207.8 138.6 125.  170.8 100.1 169.8 115.  113.  159.9 102.2
+ 129.6 158.7 130.2  54.3 149.6 185.3 184.6  92.9 127.9 131.   58.   80.2
+ 174.7   4.  173.5 122.9 125.1 162.1 153.  147.7 202.9 162.9 146.  152.
+   1.2   2.5 140.5  95.  179.5  96.2 155.1 166.2  86.5]</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>[236.1 219.  245.  306.2 119.   65.  262.5 212.9 224.1 114.9 165.2 188.3
+ 120.  335.1 196.  149.1 320.9 103.9   1.3 122.2 369.3 300.6 242.1 204.9
+ 268.8 103.5 235.7 246.2 283.1 309.3 215.7 341.9 530.5 543.  216.9 289.5
+ 280.9 286.  383.7 267.2 222.5 321.  191.4 224.1 159.9 205.1 328.3 276.5
+ 212.3 344.9 435.  241.2 305.7 213.6 134.9 270.8 533.1 543.4 321.1 473.1
+ 623.4 613.6 219.6 382.6  69.5 417.6 431.2 596.6 261.3 394.2 301.4 726.5
+ 277.1 510.7 401.5 313.7 202.  197.4  84.3 198.3   9.1 386.3 392.2 505.7
+ 296.  229.  371.3 480.7 313.6 112.6 253.6 264.  191.5 258.8]</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5227,7 +11170,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Prisma_FS_NIST_Magnitude_T1map.nii.gz</t>
+          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_FS_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -5252,7 +11195,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Prisma VE11C</t>
+          <t>Skyra VE11C</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -5270,7 +11213,7 @@
         <v>46</v>
       </c>
       <c r="N40" t="n">
-        <v>21.1</v>
+        <v>21.5</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
@@ -5317,38 +11260,197 @@
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>[2142.4 1891.8 1829.4 1964.1 2091.6 1959.9 2089.3 1982.7 1905.1 1951.5
+ 1901.5 1963.  2050.3 1972.2 2085.9 1901.4 1930.1 2018.1 1959.3 2041.6
+ 2077.9 1972.  2092.8 2009.1 1976.2 1881.3 2048.6 1978.2 1926.  1966.2
+ 2040.  2027.  2136.8 2159.7 2021.3 2013.4 2004.7 2040.9 1916.6 1976.9
+ 1909.3 2013.7 1975.  1996.4 1924.9 1998.1 1985.2 2055.4 1991.8 1851.3
+ 1961.9 1929.9 2027.8 1970.3 1994.3 1915.5 2057.5 1855.7 1976.9 2053.2
+ 1954.1 1850.6 1883.7 1911.  1848.5 2054.7 1955.1 2083.2 1979.9 2024.4
+ 1875.  1972.6 1901.2 1943.7 2004.  1951.2 2071.  2126.4 1993.6 1998.4
+ 1866.6 2086.  2070.7 1925.7 1978.6 1999.5 1969.1 1984.1 1990.8 2012.8
+ 2037.9 1940.  2018.1 1889.9 1933.3 1907.2 2004.8]</t>
+        </is>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>[1304.9 1346.3 1400.1 1396.6 1367.2 1357.5 1279.1 1395.9 1436.  1366.4
+ 1332.5 1334.6 1377.5 1421.6 1440.4 1351.3 1388.1 1328.5 1329.9 1334.9
+ 1365.4 1413.5 1377.3 1335.2 1384.5 1428.6 1374.1 1318.8 1457.1 1459.9
+ 1388.7 1364.  1370.8 1422.6 1421.8 1401.5 1390.3 1348.7 1331.4 1382.7
+ 1408.  1343.3 1315.  1388.2 1379.  1315.8 1384.1 1429.5 1371.4 1344.7
+ 1368.3 1387.6 1325.9 1348.4 1408.7 1347.1 1335.5 1371.5 1410.1 1412.8
+ 1374.  1377.4 1350.6 1366.2 1466.  1408.9 1326.4 1355.3 1321.  1326.4
+ 1380.2 1397.1 1388.5 1379.2 1473.8 1427.6 1434.4 1405.8 1388.7 1388.9
+ 1339.  1331.2 1402.8 1418.4 1437.9 1359.3 1285.6 1336.8]</t>
+        </is>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>[ 967.6 1000.8  954.7  963.1 1002.2  964.4  977.5  945.9  993.7  987.5
+ 1003.7  966.1  941.1  939.1  993.3 1001.5  997.4  999.5 1005.2 1018.5
+  940.3  962.2 1011.8  993.3  967.   985.7  972.1 1004.8  983.2 1010.7
+  995.1 1003.9 1029.2 1024.3 1009.3 1005.   999.7  986.8  964.5 1004.2
+  993.  1000.4  975.1 1014.6  997.7  990.9 1009.4  994.3  969.6  995.
+  985.  1014.8  985.   998.4  951.1 1015.2  974.2 1007.6 1005.6  978.9
+  992.8 1008.8  992.8  975.2  950.7  975.5  949.4  964.2 1008.   989.
+  969.   986.9  988.3  966.9  938.  1010.7  981.1  982.3 1007.7  995.1
+ 1014.9  996.7  982.8  968.5  983.7 1005.4 1007.9  980.9]</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>[712.6 681.5 674.8 667.2 679.1 700.4 708.4 690.1 710.4 701.7 695.3 709.
+ 688.7 682.7 709.8 695.9 720.2 678.2 678.1 689.4 667.6 686.7 704.4 699.
+ 688.4 721.3 691.9 689.4 702.9 709.  688.5 684.3 719.1 672.4 666.8 717.2
+ 679.3 710.2 683.9 689.6 709.  691.6 676.8 664.8 670.  705.  671.5 709.7
+ 702.5 688.  700.1 672.2 674.8 686.5 688.7 704.8 697.5 701.3 713.9 689.1
+ 711.4 681.5 705.2 668.3 723.2 701.4 712.8 670.2 691.1 696.2 661.9 677.
+ 715.3 662.  701.9 717.3 722.1 694.3 701.5 709.  706.9 684.3 693.  680.4
+ 689.4 703.1 690.2 673.5]</t>
+        </is>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>[491.5 481.6 461.4 459.6 453.4 448.5 492.4 481.2 467.2 469.5 470.6 470.5
+ 460.4 463.5 474.  509.2 464.7 479.4 470.8 457.9 456.4 449.  465.9 449.8
+ 483.1 480.6 466.3 472.6 467.4 478.7 469.9 453.8 451.6 468.8 495.9 468.6
+ 476.2 473.  472.  474.6 441.3 466.4 461.1 476.1 495.  478.5 471.  468.7
+ 466.2 478.  449.5 474.2 456.4 466.8 477.9 505.9 471.4 489.2 467.  460.1
+ 468.1 469.6 452.4 472.2 453.  497.3 469.2 486.9 493.1 463.3 466.5 479.2
+ 479.8 477.7 468.6 487.1 466.4 471.8 475.1 480.  472.  458.  463.  479.5
+ 472.3 464.9 474.1 468.3]</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>[345.3 342.5 343.3 337.3 342.4 339.7 341.6 341.5 336.4 337.5 349.4 348.5
+ 344.  324.9 333.9 353.4 341.2 338.1 340.4 359.5 353.9 345.2 340.4 340.3
+ 339.4 338.8 325.2 336.7 348.1 335.3 355.9 340.8 341.1 339.1 332.7 346.9
+ 338.1 343.4 339.2 358.2 339.7 347.2 343.1 336.4 341.  331.7 348.9 314.2
+ 336.  332.2 344.2 340.3 335.2 350.2 339.9 354.  337.3 351.6 339.7 337.9
+ 324.6 337.7 333.2 340.1 350.4 342.  349.7 337.8 325.3 333.7 326.6 339.6
+ 347.1 325.2 357.1 333.8 333.1 343.1 337.3 336.8 335.8 348.2 335.1 332.8
+ 359.7 327.6 334.5 335.9 334.6 327.1 337.9 352.9 347.5 324.9 333.2 345.8
+ 340.7]</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>[241.5 243.8 236.3 235.7 238.9 254.  242.6 250.5 247.  246.1 246.1 240.5
+ 236.1 256.9 242.3 251.1 234.6 226.2 232.3 231.2 242.2 252.9 239.1 258.7
+ 250.5 240.1 235.8 250.4 245.5 249.8 239.2 239.1 227.2 247.5 247.2 235.7
+ 240.8 246.9 228.8 243.7 236.1 236.3 234.9 244.3 251.6 247.1 239.7 236.7
+ 235.9 245.1 230.2 241.8 230.7 243.2 244.  248.9 241.7 239.5 232.7 226.5
+ 222.8 239.4 224.4 256.1 230.6 244.1 247.5 240.4 231.2 229.2 231.4 232.7
+ 239.3 242.3 238.5 243.3 238.4 236.2 243.7 230.4 231.  244.8 234.5 227.6
+ 221.9 237.6 247.8 240.4]</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>[196.5 191.  187.4 188.5 181.5 171.  193.1 169.  170.1 179.1 173.5 177.7
+ 188.6 166.8 195.1 174.4 179.3 183.7 184.9 192.4 176.3 178.2 181.1 179.1
+ 200.4 172.  193.  170.  182.8 167.5 613.2 171.8 194.  169.8 183.7 175.3
+ 184.1 174.5 203.2 171.6 194.9 172.5 194.1 171.2 186.2 182.8 196.  177.9
+ 173.4 180.2 195.3 171.6 192.8 175.6 590.3 181.9 178.  189.2 181.6 183.
+ 177.4 182.7 182.7 178.3 174.  184.8 184.9 173.5 164.2 171.9 181.2 181.2
+ 173.4 674.4 175.  187.9 184.5 183.8 180.9 172.  172.7 188.  179.7 176.3
+ 171.9 169.3 181.  191.9]</t>
+        </is>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>[220.9 207.4 197.3 182.4 185.3 191.7 208.2 177.5 197.3 195.  195.5 125.6
+ 201.2 204.9 198.1 196.6 179.2 226.9 183.5 198.5 214.3 128.4 217.8 112.4
+ 233.2 185.5 215.8 181.2 196.  181.3 195.3 195.1 200.  189.1 223.8 182.5
+ 234.9 196.1 212.3 196.9 129.  184.3 195.3 200.3 211.1 134.9 190.1 209.7
+ 154.9 184.8 216.1 184.7 227.8 179.5 176.1 218.1 170.4 192.8 214.7 211.9
+ 187.  196.8 214.9 115.6 176.1 171.4 204.4 198.4 124.  119.1 185.7 192.4
+ 175.7 188.4 198.7 176.2 121.3 178.5 173.  117.8 123.8 209.  220.5 196.7
+ 204.5 205.6 189.5 213.1]</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>[128.1 103.5 134.1 110.2 121.6 152.1  81.7 105.4  94.3 122.5 134.6  97.3
+ 117.1 137.7  83.9 122.6 129.  105.2  95.2  98.  129.3 108.2 100.6 134.5
+ 113.9 112.7  83.3 132.5 123.5  91.3 117.3 125.1  93.4 119.5 119.7 102.8
+ 129.3 113.8 111.4 119.2 128.1 139.5 135.5  97.1 156.7 114.2 130.8 109.6
+ 148.6 124.3 107.2 114.  142.6 126.5 132.3  99.7 121.6 125.1 106.  128.8
+ 133.1  98.7 137.5 134.6  72.9 117.   65.1 113.5 106.4 119.3  81.4  81.8
+  79.  124.9 145.4 101.6 102.   89.5 101.9 110.3  86.2  64.1  86.  115.2
+ 100.  108.7 114.9   3.6]</t>
+        </is>
+      </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>[  8.3  71.5  85.6 103.1 120.5 105.4 113.4  95.   68.3   9.5 128.8 117.
+   9.1  95.4 120.4   1.8 107.5 120.5  72.7 106.2 130.9  92.5  90.5 106.6
+ 113.2 131.1 111.5 123.1  94.4 102.6 119.9 119.1 113.8 105.5 103.8 126.9
+  87.3 102.7 125.2 117.1 122.8 113.1 130.6 137.1 131.1 146.5 131.8 105.6
+ 126.  126.5  83.8 123.9 122.1 104.3 127.9 103.  122.4 143.6 122.3 126.1
+ 103.2 109.4 104.2 104.8 104.1  88.9 119.4 127.9 111.4 107.4 130.5  90.7
+  93.  131.8 125.9 115.5  51.7 116.8 130.1 107.6 100.9 141.6 121.7 107.1
+ 131.3 110.6 126.4  89.4 116.3 119.6 143.  134.  113.1 118.5]</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>[  9.8 141.8 128.1 110.9 104.4  56.2  92.3 111.9 127.2  87.5 140.7 131.
+  94.  123.5 139.5  90.1 102.5   1.2 126.9  91.7 147.3   1.1  10.3 176.6
+  82.9  90.8 126.6  74.1 160.2 117.3 139.1 164.8  93.9 132.6 112.8 140.1
+  54.   80.5  81.5 132.3 101.7 143.6 132.1  80.3 112.9 110.7 130.5  82.9
+ 145.6  72.2 135.2 118.9 139.8  96.8 142.1 115.8 138.3 119.4 149.1 153.1
+ 122.  159.2 127.1 113.2 126.4 139.9 140.8  89.8 156.8  85.1 105.4 114.
+ 102.2  79.1 148.3 200.8 111.7 148.7 115.7  97.1 111.  107.  122.  112.8
+ 147.8 133.   89.9 129.2 159.6 141.8  96.5 185.9 140.7 124.1]</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>[223.2 178.7 125.  141.8 156.5 164.6 157.6 153.  121.7  69.9 110.1 112.8
+ 132.9 116.3  96.  172.8  84.3 121.2   4.  174.6 108.2   1.6 147.4  94.2
+ 116.3   2.  130.5 130.2 182.1 169.8 112.9 217.7 131.8 192.3 144.9 170.9
+   2.1 122.9 138.1 128.6 143.2 150.3 174.4 133.9 158.5 103.1  92.3 112.
+ 195.5 124.6 170.9 142.4 165.7 191.7 186.8 183.1 202.8 166.5 136.4 135.2
+ 164.4 180.6 151.3 171.  169.   88.8 149.6 198.4 121.5 180.9  97.6  53.2
+   2.5 107.1  61.5 192.7 151.1 205.7 156.  183.9 110.7 157.6 140.7  90.9
+ 216.4 177.7  97.  163.3 121.7 159.4  39.4 130.6 186.5  89.7]</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>[184.  220.6  99.5 170.7 599.  113.5 103.1 105.6 121.3  58.2 234.8 136.4
+ 108.5 219.4 316.9   3.  269.5  40.2 161.8 398.6 118.1 332.  248.4 254.9
+ 181.  305.9 129.5 226.8 200.8 286.2 274.2 188.  473.1 273.1 234.1 244.
+ 244.5 311.4 354.2 280.5 257.4 574.8 308.8 306.4 111.4 276.4 221.4 245.
+ 417.  255.8 437.    6.7 451.3 448.6 188.7 205.2 478.4 307.2 244.4 444.7
+ 464.7 805.8 191.  240.8   4.2  64.  260.6 268.  230.1 173.7 270.6 290.8
+ 164.1 316.3 266.4 266.4 255.4 394.6 293.6   4.  276.  593.8 161.4 176.4
+ 221.  138.4 338.6 437.3 638.8 800.9 616.8 708.5 673.5 775. ]</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>12.003</v>
+        <v>13.001</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ngmaforo_ucla_NIST</t>
+          <t>near_douglas_NIST</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://osf.io/ab2zg/download/</t>
+          <t>https://osf.io/qr6w2/download/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_noFS_NIST_Magnitude_T1map.nii.gz</t>
+          <t>20200309_near_douglas_NIST/20200309_near_douglas_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5358,12 +11460,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nyasha G. Maforo</t>
+          <t>Jamie Near</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>University of California, Los Angeles</t>
+          <t>Douglas Brain Imaging Centre</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5373,7 +11475,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Skyra VE11C</t>
+          <t>Prisma fit</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -5388,10 +11490,10 @@
         <v>130</v>
       </c>
       <c r="M41" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N41" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -5424,7 +11526,7 @@
         <v>2550</v>
       </c>
       <c r="W41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
@@ -5432,69 +11534,233 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>[1913.  1894.  1909.  1917.9 1930.1 1862.5 1906.3 1947.2 1954.6 1932.1
+ 1943.4 1981.6 1871.  1933.6 1976.8 1949.2 1978.8 1981.9 1932.1 1921.2
+ 1981.1 1894.  1941.  1938.1 1919.7 1924.3 1938.2 1989.  1982.2 1940.8
+ 1945.8 1988.  1898.1 1955.9 1917.3 1967.2 1948.  1952.8 1961.3 1936.
+ 1934.5 1938.3 1965.3 1943.7 1959.5 1953.3 1944.  1936.4 1944.  1960.5
+ 1941.7 1921.4 1926.2 1940.  1971.9 1922.8 1948.2 1964.3 1973.2 1955.4
+ 1910.  1907.9 1978.7 1945.5 1947.2 1992.5 1939.6 1962.4 1977.2 1986.5
+ 1949.3 1947.8 1932.3 1968.6 1956.8 1977.7 1985.8 1998.7 1967.3 2002.4
+ 1939.2 1928.8 1948.1 1950.1 1949.2 2005.6 1984.5 1965.  1954.1 1934.4
+ 1895.5 1950.5 2010.  1965.1 1938.4 1962.8 1910.7]</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>[1447.3 1379.5 1323.3 1331.5 1375.5 1435.8 1428.1 1271.1 1307.7 1371.8
+ 1362.2 1354.5 1313.4 1428.1 1416.4 1278.  1372.1 1377.3 1368.7 1371.7
+ 1395.4 1406.5 1362.1 1424.7 1263.4 1380.2 1366.4 1344.1 1366.8 1400.8
+ 1382.2 1348.6 1398.1 1338.9 1283.7 1367.6 1340.3 1398.  1374.2 1380.4
+ 1387.9 1385.4 1395.7 1371.3 1347.5 1367.  1363.2 1399.  1360.  1408.7
+ 1355.1 1398.  1377.5 1377.4 1339.5 1381.6 1372.6 1400.9 1387.6 1407.
+ 1355.6 1390.9 1382.6 1404.6 1277.4 1379.5 1333.5 1390.7 1367.8 1347.6
+ 1393.3 1385.4 1384.5 1373.5 1362.8 1356.4 1337.6 1382.8 1379.8 1390.3
+ 1351.3 1385.6 1360.4 1360.6 1325.3 1314.2 1328.5 1376.6]</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>[842.8 819.5 817.1 819.7 828.9 850.6 825.2 821.9 836.9 841.9 837.4 827.2
+ 815.4 824.6 836.6 844.8 836.6 824.3 821.9 827.  836.1 852.4 816.7 843.9
+ 844.1 852.3 829.4 841.3 840.1 845.1 826.6 834.7 839.6 815.1 862.6 842.7
+ 850.9 840.2 823.4 830.1 848.2 829.3 848.9 814.7 876.8 848.4 863.  838.6
+ 886.2 826.2 839.6 828.7 857.3 828.3 877.1 848.2 865.7 841.1 839.4 825.1
+ 844.2 824.2 852.1 829.3 863.  858.2 852.3 864.3 852.5 850.5 837.5 836.6
+ 845.5 828.4 874.4 859.9 846.2 843.3 841.1 842.3 858.  824.7 860.8 860.
+ 860.8 856.4 853.8 828.1]</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>[432.2 432.  433.6 432.8 433.8 437.1 440.4 437.4 434.1 432.5 433.3 435.2
+ 598.8 432.  442.6 435.  432.9 438.1 437.3 436.5 436.  432.9 606.2 431.1
+ 436.7 437.4 436.6 439.1 438.4 440.9 437.3 431.2 434.5 613.8 434.9 442.6
+ 439.6 593.8 596.  595.9 438.2 434.4 432.2 609.3 598.8 438.7 595.8 444.
+ 442.6 440.9 599.1 594.  429.2 605.1 606.5 438.2 599.7 598.6 603.7 440.3
+ 604.5 596.7 430.1 602.9 610.9 592.7 609.2 593.3 597.2 607.3 434.8 606.1
+ 430.1 612.1 603.1 431.9 608.3 609.8 432.  602.  614.2 429.9 609.  605.9
+ 604.7 604.4 618.2 427.5]</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>[418.2 409.6 411.2 413.1 411.9 417.9 419.4 419.  425.8 424.7 427.4 431.8
+ 426.  415.1 429.3 422.9 429.  417.7 419.9 422.  417.7 424.4 428.  419.3
+ 416.7 435.  422.7 434.5 430.5 432.  435.  420.8 429.2 418.2 420.7 443.7
+ 428.7 438.  421.1 428.6 426.2 431.4 422.8 433.5 426.5 449.6 432.2 437.1
+ 430.1 443.8 423.4 437.6 425.5 440.8 425.6 447.6 429.8 446.6 427.7 426.1
+ 436.1 432.4 431.9 431.6 425.8 438.9 431.1 432.  435.4 434.5 431.  424.6
+ 435.5 420.9 442.4 426.9 438.2 428.7 424.5 423.7 426.8 431.9 423.  427.6
+ 437.6 422.6 426.3 430.9 426.1 422.5 417.5 436.3 431.5]</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>[309.3 315.5 310.8 307.3 309.3 318.7 327.2 309.3 307.3 303.5 304.9 301.2
+ 321.  329.6 304.6 316.3 311.7 311.3 314.  312.6 306.  303.5 337.2 309.
+ 316.9 314.7 308.  313.2 313.2 309.8 311.1 306.4 318.3 326.9 309.8 320.8
+ 312.5 319.8 312.3 313.6 317.6 306.4 314.6 326.5 319.3 319.6 321.  319.2
+ 317.1 318.  310.4 316.1 310.  319.6 322.6 319.8 319.7 320.4 318.9 318.3
+ 318.  311.4 318.  314.1 319.8 310.1 325.  311.1 320.7 314.5 320.6 312.7
+ 314.8 316.9 312.6 313.4 326.6 312.  313.9 315.7 310.8 311.7 309.4 304.
+ 310.4 322.6 306.6 309.1 308.1 313.5 310.7 305.6 316.9 303.5 298.9 299.7
+ 297.5]</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>[209.4 225.1 226.  216.  212.5 211.6 208.6 231.2 218.8 208.1 208.6 211.7
+ 210.1 204.9 220.  233.3 224.5 214.5 225.2 217.8 219.2 215.3 215.1 216.3
+ 209.  244.4 209.8 228.  215.3 215.8 217.3 216.1 211.4 212.3 222.7 232.3
+ 213.6 226.7 215.2 227.9 211.7 217.2 222.4 209.2 228.9 224.5 223.9 225.2
+ 219.9 218.6 215.5 219.1 212.1 220.3 226.5 223.8 222.3 223.4 220.3 218.4
+ 219.9 222.2 210.6 221.4 214.9 228.5 209.5 223.9 216.4 226.1 208.6 214.
+ 220.4 210.1 231.8 204.4 217.9 214.5 215.7 214.9 216.8 209.7 214.6 204.4
+ 211.7 208.8 210.3 209.6]</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>[148.3 151.5 152.7 142.9 137.6 136.5 144.3 156.1 150.7 131.6 131.4 135.1
+ 134.5 129.4 167.1 154.5 157.3 127.4 141.9 144.1 138.8 136.7 142.7 140.1
+ 142.  165.5 135.1 142.7 142.8 137.  145.5 143.  134.  147.1 153.4 156.9
+ 133.7 145.7 140.4 147.1 139.2 141.1 148.6 139.5 159.9 147.4 142.8 146.7
+ 147.8 138.9 147.5 141.3 147.5 141.6 158.6 146.5 140.5 142.9 144.5 139.3
+ 143.8 138.4 146.8 139.1 148.5 154.  130.8 143.3 138.5 146.8 141.4 140.9
+ 145.5 138.6 159.3 132.1 133.1 136.9 132.3 136.6 133.8 129.2 151.7 123.2
+ 129.2 134.4 137.6 134.3]</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>[250.9 204.6 129.6 128.  125.5 126.5 230.9 120.1 118.8 112.3 100.3  94.7
+  98.1 111.6 251.7 115.9 125.1 108.4  85.3  85.8  91.6  88.3  87.  104.1
+ 122.  132.1 108.   77.4  97.9  90.8  94.6  91.9  98.9  89.3 113.8 133.5
+  99.1 109.2  99.1 100.2 100.1 100.1  94.1 103.9 133.2 112.9  94.7 105.
+ 103.8 107.1  94.1  98.8 107.8 100.6 142.7  97.7 113.   98.3 110.4  88.9
+ 110.5  86.8 110.5  96.  142.2  96.  101.6  96.4 105.3  89.5 100.3 102.1
+ 108.7  93.3 108.7 111.   79.9  99.6 108.  101.2  96.9  96.7  95.6  87.7
+  93.4  64.8  89.6  99.6  70.4  97.4  79.3  74.5   2.7]</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>[139.4 152.2 154.2 159.  162.9 157.5 148.6 151.6 138.2 130.5 123.1 130.4
+ 144.2 158.2 133.2  98.3 123.4 126.5 141.6 132.9 139.8 133.9 130.3 162.
+ 158.1  92.6 135.7 131.7 115.4 133.8 127.1 137.6 137.6 131.5 134.6 120.7
+ 133.8 141.4 137.9 145.1 142.6 130.8 142.7 129.2 130.5 147.8 122.4 138.
+ 123.6 123.6 127.6 138.3 124.1 145.  116.  132.8 126.6 135.1 125.9 148.6
+ 123.6 132.8 122.5 135.2 106.1 132.4 117.1 132.6 124.3 121.7 126.4 118.7
+ 123.8 124.6 125.6 122.6 123.4 132.1 134.9 128.5 117.2 131.4 105.8 119.4
+ 117.7 114.3 116.3 116.5]</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>[113.2 126.1 125.9 116.3 131.9 122.4 109.9 102.2 100.1 105.3 129.7 130.4
+ 100.2  95.3 106.7 106.9 111.3 101.2 104.5 112.3 143.8 103.4 107.8 114.8
+ 100.9  99.6  97.2 111.  113.7 128.9 133.2 101.3 118.6  94.4 112.3 115.8
+ 112.1 111.  111.  116.  142.1 125.1 109.8 106.2 116.7 106.2 106.5  97.1
+ 119.2 100.9 118.7 144.3 124.  110.1 106.6 121.3 105.  127.5 107.6 115.5
+ 100.7 123.5 136.  129.8 110.9 115.3 108.6 116.5  98.7 106.7 114.7 107.2
+ 139.7 105.4 131.4 113.8 123.1 123.8 123.2 114.8 124.7 143.6 114.6 113.6
+ 121.4 121.4 112.1 119.4 123.7 124.  114.4 117.2 122.2 120.3]</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>[1.223e+02 1.937e+02 1.782e+02 1.397e+02 1.577e+02 1.446e+03 2.899e+02
+ 1.344e+02 1.728e+02 5.600e+01 1.551e+02 1.615e+02 1.529e+02 8.105e+02
+ 3.251e+02 4.000e+00 1.790e+02 1.600e+01 1.601e+02 1.391e+02 1.471e+02
+ 1.558e+02 1.323e+02 7.450e+02 2.465e+02 1.011e+02 1.959e+02 1.600e+01
+ 1.326e+02 1.251e+02 1.401e+02 1.638e+02 1.528e+02 1.850e+02 9.500e+00
+ 1.559e+02 1.703e+02 1.300e+01 1.232e+02 1.365e+02 1.041e+02 1.330e+02
+ 1.752e+02 1.153e+02 1.415e+02 1.525e+02 1.409e+02 1.485e+02 1.100e+00
+ 1.141e+02 1.117e+02 1.218e+02 1.215e+02 1.587e+02 1.113e+02 1.240e+02
+ 1.388e+02 1.483e+02 1.521e+02 1.347e+02 1.218e+02 1.249e+02 1.273e+02
+ 1.179e+02 1.509e+02 1.283e+02 1.071e+02 1.157e+02 1.296e+02 1.531e+02
+ 9.950e+01 1.255e+02 1.112e+02 1.150e+02 1.104e+02 1.118e+02 1.375e+02
+ 1.025e+02 1.426e+02 1.440e+02 1.267e+02 1.175e+02 1.377e+02 1.046e+02
+ 1.206e+02 1.425e+02 1.411e+02 1.156e+02 1.185e+02 1.431e+02 1.329e+02
+ 1.431e+02 1.458e+02 1.405e+02]</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>[185.  170.3 163.8 173.2 205.9 181.5 151.3 148.9 156.2 138.9 157.2 186.9
+ 184.5 140.6 127.2 149.2 152.8 148.8 157.2 152.9 143.2 194.  144.8 167.2
+ 158.  154.4 160.2 150.8 175.6 178.8 169.5 192.3 166.3 172.5 151.3 159.8
+ 145.7 165.8 169.4 135.8 177.8 160.7 189.6 165.7 153.9 147.7 147.2 142.6
+ 178.5 142.4 164.8 177.4 164.6 189.3 156.2 159.8 137.2 148.  127.4 141.2
+ 139.6 173.6 172.6 157.1 189.1 181.8 147.9 157.4 158.6 163.9 175.2 165.2
+ 181.  164.2 190.  157.8 196.8 165.6 149.1 167.8 157.  183.3 160.1 159.2
+ 158.1 176.3 179.4 177.5 167.2 150.5 101.8 167.1 168.3 109.1]</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>[250.1 196.8 158.8 246.5 248.8 162.2 194.1 233.4 255.8 209.7 431.2 230.
+ 197.6 249.3 247.  152.5 181.4 205.3 229.1 318.6 213.5 254.6 219.5 190.4
+ 241.3 278.6 197.4 244.2 223.9 452.  271.7 272.1 225.6 211.8 212.  208.5
+ 188.8 230.1 234.2 277.3 412.4 293.3 271.8 166.3 261.  192.3 271.4 270.1
+ 261.7 252.7 248.6 437.7 321.9 288.6 140.2 229.3 270.6 204.4 185.7 239.8
+ 228.4 293.4 353.8 285.  298.5 230.4 257.5 291.  328.6 253.8 262.6 274.2
+ 424.9 305.2 257.6 318.  267.4 237.9 231.9 219.  296.4 377.3 295.6 255.9
+ 259.1 280.  317.1 298.  250.3 379.2 333.6 268.3 226.5 215.4]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>12.004</v>
+        <v>14.001</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ngmaforo_ucla_NIST</t>
+          <t>jalnefjord_sahlgrenska_NIST</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://osf.io/ab2zg/download/</t>
+          <t>https://osf.io/tw6eq/download/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_FS_NIST_Magnitude_T1map.nii.gz</t>
+          <t>20201802_jalnefjord_sahlgrenska_NIST/20201802_jalnefjord_sahlgrenska_NIST_Complex_T1map.nii.gz</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Magnitude</t>
+          <t>Complex</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Nyasha G. Maforo</t>
+          <t>Oscar Jalnefjord</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>University of California, Los Angeles</t>
+          <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Siemens</t>
+          <t>Philips</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Skyra VE11C</t>
+          <t>Achieva dStream 5.6.1</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -5509,16 +11775,16 @@
         <v>130</v>
       </c>
       <c r="M42" t="n">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="N42" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>t2_tse_dark-fluid_cor</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -5545,15 +11811,15 @@
         <v>2550</v>
       </c>
       <c r="W42" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>[50, 400, 1100, 2400]</t>
+          <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
@@ -5574,248 +11840,6 @@
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>13.001</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>near_douglas_NIST</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://osf.io/qr6w2/download/</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20200309_near_douglas_NIST/20200309_near_douglas_NIST_Magnitude_T1map.nii.gz</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Magnitude</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Jamie Near</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Douglas Brain Imaging Centre</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Siemens</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Prisma fit</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>130</v>
-      </c>
-      <c r="M43" t="n">
-        <v>42</v>
-      </c>
-      <c r="N43" t="n">
-        <v>22</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>t2_tse_dark-fluid_cor</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Spin-echo inversion recovery</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>['256 256 1']</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>['1 1 2']</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
-      <c r="V43" t="n">
-        <v>2550</v>
-      </c>
-      <c r="W43" t="n">
-        <v>16</v>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>[50, 400, 1100, 2400]</t>
-        </is>
-      </c>
-      <c r="Y43" t="n">
-        <v>287</v>
-      </c>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>14.001</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>jalnefjord_sahlgrenska_NIST</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://osf.io/tw6eq/download/</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>20201802_jalnefjord_sahlgrenska_NIST/20201802_jalnefjord_sahlgrenska_NIST_Complex_T1map.nii.gz</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Complex</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Oscar Jalnefjord</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Sahlgrenska University Hospital</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Philips</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Achieva dStream 5.6.1</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>130</v>
-      </c>
-      <c r="M44" t="n">
-        <v>103</v>
-      </c>
-      <c r="N44" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>IR</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Spin-echo inversion recovery</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>['256 256 1']</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>['1 1 2']</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
-      <c r="V44" t="n">
-        <v>2550</v>
-      </c>
-      <c r="W44" t="n">
-        <v>14</v>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>[50, 400, 1100, 2500]</t>
-        </is>
-      </c>
-      <c r="Y44" t="n">
-        <v>435</v>
-      </c>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/databases/3T_NIST_T1maps_database.xlsx
+++ b/databases/3T_NIST_T1maps_database.xlsx
@@ -1900,31 +1900,29 @@
  1361.6 1362.5 1308.2 1326.7 1325.4 1328.8 1332.3 1351.7 1328.4 1300.
  1345.9 1315.8 1261.8 1384.  1321.5 1314.3 1333.8 1341.1 1313.5 1305.9
  1354.  1335.  1345.9 1329.2 1316.  1299.2 1310.9 1320.2 1349.6 1337.2
- 1373.8 1361.9 1331.1 1327.6 1335.2 1361.4]</t>
+ 1361.9 1331.1 1327.6 1335.2 1361.4]</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>[1141.9  943.4  954.3  931.4  925.   934.2 1328.6  932.8  927.8  938.7
-  939.3  945.7  942.4  941.1 5000.   803.7  933.7  939.7  929.8  933.4
-  944.7  933.3  939.1  948.8 1319.2  954.7  949.5  950.9  939.1  936.9
-  946.8  942.6  935.5  949.  1108.7  942.3  947.9  938.4  931.1  937.6
-  943.1  945.4  939.   946.9 1312.   957.7  945.8  931.6  926.   938.1
-  949.4  943.6  927.7  939.3 2532.2  985.3  943.1  936.9  926.5  923.4
-  935.5  945.5  944.1  939.  5000.   856.6  936.4  945.   934.   925.2
-  924.4  923.8  925.1  921.9  999.2  949.8  948.8  938.5  927.3  930.1
-  944.7  817.7  941.9  940.3  935.2  958.7]</t>
+          <t>[943.4 954.3 931.4 925.  934.2 932.8 927.8 938.7 939.3 945.7 942.4 941.1
+ 803.7 933.7 939.7 929.8 933.4 944.7 933.3 939.1 948.8 954.7 949.5 950.9
+ 939.1 936.9 946.8 942.6 935.5 949.  942.3 947.9 938.4 931.1 937.6 943.1
+ 945.4 939.  946.9 957.7 945.8 931.6 926.  938.1 949.4 943.6 927.7 939.3
+ 985.3 943.1 936.9 926.5 923.4 935.5 945.5 944.1 939.  856.6 936.4 945.
+ 934.  925.2 924.4 923.8 925.1 921.9 999.2 949.8 948.8 938.5 927.3 930.1
+ 944.7 817.7 941.9 940.3 935.2 958.7]</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>[653.4 668.8 706.9 654.3 650.8 665.1 696.  677.8 682.5 679.3 671.2 665.4
- 726.7 695.5 668.6 668.4 676.4 673.5 674.8 689.  668.6 883.1 657.5 678.3
- 668.4 672.2 672.4 672.9 671.9 676.9 661.  866.2 647.4 682.4 673.8 679.5
- 674.3 670.2 670.2 670.1 671.  661.  691.8 674.  676.2 669.5 666.8 671.
- 675.4 668.3 648.6 687.1 675.  676.8 677.3 676.8 678.2 679.2 664.8 664.
- 672.  660.2 668.4 672.2 669.7 671.8 677.6 684.4 652.9 678.9 660.2 665.6
- 672.5 673.8 661.6 671.7 653.3 680.5 673.9 677.5 678.  678.9]</t>
+          <t>[668.8 706.9 654.3 650.8 685.  696.  677.8 682.5 679.3 671.2 665.4 664.
+ 668.6 668.4 676.4 673.5 674.8 689.  668.6 655.1 678.3 668.4 672.2 672.4
+ 672.9 671.9 676.9 661.  668.5 682.4 673.8 679.5 674.3 670.2 670.2 670.1
+ 671.  677.  691.8 674.  676.2 669.5 666.8 671.  675.4 668.3 671.4 687.1
+ 675.  676.8 677.3 676.8 678.2 679.2 664.8 671.4 672.  660.2 668.4 672.2
+ 669.7 671.8 677.6 684.4 677.4 678.9 660.2 665.6 672.5 673.8 661.6 671.7
+ 680.5 673.9 677.5 678.  678.9]</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -3254,16 +3252,13 @@
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>[1965.2 2138.4 1883.7 1886.8 3190.9 1997.1 2008.4 2004.2 2004.6 1960.6
- 2260.6 2712.9 1942.3 1986.  1958.7 1928.9 1946.8 1974.8 1988.2 2309.7
- 3583.9 1989.5 1970.  1980.1 1956.9 1973.4 1994.4 1932.5 1905.5 1948.
- 1814.  1738.8 1913.5 1981.7 1965.8 1914.9 1966.7 1941.6 1909.5 1897.5
- 1934.5 2111.3 3792.6 1908.3 1945.2 1957.9 1927.7 1948.6 1915.6 1950.2
- 1990.4 1996.6 2106.8 3217.2 3106.3 1973.5 1981.9 1986.5 1967.8 1940.3
- 1938.  1962.  1957.6 1956.4 2111.7 1910.9 1969.  1947.7 1959.2 1983.8
- 1955.1 1943.5 1930.7 1965.2 1957.  2348.6 2143.3 2020.8 1971.9 1962.2
- 1945.6 1945.4 1945.9 2017.5 1965.1 2089.7 1985.4 1920.4 1932.  1943.8
- 1980.6 1973.9 2082.6 2041.2 2040.1 2080.6 2044. ]</t>
+          <t>[2008.4 2004.2 2004.6 1960.6 1986.  1958.7 1928.9 1946.8 1974.8 1988.2
+ 1970.  1980.1 1956.9 1973.4 1994.4 1932.5 1905.5 1948.  1981.7 1965.8
+ 1914.9 1966.7 1941.6 1909.5 1897.5 1934.5 1945.2 1957.9 1927.7 1948.6
+ 1915.6 1950.2 1990.4 1996.6 1981.9 1986.5 1967.8 1940.3 1938.  1962.
+ 1957.6 1956.4 1947.7 1959.2 1983.8 1955.1 1943.5 1930.7 1965.2 1957.
+ 2020.8 1971.9 1962.2 1945.6 1945.4 1945.9 2017.5 1985.4 1920.4 1932.
+ 1943.8 1980.6]</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
@@ -3304,39 +3299,35 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>[549.1 491.1 487.7 481.8 486.  487.  690.8 489.6 485.4 483.  485.  487.8
- 486.9 487.  350.4 529.5 488.8 487.6 479.7 479.9 487.6 488.9 489.7 489.9
- 819.5 488.7 482.1 488.  483.9 481.8 489.7 492.9 488.7 490.7 723.  492.1
- 484.3 483.  481.4 484.  486.6 488.4 485.  485.7 680.5 496.3 489.7 484.9
- 484.5 489.8 489.9 490.3 491.5 489.5 780.3 492.7 484.7 486.5 490.2 485.8
- 485.1 486.4 487.1 490.9 947.4 511.8 491.1 488.5 493.5 486.7 490.3 490.3
- 485.8 490.8 581.  494.6 487.8 491.1 489.  486.1 488.2 490.3 503.2 494.1
+          <t>[491.1 487.7 481.8 486.  487.  489.6 485.4 483.  485.  487.8 486.9 487.
+ 529.5 488.8 487.6 479.7 479.9 487.6 488.9 489.7 489.9 488.7 482.1 488.
+ 483.9 481.8 489.7 492.9 488.7 490.7 492.1 484.3 483.  481.4 484.  486.6
+ 488.4 485.  485.7 496.3 489.7 484.9 484.5 489.8 489.9 490.3 491.5 489.5
+ 492.7 484.7 486.5 490.2 485.8 485.1 486.4 487.1 490.9 491.1 488.5 493.5
+ 486.7 490.3 490.3 485.8 490.8 494.6 487.8 491.1 489.  486.1 488.2 490.3
  487.7 487.9 486.7 489.5]</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>[ 346.6  335.   332.   328.6  318.   347.1  347.5  342.4  342.   344.7
-  347.   334.2  355.3  346.1  340.1  341.3  341.3  343.5  348.6  348.4
-  341.7  355.7  350.8  340.1  343.3  343.6  345.2  341.7  340.5  343.5
-  348.1  331.6  372.4  348.9  348.1  344.4  341.9  344.5  341.4  340.6
-  342.4  346.8  342.5  355.7  343.9  345.1  342.3  342.4  345.1  344.1
-  342.7  341.   343.9  348.7  355.7  347.3  342.5  343.5  343.6  344.
-  342.2  343.4  343.   343.   349.3 5000.   375.2  349.6  344.5  349.4
-  348.9  346.7  343.   346.   345.2  341.2  517.4  354.5  353.2  346.9
-  344.8  344.   343.2  345.8  346.3  371.   346.7  344.4  341.6  342.4
-  347.6  348.1  360.9  354.9  346.9  342.3  345.6]</t>
+          <t>[347.1 347.5 342.4 342.  344.7 347.  355.3 346.1 340.1 341.3 341.3 343.5
+ 348.6 348.4 341.7 350.8 340.1 343.3 343.6 345.2 341.7 340.5 343.5 348.1
+ 331.6 348.9 348.1 344.4 341.9 344.5 341.4 340.6 342.4 346.8 342.5 343.9
+ 345.1 342.3 342.4 345.1 344.1 342.7 341.  343.9 348.7 347.3 342.5 343.5
+ 343.6 344.  342.2 343.4 343.  343.  349.3 349.6 344.5 349.4 348.9 346.7
+ 343.  346.  345.2 341.2 354.5 353.2 346.9 344.8 344.  343.2 345.8 346.3
+ 346.7 344.4 341.6 342.4 347.6 348.1 346.9 342.3 345.6]</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>[244.  240.7 240.  242.1 245.2 240.3 242.1 238.1 239.4 239.8 240.  245.4
- 239.  241.5 244.5 241.5 240.9 243.1 242.7 239.2 243.1 241.1 245.2 243.7
- 242.3 241.3 243.4 244.4 243.8 246.1 243.1 244.6 246.5 241.4 240.7 244.2
- 245.7 243.9 246.3 245.3 243.1 242.5 245.9 242.9 241.1 242.9 244.8 241.8
- 243.6 244.2 245.9 244.7 247.1 246.8 245.  243.1 244.8 245.  244.9 244.7
- 246.1 242.5 245.3 247.8 245.7 244.9 244.4 246.5 246.9 245.6 245.  244.6
- 248.  245.6 248.1 247.1 246.7 248.  247.9 242.9 244.7 251.3 250.  243.5]</t>
+          <t>[244.  240.7 240.  242.1 245.2 240.3 242.1 238.1 239.4 239.8 240.  239.
+ 241.5 244.5 241.5 240.9 243.1 242.7 239.2 243.1 241.1 245.2 243.7 242.3
+ 241.3 243.4 244.4 243.8 246.1 243.1 244.6 246.5 241.4 240.7 244.2 245.7
+ 243.9 246.3 245.3 243.1 242.5 245.9 242.9 241.1 242.9 244.8 241.8 243.6
+ 244.2 245.9 244.7 247.1 246.8 245.  243.1 244.8 245.  244.9 244.7 242.5
+ 245.3 247.8 245.7 244.9 244.4 246.5 246.9 245.6 245.  244.6 248.  245.6
+ 248.1 247.1 246.7 248.  247.9 242.9 244.7 251.3 250.  243.5]</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
@@ -8080,11 +8071,10 @@
           <t>[170.8 241.2 234.1  72.1  63.4  97.6 105.2 224.9 208.7   3.    3.    2.1
   82.   94.3  74.3  56.4   1.   86.7   2.    5.3   4.1  80.7  82.1  87.4
   97.   82.7  77.6  80.6   1.3  56.5  60.3  63.5  86.1  77.8  79.9   2.1
-   1.2   3.2   1.3  56.7  85.1  78.    9.5   1.1   3.3  78.6 214.  186.
-  72.5  82.2   3.3   3.2  79.5   2.1  76.7  76.6 103.3  66.  144.5  97.8
-  85.6 144.5  82.3  87.8  87.7   3.  171.5 129.7   4.   82.1  95.  243.7
-  66.2  92.5 692.7 315.3 255.6 191.1  98.9 181.    1.   71.4 121.5  92.3
-   1.8   4.2 116.1   2.7   2.7]</t>
+   1.2   3.2   1.3  56.7  85.1  78.    9.5   1.1   3.3  78.6 186.   72.5
+  82.2   3.3   3.2  79.5   2.1  76.7  76.6 103.3  66.  144.5  97.8  85.6
+ 144.5  82.3  87.8  87.7   3.    4.   82.1  95.  243.7  66.2  92.5 692.7
+ 191.1  98.9 181.    1.   71.4]</t>
         </is>
       </c>
     </row>
@@ -8331,22 +8321,12 @@
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>[1.1600e+02 1.2010e+02 1.3270e+02 1.1980e+02 1.2000e+00 9.3300e+01
- 1.2000e+00 6.0000e+01 9.3900e+01 1.3290e+02 1.4240e+02 1.5560e+02
- 5.0000e+03 6.1200e+01 9.9900e+01 7.1500e+01 1.0650e+02 1.0670e+02
- 1.2380e+02 5.0500e+01 5.3150e+02 9.6430e+02 1.3320e+02 1.0400e+02
- 1.0290e+02 1.1370e+02 9.4300e+01 1.5320e+02 1.3240e+02 3.5150e+02
- 1.1840e+02 1.1090e+02 8.9900e+01 1.0190e+02 9.9800e+01 1.0530e+02
- 1.2030e+02 1.0050e+02 1.3590e+02 1.2000e+00 2.1350e+02 3.9590e+02
- 2.1010e+02 8.1700e+01 8.1400e+01 1.0230e+02 1.0100e+02 1.2510e+02
- 7.5700e+01 1.4550e+02 3.2000e+00 3.5000e+00 2.4030e+02 1.0575e+03
- 9.6800e+01 9.5800e+01 9.9200e+01 9.8900e+01 1.1860e+02 7.0900e+01
- 1.3860e+02 2.4000e+00 1.2000e+00 2.6520e+02 4.6000e+00 1.0930e+02
- 9.9300e+01 8.9000e+01 1.0130e+02 9.6300e+01 1.1320e+02 9.5000e+00
- 1.2000e+00 1.5750e+02 2.3310e+02 8.2000e+01 7.3000e+01 8.5700e+01
- 9.4200e+01 8.3400e+01 2.0000e+00 5.9200e+01 3.7200e+01 1.1160e+02
- 8.4800e+01 8.7300e+01 9.9800e+01 9.8700e+01 9.3800e+01 7.9600e+01
- 5.5600e+01 8.1800e+01 7.7100e+01 8.7700e+01]</t>
+          <t>[ 93.3   1.2  60.   93.9 132.9  61.2  99.9  71.5 106.5 106.7 123.8 133.2
+ 104.  102.9 113.7  94.3 153.2  89.9 101.9  99.8 105.3 120.3 100.5 135.9
+   1.2  81.7  81.4 102.3 101.  125.1  75.7 145.5   3.2  96.8  95.8  99.2
+  98.9 118.6  70.9 138.6   2.4   1.2 109.3  99.3  89.  101.3  96.3 113.2
+   9.5   1.2  82.   73.   85.7  94.2  83.4   2.   59.2  37.2  84.8  87.3
+  99.8  98.7  93.8  79.6  55.6  81.8  77.1  87.7]</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -8613,15 +8593,14 @@
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>[ 169.  1860.9  420.   145.   195.3  167.8  177.6  181.2 2513.  1345.2
-   98.3  191.7   15.   170.   157.2  153.4  124.5 1180.8 5000.   251.9
-  202.4    9.5  145.8  142.1  136.7  162.7  168.8  210.5   71.4  257.2
-  179.   134.9  130.5  161.7  131.6  133.3  145.3  132.6  137.7  159.4
-  153.   156.2  120.9  117.7  137.3  135.8  163.1  148.   126.3  138.7
-  126.1  134.9  159.   153.1  125.6  115.8  123.5  136.2  156.2  129.
-  131.2  128.3  140.5  171.   106.   131.5  131.8  123.4  133.1  124.5
-  155.2  110.4  139.6  156.9  134.1  124.2  144.9  105.8  130.5  147.
-  142.2  125.9  125.7  151.7  125.7  142.4  134.6]</t>
+          <t>[1860.9  167.8  177.6  181.2 2513.   191.7   15.   170.   157.2  153.4
+  202.4    9.5  145.8  142.1  136.7  162.7   71.4  257.2  179.   134.9
+  130.5  161.7  131.6  133.3  137.7  159.4  153.   156.2  120.9  117.7
+  137.3  135.8  163.1  148.   126.3  138.7  126.1  134.9  159.   153.1
+  125.6  115.8  123.5  136.2  156.2  129.   131.2  128.3  140.5  171.
+  106.   131.5  131.8  123.4  133.1  124.5  155.2  110.4  139.6  156.9
+  134.1  124.2  144.9  105.8  130.5  147.   142.2  125.9  125.7  151.7
+  125.7  142.4  134.6]</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -8644,8 +8623,8 @@
  256.5 213.2 258.3 256.6 302.6 325.  347.6 259.9 292.1 276.8 286.2 253.5
  301.4 264.9 263.8 454.3 284.5 338.6 371.7 311.4 253.1 224.8 263.1 299.9
  207.  305.8 350.1 290.4 245.1 290.9 347.8 338.9 286.6 219.5 260.9 369.4
- 293.9 470.2 343.8 270.9 242.7 218.6 251.2 347.1 381.5 229.1 314.1 436.2
- 422.7 430.2 413.2 307.5 116.6 332.7 248.9 251.  122.3 119.9]</t>
+ 470.2 343.8 270.9 242.7 218.6 251.2 347.1 381.5 314.1 436.2 422.7 430.2
+ 413.2 307.5]</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8865,19 @@
  107.  118.1 113.1 114.3 114.1 136.5 140.8 126.2 122.6 112.3 116.  111.4
  107.5 108.8 118.3 109.  138.3 140.1 127.  133.8 116.6 110.7 107.1 112.6
  116.6 122.7 116.7 153.8 131.7 135.8 109.9 128.  102.7 119.5 114.1 124.7
- 118.8 125.7 189.4 119.6 144.7 108.4 125.2 121.1 119.2 119.  121.5 119.6
- 114.7 145.2 132.  114.4 115.7 121.6 117.6 126.9 121.6 161.2 121.  133.3
- 140.1 124.7 118.3 118.7 120.  110.1 126.1 137.2 135.7 130.4]</t>
+ 118.8 125.7 119.6 144.7 108.4 125.2 121.1 119.2 119.  121.5 119.6 114.7
+ 145.2 132.  114.4 115.7 121.6 117.6 126.9 121.6 121.  133.3 140.1 124.7
+ 118.3 118.7 120.  110.1 126.1 137.2 135.7 130.4]</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>[ 250.8  137.3  172.5  151.5  168.1  174.5 1837.3  293.7  136.3  175.4
-   10.   159.6  150.4  159.2  722.9  283.5  179.1  176.2   13.   138.2
-  127.9  131.7  163.1  153.9  206.2  122.3  252.7  181.9    9.5  130.3
-  148.6  122.5  177.9  119.   167.3  150.7  170.8  149.4   13.   126.4
-  130.4  143.4  131.8  173.   138.5  168.8  150.4  146.4  143.3  143.
-  139.4  127.5  115.6  135.5  183.4  144.8  139.6  127.3  145.8  159.4
-  105.3  143.4  123.4  110.1  151.7  124.8  142.9  127.   143.1  149.
-  149.4  128.1  129.4  107.5  140.2  154.   137.2  129.4  136.8  156.2
-  172.3  140.8  145.1]</t>
+          <t>[172.5 151.5 168.1 136.3 175.4  10.  159.6 150.4 179.1 176.2  13.  138.2
+ 127.9 131.7 122.3 252.7 181.9   9.5 130.3 148.6 122.5 177.9 119.  167.3
+ 150.7 170.8 149.4  13.  126.4 130.4 143.4 131.8 173.  138.5 168.8 150.4
+ 146.4 143.3 143.  139.4 127.5 115.6 135.5 183.4 144.8 139.6 127.3 145.8
+ 159.4 105.3 143.4 123.4 110.1 151.7 124.8 142.9 127.  143.1 149.  149.4
+ 128.1 129.4 107.5 140.2 154.  137.2 129.4 136.8 156.2 172.3 140.8 145.1]</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -8923,8 +8899,8 @@
  244.7 207.3 212.7 272.6 453.5 288.3 290.1 244.3 273.2 206.2 192.8 240.2
  245.4 255.5 247.8 506.  305.8 257.3 255.4 245.7 250.9 268.7 244.6 284.1
  263.1 265.9 421.1 247.  260.4 252.9 226.4 216.2 240.7 278.7 207.7 320.3
- 469.8 432.9 293.6 265.8 290.  319.9 263.5 249.  284.4 404.4 423.1 382.1
- 299.2 277.6 280.3 362.  362.7 297.9 358.  396.  448.7 412.5]</t>
+ 469.8 432.9 293.6 265.8 290.  319.9 263.5 249.  284.4 423.1 382.1 299.2
+ 277.6 280.3 362. ]</t>
         </is>
       </c>
     </row>

--- a/databases/3T_NIST_T1maps_database.xlsx
+++ b/databases/3T_NIST_T1maps_database.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,21 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -8410,7 +8409,7 @@
         <v>130</v>
       </c>
       <c r="M30" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N30" t="n">
         <v>22.1</v>
@@ -11817,6 +11816,6 @@
       <c r="AQ42" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/databases/3T_NIST_T1maps_database.xlsx
+++ b/databases/3T_NIST_T1maps_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ42"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9193,17 +9193,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>niloufar_hfmc_NIST</t>
+          <t>wang_MDAnderson_NIST</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://osf.io/psyh4/download/</t>
+          <t>https://osf.io/kszy2/download/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>20200229_niloufar_hfmc_NIST/20200229_niloufar_hfmc_4point_NIST_Magnitude_T1map.nii.gz</t>
+          <t>20200302_wang_MDAnderson_NIST/day1/20200302_wang_MDAnderson_day1_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9213,26 +9213,26 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Niloufar Zakariaei</t>
+          <t>Chenyang Wang</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Henry Ford Medical Center - Cottage</t>
+          <t>MD Anderson</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Siemens</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ViewRay MR-Linac</t>
+          <t>DV26.0_R03_1831.b</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>0.35</v>
+        <v>3</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -9242,17 +9242,15 @@
       <c r="L33" t="n">
         <v>130</v>
       </c>
-      <c r="M33" t="n">
-        <v>88</v>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>21.4</v>
+        <v>19.57</v>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>vti_t1mapping_ti_0</t>
+          <t>IR Spin Echo TI=50,400,1100,2500</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -9267,7 +9265,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>['1 1 6']</t>
+          <t>['1 1 2']</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -9276,584 +9274,24 @@
         </is>
       </c>
       <c r="V33" t="n">
-        <v>5000</v>
+        <v>2550</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>[50, 500, 1000, 2500]</t>
+          <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>227</v>
+        <v>122.109</v>
       </c>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr">
-        <is>
-          <t>[2399.8 2874.8 2327.3 2037.4 2407.6 2273.7 2266.7 2780.5 2262.8 2288.5
- 2763.7 2258.5 2116.7 2266.  2081.1 2166.9 2329.2 2287.4 1831.6 2258.7
- 2129.9 2563.  2002.6 2518.  2206.3 2607.6 2498.2 2346.8 2216.6 3071.9
- 2295.3 1966.3 2329.7 2001.1 2359.8 2373.4 3256.6 2470.  2448.  2001.6
- 2107.2 2201.2 2002.7 2236.5 2217.2 3446.3 2221.5 1704.5 2021.7 2716.1
- 3285.5 2277.2 1828.7 2141.6 2339.5 2107.9 2349.3 1952.3 2246.  2216.8
- 1786.9 2375.9 2459.9 1824.3 2334.1 2249.9 2407.  2752.7 1818.7 2335.6
- 2583.6 1916.8 1957.3 1882.7 1588.9 2037.6 2643.7 2196.8 2006.1 2081.4
- 1982.7 2480.2 2923.2 2121.4 1838.  2672.3 2259.7 2325.9 1680.2 2169.
- 2201.9 1985.4 2590.1 1982.  1884.5 2185.7 2156.1]</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>[1456.7 1281.8 1419.3 1351.7 1622.  1385.6 1201.2 1248.3 1204.5 1288.8
- 1365.1 1264.2 1457.2 1307.1 1352.4 1258.  1221.9 1304.8 1439.  1376.5
- 1407.4 2070.  1990.  1315.8 1315.7 1319.1 1280.9 1282.  1318.1 1184.6
- 1228.2 1297.9 1377.6 1377.6 1991.4 2236.6 1353.1 1335.  1358.1 1452.3
- 1419.3 1240.3 1368.7 1394.  1317.1 2314.  1238.2 1356.  1331.  1398.9
- 1397.5 1342.1 1220.3 1181.3 1253.6 1349.7 1247.6 1329.9 1399.8 1266.
- 1268.3 1288.3 1344.5 1406.  1323.5 1228.3 1254.2 1455.8 1339.4 1452.5
- 1343.  1302.1 1495.6 1442.7 1239.4 1303.5 1371.7 1422.7 2190.2 1295.9
- 1399.7 1412.5 1344.  1300.6 1267.6 1316.7 1382.8 1367.6 1385.8 1378.6
- 2025.8 1324.2]</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>[1000.6 1020.9  911.  1079.9 1047.5  976.6  978.3  970.5 1059.7  976.
- 1022.4 1043.3  952.4 1047.9 1034.3 1024.6  995.6 1025.9 1044.7 1003.7
- 1009.6 1005.4 1091.1 1091.1 1012.6  995.2 1091.  1052.5  928.8  936.8
- 1005.8  986.8  999.1 1019.8 1065.5 1025.8  987.1 1034.4 1047.6 1073.7
- 1044.1 1025.  1041.8 1047.5 1112.6 1071.2  993.7 1073.4 1070.2 1098.
-  963.  1052.3 1054.  1089.8 1036.8  988.3 1032.3 1045.6  977.2  985.2
-  996.9 1027.   991.4  990.   997.4 1002.2  960.9  996.  1017.8 1067.5
-  953.4 1027.  1034.8  966.5 1070.2  977.5  960.7 1013.5 1015.3 1014.2
-  954.5 1043.3 1010.8 1046.8 1049.9 1040.8 1051.6 1081.  1009.3]</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>[828.2 765.1 749.  754.7 764.4 760.6 769.4 615.  782.4 659.6 779.8 663.5
- 761.2 798.1 785.9 755.3 771.2 777.6 832.1 833.3 623.  800.1 760.7 786.9
- 816.5 804.4 767.9 749.6 681.6 635.5 643.7 835.6 791.6 769.  650.7 772.2
- 803.  789.7 775.8 811.4 778.4 794.2 578.5 749.5 660.6 641.6 703.3 781.
- 765.5 760.8 764.1 673.8 800.2 827.3 775.5 775.5 783.5 770.8 780.1 750.8
- 754.4 825.5 773.  775.6 750.6 777.8 825.2 791.8 758.2 765.6 788.  789.8
- 783.7 780.2 669.8 786.4 781.9 747.1 808.5 856.2 795.8 780.8 787.8 691.3
- 663.6 814.5 799.2 780.4]</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>[493.8 526.7 545.1 544.6 545.8 489.7 547.8 521.3 524.5 535.6 525.7 536.5
- 534.4 542.8 538.2 527.7 509.6 543.4 528.1 476.2 485.8 510.5 546.  582.
- 518.  500.8 544.5 518.8 497.9 517.1 527.8 532.  545.6 521.7 514.4 474.2
- 510.2 508.1 508.  551.  503.4 536.9 537.6 530.5 560.1 553.8 505.1 514.9
- 520.  516.1 488.9 516.6 519.2 526.5 510.5 527.2 493.  513.9 508.5 544.6
- 517.9 494.1 546.5 523.2 526.3 526.6 548.2 531.3 534.7 545.1 528.3 493.8
- 540.6 529.4 507.5 526.5 540.5 522.6 502.6 505.1 475.3 530.7 495.4 492.8
- 518.9 524.8 515.  509.2]</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>[360.3 375.  381.6 385.4 385.8 389.2 398.3 360.6 372.1 368.8 368.9 388.7
- 393.1 410.4 351.1 327.6 374.5 412.3 408.5 362.8 400.  358.2 359.5 339.4
- 356.1 374.3 367.2 421.9 367.9 365.  375.8 401.7 356.7 374.5 379.6 425.6
- 361.6 366.7 371.2 413.1 377.7 400.9 367.9 361.9 339.8 387.1 387.5 364.1
- 360.3 377.5 352.  359.1 369.1 368.  342.1 366.6 363.  354.2 363.5 347.
- 364.8 365.7 352.6 389.5 352.3 356.7 368.6 401.1 378.5 350.9 393.3 389.5
- 364.8 372.7 333.  385.2 381.7 324.8 347.3 321.9 378.2 347.6 346.9 388.7
- 354.7 364.2 335.7 386.6 383.2 378.9 370.1 407.5 373.9 385.3 376.4 349.4
- 360.9 388.7 396.9 412.9 376.6 366.9 366.4 348.1 353.1 338.4 328.4 330.6]</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>[266.1 279.4 271.1 266.9 265.4 277.5 269.  270.3 238.2 244.4 259.9 258.2
- 252.3 285.2 288.1 261.1 280.  273.2 266.8 268.  269.  258.6 230.4 257.6
- 257.2 228.5 270.  270.9 271.1 265.6 255.  259.6 252.5 271.1 250.5 293.6
- 258.9 248.6 247.2 248.  292.8 260.6 257.4 277.  231.5 271.7 260.6 275.5
- 256.2 234.5 277.3 268.5 259.  269.1 246.1 260.6 269.4 259.  262.1 262.1
- 226.9 256.3 274.6 250.9 276.4 264.4 246.8 272.4 278.8 279.1 252.6 279.6
- 257.7 264.2 291.5 271.5 260.1 255.  268.9 287.3 311.2 259.6 282.5 270.8
- 263.7 274.  268.  251.1 247. ]</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>[202.2 199.8 193.2 178.  200.8 194.9 206.  213.9 189.4 193.  195.3 544.8
- 215.2 188.2 187.7 443.9 162.3 187.1 178.1 208.1 209.4 202.3 199.7 183.8
- 200.2 500.2 198.9 199.6 455.7 219.7 194.3 192.8 438.3 172.1 201.7 475.
- 193.5 185.6 435.7 212.3 216.3 210.3 434.3 432.3 195.1 187.8 186.5 564.5
- 386.8 180.7 224.8 199.6 177.8 205.4 209.7 193.5 345.  211.6 202.7 377.7
- 189.3 171.7 182.2 594.2 518.9 183.8 196.4 214.3 195.9 184.9 198.6 195.4
- 197.1 229.4 217.8 212.8 206.1 203.1 457.8 448.6 185.  195.4 205.3 206.
- 501.6 484.2 201.6 198.2 187.6 176.8 194.9 197.3]</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>[104.1   2.1 152.  131.3 242.2 124.7 143.1 174.2 124.1 122.9  96.3 138.2
-  95.4 129.4 166.3 118.2 186.6 138.3 245.4 192.8 145.8 211.7 188.4 142.
- 200.9  91.3 196.5 121.2 203.2 115.  133.3 154.4 208.  122.7 191.1  54.4
- 196.7 114.3 141.4 137.2   1.8 234.6 202.  168.6 149.2  86.  139.3 108.6
- 206.5 188.4 141.9 208.5 110.3 133.  160.3 145.7 173.  155.4 184.4 107.6
- 249.3 124.3 140.8 154.8 139.6 166.1 135.4 106.3 110.9 132.1 147.4 111.5
- 138.6 116.  113.  169.6 151.6 129.7 206.  217.  138.6 126.9 126.9 158.
- 146.3 130.5 110.8 108.6]</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>[136.7 162.3 140.3 149.7 165.6 150.3 129.8   1.    2.    2.   64.4   1.8
-   2.  116.4   9.1  71.4 128.4 125.1   2.    2.9  95.4 135.6   1.8 151.1
-  11.  177.8 159.6 132.6  89.8 106.1  13.  149.    4.  130.2   3.6 188.3
-  84.1 149.7  80.2 124.8 116.7   2.    1.   92.7   1.3   3.3   4.1 141.9
- 110.4  79.2 111.6   1.2 131.  139.4  87.6 152.3  85.  168.6 151.4 193.7
- 115.6   3.4  19.  132.6   1.2 149.1 138.3   3.2   1.3  85.7 129.7   1.3
-  91.7 128.7  77.9 125.   96.9  78.1 113.8   1.    2.8   1.2  94.9 135.4
- 128.9   3.    9.1   2.5]</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>[ 88.3   1.3  70.1  13.    1.8  85.5 114.8  12.3 109.3  79.8  94.4   1.3
- 124.5   7.5 149.9   4.3   6.6   2.8 105.2 129.9  10.3 132.3 163.1 129.1
- 121.2  65.3  94.3  11.1   1.2 121.    8.2 139.2  10.3   2.7   3.3   4.3
-  89.9  93.6 101.1 189.2  92.5  13.    1.3   2.5   2.5   3.2  11.    4.
-  90.4  10.  132.1 130.4   1.   11.  174.1   1.1 106.7 136.2  71.6 137.4
-   2.4  10.6  99.2 137.    1.9  74.2   2.7   4.  104.7   2.7  12.3   1.1
- 108.5  11.    1.2   1.3   1.8 123.9 164.3 131.6 122.8 131.3 114.1   1.2
-   1.3   4.7   1.3  11.  120.8 150.7 114.9  56.8   1.3   4.    5.    2.7
-  11.  116.6 148.7]</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>[110.8   2.7 169.  145.2 142.3   3.6 124.7   2.7 203.1  11.    1.8  95.6
-  11.  163.4   2.7 129.1 116.3 172.3  11.    1.3 131.5   1.8   3.  136.5
-   2.9  83.2 114.1 111.9 100.  148.8  82.5   2.    8.  120.4   2.4   2.
-  87.  116.7   1.3   5.    2.4   1.4 108.6  85.7  12.4 130.4   2.5   6.9
-   2.1   4.    1.3 104.3   3.2   2.   84.8  12.4 107.8   2.7   2.4  62.2
-   3.2 108.3 130.6 121.8   2.  105.9 134.  132.8   1.2   5.    3.    2.4
-   1.8   2.    4.   20.    1.8   3.5   2.   95.8 103.  155.4 120.4   1.9
-  13.  123.8   1.3   2.4   6.3   3.4  82.6 126.1 103.6  10.    1.2 111.
-   1.8   1. ]</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>[ 12.3   1.8   3.6   2.5  99.7   3.    3.4  96.5 226.1 162.5   1.6  91.8
- 104.9 247.4 122.9   2.    1.8  10.  152.8   1.    1.  125.5 133.9 212.4
-  80.2 140.8   4.  212.    5.6   2.8 161.6  94.7  92.3  86.3   1.8   7.6
- 103.7  11.   99.8   3.    1.   11.  184.2  93.1   1.8 128.2  68.7 115.1
-  99.7   2.    1.2  79.5   4.2 201.1 206.2  10.2 115.9   2.    3.2   1.9
- 208.8 177.7 143.4  19.  134.2   1.2   1.3  55.5 117.   75.6 132.8  71.3
-   1.6   6.1   1.    1.6   3.2   2.7 147.1  88.6   2.    1.   94.7   4.8
-  12.4 186.5   1.1   2.7 154.5 100.   89.7   3.1  75.2   2.7   2.8   2.
-   1.8]</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>[  5.    2.7 243.9   3.  128.5  13.   10.9 211.8   4.7   2.   11.6  75.9
- 338.1 316.2   2.   84.6 145.7   5.9   2.   12.3   2.   11.  112.1   1.8
-  93.9 123.4   1.2   8.   87.5  83.    6.    9.3   1.   94.1 238.4 259.5
-  61.1  12.3 123.9   3.  135.3   2.2   3.   10.2 244.5 157.6   3.2 137.2
-   2.5 296.3   2.  132.6   1.8   1.2  13.    2.    1.2 321.2 126.8   5.
-   3.    8.9 111.3  12.6   2.7  94.2   9.1 379.4  99.4 267.6 330.2   1.8
-  11.2 139.1   4.  266.    3.    4.    2.7   5.  140.9   2.3  20.  399.8
- 116.3  71.1 169.7  10.2   8.8   2.7   4.   12.    3.1 201.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>10.002</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>niloufar_hfmc_NIST</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://osf.io/psyh4/download/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20200229_niloufar_hfmc_NIST/20200229_niloufar_hfmc_14point_NIST_Magnitude_T1map.nii.gz</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Magnitude</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Niloufar Zakariaei</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Henry Ford Medical Center - Cottage</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Siemens</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ViewRay MR-Linac</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>130</v>
-      </c>
-      <c r="M34" t="n">
-        <v>88</v>
-      </c>
-      <c r="N34" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>vti_t1mapping_ti_0</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Spin-echo inversion recovery</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>['256 256 1']</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>['1 1 6']</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
-      <c r="V34" t="n">
-        <v>5000</v>
-      </c>
-      <c r="W34" t="n">
-        <v>10</v>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>[0, 25, 50, 70, 100, 150, 200, 300, 500, 800, 1000, 1500, 2000, 2500]</t>
-        </is>
-      </c>
-      <c r="Y34" t="n">
-        <v>227</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>[2336.5 2248.5 2771.3 2231.6 1830.  2344.1 1990.  2126.8 2653.6 2060.
- 2048.1 2328.1 2519.8 2205.  2185.7 1924.  2065.7 2267.4 2236.4 2155.2
- 2102.8 2179.8 2342.6 1911.4 2372.8 2132.7 2242.9 2070.2 2208.9 2213.9
- 2538.  2224.2 2122.3 2269.7 2154.9 2165.4 2358.1 2555.  2354.6 2383.8
- 1929.3 1858.4 2252.  2108.6 2150.7 2167.5 2381.2 2289.4 2045.8 2187.4
- 2326.8 2235.6 2121.4 2079.6 2072.2 2118.5 2025.4 2073.4 1950.9 2084.6
- 2070.9 1807.4 2386.9 2444.5 1879.9 2134.6 2358.4 2214.4 2215.  1936.1
- 2089.5 2197.7 1868.4 2087.  2105.1 1723.4 2325.7 2279.4 2030.8 2232.6
- 2069.9 2015.6 2032.6 2276.2 2303.5 2196.7 2202.1 2198.8 2132.9 2009.8
- 2455.5 2241.6 2797.3 2461.2 2118.2 1975.3 2095.7]</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>[1531.6 1361.2 1532.1 1861.2 1406.6 1354.8 1836.2 1303.7 1544.2 1443.8
- 1576.9 1540.2 1513.6 1481.6 1370.9 1340.2 1330.5 1479.9 1483.1 1500.1
- 1382.6 1497.9 1473.7 1401.2 1391.3 1445.1 1362.6 1476.3 1565.6 1427.1
- 1446.8 1512.5 1333.6 1350.9 1408.9 1414.5 1415.2 1431.  1479.3 1353.9
- 1400.6 1468.7 1444.2 1456.6 1423.  1903.2 1488.5 1363.5 1469.6 1527.
- 1408.2 1411.  1507.  1457.9 1338.9 1396.2 1338.3 1353.5 1432.4 1533.5
- 1375.1 1410.6 1392.7 1300.6 1340.4 1376.9 1366.7 1466.2 1386.  1421.7
- 1397.  1416.9 1403.4 1415.5 1283.5 1353.7 1491.8 1398.1 1423.7 1457.6
- 1595.6 1492.  1393.3 1355.6 1444.4 1377.3 1483.5 1438.1 1413.6 1447.9]</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>[1010.8 1080.8 1062.6 1028.  1005.1 1017.9 1046.4 1021.1 1049.7 1084.2
- 1019.1 1013.5  994.3  955.4 1057.1 1016.9 1009.  1021.7 1058.4  988.
-  983.  1073.5  979.1  978.9 1026.5  967.3 1030.1  997.6 1051.3 1006.6
-  967.4 1061.8 1031.1  991.1 1005.9 1018.7 1060.9 1016.4 1021.5 1009.
- 1013.8 1026.4  968.   944.5  978.3  990.5 1017.1  996.3 1039.5 1020.8
- 1009.8 1059.6 1036.9 1029.2 1047.2 1053.5  993.3  996.  1066.9 1018.9
-  989.9 1058.4 1052.5 1072.3  988.9 1020.9 1040.6 1039.3 1030.8  981.7
-  989.1  982.6 1013.3 1012.3  999.5  996.7 1021.6  997.2  988.1 1026.7
- 1020.6 1033.2  990.4 1051.6 1026.7  987.4  967.5  973.9  981.8  997.7
-  999.3]</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>[749.1 744.4 768.6 786.9 777.3 766.7 776.7 780.8 779.4 783.3 800.  787.3
- 706.7 765.8 780.  767.7 792.9 797.3 773.6 776.2 760.7 754.1 771.5 771.3
- 768.3 772.8 771.8 717.3 769.6 781.4 755.2 773.1 769.1 764.8 771.1 779.8
- 751.  780.7 791.9 799.8 789.2 751.9 784.  745.2 761.4 799.  780.2 758.7
- 764.9 789.7 767.8 673.4 813.5 763.2 747.7 790.8 760.8 741.  771.1 763.8
- 782.9 768.1 799.3 754.  752.7 683.6 740.1 762.9 783.1 773.  773.6 797.3
- 770.7 764.3 759.  792.  770.8 743.6 766.  773.9 765.2 779.8 750.7 750.6
- 757.2 778.6 778.3 771.1]</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>[554.9 553.1 528.3 529.1 538.5 529.9 531.  528.7 532.6 534.  507.1 515.2
- 541.4 550.4 556.2 525.9 517.7 540.9 530.8 536.1 562.2 544.1 547.4 523.8
- 542.8 558.6 534.2 534.6 580.1 535.6 503.3 525.5 525.6 541.1 540.5 533.9
- 557.8 548.6 562.5 544.3 519.4 537.7 541.  510.8 524.2 521.3 531.9 569.9
- 522.3 539.2 535.7 568.5 541.1 522.9 533.4 543.8 541.5 538.6 542.7 530.3
- 537.2 512.8 529.3 514.2 529.2 561.  516.4 543.5 540.5 529.8 564.4 524.4
- 521.6 519.1 531.  546.6 518.5 537.4 540.8 542.2 531.1 521.3 523.9 532.8
- 558.7 524.4 524.4 549.4 542.9 535.2 559.4 546.9 537.8]</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>[360.8 359.3 366.8 368.5 383.4 360.2 364.2 368.7 380.1 373.4 377.1 384.9
- 361.1 383.7 377.1 355.2 397.2 385.9 378.7 387.6 372.7 375.1 382.2 393.
- 376.5 375.3 386.9 403.2 391.4 358.1 358.4 369.5 368.1 390.4 380.4 381.
- 381.2 382.6 385.8 381.9 375.5 385.8 368.7 375.8 370.5 392.3 397.  378.7
- 373.4 388.  379.2 382.5 383.4 414.1 376.5 383.6 369.4 381.3 393.3 379.
- 381.3 385.  363.2 384.9 376.9 376.9 376.7 370.3 382.  376.8 369.2 370.
- 384.6 379.8 381.  372.2 360.2 363.8 393.3 366.9 378.1 378.  376.5 375.2
- 370.6 368.5 383.5 394.3 387.9 365.5 364.3 347.  376.3 363.9 369.4 382.8
- 383.9 365.4 360.3 399.  381.3]</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>[265.2 270.3 263.3 267.3 272.2 272.8 267.1 266.4 268.3 261.8 267.  261.3
- 259.8 269.  270.3 272.1 276.1 264.8 267.  266.6 275.2 271.8 268.3 262.2
- 262.1 262.9 271.  260.4 259.3 267.9 267.  259.9 263.5 272.1 261.3 258.6
- 271.3 266.6 266.1 257.4 259.  261.3 263.9 272.1 266.2 267.6 265.1 260.7
- 263.2 261.7 257.6 260.4 262.9 274.3 266.5 263.9 264.9 262.9 269.3 266.7
- 257.6 258.3 256.6 252.5 266.9 275.6 261.4 267.6 257.7 274.9 270.9 269.1
- 257.8 271.9 273.3 273.3 270.4 255.9 263.9 266.2 265.4 275.4 264.6 257.1
- 262.4 264.8 264.9 271.3 264.9 269.4 258.3]</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>[200.6 205.5 192.4 199.5 196.2 197.9 200.2 200.6 198.1 198.6 198.9 198.6
- 197.7 196.4 196.6 193.7 191.6 191.1 202.6 206.6 199.7 196.5 194.3 194.1
- 200.6 193.8 194.8 201.8 202.1 192.4 195.6 193.8 191.3 195.1 203.6 198.2
- 193.5 201.1 194.1 198.5 202.9 193.7 196.4 196.4 196.9 195.5 199.2 201.2
- 194.4 200.9 206.3 193.3 198.7 202.2 193.5 188.6 203.2 196.3 203.5 192.
- 196.3 193.3 190.8 196.  195.  200.8 212.  194.8 201.3 205.4 198.5 195.7
- 199.1 203.4 201.4 201.5 198.9 187.  190.9 196.6 201.2 195.4 192.7 197.3
- 207.7 195.7 195.8 196.3 193.4 198.7]</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>[135.4 137.6 144.2 146.6 149.3 141.2 135.9 138.5 144.6 137.  135.7 132.6
- 137.8 135.6 134.7 138.1 140.5 136.3 139.4 134.1 144.3 134.7 141.7 134.8
- 136.3 138.7 139.5 141.7 133.7 136.9 139.7 137.5 138.9 139.9 136.4 135.4
- 133.7 139.4 144.  137.1 135.4 139.2 135.2 135.6 142.1 134.  146.  136.5
- 141.2 137.  137.  138.8 131.5 134.8 134.7 137.9 137.3 134.7 136.2 138.
- 139.4 137.8 139.5 140.9 141.8 134.9 148.  146.8 137.4 145.1 132.5 145.7
- 134.5 133.  136.  133.6 137.1 139.2 140.7 125.8 135.3 142.4 150.5 143.6
- 145.8 148.  145.1 155.  132.  135.  136.5 136.8 136.1]</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>[ 97.4 104.6 104.5 101.8 102.5 105.2  97.  105.2  95.  101.4 105.7 102.3
- 101.2  99.7 104.1  95.6 104.5 102.8  99.3 100.7 103.7  97.4 103.   99.9
- 103.9  97.1 101.  100.7  93.7  92.8 104.  102.5 101.5  98.6 101.3 105.
- 105.1 101.3 103.4 105.1 106.  104.  104.8  98.1  98.8  98.7 101.9  95.2
-  99.3 102.1  98.6  95.7 104.5 102.9 100.7  97.3 103.3 104.2 105.2 104.
- 102.9  95.  103.7  95.4 102.9 103.2 105.2  98.8 102.  104.9 101.8  98.1
- 104.3  99.3  98.8 106.2 103.6  94.3  94.2  99.  101.4 103.5 102.2 104.2
- 101.5  98.5  96.2  97.6]</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>[68.3 66.5 68.5 73.5 73.3 74.2 73.4 68.7 69.9 75.8 68.8 76.5 69.  77.2
- 73.2 70.8 68.1 67.7 72.6 71.9 70.7 73.6 75.6 71.8 65.9 73.7 66.  75.9
- 72.2 74.9 72.1 78.4 67.7 67.6 76.2 70.6 68.8 69.2 73.6 74.6 80.  71.3
- 69.5 75.7 75.2 75.9 74.1 71.6 67.  73.6 68.8 76.2 69.3 74.8 70.5 73.9
- 73.2 70.7 73.1 77.1 68.8 73.7 74.  71.  77.6 72.3 74.2 64.1 73.  77.3
- 73.5 73.6 71.4 76.3 74.7 68.9 74.1 77.3 66.7 72.3 73.  66.9 73.4 69.8
- 73.4 72.  74.5 78.3 76.5 81.9 76.4 73.1 70.7 73.  64.9 72.6 74.6 69.1
- 71.2 76.4]</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>[53.7 52.5 52.3 50.6 52.2 51.  50.9 52.3 52.7 53.1 50.3 53.5 52.7 52.3
- 52.  52.6 52.  52.6 48.3 49.8 51.7 52.9 54.2 51.3 51.8 50.1 52.7 51.2
- 53.8 53.6 51.5 51.8 54.2 52.6 52.6 50.6 54.  50.7 52.9 51.7 50.4 53.
- 50.  50.4 53.5 51.6 51.4 55.5 50.6 51.3 50.  51.3 53.2 51.4 52.5 52.7
- 52.  51.6 53.8 53.2 52.5 52.9 52.1 50.3 49.9 53.5 50.2 52.1 52.9 50.7
- 52.  52.4 51.6 50.8 50.  54.5 52.4 53.2 51.6 51.5 49.2 52.9 51.9 50.3
- 52.5 52.6 54.6 52.8 51.9 51.  52.8 51.9 53.1 53.5 49.1]</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>[39.8 40.3 39.9 38.9 31.8 38.9 34.2 41.2 39.1 40.5 33.7 39.4 39.2 39.5
- 39.4 31.3 39.8 32.7 33.5 39.7 32.9 39.2 33.3 35.  39.7 40.3 40.3 39.9
- 38.3 31.6 39.1 33.8 39.6 39.2 35.3 40.  34.5 33.7 40.6 40.2 33.2 39.
- 34.2 35.3 40.1 33.5 39.7 38.3 39.1 34.1 41.8 33.9 39.6 33.9 35.5 39.1
- 39.7 38.7 32.9 38.6 38.9 39.3 35.4 39.7 39.7 34.1 32.7 37.9 31.7 32.6
- 39.3 40.1 40.4 39.9 39.3 41.3 31.8 34.9 39.8 32.4 32.8 34.8 37.5 37.9
- 39.8 31.9 38.9 39.7 32.3 37.5 38.9 39.3 39.  32.5]</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>[25.7 27.6 27.9 27.9 29.4 26.3 30.9 27.6 28.4 29.5 27.6 26.1 26.2 26.9
- 29.  24.5 28.3 26.2 26.8 28.2 30.6 27.7 27.4 29.1 26.9 26.8 30.2 26.7
- 27.5 26.4 27.6 29.3 28.2 28.2 27.8 25.9 26.5 28.2 28.4 27.7 27.9 26.8
- 27.3 28.8 27.9 25.9 27.7 27.8 27.2 26.8 27.4 29.  28.1 28.  27.8 26.3
- 26.4 28.2 27.6 24.9 27.3 27.9 27.2 28.6 28.  26.7 27.8 26.2 26.5 25.9
- 27.4 27.5 29.4 26.3 26.7 28.8 28.4 26.7 27.8 27.  26.8 28.5 27.1 25.9
- 28.1 27.8 26.8 27.2 27.7 28.3 28.  29.1 26.9 26.2 26.7 27.8 26.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>11.001</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>wang_MDAnderson_NIST</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://osf.io/kszy2/download/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20200302_wang_MDAnderson_NIST/day1/20200302_wang_MDAnderson_day1_NIST_Magnitude_T1map.nii.gz</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Magnitude</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Chenyang Wang</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>MD Anderson</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>DV26.0_R03_1831.b</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>NIST</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>130</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>IR Spin Echo TI=50,400,1100,2500</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>Spin-echo inversion recovery</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>['256 256 1']</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>['1 1 2']</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>2D</t>
-        </is>
-      </c>
-      <c r="V35" t="n">
-        <v>2550</v>
-      </c>
-      <c r="W35" t="n">
-        <v>14</v>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>[50, 400, 1100, 2500]</t>
-        </is>
-      </c>
-      <c r="Y35" t="n">
-        <v>122.109</v>
-      </c>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr">
         <is>
           <t>[1813.8 1698.3 1719.  1734.1 1684.5 1728.3 1689.5 1862.9 1944.3 1923.4
  1928.4 1815.4 1664.8 1513.9 1579.  1669.2 1802.6 1903.8 1772.9 1746.9
@@ -9866,7 +9304,7 @@
  1688.2 1561.4 1955.9 1762.4 1637.9 1581.2]</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AE33" t="inlineStr">
         <is>
           <t>[1294.8 1305.  1225.8 1260.4 1359.9 1358.8 1249.7 1274.5 1317.6 1235.9
  1242.5 1262.4 1307.2 1294.1 1253.7 1251.  1246.3 1239.4 1289.4 1326.
@@ -9879,7 +9317,7 @@
  1275.8 1241.  1243.5 1259.6 1301.3 1269.9 1307.4 1277.1]</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AF33" t="inlineStr">
         <is>
           <t>[942.9 918.5 922.3 931.8 889.3 911.3 933.8 905.1 896.2 922.4 931.6 905.4
  938.4 935.9 872.6 919.  886.8 909.6 940.  936.7 897.9 920.  944.8 945.4
@@ -9891,7 +9329,7 @@
  900.1 941.  946.6 895.1]</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AG33" t="inlineStr">
         <is>
           <t>[659.9 670.1 663.3 665.5 658.4 672.9 677.2 715.4 727.8 659.4 676.6 657.3
  661.8 669.1 669.5 685.6 690.4 667.  651.  678.5 664.  654.3 689.2 667.5
@@ -9903,7 +9341,7 @@
  649.  656.8 661.4 649.8]</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AH33" t="inlineStr">
         <is>
           <t>[483.5 477.7 479.2 474.9 468.2 469.3 485.6 479.6 484.4 486.9 477.5 478.5
  477.8 479.4 474.7 485.9 468.6 481.3 480.7 466.3 474.9 476.6 475.8 469.3
@@ -9915,7 +9353,7 @@
  474.6 472.4 472.6 471.9]</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AI33" t="inlineStr">
         <is>
           <t>[353.7 338.3 333.4 339.1 354.2 335.8 342.3 329.9 331.7 345.3 354.8 361.
  351.7 338.8 324.5 350.1 356.2 346.9 337.6 324.4 324.6 340.7 339.6 350.6
@@ -9927,7 +9365,7 @@
  339.8 337.9]</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
         <is>
           <t>[238.1 231.8 243.3 242.4 231.1 236.  240.2 246.  237.7 237.8 244.4 243.2
  242.4 242.2 243.1 237.8 245.7 242.1 232.5 236.  236.8 239.2 232.6 232.9
@@ -9939,7 +9377,7 @@
  244.  248.9 247.9 241.2]</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AK33" t="inlineStr">
         <is>
           <t>[178.6 380.3 364.9 172.9 179.  341.7 169.  175.2 320.7 171.8 159.1 302.6
  329.1 168.7 366.9 160.4 328.8 371.6 173.9 169.2 351.7 319.1 165.3 168.6
@@ -9951,7 +9389,7 @@
  186.6 300.4 165.9 168.8]</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AL33" t="inlineStr">
         <is>
           <t>[183.1 188.1 162.9 117.9 111.1 101.4  85.7 125.3 195.7 183.7 123.8 112.5
  112.6 121.1 175.  126.5 106.8 127.  173.3 169.1 137.3 111.9 107.2 109.3
@@ -9963,7 +9401,7 @@
  143.6 143.  129.  134.7]</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>[ 56.  123.8 104.4  97.4  97.5  86.7  84.9  77.6  88.3  88.2  80.4  77.6
   81.4  85.   86.8  94.4 100.5  93.8  83.2  89.6  76.1  63.4  91.2 101.4
@@ -9975,7 +9413,7 @@
   91.5  93.7  99.4  79.2]</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AN33" t="inlineStr">
         <is>
           <t>[  8.1   2.    1.2   5.   82.8 111.1 118.8  95.4   2.4  92.   76.3   1.
   59.3 100.3   2.7   2.1   4.5   1.1  85.4 102.9  63.1   2.6  78.1  89.7
@@ -9987,7 +9425,7 @@
    7.    2.    1.2   3.3   2.   64.9   1.9   6.1   5.1   3.1]</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AO33" t="inlineStr">
         <is>
           <t>[ 74.2  97.7  83.2   1.2   2.5 103.9 164.9   6.3   3.3   2.8   3.    2.5
    7.    2.6  89.8  79.7  93.    2.4   3.   72.8   3.6 107.2 117.3  86.9
@@ -9999,7 +9437,7 @@
   62.8  71.7   3.6   3.6  89.    2.8   2.6   2.4   8.    4.1]</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>[  4.1   1.4   3.    2.   70.3   4.2  68.7  45.9  42.1   2.    1.5   1.8
   72.2   1.1   3.2   7.9 122.4   7.7   1.3   3.6  78.3  84.7  77.5   3.
@@ -10011,7 +9449,7 @@
    3.6   1.8   8.7 102.7 140.8   3.2   1.3   2.    1.8   1.2]</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AQ33" t="inlineStr">
         <is>
           <t>[112.7  71.    2.8   1.4   6.  228.5  77.6   2.7   1.1   2.5   2.7   2.8
    4.9  59.5 195.8   5.6 154.7 873.4   2.7   1.1 723.6 283.1 155.1   1.9
@@ -10024,111 +9462,111 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>11.002</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>10.002</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>wang_MDAnderson_NIST</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://osf.io/kszy2/download/</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>20200302_wang_MDAnderson_NIST/day1/20200302_wang_MDAnderson_day1_NIST_Complex_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Complex</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Chenyang Wang</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>MD Anderson</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>DV26.0_R03_1831.b</t>
         </is>
       </c>
-      <c r="J36" t="n">
+      <c r="J34" t="n">
         <v>3</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L36" t="n">
+      <c r="L34" t="n">
         <v>130</v>
       </c>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>19.57</v>
       </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>IR Spin Echo TI=50,400,1100,2500</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="V34" t="n">
         <v>2550</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W34" t="n">
         <v>14</v>
       </c>
-      <c r="X36" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y34" t="n">
         <v>122.109</v>
       </c>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr">
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr">
         <is>
           <t>[1822.1 1712.3 1732.5 1753.7 1695.7 1742.4 1707.4 1889.2 1959.7 1930.6
  1944.5 1836.7 1675.7 1522.6 1591.6 1675.3 1811.2 1937.6 1788.1 1769.
@@ -10141,7 +9579,7 @@
  1705.3 1570.4 1976.  1774.8 1648.8 1585.6]</t>
         </is>
       </c>
-      <c r="AE36" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>[1300.9 1311.4 1230.5 1269.  1365.4 1360.4 1255.  1277.9 1322.7 1237.5
  1247.8 1268.8 1313.3 1299.  1257.9 1255.1 1249.9 1243.3 1293.3 1330.2
@@ -10154,7 +9592,7 @@
  1279.7 1243.4 1249.6 1264.6 1307.  1272.6 1315.4 1286.3]</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>[945.1 921.7 924.1 932.8 889.9 911.5 935.4 908.2 900.1 925.  935.4 908.7
  939.9 937.2 875.7 921.1 888.6 911.7 942.1 938.8 898.9 922.5 948.2 947.7
@@ -10166,7 +9604,7 @@
  902.4 943.2 949.1 898.2]</t>
         </is>
       </c>
-      <c r="AG36" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>[661.  671.9 666.6 670.2 661.8 674.5 680.  684.3 679.3 662.4 678.4 657.4
  665.4 675.1 672.1 687.  691.  672.5 663.6 681.5 665.4 655.8 690.6 668.9
@@ -10178,7 +9616,7 @@
  649.8 658.5 663.  650.1]</t>
         </is>
       </c>
-      <c r="AH36" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>[484.5 478.7 479.8 475.5 469.  469.8 486.6 480.8 485.2 487.3 477.7 479.4
  478.8 480.2 475.3 486.7 469.4 482.2 481.6 466.6 475.8 477.1 476.3 469.8
@@ -10190,7 +9628,7 @@
  475.2 473.  473.5 472.6]</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>[354.2 339.2 334.3 339.9 354.7 336.8 343.1 330.  332.3 345.6 354.7 361.5
  352.9 339.1 325.  351.4 357.2 347.6 338.  324.1 324.6 341.1 339.6 350.8
@@ -10202,7 +9640,7 @@
  340.1 338.2]</t>
         </is>
       </c>
-      <c r="AJ36" t="inlineStr">
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>[238.1 232.  243.5 242.5 231.2 236.1 240.2 246.3 238.1 238.2 244.3 243.2
  242.2 242.3 243.3 238.  246.  242.1 232.8 235.8 237.  239.1 232.7 233.1
@@ -10214,7 +9652,7 @@
  244.1 249.5 248.1 241.2]</t>
         </is>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>[178.9 194.9 190.4 172.4 179.2 186.6 168.2 175.6 183.7 171.9 159.1 176.8
  181.4 168.3 194.6 160.6 180.9 192.2 173.8 169.1 188.2 183.2 164.8 168.6
@@ -10226,7 +9664,7 @@
  186.6 174.8 165.2 168.9]</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>[153.3 152.8 135.8 117.5 111.4 101.5  85.  126.2 158.  148.  107.2 112.1
  113.8 105.  143.5 109.6 107.2 127.9 140.6 138.2 116.3 111.  107.4 110.9
@@ -10238,7 +9676,7 @@
  120.9 123.9 129.  134.8]</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>[ 54.8 123.4 104.7  97.1  96.7  86.6  85.2  78.   88.9  87.9  79.1  76.9
   82.3  85.3  87.1  95.1 100.7  93.9  82.4  90.4  75.5  62.9  91.1 102.
@@ -10250,7 +9688,7 @@
   91.6  94.3  98.9  79.1]</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>[  2.6   1.2   1.6   4.4  86.6 110.2 135.2 106.6   3.  103.7  81.4   1.2
   67.1  99.    4.    2.6   2.8   2.4  85.7 116.   73.4   6.6  79.9  89.2
@@ -10262,7 +9700,7 @@
   10.    2.6   2.8   4.9   9.5  71.8   4.    2.1   2.4   2.8]</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>[ 90.1 131.7 114.4   9.5   2.7 109.8 164.   10.7   3.    9.5   4.    4.4
    1.3   9.5 127.  105.2 125.9   3.3   4.1  88.2   7.  114.1 112.5 107.6
@@ -10274,7 +9712,7 @@
   73.2  92.3   6.9   3.3  85.9   1.    4.3  10.   10.    8.8]</t>
         </is>
       </c>
-      <c r="AP36" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>[ 10.9   3.    1.8   1.8 119.9   4.  110.8   4.4   6.    4.    1.3   5.2
  128.7  58.9   1.    1.  139.4  80.9  65.9   5.2 133.6 147.6  70.  121.7
@@ -10286,7 +9724,7 @@
    5.7   2.3   2.  124.  165.    1.2  10.6   3.1  10.   84.5]</t>
         </is>
       </c>
-      <c r="AQ36" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>[386.3 189.2   2.    7.   69.3 299.9 128.    1.  190.5  10.    3.7   1.3
   10.  119.9 248.2   6.6  96.8 649.3 123.8   4.2 621.5 197.5  99.4   7.7
@@ -10299,111 +9737,111 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>11.003</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>10.003</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>wang_MDAnderson_NIST</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://osf.io/kszy2/download/</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>20200302_wang_MDAnderson_NIST/day2/20200302_wang_MDAnderson_day2_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Magnitude</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Chenyang Wang</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>MD Anderson</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>DV26.0_R03_1831.b</t>
         </is>
       </c>
-      <c r="J37" t="n">
+      <c r="J35" t="n">
         <v>3</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L37" t="n">
+      <c r="L35" t="n">
         <v>130</v>
       </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>19.515</v>
       </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>IR Spin Echo TI=50,400,1100,2500</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V37" t="n">
+      <c r="V35" t="n">
         <v>2550</v>
       </c>
-      <c r="W37" t="n">
+      <c r="W35" t="n">
         <v>14</v>
       </c>
-      <c r="X37" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
-      <c r="Y37" t="n">
+      <c r="Y35" t="n">
         <v>122.109</v>
       </c>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr">
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr">
         <is>
           <t>[1856.2 1864.  1781.1 1757.3 1818.6 1894.5 1897.5 1936.2 1886.4 1823.
  1865.  1836.  1848.8 1873.3 1862.5 1813.8 1792.3 1845.1 1928.5 1865.3
@@ -10417,7 +9855,7 @@
  1878.4 1828.6 1810.8 1771.6 1800.9 1842.1 1782.6]</t>
         </is>
       </c>
-      <c r="AE37" t="inlineStr">
+      <c r="AE35" t="inlineStr">
         <is>
           <t>[1327.4 1329.2 1278.9 1260.4 1276.  1317.1 1283.9 1315.  1402.3 1327.5
  1305.7 1329.2 1358.9 1338.6 1355.9 1294.  1303.5 1334.6 1317.1 1303.8
@@ -10430,7 +9868,7 @@
  1332.4 1324.8 1317.9 1336.3 1333.1 1339.7 1344.6 1360. ]</t>
         </is>
       </c>
-      <c r="AF37" t="inlineStr">
+      <c r="AF35" t="inlineStr">
         <is>
           <t>[932.1 935.5 935.1 947.7 940.9 940.8 928.2 936.2 951.3 942.2 929.2 916.5
  927.5 947.8 933.9 934.9 935.1 928.6 937.1 927.2 946.1 952.7 950.9 939.1
@@ -10442,7 +9880,7 @@
  930.3 936.8 934.6 944. ]</t>
         </is>
       </c>
-      <c r="AG37" t="inlineStr">
+      <c r="AG35" t="inlineStr">
         <is>
           <t>[674.1 682.7 680.3 679.1 674.6 678.7 683.6 666.8 672.8 675.4 664.8 664.
  674.5 665.9 673.1 676.3 686.5 679.4 675.5 663.  664.4 680.8 673.4 678.1
@@ -10454,7 +9892,7 @@
  670.4 667.2 670.8 692.1]</t>
         </is>
       </c>
-      <c r="AH37" t="inlineStr">
+      <c r="AH35" t="inlineStr">
         <is>
           <t>[490.6 496.5 490.6 490.6 489.4 487.1 479.7 478.2 474.9 482.2 487.5 479.1
  481.4 479.1 486.9 486.8 487.6 484.4 484.2 482.4 481.3 485.7 484.3 483.9
@@ -10465,7 +9903,7 @@
  489.6 502.9 476.4 469.8 493.6 488.8 482.9 488.9 486.7 477.2 471.2]</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AI35" t="inlineStr">
         <is>
           <t>[336.  344.6 342.4 346.8 342.2 336.4 326.2 344.1 348.2 344.8 348.7 351.5
  341.3 331.2 320.7 336.5 347.9 342.7 336.5 348.7 347.8 340.8 341.8 352.1
@@ -10478,7 +9916,7 @@
  344.2]</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
+      <c r="AJ35" t="inlineStr">
         <is>
           <t>[251.6 242.1 239.2 243.5 243.  246.1 234.6 233.9 236.7 243.9 241.5 238.3
  238.2 245.8 246.2 240.  236.8 237.7 239.9 237.7 243.1 243.7 239.9 242.6
@@ -10490,7 +9928,7 @@
  248.7 245.3 243.2 243.6]</t>
         </is>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AK35" t="inlineStr">
         <is>
           <t>[261.4 175.1 178.1 177.8 178.9 175.1 172.5 175.6 177.  174.  174.2 176.1
  174.  174.1 173.1 169.7 282.  289.9 170.7 180.4 298.4 173.6 278.  174.
@@ -10502,7 +9940,7 @@
  172.9 173.6 172.9 171.3]</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AL35" t="inlineStr">
         <is>
           <t>[116.1 113.5 140.5 118.4 143.2 122.7 115.2 124.4 150.3 125.1 118.3 120.1
  141.2 119.7 123.9 122.7 141.  117.9 112.4 132.4 120.2 121.5 141.5 143.4
@@ -10513,7 +9951,7 @@
  142.2 124.  120.3 149.8 149.1 119.6 122.  140.2 122.1 122.1 123.2]</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AM35" t="inlineStr">
         <is>
           <t>[ 84.8  92.3  80.8  83.8  82.3  83.1  88.6  88.5  96.4  87.6  86.4  99.2
   87.1  74.2  87.7  86.6  87.3  91.4  80.5  61.3  80.2  79.7  85.2 101.2
@@ -10525,7 +9963,7 @@
   76.3  84.   81.1  64.9]</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AN35" t="inlineStr">
         <is>
           <t>[58.2 43.1  4.  62.   2.8 10.  63.3 56.9  2.6  9.5  1.9 62.7  1.3  1.2
  61.  67.4 60.4 80.  66.5  1.3 79.6  4.  60.   1.8 55.7  6.  79.3 46.8
@@ -10536,7 +9974,7 @@
  83.2 66.5 77.8 78.3  1.6  1.2  3.2  3.4  2.   2.4]</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AO35" t="inlineStr">
         <is>
           <t>[  2.5  65.6  60.9   3.   79.4  51.6   4.9   1.8   8.    1.8   1.    1.6
    3.3   9.1  62.1   8.1   3.1  51.1   3.1   1.    3.2   2.5  71.4   2.4
@@ -10548,7 +9986,7 @@
   39.2   9.4   3.   63.9  73.5   2.2   3.    2.5  53.1   1. ]</t>
         </is>
       </c>
-      <c r="AP37" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>[ 79.9 116.5  72.5 109.1 122.2   2.    1.8   3.6   1.5   1.2   9.5   3.4
    3.1 112.5  74.4 103.4 101.8 116.5  80.6  87.8  74.6  72.9   1.9  77.2
@@ -10560,7 +9998,7 @@
    2.8   2.5  85.7   4.3  66.9  59.1   5.3   3.3   2.1   2.5]</t>
         </is>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>[ 69.7 145.3 209.7  85.5  50.1  76.6   2.8   7.    2.   63.2  62.2 126.7
  120.1   4.    5.   66.2 210.4 169.9  63.5  82.    2.4   9.6 174.8   4.
@@ -10573,111 +10011,111 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>11.004</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>10.004</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>wang_MDAnderson_NIST</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://osf.io/kszy2/download/</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>20200302_wang_MDAnderson_NIST/day2/20200302_wang_MDAnderson_day2_NIST_Complex_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Complex</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Chenyang Wang</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>MD Anderson</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>DV26.0_R03_1831.b</t>
         </is>
       </c>
-      <c r="J38" t="n">
+      <c r="J36" t="n">
         <v>3</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L38" t="n">
+      <c r="L36" t="n">
         <v>130</v>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>19.515</v>
       </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr">
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>IR Spin Echo TI=50,400,1100,2500</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V38" t="n">
+      <c r="V36" t="n">
         <v>2550</v>
       </c>
-      <c r="W38" t="n">
+      <c r="W36" t="n">
         <v>14</v>
       </c>
-      <c r="X38" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y36" t="n">
         <v>122.109</v>
       </c>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr">
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr">
         <is>
           <t>[1865.1 1868.9 1784.4 1761.3 1822.  1900.7 1906.3 1944.2 1890.  1827.6
  1870.2 1843.7 1854.6 1879.2 1868.4 1818.9 1799.4 1853.2 1934.5 1870.8
@@ -10691,7 +10129,7 @@
  1881.8 1834.1 1815.1 1776.3 1807.  1846.  1785.6]</t>
         </is>
       </c>
-      <c r="AE38" t="inlineStr">
+      <c r="AE36" t="inlineStr">
         <is>
           <t>[1330.3 1332.4 1280.5 1261.8 1279.  1319.3 1285.4 1317.1 1405.3 1329.5
  1307.9 1331.9 1361.  1341.2 1358.9 1296.1 1305.4 1337.8 1320.3 1306.2
@@ -10704,7 +10142,7 @@
  1335.6 1326.5 1320.8 1338.8 1335.4 1342.6 1347.1 1361.9]</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
+      <c r="AF36" t="inlineStr">
         <is>
           <t>[932.5 936.  935.7 948.  941.6 941.9 929.1 937.3 952.2 942.9 929.8 917.5
  928.5 948.3 934.3 935.9 935.6 928.9 938.  927.8 947.  953.2 951.7 940.
@@ -10716,7 +10154,7 @@
  929.5 936.8 934.8 944.3]</t>
         </is>
       </c>
-      <c r="AG38" t="inlineStr">
+      <c r="AG36" t="inlineStr">
         <is>
           <t>[674.6 683.4 680.5 679.5 675.1 679.3 683.5 667.3 673.5 675.5 665.6 664.5
  675.2 666.2 673.6 676.8 687.2 679.7 675.6 663.9 665.3 681.4 674.4 678.3
@@ -10728,7 +10166,7 @@
  670.8 667.3 671.1 693.5]</t>
         </is>
       </c>
-      <c r="AH38" t="inlineStr">
+      <c r="AH36" t="inlineStr">
         <is>
           <t>[490.7 496.7 490.9 490.7 489.6 487.3 479.7 478.3 474.8 482.3 487.5 479.3
  481.6 479.2 487.2 486.9 487.7 484.4 484.2 482.3 481.5 485.8 484.6 483.9
@@ -10739,7 +10177,7 @@
  489.7 503.1 476.5 470.1 493.8 489.1 483.2 489.2 486.8 477.2 471.1]</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AI36" t="inlineStr">
         <is>
           <t>[336.3 344.8 342.4 347.2 342.6 336.4 325.9 344.  348.3 345.  348.8 351.7
  341.3 331.2 321.  336.5 347.8 342.9 336.7 348.8 347.8 340.9 341.8 352.
@@ -10752,7 +10190,7 @@
  344.2]</t>
         </is>
       </c>
-      <c r="AJ38" t="inlineStr">
+      <c r="AJ36" t="inlineStr">
         <is>
           <t>[251.8 242.2 239.3 243.4 243.2 246.3 234.7 233.9 236.6 243.8 241.4 238.6
  238.6 245.9 246.2 240.  236.8 237.7 240.  237.5 243.  243.9 240.  242.6
@@ -10764,7 +10202,7 @@
  248.6 245.4 243.2 243.6]</t>
         </is>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AK36" t="inlineStr">
         <is>
           <t>[170.2 175.  178.1 177.7 178.8 175.  172.5 175.8 176.9 173.9 174.1 176.1
  173.8 174.  173.  169.7 178.7 181.1 170.6 180.4 183.7 173.6 175.7 173.9
@@ -10776,7 +10214,7 @@
  172.8 173.6 172.8 171.2]</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AL36" t="inlineStr">
         <is>
           <t>[116.  113.5 122.5 118.2 124.7 122.5 115.  124.3 129.8 124.9 118.2 120.
  122.4 119.4 124.  122.6 123.  117.9 112.3 116.4 120.1 121.4 123.  124.4
@@ -10787,7 +10225,7 @@
  122.9 123.9 120.2 129.2 128.7 119.6 121.8 122.  122.  122.  123.1]</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AM36" t="inlineStr">
         <is>
           <t>[ 84.8  93.   82.2  85.1  82.5  83.4  89.6  88.2  96.8  88.2  86.7  99.2
   87.5  74.6  87.7  86.7  87.5  92.5  81.1  62.   80.7  80.2  85.3 101.9
@@ -10799,7 +10237,7 @@
   76.7  84.   81.   65. ]</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AN36" t="inlineStr">
         <is>
           <t>[58.3 49.5 10.9 68.1 40.8  5.  64.3 58.5  1.  10.   1.3 64.3 10.   4.
  63.1 75.9 66.8 89.  67.7  9.5 80.1 11.  67.1 10.9 62.4 10.  80.4 46.2
@@ -10810,7 +10248,7 @@
  83.3 67.4 78.7 78.4  8.   2.8  2.5  4.8  5.7  7.6]</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AO36" t="inlineStr">
         <is>
           <t>[  3.1  71.5  78.2   5.8  85.6  69.1   1.9   2.6   5.    3.3   3.3   4.
    3.2   2.   69.7  61.2   3.3  66.8   2.7   2.7  53.8  57.9  75.    3.7
@@ -10822,7 +10260,7 @@
   48.2  10.2   1.3  80.3  93.9   1.3   9.5   5.7  64.2   9.5]</t>
         </is>
       </c>
-      <c r="AP38" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>[123.  118.   88.7 110.4 124.5  10.7   7.1   1.4   5.    4.9   9.5  62.4
    6.7 111.  114.7 112.7 102.2 110.3  82.7  98.6 108.1 105.7   2.   81.6
@@ -10834,7 +10272,7 @@
    6.7  10.   92.8  10.2  83.1  89.7   6.   10.    1.3   5.3]</t>
         </is>
       </c>
-      <c r="AQ38" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>[109.4 135.6 204.6 189.   77.8 138.   10.9   2.4  83.9  10.7  89.9 127.8
  114.1   1.9  10.6 110.9 208.9 169.5  83.4  88.5  66.5   2.8 163.7 105.2
@@ -10847,113 +10285,113 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>12.001</v>
-      </c>
-      <c r="B39" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>11.001</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>ngmaforo_ucla_NIST</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://osf.io/ab2zg/download/</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_noFS_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Magnitude</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Nyasha G. Maforo</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>University of California, Los Angeles</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Siemens</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Skyra VE11C</t>
         </is>
       </c>
-      <c r="J39" t="n">
+      <c r="J37" t="n">
         <v>3</v>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L39" t="n">
+      <c r="L37" t="n">
         <v>130</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M37" t="n">
         <v>46</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N37" t="n">
         <v>21.5</v>
       </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr">
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>t2_tse_dark-fluid_cor</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V39" t="n">
+      <c r="V37" t="n">
         <v>2550</v>
       </c>
-      <c r="W39" t="n">
+      <c r="W37" t="n">
         <v>17</v>
       </c>
-      <c r="X39" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2400]</t>
         </is>
       </c>
-      <c r="Y39" t="n">
+      <c r="Y37" t="n">
         <v>283</v>
       </c>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr">
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr">
         <is>
           <t>[1977.3 1884.1 1991.3 1978.9 1846.1 2064.6 2154.7 1972.  1931.1 1912.4
  1870.  2034.4 2275.8 2060.9 2076.7 2030.5 2011.8 1989.5 1853.6 1899.5
@@ -10967,7 +10405,7 @@
  1808.5 2002.  2065.8 2088.6 2151.  2027.8 1988.2]</t>
         </is>
       </c>
-      <c r="AE39" t="inlineStr">
+      <c r="AE37" t="inlineStr">
         <is>
           <t>[1347.8 1389.3 1361.3 1381.9 1383.3 1382.3 1380.  1366.2 1442.2 1368.9
  1320.  1321.8 1359.4 1400.9 1470.9 1436.2 1368.9 1329.7 1369.3 1361.
@@ -10980,7 +10418,7 @@
  1334.7 1390.5 1358.6 1403.3 1390.2 1368.4 1354.2 1373.6]</t>
         </is>
       </c>
-      <c r="AF39" t="inlineStr">
+      <c r="AF37" t="inlineStr">
         <is>
           <t>[ 979.   970.4  946.4  951.8  980.3  994.1  972.3  982.1  982.3  995.4
   993.7  981.8  976.6  998.4  985.1  990.4 1037.1 1024.1 1010.4 1005.7
@@ -10993,7 +10431,7 @@
  1017.5 1014.7  955.   989.1  971.   973.   987.9  975.3]</t>
         </is>
       </c>
-      <c r="AG39" t="inlineStr">
+      <c r="AG37" t="inlineStr">
         <is>
           <t>[742.8 668.2 690.  678.3 680.9 706.3 701.  695.5 699.1 729.2 704.6 698.8
  678.3 664.  742.5 688.  727.6 694.7 676.9 676.9 690.6 708.7 692.4 694.8
@@ -11005,7 +10443,7 @@
  703.3 701.6 683.8 666.2]</t>
         </is>
       </c>
-      <c r="AH39" t="inlineStr">
+      <c r="AH37" t="inlineStr">
         <is>
           <t>[490.1 482.1 454.4 464.4 463.1 456.1 488.1 476.2 473.4 468.9 469.  471.3
  469.4 470.4 476.5 488.1 452.7 473.4 474.3 453.7 441.  451.3 473.7 458.2
@@ -11017,7 +10455,7 @@
  480.4 474.5 467.  474. ]</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AI37" t="inlineStr">
         <is>
           <t>[345.5 318.7 319.  336.8 347.7 333.  346.2 356.  351.7 353.6 347.7 338.7
  337.3 349.6 344.7 341.  332.2 329.7 342.9 357.7 354.7 338.9 346.  349.3
@@ -11030,7 +10468,7 @@
  327.9]</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
+      <c r="AJ37" t="inlineStr">
         <is>
           <t>[256.4 254.9 251.  257.1 260.5 254.7 251.7 249.5 246.5 238.4 239.8 242.7
  235.2 250.7 246.9 246.6 239.5 249.6 249.7 241.  245.6 241.  236.7 250.2
@@ -11042,7 +10480,7 @@
  246.8 246.1 237.9 225.5]</t>
         </is>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AK37" t="inlineStr">
         <is>
           <t>[182.  181.6 182.  184.3 183.7 177.9 178.2 181.2 181.1 183.4 186.  184.2
  190.8 177.1 181.8 173.5 190.  165.1 173.8 181.  162.6 172.8 187.3 173.5
@@ -11054,7 +10492,7 @@
  187.3 178.9 185.  180.2]</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AL37" t="inlineStr">
         <is>
           <t>[199.4 179.3 185.2 226.7 142.2 121.  202.2 121.5 231.  194.2 190.6 190.3
  203.4 202.7 224.9 123.  214.5 206.4 183.  203.2 208.  189.3 195.3 188.1
@@ -11066,7 +10504,7 @@
  171.9 157.2 173.4 187.9]</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AM37" t="inlineStr">
         <is>
           <t>[114.9 136.4 128.9 135.2 147.2 136.1 133.1 144.5 136.3  98.8 105.6 129.4
  142.9 154.3 126.4 113.3   4.  116.4 132.3 132.7 124.8 104.7  95.  126.3
@@ -11078,7 +10516,7 @@
   92.8  79.2  85.1  81.1]</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AN37" t="inlineStr">
         <is>
           <t>[107.1 113.7 126.7 134.4  76.6   2.   91.7  90.2 113.6  75.6 121.4  84.9
  106.8 111.7 117.4 111.  138.1  95.9  86.7 140.3 115.4 128.3 142.4  74.2
@@ -11090,7 +10528,7 @@
  129.9 121.3 104.8 128.6 141.2 122.  116.1 130.6 115.8 108.9]</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AO37" t="inlineStr">
         <is>
           <t>[165.7 148.  153.6  95.4 139.5 126.  137.4 119.  120.2 123.9   3.2 103.4
    1.8 119.9   1.3  88.3 116.9 116.   78.3 120.4 139.  109.9 136.  104.5
@@ -11103,7 +10541,7 @@
  127.8  78.1 109.3 124.6 120.2   1.1 154.8 118.   86.9]</t>
         </is>
       </c>
-      <c r="AP39" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>[133.1 146.7 193.  171.7 168.5 153.2 229.7 234.3 159.1 129.2 105.1 145.9
  173.9 166.2 224.4 158.4  99.7 126.3 139.3 164.2  84.7  55.7 193.4 147.4
@@ -11116,7 +10554,7 @@
    1.2   2.5 140.5  95.  179.5  96.2 155.1 166.2  86.5]</t>
         </is>
       </c>
-      <c r="AQ39" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>[236.1 219.  245.  306.2 119.   65.  262.5 212.9 224.1 114.9 165.2 188.3
  120.  335.1 196.  149.1 320.9 103.9   1.3 122.2 369.3 300.6 242.1 204.9
@@ -11129,113 +10567,113 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>12.002</v>
-      </c>
-      <c r="B40" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>11.002</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>ngmaforo_ucla_NIST</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://osf.io/ab2zg/download/</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>20200305_ngmaforo_ucla_NIST/20200305_ngmaforo_ucla_Skyra_FS_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Magnitude</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Nyasha G. Maforo</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>University of California, Los Angeles</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Siemens</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Skyra VE11C</t>
         </is>
       </c>
-      <c r="J40" t="n">
+      <c r="J38" t="n">
         <v>3</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L40" t="n">
+      <c r="L38" t="n">
         <v>130</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M38" t="n">
         <v>46</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N38" t="n">
         <v>21.5</v>
       </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>t2_tse_dark-fluid_cor</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V40" t="n">
+      <c r="V38" t="n">
         <v>2550</v>
       </c>
-      <c r="W40" t="n">
+      <c r="W38" t="n">
         <v>17</v>
       </c>
-      <c r="X40" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2400]</t>
         </is>
       </c>
-      <c r="Y40" t="n">
+      <c r="Y38" t="n">
         <v>283</v>
       </c>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr">
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr">
         <is>
           <t>[2142.4 1891.8 1829.4 1964.1 2091.6 1959.9 2089.3 1982.7 1905.1 1951.5
  1901.5 1963.  2050.3 1972.2 2085.9 1901.4 1930.1 2018.1 1959.3 2041.6
@@ -11249,7 +10687,7 @@
  2037.9 1940.  2018.1 1889.9 1933.3 1907.2 2004.8]</t>
         </is>
       </c>
-      <c r="AE40" t="inlineStr">
+      <c r="AE38" t="inlineStr">
         <is>
           <t>[1304.9 1346.3 1400.1 1396.6 1367.2 1357.5 1279.1 1395.9 1436.  1366.4
  1332.5 1334.6 1377.5 1421.6 1440.4 1351.3 1388.1 1328.5 1329.9 1334.9
@@ -11262,7 +10700,7 @@
  1339.  1331.2 1402.8 1418.4 1437.9 1359.3 1285.6 1336.8]</t>
         </is>
       </c>
-      <c r="AF40" t="inlineStr">
+      <c r="AF38" t="inlineStr">
         <is>
           <t>[ 967.6 1000.8  954.7  963.1 1002.2  964.4  977.5  945.9  993.7  987.5
  1003.7  966.1  941.1  939.1  993.3 1001.5  997.4  999.5 1005.2 1018.5
@@ -11275,7 +10713,7 @@
  1014.9  996.7  982.8  968.5  983.7 1005.4 1007.9  980.9]</t>
         </is>
       </c>
-      <c r="AG40" t="inlineStr">
+      <c r="AG38" t="inlineStr">
         <is>
           <t>[712.6 681.5 674.8 667.2 679.1 700.4 708.4 690.1 710.4 701.7 695.3 709.
  688.7 682.7 709.8 695.9 720.2 678.2 678.1 689.4 667.6 686.7 704.4 699.
@@ -11287,7 +10725,7 @@
  689.4 703.1 690.2 673.5]</t>
         </is>
       </c>
-      <c r="AH40" t="inlineStr">
+      <c r="AH38" t="inlineStr">
         <is>
           <t>[491.5 481.6 461.4 459.6 453.4 448.5 492.4 481.2 467.2 469.5 470.6 470.5
  460.4 463.5 474.  509.2 464.7 479.4 470.8 457.9 456.4 449.  465.9 449.8
@@ -11299,7 +10737,7 @@
  472.3 464.9 474.1 468.3]</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
+      <c r="AI38" t="inlineStr">
         <is>
           <t>[345.3 342.5 343.3 337.3 342.4 339.7 341.6 341.5 336.4 337.5 349.4 348.5
  344.  324.9 333.9 353.4 341.2 338.1 340.4 359.5 353.9 345.2 340.4 340.3
@@ -11312,7 +10750,7 @@
  340.7]</t>
         </is>
       </c>
-      <c r="AJ40" t="inlineStr">
+      <c r="AJ38" t="inlineStr">
         <is>
           <t>[241.5 243.8 236.3 235.7 238.9 254.  242.6 250.5 247.  246.1 246.1 240.5
  236.1 256.9 242.3 251.1 234.6 226.2 232.3 231.2 242.2 252.9 239.1 258.7
@@ -11324,7 +10762,7 @@
  221.9 237.6 247.8 240.4]</t>
         </is>
       </c>
-      <c r="AK40" t="inlineStr">
+      <c r="AK38" t="inlineStr">
         <is>
           <t>[196.5 191.  187.4 188.5 181.5 171.  193.1 169.  170.1 179.1 173.5 177.7
  188.6 166.8 195.1 174.4 179.3 183.7 184.9 192.4 176.3 178.2 181.1 179.1
@@ -11336,7 +10774,7 @@
  171.9 169.3 181.  191.9]</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AL38" t="inlineStr">
         <is>
           <t>[220.9 207.4 197.3 182.4 185.3 191.7 208.2 177.5 197.3 195.  195.5 125.6
  201.2 204.9 198.1 196.6 179.2 226.9 183.5 198.5 214.3 128.4 217.8 112.4
@@ -11348,7 +10786,7 @@
  204.5 205.6 189.5 213.1]</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AM38" t="inlineStr">
         <is>
           <t>[128.1 103.5 134.1 110.2 121.6 152.1  81.7 105.4  94.3 122.5 134.6  97.3
  117.1 137.7  83.9 122.6 129.  105.2  95.2  98.  129.3 108.2 100.6 134.5
@@ -11360,7 +10798,7 @@
  100.  108.7 114.9   3.6]</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AN38" t="inlineStr">
         <is>
           <t>[  8.3  71.5  85.6 103.1 120.5 105.4 113.4  95.   68.3   9.5 128.8 117.
    9.1  95.4 120.4   1.8 107.5 120.5  72.7 106.2 130.9  92.5  90.5 106.6
@@ -11372,7 +10810,7 @@
  131.3 110.6 126.4  89.4 116.3 119.6 143.  134.  113.1 118.5]</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AO38" t="inlineStr">
         <is>
           <t>[  9.8 141.8 128.1 110.9 104.4  56.2  92.3 111.9 127.2  87.5 140.7 131.
   94.  123.5 139.5  90.1 102.5   1.2 126.9  91.7 147.3   1.1  10.3 176.6
@@ -11384,7 +10822,7 @@
  147.8 133.   89.9 129.2 159.6 141.8  96.5 185.9 140.7 124.1]</t>
         </is>
       </c>
-      <c r="AP40" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>[223.2 178.7 125.  141.8 156.5 164.6 157.6 153.  121.7  69.9 110.1 112.8
  132.9 116.3  96.  172.8  84.3 121.2   4.  174.6 108.2   1.6 147.4  94.2
@@ -11396,7 +10834,7 @@
  216.4 177.7  97.  163.3 121.7 159.4  39.4 130.6 186.5  89.7]</t>
         </is>
       </c>
-      <c r="AQ40" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>[184.  220.6  99.5 170.7 599.  113.5 103.1 105.6 121.3  58.2 234.8 136.4
  108.5 219.4 316.9   3.  269.5  40.2 161.8 398.6 118.1 332.  248.4 254.9
@@ -11409,113 +10847,113 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>13.001</v>
-      </c>
-      <c r="B41" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>12.001</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>near_douglas_NIST</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>https://osf.io/qr6w2/download/</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>20200309_near_douglas_NIST/20200309_near_douglas_NIST_Magnitude_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Magnitude</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Jamie Near</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Douglas Brain Imaging Centre</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Siemens</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Prisma fit</t>
         </is>
       </c>
-      <c r="J41" t="n">
+      <c r="J39" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L41" t="n">
+      <c r="L39" t="n">
         <v>130</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M39" t="n">
         <v>42</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N39" t="n">
         <v>22</v>
       </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>t2_tse_dark-fluid_cor</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V41" t="n">
+      <c r="V39" t="n">
         <v>2550</v>
       </c>
-      <c r="W41" t="n">
+      <c r="W39" t="n">
         <v>16</v>
       </c>
-      <c r="X41" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2400]</t>
         </is>
       </c>
-      <c r="Y41" t="n">
+      <c r="Y39" t="n">
         <v>287</v>
       </c>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr">
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>[1913.  1894.  1909.  1917.9 1930.1 1862.5 1906.3 1947.2 1954.6 1932.1
  1943.4 1981.6 1871.  1933.6 1976.8 1949.2 1978.8 1981.9 1932.1 1921.2
@@ -11529,7 +10967,7 @@
  1895.5 1950.5 2010.  1965.1 1938.4 1962.8 1910.7]</t>
         </is>
       </c>
-      <c r="AE41" t="inlineStr">
+      <c r="AE39" t="inlineStr">
         <is>
           <t>[1447.3 1379.5 1323.3 1331.5 1375.5 1435.8 1428.1 1271.1 1307.7 1371.8
  1362.2 1354.5 1313.4 1428.1 1416.4 1278.  1372.1 1377.3 1368.7 1371.7
@@ -11542,7 +10980,7 @@
  1351.3 1385.6 1360.4 1360.6 1325.3 1314.2 1328.5 1376.6]</t>
         </is>
       </c>
-      <c r="AF41" t="inlineStr">
+      <c r="AF39" t="inlineStr">
         <is>
           <t>[842.8 819.5 817.1 819.7 828.9 850.6 825.2 821.9 836.9 841.9 837.4 827.2
  815.4 824.6 836.6 844.8 836.6 824.3 821.9 827.  836.1 852.4 816.7 843.9
@@ -11554,7 +10992,7 @@
  860.8 856.4 853.8 828.1]</t>
         </is>
       </c>
-      <c r="AG41" t="inlineStr">
+      <c r="AG39" t="inlineStr">
         <is>
           <t>[432.2 432.  433.6 432.8 433.8 437.1 440.4 437.4 434.1 432.5 433.3 435.2
  598.8 432.  442.6 435.  432.9 438.1 437.3 436.5 436.  432.9 606.2 431.1
@@ -11566,7 +11004,7 @@
  604.7 604.4 618.2 427.5]</t>
         </is>
       </c>
-      <c r="AH41" t="inlineStr">
+      <c r="AH39" t="inlineStr">
         <is>
           <t>[418.2 409.6 411.2 413.1 411.9 417.9 419.4 419.  425.8 424.7 427.4 431.8
  426.  415.1 429.3 422.9 429.  417.7 419.9 422.  417.7 424.4 428.  419.3
@@ -11578,7 +11016,7 @@
  437.6 422.6 426.3 430.9 426.1 422.5 417.5 436.3 431.5]</t>
         </is>
       </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AI39" t="inlineStr">
         <is>
           <t>[309.3 315.5 310.8 307.3 309.3 318.7 327.2 309.3 307.3 303.5 304.9 301.2
  321.  329.6 304.6 316.3 311.7 311.3 314.  312.6 306.  303.5 337.2 309.
@@ -11591,7 +11029,7 @@
  297.5]</t>
         </is>
       </c>
-      <c r="AJ41" t="inlineStr">
+      <c r="AJ39" t="inlineStr">
         <is>
           <t>[209.4 225.1 226.  216.  212.5 211.6 208.6 231.2 218.8 208.1 208.6 211.7
  210.1 204.9 220.  233.3 224.5 214.5 225.2 217.8 219.2 215.3 215.1 216.3
@@ -11603,7 +11041,7 @@
  211.7 208.8 210.3 209.6]</t>
         </is>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AK39" t="inlineStr">
         <is>
           <t>[148.3 151.5 152.7 142.9 137.6 136.5 144.3 156.1 150.7 131.6 131.4 135.1
  134.5 129.4 167.1 154.5 157.3 127.4 141.9 144.1 138.8 136.7 142.7 140.1
@@ -11615,7 +11053,7 @@
  129.2 134.4 137.6 134.3]</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AL39" t="inlineStr">
         <is>
           <t>[250.9 204.6 129.6 128.  125.5 126.5 230.9 120.1 118.8 112.3 100.3  94.7
   98.1 111.6 251.7 115.9 125.1 108.4  85.3  85.8  91.6  88.3  87.  104.1
@@ -11627,7 +11065,7 @@
   93.4  64.8  89.6  99.6  70.4  97.4  79.3  74.5   2.7]</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AM39" t="inlineStr">
         <is>
           <t>[139.4 152.2 154.2 159.  162.9 157.5 148.6 151.6 138.2 130.5 123.1 130.4
  144.2 158.2 133.2  98.3 123.4 126.5 141.6 132.9 139.8 133.9 130.3 162.
@@ -11639,7 +11077,7 @@
  117.7 114.3 116.3 116.5]</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AN39" t="inlineStr">
         <is>
           <t>[113.2 126.1 125.9 116.3 131.9 122.4 109.9 102.2 100.1 105.3 129.7 130.4
  100.2  95.3 106.7 106.9 111.3 101.2 104.5 112.3 143.8 103.4 107.8 114.8
@@ -11651,7 +11089,7 @@
  121.4 121.4 112.1 119.4 123.7 124.  114.4 117.2 122.2 120.3]</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AO39" t="inlineStr">
         <is>
           <t>[1.223e+02 1.937e+02 1.782e+02 1.397e+02 1.577e+02 1.446e+03 2.899e+02
  1.344e+02 1.728e+02 5.600e+01 1.551e+02 1.615e+02 1.529e+02 8.105e+02
@@ -11669,7 +11107,7 @@
  1.431e+02 1.458e+02 1.405e+02]</t>
         </is>
       </c>
-      <c r="AP41" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>[185.  170.3 163.8 173.2 205.9 181.5 151.3 148.9 156.2 138.9 157.2 186.9
  184.5 140.6 127.2 149.2 152.8 148.8 157.2 152.9 143.2 194.  144.8 167.2
@@ -11681,7 +11119,7 @@
  158.1 176.3 179.4 177.5 167.2 150.5 101.8 167.1 168.3 109.1]</t>
         </is>
       </c>
-      <c r="AQ41" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>[250.1 196.8 158.8 246.5 248.8 162.2 194.1 233.4 255.8 209.7 431.2 230.
  197.6 249.3 247.  152.5 181.4 205.3 229.1 318.6 213.5 254.6 219.5 190.4
@@ -11694,126 +11132,126 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>14.001</v>
-      </c>
-      <c r="B42" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>13.001</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>jalnefjord_sahlgrenska_NIST</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://osf.io/tw6eq/download/</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>20201802_jalnefjord_sahlgrenska_NIST/20201802_jalnefjord_sahlgrenska_NIST_Complex_T1map.nii.gz</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Complex</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Oscar Jalnefjord</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Philips</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Achieva dStream 5.6.1</t>
         </is>
       </c>
-      <c r="J42" t="n">
+      <c r="J40" t="n">
         <v>3</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>NIST</t>
         </is>
       </c>
-      <c r="L42" t="n">
+      <c r="L40" t="n">
         <v>130</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M40" t="n">
         <v>103</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N40" t="n">
         <v>21.7</v>
       </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>IR</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Spin-echo inversion recovery</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>['256 256 1']</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>['1 1 2']</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>2D</t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="V40" t="n">
         <v>2550</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W40" t="n">
         <v>14</v>
       </c>
-      <c r="X42" t="inlineStr">
+      <c r="X40" t="inlineStr">
         <is>
           <t>[50, 400, 1100, 2500]</t>
         </is>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y40" t="n">
         <v>435</v>
       </c>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
